--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -7424,10 +7424,10 @@
         <v>1771</v>
       </c>
       <c r="AB77" t="n">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="AC77" t="n">
-        <v>163449</v>
+        <v>163508</v>
       </c>
     </row>
     <row r="78">
@@ -7449,7 +7449,7 @@
         <v>12919</v>
       </c>
       <c r="F78" t="n">
-        <v>5808</v>
+        <v>5816</v>
       </c>
       <c r="G78" t="n">
         <v>17599</v>
@@ -7464,7 +7464,7 @@
         <v>1100</v>
       </c>
       <c r="K78" t="n">
-        <v>8144</v>
+        <v>8526</v>
       </c>
       <c r="L78" t="n">
         <v>545</v>
@@ -7482,13 +7482,13 @@
         <v>2525</v>
       </c>
       <c r="Q78" t="n">
-        <v>1859</v>
+        <v>1873</v>
       </c>
       <c r="R78" t="n">
         <v>13768</v>
       </c>
       <c r="S78" t="n">
-        <v>1332</v>
+        <v>1443</v>
       </c>
       <c r="T78" t="n">
         <v>17939</v>
@@ -7500,10 +7500,10 @@
         <v>2808</v>
       </c>
       <c r="W78" t="n">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="X78" t="n">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="Y78" t="n">
         <v>3529</v>
@@ -7518,7 +7518,7 @@
         <v>747</v>
       </c>
       <c r="AC78" t="n">
-        <v>169099</v>
+        <v>169649</v>
       </c>
     </row>
   </sheetData>
@@ -14597,10 +14597,10 @@
         <v>34</v>
       </c>
       <c r="AB77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC77" t="n">
-        <v>11174</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="78">
@@ -14637,7 +14637,7 @@
         <v>49</v>
       </c>
       <c r="K78" t="n">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="L78" t="n">
         <v>19</v>
@@ -14655,7 +14655,7 @@
         <v>139</v>
       </c>
       <c r="Q78" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R78" t="n">
         <v>1087</v>
@@ -14676,7 +14676,7 @@
         <v>47</v>
       </c>
       <c r="X78" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y78" t="n">
         <v>69</v>
@@ -14691,7 +14691,7 @@
         <v>12</v>
       </c>
       <c r="AC78" t="n">
-        <v>11631</v>
+        <v>11660</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,7 +7449,7 @@
         <v>12919</v>
       </c>
       <c r="F78" t="n">
-        <v>5816</v>
+        <v>5808</v>
       </c>
       <c r="G78" t="n">
         <v>17599</v>
@@ -7503,7 +7503,7 @@
         <v>1398</v>
       </c>
       <c r="X78" t="n">
-        <v>1328</v>
+        <v>1295</v>
       </c>
       <c r="Y78" t="n">
         <v>3529</v>
@@ -7518,7 +7518,98 @@
         <v>747</v>
       </c>
       <c r="AC78" t="n">
-        <v>169649</v>
+        <v>169608</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2580</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2910</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14168</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6204</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18412</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2979</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5087</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1115</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8526</v>
+      </c>
+      <c r="L79" t="n">
+        <v>604</v>
+      </c>
+      <c r="M79" t="n">
+        <v>405</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3435</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9059</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2777</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1906</v>
+      </c>
+      <c r="R79" t="n">
+        <v>14309</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1443</v>
+      </c>
+      <c r="T79" t="n">
+        <v>18486</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2033</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2917</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1460</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1328</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3733</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>47719</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>2032</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>828</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>178045</v>
       </c>
     </row>
   </sheetData>
@@ -7532,7 +7623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14649,7 +14740,7 @@
         <v>121</v>
       </c>
       <c r="O78" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P78" t="n">
         <v>139</v>
@@ -14676,7 +14767,7 @@
         <v>47</v>
       </c>
       <c r="X78" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="n">
         <v>69</v>
@@ -14691,7 +14782,98 @@
         <v>12</v>
       </c>
       <c r="AC78" t="n">
-        <v>11660</v>
+        <v>11656</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>51</v>
+      </c>
+      <c r="C79" t="n">
+        <v>150</v>
+      </c>
+      <c r="D79" t="n">
+        <v>86</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1098</v>
+      </c>
+      <c r="F79" t="n">
+        <v>225</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H79" t="n">
+        <v>46</v>
+      </c>
+      <c r="I79" t="n">
+        <v>212</v>
+      </c>
+      <c r="J79" t="n">
+        <v>52</v>
+      </c>
+      <c r="K79" t="n">
+        <v>423</v>
+      </c>
+      <c r="L79" t="n">
+        <v>19</v>
+      </c>
+      <c r="M79" t="n">
+        <v>12</v>
+      </c>
+      <c r="N79" t="n">
+        <v>127</v>
+      </c>
+      <c r="O79" t="n">
+        <v>914</v>
+      </c>
+      <c r="P79" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>114</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1157</v>
+      </c>
+      <c r="S79" t="n">
+        <v>49</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1928</v>
+      </c>
+      <c r="U79" t="n">
+        <v>93</v>
+      </c>
+      <c r="V79" t="n">
+        <v>111</v>
+      </c>
+      <c r="W79" t="n">
+        <v>50</v>
+      </c>
+      <c r="X79" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>3949</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>12451</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7494,7 +7494,7 @@
         <v>17939</v>
       </c>
       <c r="U78" t="n">
-        <v>1989</v>
+        <v>2032</v>
       </c>
       <c r="V78" t="n">
         <v>2808</v>
@@ -7515,10 +7515,10 @@
         <v>1800</v>
       </c>
       <c r="AB78" t="n">
-        <v>747</v>
+        <v>828</v>
       </c>
       <c r="AC78" t="n">
-        <v>169608</v>
+        <v>169732</v>
       </c>
     </row>
     <row r="79">
@@ -7540,7 +7540,7 @@
         <v>14168</v>
       </c>
       <c r="F79" t="n">
-        <v>6204</v>
+        <v>6205</v>
       </c>
       <c r="G79" t="n">
         <v>18412</v>
@@ -7555,7 +7555,7 @@
         <v>1115</v>
       </c>
       <c r="K79" t="n">
-        <v>8526</v>
+        <v>9112</v>
       </c>
       <c r="L79" t="n">
         <v>604</v>
@@ -7573,19 +7573,19 @@
         <v>2777</v>
       </c>
       <c r="Q79" t="n">
-        <v>1906</v>
+        <v>1930</v>
       </c>
       <c r="R79" t="n">
         <v>14309</v>
       </c>
       <c r="S79" t="n">
-        <v>1443</v>
+        <v>1612</v>
       </c>
       <c r="T79" t="n">
         <v>18486</v>
       </c>
       <c r="U79" t="n">
-        <v>2033</v>
+        <v>2365</v>
       </c>
       <c r="V79" t="n">
         <v>2917</v>
@@ -7594,7 +7594,7 @@
         <v>1460</v>
       </c>
       <c r="X79" t="n">
-        <v>1328</v>
+        <v>1411</v>
       </c>
       <c r="Y79" t="n">
         <v>3733</v>
@@ -7606,10 +7606,192 @@
         <v>2032</v>
       </c>
       <c r="AB79" t="n">
-        <v>828</v>
+        <v>932</v>
       </c>
       <c r="AC79" t="n">
-        <v>178045</v>
+        <v>179344</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2761</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3005</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15816</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6549</v>
+      </c>
+      <c r="G80" t="n">
+        <v>19156</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3192</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5401</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1225</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9801</v>
+      </c>
+      <c r="L80" t="n">
+        <v>673</v>
+      </c>
+      <c r="M80" t="n">
+        <v>430</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3733</v>
+      </c>
+      <c r="O80" t="n">
+        <v>10344</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3045</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="R80" t="n">
+        <v>14901</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1784</v>
+      </c>
+      <c r="T80" t="n">
+        <v>18728</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2367</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2997</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1612</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1411</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3828</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>51097</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>2268</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>932</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>190773</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2972</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3428</v>
+      </c>
+      <c r="E81" t="n">
+        <v>17181</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6955</v>
+      </c>
+      <c r="G81" t="n">
+        <v>21077</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3416</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5813</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1430</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9801</v>
+      </c>
+      <c r="L81" t="n">
+        <v>719</v>
+      </c>
+      <c r="M81" t="n">
+        <v>452</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3950</v>
+      </c>
+      <c r="O81" t="n">
+        <v>11479</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3361</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2063</v>
+      </c>
+      <c r="R81" t="n">
+        <v>15588</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1784</v>
+      </c>
+      <c r="T81" t="n">
+        <v>19467</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2537</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3101</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1686</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>4332</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>54286</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>2494</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1029</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>203641</v>
       </c>
     </row>
   </sheetData>
@@ -7623,7 +7805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14758,7 +14940,7 @@
         <v>1770</v>
       </c>
       <c r="U78" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V78" t="n">
         <v>105</v>
@@ -14779,10 +14961,10 @@
         <v>37</v>
       </c>
       <c r="AB78" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>11656</v>
+        <v>11659</v>
       </c>
     </row>
     <row r="79">
@@ -14819,10 +15001,10 @@
         <v>52</v>
       </c>
       <c r="K79" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="L79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M79" t="n">
         <v>12</v>
@@ -14831,25 +15013,25 @@
         <v>127</v>
       </c>
       <c r="O79" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P79" t="n">
         <v>154</v>
       </c>
       <c r="Q79" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R79" t="n">
         <v>1157</v>
       </c>
       <c r="S79" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T79" t="n">
         <v>1928</v>
       </c>
       <c r="U79" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="V79" t="n">
         <v>111</v>
@@ -14858,7 +15040,7 @@
         <v>50</v>
       </c>
       <c r="X79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y79" t="n">
         <v>73</v>
@@ -14870,10 +15052,192 @@
         <v>37</v>
       </c>
       <c r="AB79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>12502</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>52</v>
+      </c>
+      <c r="C80" t="n">
+        <v>164</v>
+      </c>
+      <c r="D80" t="n">
+        <v>94</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F80" t="n">
+        <v>236</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1389</v>
+      </c>
+      <c r="H80" t="n">
+        <v>48</v>
+      </c>
+      <c r="I80" t="n">
+        <v>233</v>
+      </c>
+      <c r="J80" t="n">
+        <v>61</v>
+      </c>
+      <c r="K80" t="n">
+        <v>470</v>
+      </c>
+      <c r="L80" t="n">
+        <v>21</v>
+      </c>
+      <c r="M80" t="n">
+        <v>13</v>
+      </c>
+      <c r="N80" t="n">
+        <v>135</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1021</v>
+      </c>
+      <c r="P80" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>120</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1224</v>
+      </c>
+      <c r="S80" t="n">
+        <v>60</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2050</v>
+      </c>
+      <c r="U80" t="n">
+        <v>105</v>
+      </c>
+      <c r="V80" t="n">
+        <v>120</v>
+      </c>
+      <c r="W80" t="n">
+        <v>50</v>
+      </c>
+      <c r="X80" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>4118</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>13266</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>55</v>
+      </c>
+      <c r="C81" t="n">
+        <v>177</v>
+      </c>
+      <c r="D81" t="n">
+        <v>101</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1235</v>
+      </c>
+      <c r="F81" t="n">
+        <v>262</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1413</v>
+      </c>
+      <c r="H81" t="n">
+        <v>51</v>
+      </c>
+      <c r="I81" t="n">
+        <v>249</v>
+      </c>
+      <c r="J81" t="n">
+        <v>64</v>
+      </c>
+      <c r="K81" t="n">
+        <v>470</v>
+      </c>
+      <c r="L81" t="n">
+        <v>23</v>
+      </c>
+      <c r="M81" t="n">
         <v>14</v>
       </c>
-      <c r="AC79" t="n">
-        <v>12451</v>
+      <c r="N81" t="n">
+        <v>139</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1095</v>
+      </c>
+      <c r="P81" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>119</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1298</v>
+      </c>
+      <c r="S81" t="n">
+        <v>60</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2247</v>
+      </c>
+      <c r="U81" t="n">
+        <v>117</v>
+      </c>
+      <c r="V81" t="n">
+        <v>126</v>
+      </c>
+      <c r="W81" t="n">
+        <v>56</v>
+      </c>
+      <c r="X81" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>4315</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>14031</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7403,7 +7403,7 @@
         <v>17062</v>
       </c>
       <c r="U77" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="V77" t="n">
         <v>2576</v>
@@ -7427,7 +7427,7 @@
         <v>747</v>
       </c>
       <c r="AC77" t="n">
-        <v>163508</v>
+        <v>163509</v>
       </c>
     </row>
     <row r="78">
@@ -7676,7 +7676,7 @@
         <v>18728</v>
       </c>
       <c r="U80" t="n">
-        <v>2367</v>
+        <v>2536</v>
       </c>
       <c r="V80" t="n">
         <v>2997</v>
@@ -7697,10 +7697,10 @@
         <v>2268</v>
       </c>
       <c r="AB80" t="n">
-        <v>932</v>
+        <v>1029</v>
       </c>
       <c r="AC80" t="n">
-        <v>190773</v>
+        <v>191039</v>
       </c>
     </row>
     <row r="81">
@@ -7722,7 +7722,7 @@
         <v>17181</v>
       </c>
       <c r="F81" t="n">
-        <v>6955</v>
+        <v>6956</v>
       </c>
       <c r="G81" t="n">
         <v>21077</v>
@@ -7734,13 +7734,13 @@
         <v>5813</v>
       </c>
       <c r="J81" t="n">
-        <v>1430</v>
+        <v>1460</v>
       </c>
       <c r="K81" t="n">
-        <v>9801</v>
+        <v>10739</v>
       </c>
       <c r="L81" t="n">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="M81" t="n">
         <v>452</v>
@@ -7755,13 +7755,13 @@
         <v>3361</v>
       </c>
       <c r="Q81" t="n">
-        <v>2063</v>
+        <v>2091</v>
       </c>
       <c r="R81" t="n">
         <v>15588</v>
       </c>
       <c r="S81" t="n">
-        <v>1784</v>
+        <v>1905</v>
       </c>
       <c r="T81" t="n">
         <v>19467</v>
@@ -7791,7 +7791,98 @@
         <v>1029</v>
       </c>
       <c r="AC81" t="n">
-        <v>203641</v>
+        <v>204774</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3212</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3630</v>
+      </c>
+      <c r="E82" t="n">
+        <v>18392</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8128</v>
+      </c>
+      <c r="G82" t="n">
+        <v>23059</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3861</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6198</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1605</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11592</v>
+      </c>
+      <c r="L82" t="n">
+        <v>792</v>
+      </c>
+      <c r="M82" t="n">
+        <v>479</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4196</v>
+      </c>
+      <c r="O82" t="n">
+        <v>12626</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3739</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2139</v>
+      </c>
+      <c r="R82" t="n">
+        <v>16209</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2085</v>
+      </c>
+      <c r="T82" t="n">
+        <v>19987</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2786</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3707</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1789</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1701</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>4562</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>58378</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>2868</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>220685</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +7896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15122,7 +15213,7 @@
         <v>2050</v>
       </c>
       <c r="U80" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="V80" t="n">
         <v>120</v>
@@ -15143,10 +15234,10 @@
         <v>42</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC80" t="n">
-        <v>13266</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="81">
@@ -15180,13 +15271,13 @@
         <v>249</v>
       </c>
       <c r="J81" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K81" t="n">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="L81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M81" t="n">
         <v>14</v>
@@ -15195,13 +15286,13 @@
         <v>139</v>
       </c>
       <c r="O81" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P81" t="n">
         <v>160</v>
       </c>
       <c r="Q81" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R81" t="n">
         <v>1298</v>
@@ -15237,7 +15328,98 @@
         <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>14031</v>
+        <v>14063</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>57</v>
+      </c>
+      <c r="C82" t="n">
+        <v>187</v>
+      </c>
+      <c r="D82" t="n">
+        <v>103</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1331</v>
+      </c>
+      <c r="F82" t="n">
+        <v>281</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1556</v>
+      </c>
+      <c r="H82" t="n">
+        <v>55</v>
+      </c>
+      <c r="I82" t="n">
+        <v>260</v>
+      </c>
+      <c r="J82" t="n">
+        <v>67</v>
+      </c>
+      <c r="K82" t="n">
+        <v>524</v>
+      </c>
+      <c r="L82" t="n">
+        <v>26</v>
+      </c>
+      <c r="M82" t="n">
+        <v>14</v>
+      </c>
+      <c r="N82" t="n">
+        <v>146</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1175</v>
+      </c>
+      <c r="P82" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>121</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1381</v>
+      </c>
+      <c r="S82" t="n">
+        <v>65</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2438</v>
+      </c>
+      <c r="U82" t="n">
+        <v>122</v>
+      </c>
+      <c r="V82" t="n">
+        <v>132</v>
+      </c>
+      <c r="W82" t="n">
+        <v>62</v>
+      </c>
+      <c r="X82" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4501</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>14976</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC82"/>
+  <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7767,7 +7767,7 @@
         <v>19467</v>
       </c>
       <c r="U81" t="n">
-        <v>2537</v>
+        <v>2785</v>
       </c>
       <c r="V81" t="n">
         <v>3101</v>
@@ -7788,10 +7788,10 @@
         <v>2494</v>
       </c>
       <c r="AB81" t="n">
-        <v>1029</v>
+        <v>1179</v>
       </c>
       <c r="AC81" t="n">
-        <v>204774</v>
+        <v>205172</v>
       </c>
     </row>
     <row r="82">
@@ -7813,13 +7813,13 @@
         <v>18392</v>
       </c>
       <c r="F82" t="n">
-        <v>8128</v>
+        <v>8130</v>
       </c>
       <c r="G82" t="n">
         <v>23059</v>
       </c>
       <c r="H82" t="n">
-        <v>3861</v>
+        <v>3787</v>
       </c>
       <c r="I82" t="n">
         <v>6198</v>
@@ -7831,7 +7831,7 @@
         <v>11592</v>
       </c>
       <c r="L82" t="n">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="M82" t="n">
         <v>479</v>
@@ -7840,13 +7840,13 @@
         <v>4196</v>
       </c>
       <c r="O82" t="n">
-        <v>12626</v>
+        <v>12638</v>
       </c>
       <c r="P82" t="n">
         <v>3739</v>
       </c>
       <c r="Q82" t="n">
-        <v>2139</v>
+        <v>2167</v>
       </c>
       <c r="R82" t="n">
         <v>16209</v>
@@ -7861,13 +7861,13 @@
         <v>2786</v>
       </c>
       <c r="V82" t="n">
-        <v>3707</v>
+        <v>3695</v>
       </c>
       <c r="W82" t="n">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="X82" t="n">
-        <v>1701</v>
+        <v>1589</v>
       </c>
       <c r="Y82" t="n">
         <v>4562</v>
@@ -7879,10 +7879,101 @@
         <v>2868</v>
       </c>
       <c r="AB82" t="n">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AC82" t="n">
-        <v>220685</v>
+        <v>220520</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3593</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3834</v>
+      </c>
+      <c r="E83" t="n">
+        <v>19677</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8314</v>
+      </c>
+      <c r="G83" t="n">
+        <v>23795</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4140</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6595</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1652</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11592</v>
+      </c>
+      <c r="L83" t="n">
+        <v>857</v>
+      </c>
+      <c r="M83" t="n">
+        <v>508</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4474</v>
+      </c>
+      <c r="O83" t="n">
+        <v>13464</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4063</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2242</v>
+      </c>
+      <c r="R83" t="n">
+        <v>18488</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2085</v>
+      </c>
+      <c r="T83" t="n">
+        <v>21601</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3004</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3734</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1919</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1706</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>4678</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>61183</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3135</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1279</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>233479</v>
       </c>
     </row>
   </sheetData>
@@ -7896,7 +7987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC82"/>
+  <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15304,7 +15395,7 @@
         <v>2247</v>
       </c>
       <c r="U81" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="V81" t="n">
         <v>126</v>
@@ -15325,10 +15416,10 @@
         <v>47</v>
       </c>
       <c r="AB81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC81" t="n">
-        <v>14063</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="82">
@@ -15353,7 +15444,7 @@
         <v>281</v>
       </c>
       <c r="G82" t="n">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="H82" t="n">
         <v>55</v>
@@ -15377,13 +15468,13 @@
         <v>146</v>
       </c>
       <c r="O82" t="n">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="P82" t="n">
         <v>170</v>
       </c>
       <c r="Q82" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R82" t="n">
         <v>1381</v>
@@ -15404,7 +15495,7 @@
         <v>62</v>
       </c>
       <c r="X82" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Y82" t="n">
         <v>79</v>
@@ -15419,7 +15510,98 @@
         <v>24</v>
       </c>
       <c r="AC82" t="n">
-        <v>14976</v>
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>59</v>
+      </c>
+      <c r="C83" t="n">
+        <v>199</v>
+      </c>
+      <c r="D83" t="n">
+        <v>108</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F83" t="n">
+        <v>286</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1614</v>
+      </c>
+      <c r="H83" t="n">
+        <v>56</v>
+      </c>
+      <c r="I83" t="n">
+        <v>271</v>
+      </c>
+      <c r="J83" t="n">
+        <v>69</v>
+      </c>
+      <c r="K83" t="n">
+        <v>524</v>
+      </c>
+      <c r="L83" t="n">
+        <v>27</v>
+      </c>
+      <c r="M83" t="n">
+        <v>15</v>
+      </c>
+      <c r="N83" t="n">
+        <v>150</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1223</v>
+      </c>
+      <c r="P83" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>123</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1461</v>
+      </c>
+      <c r="S83" t="n">
+        <v>65</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2614</v>
+      </c>
+      <c r="U83" t="n">
+        <v>136</v>
+      </c>
+      <c r="V83" t="n">
+        <v>138</v>
+      </c>
+      <c r="W83" t="n">
+        <v>69</v>
+      </c>
+      <c r="X83" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4688</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>15663</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7831,7 +7831,7 @@
         <v>11592</v>
       </c>
       <c r="L82" t="n">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="M82" t="n">
         <v>479</v>
@@ -7879,10 +7879,10 @@
         <v>2868</v>
       </c>
       <c r="AB82" t="n">
-        <v>1179</v>
+        <v>1279</v>
       </c>
       <c r="AC82" t="n">
-        <v>220520</v>
+        <v>220633</v>
       </c>
     </row>
     <row r="83">
@@ -7904,7 +7904,7 @@
         <v>19677</v>
       </c>
       <c r="F83" t="n">
-        <v>8314</v>
+        <v>8316</v>
       </c>
       <c r="G83" t="n">
         <v>23795</v>
@@ -7919,7 +7919,7 @@
         <v>1652</v>
       </c>
       <c r="K83" t="n">
-        <v>11592</v>
+        <v>12492</v>
       </c>
       <c r="L83" t="n">
         <v>857</v>
@@ -7937,13 +7937,13 @@
         <v>4063</v>
       </c>
       <c r="Q83" t="n">
-        <v>2242</v>
+        <v>2272</v>
       </c>
       <c r="R83" t="n">
         <v>18488</v>
       </c>
       <c r="S83" t="n">
-        <v>2085</v>
+        <v>2252</v>
       </c>
       <c r="T83" t="n">
         <v>21601</v>
@@ -7973,7 +7973,98 @@
         <v>1279</v>
       </c>
       <c r="AC83" t="n">
-        <v>233479</v>
+        <v>234578</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3816</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3952</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20328</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8443</v>
+      </c>
+      <c r="G84" t="n">
+        <v>24255</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4427</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6744</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1721</v>
+      </c>
+      <c r="K84" t="n">
+        <v>13238</v>
+      </c>
+      <c r="L84" t="n">
+        <v>901</v>
+      </c>
+      <c r="M84" t="n">
+        <v>570</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4611</v>
+      </c>
+      <c r="O84" t="n">
+        <v>14201</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4347</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2316</v>
+      </c>
+      <c r="R84" t="n">
+        <v>19452</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2287</v>
+      </c>
+      <c r="T84" t="n">
+        <v>22238</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3137</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3735</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1963</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1793</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>4776</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>62345</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3343</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1382</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>242318</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +8078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15507,10 +15598,10 @@
         <v>50</v>
       </c>
       <c r="AB82" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC82" t="n">
-        <v>14979</v>
+        <v>14982</v>
       </c>
     </row>
     <row r="83">
@@ -15547,7 +15638,7 @@
         <v>69</v>
       </c>
       <c r="K83" t="n">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="L83" t="n">
         <v>27</v>
@@ -15559,19 +15650,19 @@
         <v>150</v>
       </c>
       <c r="O83" t="n">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P83" t="n">
         <v>183</v>
       </c>
       <c r="Q83" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R83" t="n">
         <v>1461</v>
       </c>
       <c r="S83" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T83" t="n">
         <v>2614</v>
@@ -15601,7 +15692,98 @@
         <v>27</v>
       </c>
       <c r="AC83" t="n">
-        <v>15663</v>
+        <v>15697</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>62</v>
+      </c>
+      <c r="C84" t="n">
+        <v>210</v>
+      </c>
+      <c r="D84" t="n">
+        <v>119</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F84" t="n">
+        <v>295</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H84" t="n">
+        <v>59</v>
+      </c>
+      <c r="I84" t="n">
+        <v>285</v>
+      </c>
+      <c r="J84" t="n">
+        <v>70</v>
+      </c>
+      <c r="K84" t="n">
+        <v>576</v>
+      </c>
+      <c r="L84" t="n">
+        <v>27</v>
+      </c>
+      <c r="M84" t="n">
+        <v>15</v>
+      </c>
+      <c r="N84" t="n">
+        <v>156</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1280</v>
+      </c>
+      <c r="P84" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>127</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1516</v>
+      </c>
+      <c r="S84" t="n">
+        <v>80</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2715</v>
+      </c>
+      <c r="U84" t="n">
+        <v>139</v>
+      </c>
+      <c r="V84" t="n">
+        <v>144</v>
+      </c>
+      <c r="W84" t="n">
+        <v>74</v>
+      </c>
+      <c r="X84" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4782</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>16201</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,19 +7995,19 @@
         <v>20328</v>
       </c>
       <c r="F84" t="n">
-        <v>8443</v>
+        <v>8444</v>
       </c>
       <c r="G84" t="n">
         <v>24255</v>
       </c>
       <c r="H84" t="n">
-        <v>4427</v>
+        <v>4368</v>
       </c>
       <c r="I84" t="n">
         <v>6744</v>
       </c>
       <c r="J84" t="n">
-        <v>1721</v>
+        <v>1692</v>
       </c>
       <c r="K84" t="n">
         <v>13238</v>
@@ -8049,7 +8049,7 @@
         <v>1963</v>
       </c>
       <c r="X84" t="n">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="Y84" t="n">
         <v>4776</v>
@@ -8061,10 +8061,101 @@
         <v>3343</v>
       </c>
       <c r="AB84" t="n">
-        <v>1382</v>
+        <v>1496</v>
       </c>
       <c r="AC84" t="n">
-        <v>242318</v>
+        <v>242343</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4031</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4023</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20913</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8881</v>
+      </c>
+      <c r="G85" t="n">
+        <v>26363</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4619</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7157</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1781</v>
+      </c>
+      <c r="K85" t="n">
+        <v>14198</v>
+      </c>
+      <c r="L85" t="n">
+        <v>941</v>
+      </c>
+      <c r="M85" t="n">
+        <v>613</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4695</v>
+      </c>
+      <c r="O85" t="n">
+        <v>15467</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4786</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2360</v>
+      </c>
+      <c r="R85" t="n">
+        <v>20094</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2440</v>
+      </c>
+      <c r="T85" t="n">
+        <v>26665</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3184</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3750</v>
+      </c>
+      <c r="W85" t="n">
+        <v>2043</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1876</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>5175</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>63066</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3566</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1496</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>256417</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15702,7 +15793,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" t="n">
         <v>210</v>
@@ -15741,7 +15832,7 @@
         <v>156</v>
       </c>
       <c r="O84" t="n">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P84" t="n">
         <v>194</v>
@@ -15780,10 +15871,101 @@
         <v>57</v>
       </c>
       <c r="AB84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>16201</v>
+        <v>16199</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>67</v>
+      </c>
+      <c r="C85" t="n">
+        <v>221</v>
+      </c>
+      <c r="D85" t="n">
+        <v>127</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1433</v>
+      </c>
+      <c r="F85" t="n">
+        <v>312</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1748</v>
+      </c>
+      <c r="H85" t="n">
+        <v>66</v>
+      </c>
+      <c r="I85" t="n">
+        <v>302</v>
+      </c>
+      <c r="J85" t="n">
+        <v>73</v>
+      </c>
+      <c r="K85" t="n">
+        <v>604</v>
+      </c>
+      <c r="L85" t="n">
+        <v>30</v>
+      </c>
+      <c r="M85" t="n">
+        <v>16</v>
+      </c>
+      <c r="N85" t="n">
+        <v>161</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1392</v>
+      </c>
+      <c r="P85" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>127</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1640</v>
+      </c>
+      <c r="S85" t="n">
+        <v>85</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2852</v>
+      </c>
+      <c r="U85" t="n">
+        <v>146</v>
+      </c>
+      <c r="V85" t="n">
+        <v>151</v>
+      </c>
+      <c r="W85" t="n">
+        <v>83</v>
+      </c>
+      <c r="X85" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4823</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>16902</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8086,7 +8086,7 @@
         <v>20913</v>
       </c>
       <c r="F85" t="n">
-        <v>8881</v>
+        <v>8582</v>
       </c>
       <c r="G85" t="n">
         <v>26363</v>
@@ -8119,7 +8119,7 @@
         <v>4786</v>
       </c>
       <c r="Q85" t="n">
-        <v>2360</v>
+        <v>2390</v>
       </c>
       <c r="R85" t="n">
         <v>20094</v>
@@ -8155,7 +8155,98 @@
         <v>1496</v>
       </c>
       <c r="AC85" t="n">
-        <v>256417</v>
+        <v>256148</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2482</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4319</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4310</v>
+      </c>
+      <c r="E86" t="n">
+        <v>22132</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11013</v>
+      </c>
+      <c r="G86" t="n">
+        <v>28112</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4898</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7693</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1880</v>
+      </c>
+      <c r="K86" t="n">
+        <v>14198</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1005</v>
+      </c>
+      <c r="M86" t="n">
+        <v>642</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4977</v>
+      </c>
+      <c r="O86" t="n">
+        <v>17177</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5300</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2481</v>
+      </c>
+      <c r="R86" t="n">
+        <v>21242</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2637</v>
+      </c>
+      <c r="T86" t="n">
+        <v>27805</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3483</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3798</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2257</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1985</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>5413</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>65995</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3967</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1646</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>272847</v>
       </c>
     </row>
   </sheetData>
@@ -8169,7 +8260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15923,13 +16014,13 @@
         <v>161</v>
       </c>
       <c r="O85" t="n">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="P85" t="n">
         <v>207</v>
       </c>
       <c r="Q85" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R85" t="n">
         <v>1640</v>
@@ -15965,7 +16056,98 @@
         <v>32</v>
       </c>
       <c r="AC85" t="n">
-        <v>16902</v>
+        <v>16904</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>72</v>
+      </c>
+      <c r="C86" t="n">
+        <v>235</v>
+      </c>
+      <c r="D86" t="n">
+        <v>136</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1491</v>
+      </c>
+      <c r="F86" t="n">
+        <v>326</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1856</v>
+      </c>
+      <c r="H86" t="n">
+        <v>72</v>
+      </c>
+      <c r="I86" t="n">
+        <v>325</v>
+      </c>
+      <c r="J86" t="n">
+        <v>73</v>
+      </c>
+      <c r="K86" t="n">
+        <v>604</v>
+      </c>
+      <c r="L86" t="n">
+        <v>32</v>
+      </c>
+      <c r="M86" t="n">
+        <v>16</v>
+      </c>
+      <c r="N86" t="n">
+        <v>167</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1554</v>
+      </c>
+      <c r="P86" t="n">
+        <v>219</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>130</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1741</v>
+      </c>
+      <c r="S86" t="n">
+        <v>85</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3079</v>
+      </c>
+      <c r="U86" t="n">
+        <v>160</v>
+      </c>
+      <c r="V86" t="n">
+        <v>160</v>
+      </c>
+      <c r="W86" t="n">
+        <v>87</v>
+      </c>
+      <c r="X86" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>5147</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>18020</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC86"/>
+  <dimension ref="A1:AC87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8168,7 +8168,7 @@
         <v>2482</v>
       </c>
       <c r="C86" t="n">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="D86" t="n">
         <v>4310</v>
@@ -8183,7 +8183,7 @@
         <v>28112</v>
       </c>
       <c r="H86" t="n">
-        <v>4898</v>
+        <v>4853</v>
       </c>
       <c r="I86" t="n">
         <v>7693</v>
@@ -8192,10 +8192,10 @@
         <v>1880</v>
       </c>
       <c r="K86" t="n">
-        <v>14198</v>
+        <v>15114</v>
       </c>
       <c r="L86" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="M86" t="n">
         <v>642</v>
@@ -8204,13 +8204,13 @@
         <v>4977</v>
       </c>
       <c r="O86" t="n">
-        <v>17177</v>
+        <v>16295</v>
       </c>
       <c r="P86" t="n">
         <v>5300</v>
       </c>
       <c r="Q86" t="n">
-        <v>2481</v>
+        <v>2519</v>
       </c>
       <c r="R86" t="n">
         <v>21242</v>
@@ -8228,7 +8228,7 @@
         <v>3798</v>
       </c>
       <c r="W86" t="n">
-        <v>2257</v>
+        <v>2413</v>
       </c>
       <c r="X86" t="n">
         <v>1985</v>
@@ -8246,7 +8246,98 @@
         <v>1646</v>
       </c>
       <c r="AC86" t="n">
-        <v>272847</v>
+        <v>273018</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4437</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4549</v>
+      </c>
+      <c r="E87" t="n">
+        <v>23704</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11197</v>
+      </c>
+      <c r="G87" t="n">
+        <v>30560</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5271</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8092</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15114</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1054</v>
+      </c>
+      <c r="M87" t="n">
+        <v>693</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5286</v>
+      </c>
+      <c r="O87" t="n">
+        <v>18929</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5838</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2616</v>
+      </c>
+      <c r="R87" t="n">
+        <v>22560</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2637</v>
+      </c>
+      <c r="T87" t="n">
+        <v>30372</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3796</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4973</v>
+      </c>
+      <c r="W87" t="n">
+        <v>2499</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2067</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>5499</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>69859</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>4277</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1809</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>292554</v>
       </c>
     </row>
   </sheetData>
@@ -8260,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC86"/>
+  <dimension ref="A1:AC87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16093,7 +16184,7 @@
         <v>73</v>
       </c>
       <c r="K86" t="n">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="L86" t="n">
         <v>32</v>
@@ -16105,19 +16196,19 @@
         <v>167</v>
       </c>
       <c r="O86" t="n">
-        <v>1554</v>
+        <v>1519</v>
       </c>
       <c r="P86" t="n">
         <v>219</v>
       </c>
       <c r="Q86" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R86" t="n">
         <v>1741</v>
       </c>
       <c r="S86" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T86" t="n">
         <v>3079</v>
@@ -16129,7 +16220,7 @@
         <v>160</v>
       </c>
       <c r="W86" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X86" t="n">
         <v>61</v>
@@ -16147,7 +16238,98 @@
         <v>38</v>
       </c>
       <c r="AC86" t="n">
-        <v>18020</v>
+        <v>18021</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>76</v>
+      </c>
+      <c r="C87" t="n">
+        <v>251</v>
+      </c>
+      <c r="D87" t="n">
+        <v>142</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F87" t="n">
+        <v>362</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1900</v>
+      </c>
+      <c r="H87" t="n">
+        <v>78</v>
+      </c>
+      <c r="I87" t="n">
+        <v>341</v>
+      </c>
+      <c r="J87" t="n">
+        <v>78</v>
+      </c>
+      <c r="K87" t="n">
+        <v>634</v>
+      </c>
+      <c r="L87" t="n">
+        <v>32</v>
+      </c>
+      <c r="M87" t="n">
+        <v>17</v>
+      </c>
+      <c r="N87" t="n">
+        <v>177</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1634</v>
+      </c>
+      <c r="P87" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>137</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1834</v>
+      </c>
+      <c r="S87" t="n">
+        <v>87</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3237</v>
+      </c>
+      <c r="U87" t="n">
+        <v>170</v>
+      </c>
+      <c r="V87" t="n">
+        <v>161</v>
+      </c>
+      <c r="W87" t="n">
+        <v>90</v>
+      </c>
+      <c r="X87" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>94</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>5363</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>69</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>18861</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC87"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8140,7 +8140,7 @@
         <v>2043</v>
       </c>
       <c r="X85" t="n">
-        <v>1876</v>
+        <v>1882</v>
       </c>
       <c r="Y85" t="n">
         <v>5175</v>
@@ -8152,10 +8152,10 @@
         <v>3566</v>
       </c>
       <c r="AB85" t="n">
-        <v>1496</v>
+        <v>1646</v>
       </c>
       <c r="AC85" t="n">
-        <v>256148</v>
+        <v>256304</v>
       </c>
     </row>
     <row r="86">
@@ -8195,7 +8195,7 @@
         <v>15114</v>
       </c>
       <c r="L86" t="n">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="M86" t="n">
         <v>642</v>
@@ -8231,7 +8231,7 @@
         <v>2413</v>
       </c>
       <c r="X86" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="Y86" t="n">
         <v>5413</v>
@@ -8246,7 +8246,7 @@
         <v>1646</v>
       </c>
       <c r="AC86" t="n">
-        <v>273018</v>
+        <v>273031</v>
       </c>
     </row>
     <row r="87">
@@ -8277,7 +8277,7 @@
         <v>5271</v>
       </c>
       <c r="I87" t="n">
-        <v>8092</v>
+        <v>8495</v>
       </c>
       <c r="J87" t="n">
         <v>2049</v>
@@ -8286,7 +8286,7 @@
         <v>15114</v>
       </c>
       <c r="L87" t="n">
-        <v>1054</v>
+        <v>1090</v>
       </c>
       <c r="M87" t="n">
         <v>693</v>
@@ -8307,7 +8307,7 @@
         <v>22560</v>
       </c>
       <c r="S87" t="n">
-        <v>2637</v>
+        <v>2852</v>
       </c>
       <c r="T87" t="n">
         <v>30372</v>
@@ -8337,7 +8337,98 @@
         <v>1809</v>
       </c>
       <c r="AC87" t="n">
-        <v>292554</v>
+        <v>293208</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3103</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4916</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5188</v>
+      </c>
+      <c r="E88" t="n">
+        <v>25367</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11941</v>
+      </c>
+      <c r="G88" t="n">
+        <v>31413</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5542</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8878</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2155</v>
+      </c>
+      <c r="K88" t="n">
+        <v>17212</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1187</v>
+      </c>
+      <c r="M88" t="n">
+        <v>746</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5596</v>
+      </c>
+      <c r="O88" t="n">
+        <v>20532</v>
+      </c>
+      <c r="P88" t="n">
+        <v>6238</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2810</v>
+      </c>
+      <c r="R88" t="n">
+        <v>23911</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3074</v>
+      </c>
+      <c r="T88" t="n">
+        <v>32089</v>
+      </c>
+      <c r="U88" t="n">
+        <v>4060</v>
+      </c>
+      <c r="V88" t="n">
+        <v>5473</v>
+      </c>
+      <c r="W88" t="n">
+        <v>2659</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2306</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>5610</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>73739</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>4734</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1976</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>312455</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +8442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC87"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15975,7 +16066,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" t="n">
         <v>210</v>
@@ -16056,7 +16147,7 @@
         <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>16199</v>
+        <v>16201</v>
       </c>
     </row>
     <row r="85">
@@ -16144,10 +16235,10 @@
         <v>59</v>
       </c>
       <c r="AB85" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AC85" t="n">
-        <v>16904</v>
+        <v>16910</v>
       </c>
     </row>
     <row r="86">
@@ -16157,7 +16248,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" t="n">
         <v>235</v>
@@ -16223,7 +16314,7 @@
         <v>88</v>
       </c>
       <c r="X86" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y86" t="n">
         <v>91</v>
@@ -16238,7 +16329,7 @@
         <v>38</v>
       </c>
       <c r="AC86" t="n">
-        <v>18021</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="87">
@@ -16269,7 +16360,7 @@
         <v>78</v>
       </c>
       <c r="I87" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J87" t="n">
         <v>78</v>
@@ -16287,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="O87" t="n">
-        <v>1634</v>
+        <v>1776</v>
       </c>
       <c r="P87" t="n">
         <v>230</v>
@@ -16299,7 +16390,7 @@
         <v>1834</v>
       </c>
       <c r="S87" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T87" t="n">
         <v>3237</v>
@@ -16329,7 +16420,98 @@
         <v>42</v>
       </c>
       <c r="AC87" t="n">
-        <v>18861</v>
+        <v>19012</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>78</v>
+      </c>
+      <c r="C88" t="n">
+        <v>262</v>
+      </c>
+      <c r="D88" t="n">
+        <v>151</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F88" t="n">
+        <v>376</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2161</v>
+      </c>
+      <c r="H88" t="n">
+        <v>84</v>
+      </c>
+      <c r="I88" t="n">
+        <v>363</v>
+      </c>
+      <c r="J88" t="n">
+        <v>85</v>
+      </c>
+      <c r="K88" t="n">
+        <v>693</v>
+      </c>
+      <c r="L88" t="n">
+        <v>34</v>
+      </c>
+      <c r="M88" t="n">
+        <v>17</v>
+      </c>
+      <c r="N88" t="n">
+        <v>191</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1893</v>
+      </c>
+      <c r="P88" t="n">
+        <v>245</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>141</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1925</v>
+      </c>
+      <c r="S88" t="n">
+        <v>93</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3412</v>
+      </c>
+      <c r="U88" t="n">
+        <v>178</v>
+      </c>
+      <c r="V88" t="n">
+        <v>166</v>
+      </c>
+      <c r="W88" t="n">
+        <v>101</v>
+      </c>
+      <c r="X88" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>5558</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>20131</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8131,7 +8131,7 @@
         <v>26665</v>
       </c>
       <c r="U85" t="n">
-        <v>3184</v>
+        <v>3482</v>
       </c>
       <c r="V85" t="n">
         <v>3750</v>
@@ -8155,7 +8155,7 @@
         <v>1646</v>
       </c>
       <c r="AC85" t="n">
-        <v>256304</v>
+        <v>256602</v>
       </c>
     </row>
     <row r="86">
@@ -8222,7 +8222,7 @@
         <v>27805</v>
       </c>
       <c r="U86" t="n">
-        <v>3483</v>
+        <v>3795</v>
       </c>
       <c r="V86" t="n">
         <v>3798</v>
@@ -8243,10 +8243,10 @@
         <v>3967</v>
       </c>
       <c r="AB86" t="n">
-        <v>1646</v>
+        <v>1809</v>
       </c>
       <c r="AC86" t="n">
-        <v>273031</v>
+        <v>273506</v>
       </c>
     </row>
     <row r="87">
@@ -8283,7 +8283,7 @@
         <v>2049</v>
       </c>
       <c r="K87" t="n">
-        <v>15114</v>
+        <v>16058</v>
       </c>
       <c r="L87" t="n">
         <v>1090</v>
@@ -8301,7 +8301,7 @@
         <v>5838</v>
       </c>
       <c r="Q87" t="n">
-        <v>2616</v>
+        <v>2656</v>
       </c>
       <c r="R87" t="n">
         <v>22560</v>
@@ -8313,7 +8313,7 @@
         <v>30372</v>
       </c>
       <c r="U87" t="n">
-        <v>3796</v>
+        <v>4059</v>
       </c>
       <c r="V87" t="n">
         <v>4973</v>
@@ -8334,10 +8334,10 @@
         <v>4277</v>
       </c>
       <c r="AB87" t="n">
-        <v>1809</v>
+        <v>1976</v>
       </c>
       <c r="AC87" t="n">
-        <v>293208</v>
+        <v>294622</v>
       </c>
     </row>
     <row r="88">
@@ -8392,7 +8392,7 @@
         <v>6238</v>
       </c>
       <c r="Q88" t="n">
-        <v>2810</v>
+        <v>2855</v>
       </c>
       <c r="R88" t="n">
         <v>23911</v>
@@ -8404,7 +8404,7 @@
         <v>32089</v>
       </c>
       <c r="U88" t="n">
-        <v>4060</v>
+        <v>4250</v>
       </c>
       <c r="V88" t="n">
         <v>5473</v>
@@ -8413,7 +8413,7 @@
         <v>2659</v>
       </c>
       <c r="X88" t="n">
-        <v>2306</v>
+        <v>2146</v>
       </c>
       <c r="Y88" t="n">
         <v>5610</v>
@@ -8425,10 +8425,101 @@
         <v>4734</v>
       </c>
       <c r="AB88" t="n">
-        <v>1976</v>
+        <v>2205</v>
       </c>
       <c r="AC88" t="n">
-        <v>312455</v>
+        <v>312759</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3343</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5302</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5655</v>
+      </c>
+      <c r="E89" t="n">
+        <v>27038</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12577</v>
+      </c>
+      <c r="G89" t="n">
+        <v>34573</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5948</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9520</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2364</v>
+      </c>
+      <c r="K89" t="n">
+        <v>18767</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1271</v>
+      </c>
+      <c r="M89" t="n">
+        <v>805</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5995</v>
+      </c>
+      <c r="O89" t="n">
+        <v>22697</v>
+      </c>
+      <c r="P89" t="n">
+        <v>6882</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2939</v>
+      </c>
+      <c r="R89" t="n">
+        <v>25760</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3258</v>
+      </c>
+      <c r="T89" t="n">
+        <v>33589</v>
+      </c>
+      <c r="U89" t="n">
+        <v>4251</v>
+      </c>
+      <c r="V89" t="n">
+        <v>5918</v>
+      </c>
+      <c r="W89" t="n">
+        <v>2774</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2306</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>6458</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>76871</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>4922</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2205</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>333988</v>
       </c>
     </row>
   </sheetData>
@@ -8442,7 +8533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16214,7 +16305,7 @@
         <v>2852</v>
       </c>
       <c r="U85" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="V85" t="n">
         <v>151</v>
@@ -16238,7 +16329,7 @@
         <v>38</v>
       </c>
       <c r="AC85" t="n">
-        <v>16910</v>
+        <v>16924</v>
       </c>
     </row>
     <row r="86">
@@ -16305,7 +16396,7 @@
         <v>3079</v>
       </c>
       <c r="U86" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="V86" t="n">
         <v>160</v>
@@ -16326,10 +16417,10 @@
         <v>63</v>
       </c>
       <c r="AB86" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC86" t="n">
-        <v>18025</v>
+        <v>18039</v>
       </c>
     </row>
     <row r="87">
@@ -16366,7 +16457,7 @@
         <v>78</v>
       </c>
       <c r="K87" t="n">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="L87" t="n">
         <v>32</v>
@@ -16384,7 +16475,7 @@
         <v>230</v>
       </c>
       <c r="Q87" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R87" t="n">
         <v>1834</v>
@@ -16396,7 +16487,7 @@
         <v>3237</v>
       </c>
       <c r="U87" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="V87" t="n">
         <v>161</v>
@@ -16417,10 +16508,10 @@
         <v>69</v>
       </c>
       <c r="AB87" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AC87" t="n">
-        <v>19012</v>
+        <v>19057</v>
       </c>
     </row>
     <row r="88">
@@ -16469,13 +16560,13 @@
         <v>191</v>
       </c>
       <c r="O88" t="n">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="P88" t="n">
         <v>245</v>
       </c>
       <c r="Q88" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R88" t="n">
         <v>1925</v>
@@ -16487,7 +16578,7 @@
         <v>3412</v>
       </c>
       <c r="U88" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="V88" t="n">
         <v>166</v>
@@ -16496,7 +16587,7 @@
         <v>101</v>
       </c>
       <c r="X88" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Y88" t="n">
         <v>98</v>
@@ -16508,10 +16599,101 @@
         <v>76</v>
       </c>
       <c r="AB88" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AC88" t="n">
-        <v>20131</v>
+        <v>20126</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>80</v>
+      </c>
+      <c r="C89" t="n">
+        <v>280</v>
+      </c>
+      <c r="D89" t="n">
+        <v>157</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1669</v>
+      </c>
+      <c r="F89" t="n">
+        <v>399</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2251</v>
+      </c>
+      <c r="H89" t="n">
+        <v>92</v>
+      </c>
+      <c r="I89" t="n">
+        <v>397</v>
+      </c>
+      <c r="J89" t="n">
+        <v>95</v>
+      </c>
+      <c r="K89" t="n">
+        <v>722</v>
+      </c>
+      <c r="L89" t="n">
+        <v>37</v>
+      </c>
+      <c r="M89" t="n">
+        <v>17</v>
+      </c>
+      <c r="N89" t="n">
+        <v>201</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2003</v>
+      </c>
+      <c r="P89" t="n">
+        <v>248</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>146</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2057</v>
+      </c>
+      <c r="S89" t="n">
+        <v>99</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3657</v>
+      </c>
+      <c r="U89" t="n">
+        <v>181</v>
+      </c>
+      <c r="V89" t="n">
+        <v>172</v>
+      </c>
+      <c r="W89" t="n">
+        <v>106</v>
+      </c>
+      <c r="X89" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>5773</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>21153</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8450,7 +8450,7 @@
         <v>27038</v>
       </c>
       <c r="F89" t="n">
-        <v>12577</v>
+        <v>12557</v>
       </c>
       <c r="G89" t="n">
         <v>34573</v>
@@ -8462,7 +8462,7 @@
         <v>9520</v>
       </c>
       <c r="J89" t="n">
-        <v>2364</v>
+        <v>2344</v>
       </c>
       <c r="K89" t="n">
         <v>18767</v>
@@ -8519,7 +8519,98 @@
         <v>2205</v>
       </c>
       <c r="AC89" t="n">
-        <v>333988</v>
+        <v>333948</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3867</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5630</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6091</v>
+      </c>
+      <c r="E90" t="n">
+        <v>28802</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>35122</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6251</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9959</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2435</v>
+      </c>
+      <c r="K90" t="n">
+        <v>21191</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1363</v>
+      </c>
+      <c r="M90" t="n">
+        <v>858</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6338</v>
+      </c>
+      <c r="O90" t="n">
+        <v>24125</v>
+      </c>
+      <c r="P90" t="n">
+        <v>7508</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3099</v>
+      </c>
+      <c r="R90" t="n">
+        <v>26786</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3390</v>
+      </c>
+      <c r="T90" t="n">
+        <v>34533</v>
+      </c>
+      <c r="U90" t="n">
+        <v>4599</v>
+      </c>
+      <c r="V90" t="n">
+        <v>6336</v>
+      </c>
+      <c r="W90" t="n">
+        <v>3109</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2374</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>6607</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>80558</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>5131</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>351492</v>
       </c>
     </row>
   </sheetData>
@@ -8533,7 +8624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16630,7 +16721,7 @@
         <v>2251</v>
       </c>
       <c r="H89" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I89" t="n">
         <v>397</v>
@@ -16651,7 +16742,7 @@
         <v>201</v>
       </c>
       <c r="O89" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="P89" t="n">
         <v>248</v>
@@ -16693,7 +16784,98 @@
         <v>49</v>
       </c>
       <c r="AC89" t="n">
-        <v>21153</v>
+        <v>21149</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>87</v>
+      </c>
+      <c r="C90" t="n">
+        <v>301</v>
+      </c>
+      <c r="D90" t="n">
+        <v>162</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F90" t="n">
+        <v>413</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2308</v>
+      </c>
+      <c r="H90" t="n">
+        <v>95</v>
+      </c>
+      <c r="I90" t="n">
+        <v>418</v>
+      </c>
+      <c r="J90" t="n">
+        <v>95</v>
+      </c>
+      <c r="K90" t="n">
+        <v>754</v>
+      </c>
+      <c r="L90" t="n">
+        <v>37</v>
+      </c>
+      <c r="M90" t="n">
+        <v>17</v>
+      </c>
+      <c r="N90" t="n">
+        <v>217</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2150</v>
+      </c>
+      <c r="P90" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>150</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2144</v>
+      </c>
+      <c r="S90" t="n">
+        <v>107</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3905</v>
+      </c>
+      <c r="U90" t="n">
+        <v>184</v>
+      </c>
+      <c r="V90" t="n">
+        <v>176</v>
+      </c>
+      <c r="W90" t="n">
+        <v>115</v>
+      </c>
+      <c r="X90" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>103</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>6045</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>22205</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC90"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8483,7 +8483,7 @@
         <v>6882</v>
       </c>
       <c r="Q89" t="n">
-        <v>2939</v>
+        <v>2985</v>
       </c>
       <c r="R89" t="n">
         <v>25760</v>
@@ -8495,7 +8495,7 @@
         <v>33589</v>
       </c>
       <c r="U89" t="n">
-        <v>4251</v>
+        <v>4598</v>
       </c>
       <c r="V89" t="n">
         <v>5918</v>
@@ -8516,10 +8516,10 @@
         <v>4922</v>
       </c>
       <c r="AB89" t="n">
-        <v>2205</v>
+        <v>2430</v>
       </c>
       <c r="AC89" t="n">
-        <v>333948</v>
+        <v>334566</v>
       </c>
     </row>
     <row r="90">
@@ -8550,7 +8550,7 @@
         <v>6251</v>
       </c>
       <c r="I90" t="n">
-        <v>9959</v>
+        <v>9918</v>
       </c>
       <c r="J90" t="n">
         <v>2435</v>
@@ -8574,7 +8574,7 @@
         <v>7508</v>
       </c>
       <c r="Q90" t="n">
-        <v>3099</v>
+        <v>3147</v>
       </c>
       <c r="R90" t="n">
         <v>26786</v>
@@ -8595,7 +8595,7 @@
         <v>3109</v>
       </c>
       <c r="X90" t="n">
-        <v>2374</v>
+        <v>2439</v>
       </c>
       <c r="Y90" t="n">
         <v>6607</v>
@@ -8610,7 +8610,98 @@
         <v>2430</v>
       </c>
       <c r="AC90" t="n">
-        <v>351492</v>
+        <v>351564</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6214</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6353</v>
+      </c>
+      <c r="E91" t="n">
+        <v>29867</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13899</v>
+      </c>
+      <c r="G91" t="n">
+        <v>35595</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6638</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2495</v>
+      </c>
+      <c r="K91" t="n">
+        <v>22786</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1464</v>
+      </c>
+      <c r="M91" t="n">
+        <v>924</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6668</v>
+      </c>
+      <c r="O91" t="n">
+        <v>24815</v>
+      </c>
+      <c r="P91" t="n">
+        <v>7823</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3212</v>
+      </c>
+      <c r="R91" t="n">
+        <v>27759</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3550</v>
+      </c>
+      <c r="T91" t="n">
+        <v>37912</v>
+      </c>
+      <c r="U91" t="n">
+        <v>4697</v>
+      </c>
+      <c r="V91" t="n">
+        <v>6470</v>
+      </c>
+      <c r="W91" t="n">
+        <v>3201</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2439</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>6696</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>82161</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5314</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2591</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>365710</v>
       </c>
     </row>
   </sheetData>
@@ -8624,7 +8715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC90"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16748,7 +16839,7 @@
         <v>248</v>
       </c>
       <c r="Q89" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R89" t="n">
         <v>2057</v>
@@ -16760,7 +16851,7 @@
         <v>3657</v>
       </c>
       <c r="U89" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="V89" t="n">
         <v>172</v>
@@ -16781,10 +16872,10 @@
         <v>82</v>
       </c>
       <c r="AB89" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AC89" t="n">
-        <v>21149</v>
+        <v>21157</v>
       </c>
     </row>
     <row r="90">
@@ -16815,7 +16906,7 @@
         <v>95</v>
       </c>
       <c r="I90" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J90" t="n">
         <v>95</v>
@@ -16833,13 +16924,13 @@
         <v>217</v>
       </c>
       <c r="O90" t="n">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="P90" t="n">
         <v>258</v>
       </c>
       <c r="Q90" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R90" t="n">
         <v>2144</v>
@@ -16860,7 +16951,7 @@
         <v>115</v>
       </c>
       <c r="X90" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y90" t="n">
         <v>103</v>
@@ -16875,7 +16966,98 @@
         <v>51</v>
       </c>
       <c r="AC90" t="n">
-        <v>22205</v>
+        <v>22203</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>92</v>
+      </c>
+      <c r="C91" t="n">
+        <v>316</v>
+      </c>
+      <c r="D91" t="n">
+        <v>163</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1758</v>
+      </c>
+      <c r="F91" t="n">
+        <v>460</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2324</v>
+      </c>
+      <c r="H91" t="n">
+        <v>104</v>
+      </c>
+      <c r="I91" t="n">
+        <v>447</v>
+      </c>
+      <c r="J91" t="n">
+        <v>95</v>
+      </c>
+      <c r="K91" t="n">
+        <v>784</v>
+      </c>
+      <c r="L91" t="n">
+        <v>40</v>
+      </c>
+      <c r="M91" t="n">
+        <v>17</v>
+      </c>
+      <c r="N91" t="n">
+        <v>226</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2290</v>
+      </c>
+      <c r="P91" t="n">
+        <v>272</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>153</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2200</v>
+      </c>
+      <c r="S91" t="n">
+        <v>110</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3993</v>
+      </c>
+      <c r="U91" t="n">
+        <v>200</v>
+      </c>
+      <c r="V91" t="n">
+        <v>180</v>
+      </c>
+      <c r="W91" t="n">
+        <v>121</v>
+      </c>
+      <c r="X91" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>105</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>6163</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>22842</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8086,7 +8086,7 @@
         <v>20913</v>
       </c>
       <c r="F85" t="n">
-        <v>8582</v>
+        <v>8882</v>
       </c>
       <c r="G85" t="n">
         <v>26363</v>
@@ -8155,7 +8155,7 @@
         <v>1646</v>
       </c>
       <c r="AC85" t="n">
-        <v>256602</v>
+        <v>256902</v>
       </c>
     </row>
     <row r="86">
@@ -8177,7 +8177,7 @@
         <v>22132</v>
       </c>
       <c r="F86" t="n">
-        <v>11013</v>
+        <v>11014</v>
       </c>
       <c r="G86" t="n">
         <v>28112</v>
@@ -8246,7 +8246,7 @@
         <v>1809</v>
       </c>
       <c r="AC86" t="n">
-        <v>273506</v>
+        <v>273507</v>
       </c>
     </row>
     <row r="87">
@@ -8268,7 +8268,7 @@
         <v>23704</v>
       </c>
       <c r="F87" t="n">
-        <v>11197</v>
+        <v>11198</v>
       </c>
       <c r="G87" t="n">
         <v>30560</v>
@@ -8337,7 +8337,7 @@
         <v>1976</v>
       </c>
       <c r="AC87" t="n">
-        <v>294622</v>
+        <v>294623</v>
       </c>
     </row>
     <row r="88">
@@ -8359,7 +8359,7 @@
         <v>25367</v>
       </c>
       <c r="F88" t="n">
-        <v>11941</v>
+        <v>11942</v>
       </c>
       <c r="G88" t="n">
         <v>31413</v>
@@ -8428,7 +8428,7 @@
         <v>2205</v>
       </c>
       <c r="AC88" t="n">
-        <v>312759</v>
+        <v>312760</v>
       </c>
     </row>
     <row r="89">
@@ -8450,7 +8450,7 @@
         <v>27038</v>
       </c>
       <c r="F89" t="n">
-        <v>12557</v>
+        <v>12558</v>
       </c>
       <c r="G89" t="n">
         <v>34573</v>
@@ -8519,7 +8519,7 @@
         <v>2430</v>
       </c>
       <c r="AC89" t="n">
-        <v>334566</v>
+        <v>334567</v>
       </c>
     </row>
     <row r="90">
@@ -8541,7 +8541,7 @@
         <v>28802</v>
       </c>
       <c r="F90" t="n">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="G90" t="n">
         <v>35122</v>
@@ -8610,7 +8610,7 @@
         <v>2430</v>
       </c>
       <c r="AC90" t="n">
-        <v>351564</v>
+        <v>351565</v>
       </c>
     </row>
     <row r="91">
@@ -8632,7 +8632,7 @@
         <v>29867</v>
       </c>
       <c r="F91" t="n">
-        <v>13899</v>
+        <v>13900</v>
       </c>
       <c r="G91" t="n">
         <v>35595</v>
@@ -8644,7 +8644,7 @@
         <v>10007</v>
       </c>
       <c r="J91" t="n">
-        <v>2495</v>
+        <v>2488</v>
       </c>
       <c r="K91" t="n">
         <v>22786</v>
@@ -8665,7 +8665,7 @@
         <v>7823</v>
       </c>
       <c r="Q91" t="n">
-        <v>3212</v>
+        <v>3260</v>
       </c>
       <c r="R91" t="n">
         <v>27759</v>
@@ -8683,7 +8683,7 @@
         <v>6470</v>
       </c>
       <c r="W91" t="n">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="X91" t="n">
         <v>2439</v>
@@ -8698,10 +8698,101 @@
         <v>5314</v>
       </c>
       <c r="AB91" t="n">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="AC91" t="n">
-        <v>365710</v>
+        <v>365754</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4501</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6682</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6584</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30282</v>
+      </c>
+      <c r="F92" t="n">
+        <v>14204</v>
+      </c>
+      <c r="G92" t="n">
+        <v>36185</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6930</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10365</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2518</v>
+      </c>
+      <c r="K92" t="n">
+        <v>24278</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1594</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1023</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6962</v>
+      </c>
+      <c r="O92" t="n">
+        <v>27366</v>
+      </c>
+      <c r="P92" t="n">
+        <v>8016</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3331</v>
+      </c>
+      <c r="R92" t="n">
+        <v>28366</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3720</v>
+      </c>
+      <c r="T92" t="n">
+        <v>39298</v>
+      </c>
+      <c r="U92" t="n">
+        <v>4774</v>
+      </c>
+      <c r="V92" t="n">
+        <v>6559</v>
+      </c>
+      <c r="W92" t="n">
+        <v>3268</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2514</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>6875</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>83625</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>5448</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>2697</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>377965</v>
       </c>
     </row>
   </sheetData>
@@ -8715,7 +8806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17015,13 +17106,13 @@
         <v>226</v>
       </c>
       <c r="O91" t="n">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="P91" t="n">
         <v>272</v>
       </c>
       <c r="Q91" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R91" t="n">
         <v>2200</v>
@@ -17057,7 +17148,98 @@
         <v>52</v>
       </c>
       <c r="AC91" t="n">
-        <v>22842</v>
+        <v>22843</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>97</v>
+      </c>
+      <c r="C92" t="n">
+        <v>337</v>
+      </c>
+      <c r="D92" t="n">
+        <v>168</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F92" t="n">
+        <v>477</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2493</v>
+      </c>
+      <c r="H92" t="n">
+        <v>114</v>
+      </c>
+      <c r="I92" t="n">
+        <v>465</v>
+      </c>
+      <c r="J92" t="n">
+        <v>98</v>
+      </c>
+      <c r="K92" t="n">
+        <v>817</v>
+      </c>
+      <c r="L92" t="n">
+        <v>42</v>
+      </c>
+      <c r="M92" t="n">
+        <v>17</v>
+      </c>
+      <c r="N92" t="n">
+        <v>230</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2431</v>
+      </c>
+      <c r="P92" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>156</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2248</v>
+      </c>
+      <c r="S92" t="n">
+        <v>119</v>
+      </c>
+      <c r="T92" t="n">
+        <v>4105</v>
+      </c>
+      <c r="U92" t="n">
+        <v>212</v>
+      </c>
+      <c r="V92" t="n">
+        <v>197</v>
+      </c>
+      <c r="W92" t="n">
+        <v>121</v>
+      </c>
+      <c r="X92" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>109</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>6220</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>23580</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8653,7 +8653,7 @@
         <v>1464</v>
       </c>
       <c r="M91" t="n">
-        <v>924</v>
+        <v>1023</v>
       </c>
       <c r="N91" t="n">
         <v>6668</v>
@@ -8677,13 +8677,13 @@
         <v>37912</v>
       </c>
       <c r="U91" t="n">
-        <v>4697</v>
+        <v>4773</v>
       </c>
       <c r="V91" t="n">
         <v>6470</v>
       </c>
       <c r="W91" t="n">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="X91" t="n">
         <v>2439</v>
@@ -8698,10 +8698,10 @@
         <v>5314</v>
       </c>
       <c r="AB91" t="n">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="AC91" t="n">
-        <v>365754</v>
+        <v>365927</v>
       </c>
     </row>
     <row r="92">
@@ -8723,7 +8723,7 @@
         <v>30282</v>
       </c>
       <c r="F92" t="n">
-        <v>14204</v>
+        <v>14205</v>
       </c>
       <c r="G92" t="n">
         <v>36185</v>
@@ -8735,7 +8735,7 @@
         <v>10365</v>
       </c>
       <c r="J92" t="n">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="K92" t="n">
         <v>24278</v>
@@ -8756,7 +8756,7 @@
         <v>8016</v>
       </c>
       <c r="Q92" t="n">
-        <v>3331</v>
+        <v>3384</v>
       </c>
       <c r="R92" t="n">
         <v>28366</v>
@@ -8768,7 +8768,7 @@
         <v>39298</v>
       </c>
       <c r="U92" t="n">
-        <v>4774</v>
+        <v>4759</v>
       </c>
       <c r="V92" t="n">
         <v>6559</v>
@@ -8777,7 +8777,7 @@
         <v>3268</v>
       </c>
       <c r="X92" t="n">
-        <v>2514</v>
+        <v>2564</v>
       </c>
       <c r="Y92" t="n">
         <v>6875</v>
@@ -8789,10 +8789,101 @@
         <v>5448</v>
       </c>
       <c r="AB92" t="n">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="AC92" t="n">
-        <v>377965</v>
+        <v>378050</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4781</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7058</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6967</v>
+      </c>
+      <c r="E93" t="n">
+        <v>31949</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14566</v>
+      </c>
+      <c r="G93" t="n">
+        <v>37021</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7212</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10899</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2717</v>
+      </c>
+      <c r="K93" t="n">
+        <v>26145</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1744</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1102</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7516</v>
+      </c>
+      <c r="O93" t="n">
+        <v>29882</v>
+      </c>
+      <c r="P93" t="n">
+        <v>8919</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3512</v>
+      </c>
+      <c r="R93" t="n">
+        <v>28854</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3966</v>
+      </c>
+      <c r="T93" t="n">
+        <v>40024</v>
+      </c>
+      <c r="U93" t="n">
+        <v>5472</v>
+      </c>
+      <c r="V93" t="n">
+        <v>6785</v>
+      </c>
+      <c r="W93" t="n">
+        <v>3493</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2583</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>7016</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>86017</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5735</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>394793</v>
       </c>
     </row>
   </sheetData>
@@ -8806,7 +8897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17124,7 +17215,7 @@
         <v>3993</v>
       </c>
       <c r="U91" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="V91" t="n">
         <v>180</v>
@@ -17148,7 +17239,7 @@
         <v>52</v>
       </c>
       <c r="AC91" t="n">
-        <v>22843</v>
+        <v>22855</v>
       </c>
     </row>
     <row r="92">
@@ -17182,7 +17273,7 @@
         <v>465</v>
       </c>
       <c r="J92" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K92" t="n">
         <v>817</v>
@@ -17197,13 +17288,13 @@
         <v>230</v>
       </c>
       <c r="O92" t="n">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="P92" t="n">
         <v>279</v>
       </c>
       <c r="Q92" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="R92" t="n">
         <v>2248</v>
@@ -17215,7 +17306,7 @@
         <v>4105</v>
       </c>
       <c r="U92" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="V92" t="n">
         <v>197</v>
@@ -17239,7 +17330,98 @@
         <v>58</v>
       </c>
       <c r="AC92" t="n">
-        <v>23580</v>
+        <v>23575</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>105</v>
+      </c>
+      <c r="C93" t="n">
+        <v>354</v>
+      </c>
+      <c r="D93" t="n">
+        <v>173</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1852</v>
+      </c>
+      <c r="F93" t="n">
+        <v>495</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2603</v>
+      </c>
+      <c r="H93" t="n">
+        <v>124</v>
+      </c>
+      <c r="I93" t="n">
+        <v>487</v>
+      </c>
+      <c r="J93" t="n">
+        <v>104</v>
+      </c>
+      <c r="K93" t="n">
+        <v>853</v>
+      </c>
+      <c r="L93" t="n">
+        <v>43</v>
+      </c>
+      <c r="M93" t="n">
+        <v>17</v>
+      </c>
+      <c r="N93" t="n">
+        <v>234</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2522</v>
+      </c>
+      <c r="P93" t="n">
+        <v>286</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>159</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2328</v>
+      </c>
+      <c r="S93" t="n">
+        <v>134</v>
+      </c>
+      <c r="T93" t="n">
+        <v>4361</v>
+      </c>
+      <c r="U93" t="n">
+        <v>220</v>
+      </c>
+      <c r="V93" t="n">
+        <v>203</v>
+      </c>
+      <c r="W93" t="n">
+        <v>133</v>
+      </c>
+      <c r="X93" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>121</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>6423</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>116</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>24616</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8744,7 +8744,7 @@
         <v>1594</v>
       </c>
       <c r="M92" t="n">
-        <v>1023</v>
+        <v>1100</v>
       </c>
       <c r="N92" t="n">
         <v>6962</v>
@@ -8768,7 +8768,7 @@
         <v>39298</v>
       </c>
       <c r="U92" t="n">
-        <v>4759</v>
+        <v>5471</v>
       </c>
       <c r="V92" t="n">
         <v>6559</v>
@@ -8792,7 +8792,7 @@
         <v>2696</v>
       </c>
       <c r="AC92" t="n">
-        <v>378050</v>
+        <v>378839</v>
       </c>
     </row>
     <row r="93">
@@ -8814,19 +8814,19 @@
         <v>31949</v>
       </c>
       <c r="F93" t="n">
-        <v>14566</v>
+        <v>14567</v>
       </c>
       <c r="G93" t="n">
         <v>37021</v>
       </c>
       <c r="H93" t="n">
-        <v>7212</v>
+        <v>7210</v>
       </c>
       <c r="I93" t="n">
-        <v>10899</v>
+        <v>10889</v>
       </c>
       <c r="J93" t="n">
-        <v>2717</v>
+        <v>2706</v>
       </c>
       <c r="K93" t="n">
         <v>26145</v>
@@ -8835,19 +8835,19 @@
         <v>1744</v>
       </c>
       <c r="M93" t="n">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="N93" t="n">
         <v>7516</v>
       </c>
       <c r="O93" t="n">
-        <v>29882</v>
+        <v>28600</v>
       </c>
       <c r="P93" t="n">
         <v>8919</v>
       </c>
       <c r="Q93" t="n">
-        <v>3512</v>
+        <v>3567</v>
       </c>
       <c r="R93" t="n">
         <v>28854</v>
@@ -8883,7 +8883,98 @@
         <v>2858</v>
       </c>
       <c r="AC93" t="n">
-        <v>394793</v>
+        <v>393542</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5251</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7580</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7619</v>
+      </c>
+      <c r="E94" t="n">
+        <v>33508</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15070</v>
+      </c>
+      <c r="G94" t="n">
+        <v>37275</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7761</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11484</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2925</v>
+      </c>
+      <c r="K94" t="n">
+        <v>26145</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1744</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1186</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8011</v>
+      </c>
+      <c r="O94" t="n">
+        <v>31671</v>
+      </c>
+      <c r="P94" t="n">
+        <v>10209</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3712</v>
+      </c>
+      <c r="R94" t="n">
+        <v>29919</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3966</v>
+      </c>
+      <c r="T94" t="n">
+        <v>42398</v>
+      </c>
+      <c r="U94" t="n">
+        <v>5630</v>
+      </c>
+      <c r="V94" t="n">
+        <v>7048</v>
+      </c>
+      <c r="W94" t="n">
+        <v>3493</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2583</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>7372</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>89483</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>5735</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3023</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>411801</v>
       </c>
     </row>
   </sheetData>
@@ -8897,7 +8988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17306,7 +17397,7 @@
         <v>4105</v>
       </c>
       <c r="U92" t="n">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="V92" t="n">
         <v>197</v>
@@ -17330,7 +17421,7 @@
         <v>58</v>
       </c>
       <c r="AC92" t="n">
-        <v>23575</v>
+        <v>23586</v>
       </c>
     </row>
     <row r="93">
@@ -17379,13 +17470,13 @@
         <v>234</v>
       </c>
       <c r="O93" t="n">
-        <v>2522</v>
+        <v>2469</v>
       </c>
       <c r="P93" t="n">
         <v>286</v>
       </c>
       <c r="Q93" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="R93" t="n">
         <v>2328</v>
@@ -17421,7 +17512,98 @@
         <v>64</v>
       </c>
       <c r="AC93" t="n">
-        <v>24616</v>
+        <v>24568</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>113</v>
+      </c>
+      <c r="C94" t="n">
+        <v>368</v>
+      </c>
+      <c r="D94" t="n">
+        <v>183</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1891</v>
+      </c>
+      <c r="F94" t="n">
+        <v>531</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2671</v>
+      </c>
+      <c r="H94" t="n">
+        <v>133</v>
+      </c>
+      <c r="I94" t="n">
+        <v>511</v>
+      </c>
+      <c r="J94" t="n">
+        <v>108</v>
+      </c>
+      <c r="K94" t="n">
+        <v>853</v>
+      </c>
+      <c r="L94" t="n">
+        <v>43</v>
+      </c>
+      <c r="M94" t="n">
+        <v>18</v>
+      </c>
+      <c r="N94" t="n">
+        <v>240</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2605</v>
+      </c>
+      <c r="P94" t="n">
+        <v>298</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>164</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2468</v>
+      </c>
+      <c r="S94" t="n">
+        <v>134</v>
+      </c>
+      <c r="T94" t="n">
+        <v>4605</v>
+      </c>
+      <c r="U94" t="n">
+        <v>242</v>
+      </c>
+      <c r="V94" t="n">
+        <v>209</v>
+      </c>
+      <c r="W94" t="n">
+        <v>137</v>
+      </c>
+      <c r="X94" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>126</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>6712</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>116</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>25646</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8835,13 +8835,13 @@
         <v>1744</v>
       </c>
       <c r="M93" t="n">
-        <v>1100</v>
+        <v>1186</v>
       </c>
       <c r="N93" t="n">
         <v>7516</v>
       </c>
       <c r="O93" t="n">
-        <v>28600</v>
+        <v>29882</v>
       </c>
       <c r="P93" t="n">
         <v>8919</v>
@@ -8859,7 +8859,7 @@
         <v>40024</v>
       </c>
       <c r="U93" t="n">
-        <v>5472</v>
+        <v>5628</v>
       </c>
       <c r="V93" t="n">
         <v>6785</v>
@@ -8883,7 +8883,7 @@
         <v>2858</v>
       </c>
       <c r="AC93" t="n">
-        <v>393542</v>
+        <v>395066</v>
       </c>
     </row>
     <row r="94">
@@ -8917,16 +8917,16 @@
         <v>11484</v>
       </c>
       <c r="J94" t="n">
-        <v>2925</v>
+        <v>2906</v>
       </c>
       <c r="K94" t="n">
-        <v>26145</v>
+        <v>27979</v>
       </c>
       <c r="L94" t="n">
-        <v>1744</v>
+        <v>1909</v>
       </c>
       <c r="M94" t="n">
-        <v>1186</v>
+        <v>1262</v>
       </c>
       <c r="N94" t="n">
         <v>8011</v>
@@ -8938,13 +8938,13 @@
         <v>10209</v>
       </c>
       <c r="Q94" t="n">
-        <v>3712</v>
+        <v>3768</v>
       </c>
       <c r="R94" t="n">
         <v>29919</v>
       </c>
       <c r="S94" t="n">
-        <v>3966</v>
+        <v>4243</v>
       </c>
       <c r="T94" t="n">
         <v>42398</v>
@@ -8956,10 +8956,10 @@
         <v>7048</v>
       </c>
       <c r="W94" t="n">
-        <v>3493</v>
+        <v>3862</v>
       </c>
       <c r="X94" t="n">
-        <v>2583</v>
+        <v>2682</v>
       </c>
       <c r="Y94" t="n">
         <v>7372</v>
@@ -8968,13 +8968,104 @@
         <v>89483</v>
       </c>
       <c r="AA94" t="n">
-        <v>5735</v>
+        <v>5912</v>
       </c>
       <c r="AB94" t="n">
         <v>3023</v>
       </c>
       <c r="AC94" t="n">
-        <v>411801</v>
+        <v>414835</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8056</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8152</v>
+      </c>
+      <c r="E95" t="n">
+        <v>36146</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15963</v>
+      </c>
+      <c r="G95" t="n">
+        <v>37821</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8300</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12375</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3101</v>
+      </c>
+      <c r="K95" t="n">
+        <v>30482</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2085</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1262</v>
+      </c>
+      <c r="N95" t="n">
+        <v>8686</v>
+      </c>
+      <c r="O95" t="n">
+        <v>35132</v>
+      </c>
+      <c r="P95" t="n">
+        <v>11132</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4041</v>
+      </c>
+      <c r="R95" t="n">
+        <v>30713</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4503</v>
+      </c>
+      <c r="T95" t="n">
+        <v>44886</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5630</v>
+      </c>
+      <c r="V95" t="n">
+        <v>8234</v>
+      </c>
+      <c r="W95" t="n">
+        <v>4252</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3098</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>95865</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6156</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3277</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>442948</v>
       </c>
     </row>
   </sheetData>
@@ -8988,7 +9079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17464,13 +17555,13 @@
         <v>43</v>
       </c>
       <c r="M93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N93" t="n">
         <v>234</v>
       </c>
       <c r="O93" t="n">
-        <v>2469</v>
+        <v>2516</v>
       </c>
       <c r="P93" t="n">
         <v>286</v>
@@ -17488,7 +17579,7 @@
         <v>4361</v>
       </c>
       <c r="U93" t="n">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="V93" t="n">
         <v>203</v>
@@ -17512,7 +17603,7 @@
         <v>64</v>
       </c>
       <c r="AC93" t="n">
-        <v>24568</v>
+        <v>24638</v>
       </c>
     </row>
     <row r="94">
@@ -17549,10 +17640,10 @@
         <v>108</v>
       </c>
       <c r="K94" t="n">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="L94" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M94" t="n">
         <v>18</v>
@@ -17561,19 +17652,19 @@
         <v>240</v>
       </c>
       <c r="O94" t="n">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="P94" t="n">
         <v>298</v>
       </c>
       <c r="Q94" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R94" t="n">
         <v>2468</v>
       </c>
       <c r="S94" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="T94" t="n">
         <v>4605</v>
@@ -17597,13 +17688,104 @@
         <v>6712</v>
       </c>
       <c r="AA94" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AB94" t="n">
         <v>65</v>
       </c>
       <c r="AC94" t="n">
-        <v>25646</v>
+        <v>25692</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>122</v>
+      </c>
+      <c r="C95" t="n">
+        <v>385</v>
+      </c>
+      <c r="D95" t="n">
+        <v>198</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F95" t="n">
+        <v>570</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2733</v>
+      </c>
+      <c r="H95" t="n">
+        <v>142</v>
+      </c>
+      <c r="I95" t="n">
+        <v>538</v>
+      </c>
+      <c r="J95" t="n">
+        <v>115</v>
+      </c>
+      <c r="K95" t="n">
+        <v>911</v>
+      </c>
+      <c r="L95" t="n">
+        <v>54</v>
+      </c>
+      <c r="M95" t="n">
+        <v>18</v>
+      </c>
+      <c r="N95" t="n">
+        <v>255</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2785</v>
+      </c>
+      <c r="P95" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>174</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2566</v>
+      </c>
+      <c r="S95" t="n">
+        <v>146</v>
+      </c>
+      <c r="T95" t="n">
+        <v>4856</v>
+      </c>
+      <c r="U95" t="n">
+        <v>255</v>
+      </c>
+      <c r="V95" t="n">
+        <v>213</v>
+      </c>
+      <c r="W95" t="n">
+        <v>142</v>
+      </c>
+      <c r="X95" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>131</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>6980</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>135</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>26882</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8987,7 +8987,7 @@
         <v>5600</v>
       </c>
       <c r="C95" t="n">
-        <v>8056</v>
+        <v>8055</v>
       </c>
       <c r="D95" t="n">
         <v>8152</v>
@@ -9005,7 +9005,7 @@
         <v>8300</v>
       </c>
       <c r="I95" t="n">
-        <v>12375</v>
+        <v>12203</v>
       </c>
       <c r="J95" t="n">
         <v>3101</v>
@@ -9014,7 +9014,7 @@
         <v>30482</v>
       </c>
       <c r="L95" t="n">
-        <v>2085</v>
+        <v>1951</v>
       </c>
       <c r="M95" t="n">
         <v>1262</v>
@@ -9050,7 +9050,7 @@
         <v>4252</v>
       </c>
       <c r="X95" t="n">
-        <v>3098</v>
+        <v>2959</v>
       </c>
       <c r="Y95" t="n">
         <v>8000</v>
@@ -9065,7 +9065,98 @@
         <v>3277</v>
       </c>
       <c r="AC95" t="n">
-        <v>442948</v>
+        <v>442502</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8056</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8152</v>
+      </c>
+      <c r="E96" t="n">
+        <v>36146</v>
+      </c>
+      <c r="F96" t="n">
+        <v>15963</v>
+      </c>
+      <c r="G96" t="n">
+        <v>37954</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8422</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12375</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3319</v>
+      </c>
+      <c r="K96" t="n">
+        <v>30482</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2085</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1356</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9232</v>
+      </c>
+      <c r="O96" t="n">
+        <v>36486</v>
+      </c>
+      <c r="P96" t="n">
+        <v>11132</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4041</v>
+      </c>
+      <c r="R96" t="n">
+        <v>32255</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4503</v>
+      </c>
+      <c r="T96" t="n">
+        <v>44886</v>
+      </c>
+      <c r="U96" t="n">
+        <v>6463</v>
+      </c>
+      <c r="V96" t="n">
+        <v>8234</v>
+      </c>
+      <c r="W96" t="n">
+        <v>4252</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3098</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>95865</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6156</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3611</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>448124</v>
       </c>
     </row>
   </sheetData>
@@ -9079,7 +9170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17734,7 +17825,7 @@
         <v>911</v>
       </c>
       <c r="L95" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M95" t="n">
         <v>18</v>
@@ -17743,7 +17834,7 @@
         <v>255</v>
       </c>
       <c r="O95" t="n">
-        <v>2785</v>
+        <v>2759</v>
       </c>
       <c r="P95" t="n">
         <v>318</v>
@@ -17761,7 +17852,7 @@
         <v>4856</v>
       </c>
       <c r="U95" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V95" t="n">
         <v>213</v>
@@ -17770,7 +17861,7 @@
         <v>142</v>
       </c>
       <c r="X95" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y95" t="n">
         <v>131</v>
@@ -17785,7 +17876,98 @@
         <v>68</v>
       </c>
       <c r="AC95" t="n">
-        <v>26882</v>
+        <v>26846</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>122</v>
+      </c>
+      <c r="C96" t="n">
+        <v>385</v>
+      </c>
+      <c r="D96" t="n">
+        <v>198</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F96" t="n">
+        <v>570</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2743</v>
+      </c>
+      <c r="H96" t="n">
+        <v>144</v>
+      </c>
+      <c r="I96" t="n">
+        <v>538</v>
+      </c>
+      <c r="J96" t="n">
+        <v>119</v>
+      </c>
+      <c r="K96" t="n">
+        <v>911</v>
+      </c>
+      <c r="L96" t="n">
+        <v>54</v>
+      </c>
+      <c r="M96" t="n">
+        <v>18</v>
+      </c>
+      <c r="N96" t="n">
+        <v>257</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2785</v>
+      </c>
+      <c r="P96" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>174</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2669</v>
+      </c>
+      <c r="S96" t="n">
+        <v>146</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4856</v>
+      </c>
+      <c r="U96" t="n">
+        <v>255</v>
+      </c>
+      <c r="V96" t="n">
+        <v>213</v>
+      </c>
+      <c r="W96" t="n">
+        <v>142</v>
+      </c>
+      <c r="X96" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>131</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>6980</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>135</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>27003</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9014,10 +9014,10 @@
         <v>30482</v>
       </c>
       <c r="L95" t="n">
-        <v>1951</v>
+        <v>2085</v>
       </c>
       <c r="M95" t="n">
-        <v>1262</v>
+        <v>1356</v>
       </c>
       <c r="N95" t="n">
         <v>8686</v>
@@ -9041,7 +9041,7 @@
         <v>44886</v>
       </c>
       <c r="U95" t="n">
-        <v>5630</v>
+        <v>6461</v>
       </c>
       <c r="V95" t="n">
         <v>8234</v>
@@ -9065,7 +9065,7 @@
         <v>3277</v>
       </c>
       <c r="AC95" t="n">
-        <v>442502</v>
+        <v>443561</v>
       </c>
     </row>
     <row r="96">
@@ -9075,88 +9075,179 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5600</v>
+        <v>5841</v>
       </c>
       <c r="C96" t="n">
-        <v>8056</v>
+        <v>8618</v>
       </c>
       <c r="D96" t="n">
-        <v>8152</v>
+        <v>8469</v>
       </c>
       <c r="E96" t="n">
-        <v>36146</v>
+        <v>38909</v>
       </c>
       <c r="F96" t="n">
-        <v>15963</v>
+        <v>16917</v>
       </c>
       <c r="G96" t="n">
-        <v>37954</v>
+        <v>38395</v>
       </c>
       <c r="H96" t="n">
-        <v>8422</v>
+        <v>8722</v>
       </c>
       <c r="I96" t="n">
-        <v>12375</v>
+        <v>12903</v>
       </c>
       <c r="J96" t="n">
-        <v>3319</v>
+        <v>3521</v>
       </c>
       <c r="K96" t="n">
-        <v>30482</v>
+        <v>32620</v>
       </c>
       <c r="L96" t="n">
-        <v>2085</v>
+        <v>2262</v>
       </c>
       <c r="M96" t="n">
-        <v>1356</v>
+        <v>1418</v>
       </c>
       <c r="N96" t="n">
         <v>9232</v>
       </c>
       <c r="O96" t="n">
-        <v>36486</v>
+        <v>37296</v>
       </c>
       <c r="P96" t="n">
-        <v>11132</v>
+        <v>12011</v>
       </c>
       <c r="Q96" t="n">
-        <v>4041</v>
+        <v>4300</v>
       </c>
       <c r="R96" t="n">
         <v>32255</v>
       </c>
       <c r="S96" t="n">
-        <v>4503</v>
+        <v>4745</v>
       </c>
       <c r="T96" t="n">
-        <v>44886</v>
+        <v>47953</v>
       </c>
       <c r="U96" t="n">
         <v>6463</v>
       </c>
       <c r="V96" t="n">
-        <v>8234</v>
+        <v>8843</v>
       </c>
       <c r="W96" t="n">
-        <v>4252</v>
+        <v>4502</v>
       </c>
       <c r="X96" t="n">
         <v>3098</v>
       </c>
       <c r="Y96" t="n">
-        <v>8000</v>
+        <v>8530</v>
       </c>
       <c r="Z96" t="n">
-        <v>95865</v>
+        <v>101556</v>
       </c>
       <c r="AA96" t="n">
-        <v>6156</v>
+        <v>6462</v>
       </c>
       <c r="AB96" t="n">
         <v>3611</v>
       </c>
       <c r="AC96" t="n">
-        <v>448124</v>
+        <v>469452</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6072</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9223</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9313</v>
+      </c>
+      <c r="E97" t="n">
+        <v>40560</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17626</v>
+      </c>
+      <c r="G97" t="n">
+        <v>47822</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9474</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13437</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3601</v>
+      </c>
+      <c r="K97" t="n">
+        <v>32620</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2413</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1418</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9630</v>
+      </c>
+      <c r="O97" t="n">
+        <v>37859</v>
+      </c>
+      <c r="P97" t="n">
+        <v>12862</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4473</v>
+      </c>
+      <c r="R97" t="n">
+        <v>33427</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4931</v>
+      </c>
+      <c r="T97" t="n">
+        <v>52420</v>
+      </c>
+      <c r="U97" t="n">
+        <v>7402</v>
+      </c>
+      <c r="V97" t="n">
+        <v>9242</v>
+      </c>
+      <c r="W97" t="n">
+        <v>4743</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3474</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>8780</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>107142</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6805</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3981</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>500750</v>
       </c>
     </row>
   </sheetData>
@@ -9170,7 +9261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17825,7 +17916,7 @@
         <v>911</v>
       </c>
       <c r="L95" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M95" t="n">
         <v>18</v>
@@ -17852,7 +17943,7 @@
         <v>4856</v>
       </c>
       <c r="U95" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="V95" t="n">
         <v>213</v>
@@ -17876,7 +17967,7 @@
         <v>68</v>
       </c>
       <c r="AC95" t="n">
-        <v>26846</v>
+        <v>26863</v>
       </c>
     </row>
     <row r="96">
@@ -17886,88 +17977,179 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C96" t="n">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="D96" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E96" t="n">
-        <v>1964</v>
+        <v>2011</v>
       </c>
       <c r="F96" t="n">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G96" t="n">
-        <v>2743</v>
+        <v>2859</v>
       </c>
       <c r="H96" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="I96" t="n">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="J96" t="n">
         <v>119</v>
       </c>
       <c r="K96" t="n">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="L96" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N96" t="n">
         <v>257</v>
       </c>
       <c r="O96" t="n">
-        <v>2785</v>
+        <v>2873</v>
       </c>
       <c r="P96" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q96" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R96" t="n">
         <v>2669</v>
       </c>
       <c r="S96" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="T96" t="n">
-        <v>4856</v>
+        <v>5079</v>
       </c>
       <c r="U96" t="n">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="V96" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W96" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="X96" t="n">
         <v>108</v>
       </c>
       <c r="Y96" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z96" t="n">
-        <v>6980</v>
+        <v>7275</v>
       </c>
       <c r="AA96" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AB96" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC96" t="n">
-        <v>27003</v>
+        <v>27966</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>142</v>
+      </c>
+      <c r="C97" t="n">
+        <v>424</v>
+      </c>
+      <c r="D97" t="n">
+        <v>215</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2047</v>
+      </c>
+      <c r="F97" t="n">
+        <v>638</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2956</v>
+      </c>
+      <c r="H97" t="n">
+        <v>162</v>
+      </c>
+      <c r="I97" t="n">
+        <v>583</v>
+      </c>
+      <c r="J97" t="n">
+        <v>124</v>
+      </c>
+      <c r="K97" t="n">
+        <v>932</v>
+      </c>
+      <c r="L97" t="n">
+        <v>58</v>
+      </c>
+      <c r="M97" t="n">
+        <v>19</v>
+      </c>
+      <c r="N97" t="n">
+        <v>263</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2915</v>
+      </c>
+      <c r="P97" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>181</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2740</v>
+      </c>
+      <c r="S97" t="n">
+        <v>161</v>
+      </c>
+      <c r="T97" t="n">
+        <v>5277</v>
+      </c>
+      <c r="U97" t="n">
+        <v>305</v>
+      </c>
+      <c r="V97" t="n">
+        <v>218</v>
+      </c>
+      <c r="W97" t="n">
+        <v>151</v>
+      </c>
+      <c r="X97" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>136</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>7532</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>149</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>28856</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9190,13 +9190,13 @@
         <v>13437</v>
       </c>
       <c r="J97" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="K97" t="n">
-        <v>32620</v>
+        <v>34639</v>
       </c>
       <c r="L97" t="n">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="M97" t="n">
         <v>1418</v>
@@ -9232,7 +9232,7 @@
         <v>4743</v>
       </c>
       <c r="X97" t="n">
-        <v>3474</v>
+        <v>3299</v>
       </c>
       <c r="Y97" t="n">
         <v>8780</v>
@@ -9247,7 +9247,98 @@
         <v>3981</v>
       </c>
       <c r="AC97" t="n">
-        <v>500750</v>
+        <v>502600</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6219</v>
+      </c>
+      <c r="C98" t="n">
+        <v>10288</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9602</v>
+      </c>
+      <c r="E98" t="n">
+        <v>41378</v>
+      </c>
+      <c r="F98" t="n">
+        <v>18392</v>
+      </c>
+      <c r="G98" t="n">
+        <v>48489</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9780</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13690</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3732</v>
+      </c>
+      <c r="K98" t="n">
+        <v>35297</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2485</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1489</v>
+      </c>
+      <c r="N98" t="n">
+        <v>10464</v>
+      </c>
+      <c r="O98" t="n">
+        <v>38046</v>
+      </c>
+      <c r="P98" t="n">
+        <v>13162</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4687</v>
+      </c>
+      <c r="R98" t="n">
+        <v>34450</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5119</v>
+      </c>
+      <c r="T98" t="n">
+        <v>53388</v>
+      </c>
+      <c r="U98" t="n">
+        <v>8051</v>
+      </c>
+      <c r="V98" t="n">
+        <v>9332</v>
+      </c>
+      <c r="W98" t="n">
+        <v>4942</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3692</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>9037</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>109698</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6999</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>4176</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>516084</v>
       </c>
     </row>
   </sheetData>
@@ -9261,7 +9352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18095,7 +18186,7 @@
         <v>124</v>
       </c>
       <c r="K97" t="n">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="L97" t="n">
         <v>58</v>
@@ -18107,7 +18198,7 @@
         <v>263</v>
       </c>
       <c r="O97" t="n">
-        <v>2915</v>
+        <v>2920</v>
       </c>
       <c r="P97" t="n">
         <v>347</v>
@@ -18149,7 +18240,98 @@
         <v>71</v>
       </c>
       <c r="AC97" t="n">
-        <v>28856</v>
+        <v>28884</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>148</v>
+      </c>
+      <c r="C98" t="n">
+        <v>443</v>
+      </c>
+      <c r="D98" t="n">
+        <v>222</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F98" t="n">
+        <v>667</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3010</v>
+      </c>
+      <c r="H98" t="n">
+        <v>170</v>
+      </c>
+      <c r="I98" t="n">
+        <v>604</v>
+      </c>
+      <c r="J98" t="n">
+        <v>124</v>
+      </c>
+      <c r="K98" t="n">
+        <v>976</v>
+      </c>
+      <c r="L98" t="n">
+        <v>63</v>
+      </c>
+      <c r="M98" t="n">
+        <v>20</v>
+      </c>
+      <c r="N98" t="n">
+        <v>271</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2923</v>
+      </c>
+      <c r="P98" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>182</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2807</v>
+      </c>
+      <c r="S98" t="n">
+        <v>168</v>
+      </c>
+      <c r="T98" t="n">
+        <v>5344</v>
+      </c>
+      <c r="U98" t="n">
+        <v>305</v>
+      </c>
+      <c r="V98" t="n">
+        <v>224</v>
+      </c>
+      <c r="W98" t="n">
+        <v>156</v>
+      </c>
+      <c r="X98" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>143</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>7615</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>158</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>29344</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8868,7 +8868,7 @@
         <v>3493</v>
       </c>
       <c r="X93" t="n">
-        <v>2583</v>
+        <v>2682</v>
       </c>
       <c r="Y93" t="n">
         <v>7016</v>
@@ -8883,7 +8883,7 @@
         <v>2858</v>
       </c>
       <c r="AC93" t="n">
-        <v>395066</v>
+        <v>395165</v>
       </c>
     </row>
     <row r="94">
@@ -8959,7 +8959,7 @@
         <v>3862</v>
       </c>
       <c r="X94" t="n">
-        <v>2682</v>
+        <v>2959</v>
       </c>
       <c r="Y94" t="n">
         <v>7372</v>
@@ -8974,7 +8974,7 @@
         <v>3023</v>
       </c>
       <c r="AC94" t="n">
-        <v>414835</v>
+        <v>415112</v>
       </c>
     </row>
     <row r="95">
@@ -9050,7 +9050,7 @@
         <v>4252</v>
       </c>
       <c r="X95" t="n">
-        <v>2959</v>
+        <v>3098</v>
       </c>
       <c r="Y95" t="n">
         <v>8000</v>
@@ -9065,7 +9065,7 @@
         <v>3277</v>
       </c>
       <c r="AC95" t="n">
-        <v>443561</v>
+        <v>443700</v>
       </c>
     </row>
     <row r="96">
@@ -9141,7 +9141,7 @@
         <v>4502</v>
       </c>
       <c r="X96" t="n">
-        <v>3098</v>
+        <v>3299</v>
       </c>
       <c r="Y96" t="n">
         <v>8530</v>
@@ -9156,7 +9156,7 @@
         <v>3611</v>
       </c>
       <c r="AC96" t="n">
-        <v>469452</v>
+        <v>469653</v>
       </c>
     </row>
     <row r="97">
@@ -9196,10 +9196,10 @@
         <v>34639</v>
       </c>
       <c r="L97" t="n">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="M97" t="n">
-        <v>1418</v>
+        <v>1489</v>
       </c>
       <c r="N97" t="n">
         <v>9630</v>
@@ -9211,7 +9211,7 @@
         <v>12862</v>
       </c>
       <c r="Q97" t="n">
-        <v>4473</v>
+        <v>4538</v>
       </c>
       <c r="R97" t="n">
         <v>33427</v>
@@ -9232,7 +9232,7 @@
         <v>4743</v>
       </c>
       <c r="X97" t="n">
-        <v>3299</v>
+        <v>3475</v>
       </c>
       <c r="Y97" t="n">
         <v>8780</v>
@@ -9247,7 +9247,7 @@
         <v>3981</v>
       </c>
       <c r="AC97" t="n">
-        <v>502600</v>
+        <v>502914</v>
       </c>
     </row>
     <row r="98">
@@ -9281,7 +9281,7 @@
         <v>13690</v>
       </c>
       <c r="J98" t="n">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="K98" t="n">
         <v>35297</v>
@@ -9296,13 +9296,13 @@
         <v>10464</v>
       </c>
       <c r="O98" t="n">
-        <v>38046</v>
+        <v>37961</v>
       </c>
       <c r="P98" t="n">
         <v>13162</v>
       </c>
       <c r="Q98" t="n">
-        <v>4687</v>
+        <v>4752</v>
       </c>
       <c r="R98" t="n">
         <v>34450</v>
@@ -9323,7 +9323,7 @@
         <v>4942</v>
       </c>
       <c r="X98" t="n">
-        <v>3692</v>
+        <v>3474</v>
       </c>
       <c r="Y98" t="n">
         <v>9037</v>
@@ -9338,7 +9338,98 @@
         <v>4176</v>
       </c>
       <c r="AC98" t="n">
-        <v>516084</v>
+        <v>515840</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6326</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10837</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E99" t="n">
+        <v>41378</v>
+      </c>
+      <c r="F99" t="n">
+        <v>18898</v>
+      </c>
+      <c r="G99" t="n">
+        <v>50504</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10510</v>
+      </c>
+      <c r="I99" t="n">
+        <v>14285</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4014</v>
+      </c>
+      <c r="K99" t="n">
+        <v>35297</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2636</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1568</v>
+      </c>
+      <c r="N99" t="n">
+        <v>10670</v>
+      </c>
+      <c r="O99" t="n">
+        <v>40014</v>
+      </c>
+      <c r="P99" t="n">
+        <v>13695</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4752</v>
+      </c>
+      <c r="R99" t="n">
+        <v>34900</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5119</v>
+      </c>
+      <c r="T99" t="n">
+        <v>54530</v>
+      </c>
+      <c r="U99" t="n">
+        <v>8051</v>
+      </c>
+      <c r="V99" t="n">
+        <v>9496</v>
+      </c>
+      <c r="W99" t="n">
+        <v>4942</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3692</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>9498</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>111296</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6999</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>4345</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>528142</v>
       </c>
     </row>
   </sheetData>
@@ -9352,7 +9443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18043,7 +18134,7 @@
         <v>142</v>
       </c>
       <c r="X95" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y95" t="n">
         <v>131</v>
@@ -18058,7 +18149,7 @@
         <v>68</v>
       </c>
       <c r="AC95" t="n">
-        <v>26863</v>
+        <v>26869</v>
       </c>
     </row>
     <row r="96">
@@ -18134,7 +18225,7 @@
         <v>145</v>
       </c>
       <c r="X96" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y96" t="n">
         <v>134</v>
@@ -18149,7 +18240,7 @@
         <v>70</v>
       </c>
       <c r="AC96" t="n">
-        <v>27966</v>
+        <v>27968</v>
       </c>
     </row>
     <row r="97">
@@ -18192,7 +18283,7 @@
         <v>58</v>
       </c>
       <c r="M97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N97" t="n">
         <v>263</v>
@@ -18204,7 +18295,7 @@
         <v>347</v>
       </c>
       <c r="Q97" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="R97" t="n">
         <v>2740</v>
@@ -18225,7 +18316,7 @@
         <v>151</v>
       </c>
       <c r="X97" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y97" t="n">
         <v>136</v>
@@ -18240,7 +18331,7 @@
         <v>71</v>
       </c>
       <c r="AC97" t="n">
-        <v>28884</v>
+        <v>28896</v>
       </c>
     </row>
     <row r="98">
@@ -18295,7 +18386,7 @@
         <v>360</v>
       </c>
       <c r="Q98" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="R98" t="n">
         <v>2807</v>
@@ -18331,7 +18422,98 @@
         <v>73</v>
       </c>
       <c r="AC98" t="n">
-        <v>29344</v>
+        <v>29349</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>161</v>
+      </c>
+      <c r="C99" t="n">
+        <v>461</v>
+      </c>
+      <c r="D99" t="n">
+        <v>228</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F99" t="n">
+        <v>701</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3188</v>
+      </c>
+      <c r="H99" t="n">
+        <v>171</v>
+      </c>
+      <c r="I99" t="n">
+        <v>628</v>
+      </c>
+      <c r="J99" t="n">
+        <v>127</v>
+      </c>
+      <c r="K99" t="n">
+        <v>976</v>
+      </c>
+      <c r="L99" t="n">
+        <v>63</v>
+      </c>
+      <c r="M99" t="n">
+        <v>20</v>
+      </c>
+      <c r="N99" t="n">
+        <v>278</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3019</v>
+      </c>
+      <c r="P99" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>190</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2875</v>
+      </c>
+      <c r="S99" t="n">
+        <v>168</v>
+      </c>
+      <c r="T99" t="n">
+        <v>5462</v>
+      </c>
+      <c r="U99" t="n">
+        <v>323</v>
+      </c>
+      <c r="V99" t="n">
+        <v>232</v>
+      </c>
+      <c r="W99" t="n">
+        <v>156</v>
+      </c>
+      <c r="X99" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>146</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>7667</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>158</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>30012</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9132,7 +9132,7 @@
         <v>47953</v>
       </c>
       <c r="U96" t="n">
-        <v>6463</v>
+        <v>7400</v>
       </c>
       <c r="V96" t="n">
         <v>8843</v>
@@ -9156,7 +9156,7 @@
         <v>3611</v>
       </c>
       <c r="AC96" t="n">
-        <v>469653</v>
+        <v>470590</v>
       </c>
     </row>
     <row r="97">
@@ -9357,7 +9357,7 @@
         <v>9890</v>
       </c>
       <c r="E99" t="n">
-        <v>41378</v>
+        <v>41774</v>
       </c>
       <c r="F99" t="n">
         <v>18898</v>
@@ -9369,13 +9369,13 @@
         <v>10510</v>
       </c>
       <c r="I99" t="n">
-        <v>14285</v>
+        <v>14069</v>
       </c>
       <c r="J99" t="n">
-        <v>4014</v>
+        <v>4017</v>
       </c>
       <c r="K99" t="n">
-        <v>35297</v>
+        <v>36625</v>
       </c>
       <c r="L99" t="n">
         <v>2636</v>
@@ -9393,7 +9393,7 @@
         <v>13695</v>
       </c>
       <c r="Q99" t="n">
-        <v>4752</v>
+        <v>4900</v>
       </c>
       <c r="R99" t="n">
         <v>34900</v>
@@ -9405,13 +9405,13 @@
         <v>54530</v>
       </c>
       <c r="U99" t="n">
-        <v>8051</v>
+        <v>7964</v>
       </c>
       <c r="V99" t="n">
         <v>9496</v>
       </c>
       <c r="W99" t="n">
-        <v>4942</v>
+        <v>5172</v>
       </c>
       <c r="X99" t="n">
         <v>3692</v>
@@ -9423,13 +9423,104 @@
         <v>111296</v>
       </c>
       <c r="AA99" t="n">
-        <v>6999</v>
+        <v>7233</v>
       </c>
       <c r="AB99" t="n">
         <v>4345</v>
       </c>
       <c r="AC99" t="n">
-        <v>528142</v>
+        <v>530178</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6326</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10837</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E100" t="n">
+        <v>41774</v>
+      </c>
+      <c r="F100" t="n">
+        <v>18898</v>
+      </c>
+      <c r="G100" t="n">
+        <v>50504</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10648</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14285</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4205</v>
+      </c>
+      <c r="K100" t="n">
+        <v>36625</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2636</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1646</v>
+      </c>
+      <c r="N100" t="n">
+        <v>10939</v>
+      </c>
+      <c r="O100" t="n">
+        <v>42347</v>
+      </c>
+      <c r="P100" t="n">
+        <v>13695</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R100" t="n">
+        <v>35508</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5506</v>
+      </c>
+      <c r="T100" t="n">
+        <v>54530</v>
+      </c>
+      <c r="U100" t="n">
+        <v>8008</v>
+      </c>
+      <c r="V100" t="n">
+        <v>9496</v>
+      </c>
+      <c r="W100" t="n">
+        <v>5172</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3850</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>9498</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>118295</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>7233</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>4483</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>541734</v>
       </c>
     </row>
   </sheetData>
@@ -9443,7 +9534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18216,7 +18307,7 @@
         <v>5079</v>
       </c>
       <c r="U96" t="n">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="V96" t="n">
         <v>216</v>
@@ -18240,7 +18331,7 @@
         <v>70</v>
       </c>
       <c r="AC96" t="n">
-        <v>27968</v>
+        <v>28005</v>
       </c>
     </row>
     <row r="97">
@@ -18398,7 +18489,7 @@
         <v>5344</v>
       </c>
       <c r="U98" t="n">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="V98" t="n">
         <v>224</v>
@@ -18422,7 +18513,7 @@
         <v>73</v>
       </c>
       <c r="AC98" t="n">
-        <v>29349</v>
+        <v>29367</v>
       </c>
     </row>
     <row r="99">
@@ -18441,7 +18532,7 @@
         <v>228</v>
       </c>
       <c r="E99" t="n">
-        <v>2052</v>
+        <v>2071</v>
       </c>
       <c r="F99" t="n">
         <v>701</v>
@@ -18453,16 +18544,16 @@
         <v>171</v>
       </c>
       <c r="I99" t="n">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="J99" t="n">
         <v>127</v>
       </c>
       <c r="K99" t="n">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="L99" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M99" t="n">
         <v>20</v>
@@ -18477,7 +18568,7 @@
         <v>370</v>
       </c>
       <c r="Q99" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="R99" t="n">
         <v>2875</v>
@@ -18495,7 +18586,7 @@
         <v>232</v>
       </c>
       <c r="W99" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="X99" t="n">
         <v>116</v>
@@ -18507,13 +18598,104 @@
         <v>7667</v>
       </c>
       <c r="AA99" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AB99" t="n">
         <v>76</v>
       </c>
       <c r="AC99" t="n">
-        <v>30012</v>
+        <v>30058</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>161</v>
+      </c>
+      <c r="C100" t="n">
+        <v>461</v>
+      </c>
+      <c r="D100" t="n">
+        <v>228</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2071</v>
+      </c>
+      <c r="F100" t="n">
+        <v>701</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3188</v>
+      </c>
+      <c r="H100" t="n">
+        <v>171</v>
+      </c>
+      <c r="I100" t="n">
+        <v>628</v>
+      </c>
+      <c r="J100" t="n">
+        <v>139</v>
+      </c>
+      <c r="K100" t="n">
+        <v>997</v>
+      </c>
+      <c r="L100" t="n">
+        <v>67</v>
+      </c>
+      <c r="M100" t="n">
+        <v>20</v>
+      </c>
+      <c r="N100" t="n">
+        <v>289</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3040</v>
+      </c>
+      <c r="P100" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>195</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2933</v>
+      </c>
+      <c r="S100" t="n">
+        <v>180</v>
+      </c>
+      <c r="T100" t="n">
+        <v>5462</v>
+      </c>
+      <c r="U100" t="n">
+        <v>323</v>
+      </c>
+      <c r="V100" t="n">
+        <v>232</v>
+      </c>
+      <c r="W100" t="n">
+        <v>159</v>
+      </c>
+      <c r="X100" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>146</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>7994</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>166</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>30520</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -9290,7 +9290,7 @@
         <v>2485</v>
       </c>
       <c r="M98" t="n">
-        <v>1489</v>
+        <v>1568</v>
       </c>
       <c r="N98" t="n">
         <v>10464</v>
@@ -9338,7 +9338,7 @@
         <v>4176</v>
       </c>
       <c r="AC98" t="n">
-        <v>515840</v>
+        <v>515919</v>
       </c>
     </row>
     <row r="99">
@@ -9399,7 +9399,7 @@
         <v>34900</v>
       </c>
       <c r="S99" t="n">
-        <v>5119</v>
+        <v>5506</v>
       </c>
       <c r="T99" t="n">
         <v>54530</v>
@@ -9429,7 +9429,7 @@
         <v>4345</v>
       </c>
       <c r="AC99" t="n">
-        <v>530178</v>
+        <v>530565</v>
       </c>
     </row>
     <row r="100">
@@ -9439,88 +9439,88 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6326</v>
+        <v>6465</v>
       </c>
       <c r="C100" t="n">
-        <v>10837</v>
+        <v>11559</v>
       </c>
       <c r="D100" t="n">
-        <v>9890</v>
+        <v>10511</v>
       </c>
       <c r="E100" t="n">
-        <v>41774</v>
+        <v>43195</v>
       </c>
       <c r="F100" t="n">
-        <v>18898</v>
+        <v>21430</v>
       </c>
       <c r="G100" t="n">
-        <v>50504</v>
+        <v>54683</v>
       </c>
       <c r="H100" t="n">
-        <v>10648</v>
+        <v>11256</v>
       </c>
       <c r="I100" t="n">
-        <v>14285</v>
+        <v>15151</v>
       </c>
       <c r="J100" t="n">
-        <v>4205</v>
+        <v>4430</v>
       </c>
       <c r="K100" t="n">
-        <v>36625</v>
+        <v>38174</v>
       </c>
       <c r="L100" t="n">
-        <v>2636</v>
+        <v>2817</v>
       </c>
       <c r="M100" t="n">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="N100" t="n">
         <v>10939</v>
       </c>
       <c r="O100" t="n">
-        <v>42347</v>
+        <v>43652</v>
       </c>
       <c r="P100" t="n">
-        <v>13695</v>
+        <v>14859</v>
       </c>
       <c r="Q100" t="n">
-        <v>4900</v>
+        <v>5163</v>
       </c>
       <c r="R100" t="n">
         <v>35508</v>
       </c>
       <c r="S100" t="n">
-        <v>5506</v>
+        <v>5828</v>
       </c>
       <c r="T100" t="n">
-        <v>54530</v>
+        <v>56732</v>
       </c>
       <c r="U100" t="n">
-        <v>8008</v>
+        <v>8233</v>
       </c>
       <c r="V100" t="n">
-        <v>9496</v>
+        <v>9919</v>
       </c>
       <c r="W100" t="n">
-        <v>5172</v>
+        <v>5477</v>
       </c>
       <c r="X100" t="n">
         <v>3850</v>
       </c>
       <c r="Y100" t="n">
-        <v>9498</v>
+        <v>9660</v>
       </c>
       <c r="Z100" t="n">
         <v>118295</v>
       </c>
       <c r="AA100" t="n">
-        <v>7233</v>
+        <v>7555</v>
       </c>
       <c r="AB100" t="n">
         <v>4483</v>
       </c>
       <c r="AC100" t="n">
-        <v>541734</v>
+        <v>561471</v>
       </c>
     </row>
   </sheetData>
@@ -18574,7 +18574,7 @@
         <v>2875</v>
       </c>
       <c r="S99" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="T99" t="n">
         <v>5462</v>
@@ -18604,7 +18604,7 @@
         <v>76</v>
       </c>
       <c r="AC99" t="n">
-        <v>30058</v>
+        <v>30070</v>
       </c>
     </row>
     <row r="100">
@@ -18614,37 +18614,37 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C100" t="n">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="D100" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E100" t="n">
-        <v>2071</v>
+        <v>2102</v>
       </c>
       <c r="F100" t="n">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="G100" t="n">
-        <v>3188</v>
+        <v>3504</v>
       </c>
       <c r="H100" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I100" t="n">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="J100" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K100" t="n">
         <v>997</v>
       </c>
       <c r="L100" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M100" t="n">
         <v>20</v>
@@ -18653,49 +18653,49 @@
         <v>289</v>
       </c>
       <c r="O100" t="n">
-        <v>3040</v>
+        <v>3144</v>
       </c>
       <c r="P100" t="n">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q100" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="R100" t="n">
         <v>2933</v>
       </c>
       <c r="S100" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="T100" t="n">
-        <v>5462</v>
+        <v>5686</v>
       </c>
       <c r="U100" t="n">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="V100" t="n">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="W100" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X100" t="n">
         <v>120</v>
       </c>
       <c r="Y100" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z100" t="n">
         <v>7994</v>
       </c>
       <c r="AA100" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AB100" t="n">
         <v>79</v>
       </c>
       <c r="AC100" t="n">
-        <v>30520</v>
+        <v>31398</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9323,7 +9323,7 @@
         <v>4942</v>
       </c>
       <c r="X98" t="n">
-        <v>3474</v>
+        <v>3692</v>
       </c>
       <c r="Y98" t="n">
         <v>9037</v>
@@ -9338,7 +9338,7 @@
         <v>4176</v>
       </c>
       <c r="AC98" t="n">
-        <v>515919</v>
+        <v>516137</v>
       </c>
     </row>
     <row r="99">
@@ -9381,7 +9381,7 @@
         <v>2636</v>
       </c>
       <c r="M99" t="n">
-        <v>1568</v>
+        <v>1646</v>
       </c>
       <c r="N99" t="n">
         <v>10670</v>
@@ -9405,7 +9405,7 @@
         <v>54530</v>
       </c>
       <c r="U99" t="n">
-        <v>7964</v>
+        <v>8231</v>
       </c>
       <c r="V99" t="n">
         <v>9496</v>
@@ -9429,7 +9429,7 @@
         <v>4345</v>
       </c>
       <c r="AC99" t="n">
-        <v>530565</v>
+        <v>530910</v>
       </c>
     </row>
     <row r="100">
@@ -9463,7 +9463,7 @@
         <v>15151</v>
       </c>
       <c r="J100" t="n">
-        <v>4430</v>
+        <v>4486</v>
       </c>
       <c r="K100" t="n">
         <v>38174</v>
@@ -9472,7 +9472,7 @@
         <v>2817</v>
       </c>
       <c r="M100" t="n">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="N100" t="n">
         <v>10939</v>
@@ -9520,7 +9520,98 @@
         <v>4483</v>
       </c>
       <c r="AC100" t="n">
-        <v>561471</v>
+        <v>561526</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6679</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12407</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11107</v>
+      </c>
+      <c r="E101" t="n">
+        <v>44347</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22451</v>
+      </c>
+      <c r="G101" t="n">
+        <v>56056</v>
+      </c>
+      <c r="H101" t="n">
+        <v>12020</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16121</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4698</v>
+      </c>
+      <c r="K101" t="n">
+        <v>38174</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3029</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1802</v>
+      </c>
+      <c r="N101" t="n">
+        <v>12010</v>
+      </c>
+      <c r="O101" t="n">
+        <v>44774</v>
+      </c>
+      <c r="P101" t="n">
+        <v>16018</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5163</v>
+      </c>
+      <c r="R101" t="n">
+        <v>36463</v>
+      </c>
+      <c r="S101" t="n">
+        <v>6064</v>
+      </c>
+      <c r="T101" t="n">
+        <v>59240</v>
+      </c>
+      <c r="U101" t="n">
+        <v>9149</v>
+      </c>
+      <c r="V101" t="n">
+        <v>10398</v>
+      </c>
+      <c r="W101" t="n">
+        <v>5477</v>
+      </c>
+      <c r="X101" t="n">
+        <v>4143</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>10034</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>123483</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>7989</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>4698</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>583994</v>
       </c>
     </row>
   </sheetData>
@@ -9534,7 +9625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18541,7 +18632,7 @@
         <v>3188</v>
       </c>
       <c r="H99" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I99" t="n">
         <v>614</v>
@@ -18580,7 +18671,7 @@
         <v>5462</v>
       </c>
       <c r="U99" t="n">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="V99" t="n">
         <v>232</v>
@@ -18604,7 +18695,7 @@
         <v>76</v>
       </c>
       <c r="AC99" t="n">
-        <v>30070</v>
+        <v>30090</v>
       </c>
     </row>
     <row r="100">
@@ -18638,13 +18729,13 @@
         <v>664</v>
       </c>
       <c r="J100" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K100" t="n">
-        <v>997</v>
+        <v>1028</v>
       </c>
       <c r="L100" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M100" t="n">
         <v>20</v>
@@ -18695,7 +18786,98 @@
         <v>79</v>
       </c>
       <c r="AC100" t="n">
-        <v>31398</v>
+        <v>31438</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>171</v>
+      </c>
+      <c r="C101" t="n">
+        <v>506</v>
+      </c>
+      <c r="D101" t="n">
+        <v>247</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2138</v>
+      </c>
+      <c r="F101" t="n">
+        <v>762</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3605</v>
+      </c>
+      <c r="H101" t="n">
+        <v>191</v>
+      </c>
+      <c r="I101" t="n">
+        <v>698</v>
+      </c>
+      <c r="J101" t="n">
+        <v>159</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1028</v>
+      </c>
+      <c r="L101" t="n">
+        <v>79</v>
+      </c>
+      <c r="M101" t="n">
+        <v>20</v>
+      </c>
+      <c r="N101" t="n">
+        <v>306</v>
+      </c>
+      <c r="O101" t="n">
+        <v>3193</v>
+      </c>
+      <c r="P101" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>205</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3012</v>
+      </c>
+      <c r="S101" t="n">
+        <v>202</v>
+      </c>
+      <c r="T101" t="n">
+        <v>6010</v>
+      </c>
+      <c r="U101" t="n">
+        <v>367</v>
+      </c>
+      <c r="V101" t="n">
+        <v>258</v>
+      </c>
+      <c r="W101" t="n">
+        <v>172</v>
+      </c>
+      <c r="X101" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>152</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>8276</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>32557</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -9369,7 +9369,7 @@
         <v>10510</v>
       </c>
       <c r="I99" t="n">
-        <v>14069</v>
+        <v>14285</v>
       </c>
       <c r="J99" t="n">
         <v>4017</v>
@@ -9414,7 +9414,7 @@
         <v>5172</v>
       </c>
       <c r="X99" t="n">
-        <v>3692</v>
+        <v>3850</v>
       </c>
       <c r="Y99" t="n">
         <v>9498</v>
@@ -9429,7 +9429,7 @@
         <v>4345</v>
       </c>
       <c r="AC99" t="n">
-        <v>530910</v>
+        <v>531284</v>
       </c>
     </row>
     <row r="100">
@@ -9505,7 +9505,7 @@
         <v>5477</v>
       </c>
       <c r="X100" t="n">
-        <v>3850</v>
+        <v>4143</v>
       </c>
       <c r="Y100" t="n">
         <v>9660</v>
@@ -9517,10 +9517,10 @@
         <v>7555</v>
       </c>
       <c r="AB100" t="n">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="AC100" t="n">
-        <v>561526</v>
+        <v>561820</v>
       </c>
     </row>
     <row r="101">
@@ -9545,7 +9545,7 @@
         <v>22451</v>
       </c>
       <c r="G101" t="n">
-        <v>56056</v>
+        <v>57994</v>
       </c>
       <c r="H101" t="n">
         <v>12020</v>
@@ -9554,10 +9554,10 @@
         <v>16121</v>
       </c>
       <c r="J101" t="n">
-        <v>4698</v>
+        <v>4721</v>
       </c>
       <c r="K101" t="n">
-        <v>38174</v>
+        <v>40629</v>
       </c>
       <c r="L101" t="n">
         <v>3029</v>
@@ -9569,13 +9569,13 @@
         <v>12010</v>
       </c>
       <c r="O101" t="n">
-        <v>44774</v>
+        <v>46473</v>
       </c>
       <c r="P101" t="n">
         <v>16018</v>
       </c>
       <c r="Q101" t="n">
-        <v>5163</v>
+        <v>5494</v>
       </c>
       <c r="R101" t="n">
         <v>36463</v>
@@ -9593,10 +9593,10 @@
         <v>10398</v>
       </c>
       <c r="W101" t="n">
-        <v>5477</v>
+        <v>5714</v>
       </c>
       <c r="X101" t="n">
-        <v>4143</v>
+        <v>4483</v>
       </c>
       <c r="Y101" t="n">
         <v>10034</v>
@@ -9611,7 +9611,7 @@
         <v>4698</v>
       </c>
       <c r="AC101" t="n">
-        <v>583994</v>
+        <v>591017</v>
       </c>
     </row>
   </sheetData>
@@ -18635,7 +18635,7 @@
         <v>173</v>
       </c>
       <c r="I99" t="n">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="J99" t="n">
         <v>127</v>
@@ -18680,7 +18680,7 @@
         <v>159</v>
       </c>
       <c r="X99" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y99" t="n">
         <v>146</v>
@@ -18695,7 +18695,7 @@
         <v>76</v>
       </c>
       <c r="AC99" t="n">
-        <v>30090</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="100">
@@ -18771,7 +18771,7 @@
         <v>172</v>
       </c>
       <c r="X100" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Y100" t="n">
         <v>148</v>
@@ -18786,7 +18786,7 @@
         <v>79</v>
       </c>
       <c r="AC100" t="n">
-        <v>31438</v>
+        <v>31442</v>
       </c>
     </row>
     <row r="101">
@@ -18811,7 +18811,7 @@
         <v>762</v>
       </c>
       <c r="G101" t="n">
-        <v>3605</v>
+        <v>3666</v>
       </c>
       <c r="H101" t="n">
         <v>191</v>
@@ -18820,10 +18820,10 @@
         <v>698</v>
       </c>
       <c r="J101" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K101" t="n">
-        <v>1028</v>
+        <v>1062</v>
       </c>
       <c r="L101" t="n">
         <v>79</v>
@@ -18835,7 +18835,7 @@
         <v>306</v>
       </c>
       <c r="O101" t="n">
-        <v>3193</v>
+        <v>3245</v>
       </c>
       <c r="P101" t="n">
         <v>414</v>
@@ -18859,10 +18859,10 @@
         <v>258</v>
       </c>
       <c r="W101" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="X101" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y101" t="n">
         <v>152</v>
@@ -18877,7 +18877,7 @@
         <v>82</v>
       </c>
       <c r="AC101" t="n">
-        <v>32557</v>
+        <v>32718</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9472,7 +9472,7 @@
         <v>2817</v>
       </c>
       <c r="M100" t="n">
-        <v>1646</v>
+        <v>1802</v>
       </c>
       <c r="N100" t="n">
         <v>10939</v>
@@ -9484,7 +9484,7 @@
         <v>14859</v>
       </c>
       <c r="Q100" t="n">
-        <v>5163</v>
+        <v>5235</v>
       </c>
       <c r="R100" t="n">
         <v>35508</v>
@@ -9496,7 +9496,7 @@
         <v>56732</v>
       </c>
       <c r="U100" t="n">
-        <v>8233</v>
+        <v>9147</v>
       </c>
       <c r="V100" t="n">
         <v>9919</v>
@@ -9517,10 +9517,10 @@
         <v>7555</v>
       </c>
       <c r="AB100" t="n">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="AC100" t="n">
-        <v>561820</v>
+        <v>562961</v>
       </c>
     </row>
     <row r="101">
@@ -9545,7 +9545,7 @@
         <v>22451</v>
       </c>
       <c r="G101" t="n">
-        <v>57994</v>
+        <v>56056</v>
       </c>
       <c r="H101" t="n">
         <v>12020</v>
@@ -9554,7 +9554,7 @@
         <v>16121</v>
       </c>
       <c r="J101" t="n">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="K101" t="n">
         <v>40629</v>
@@ -9575,7 +9575,7 @@
         <v>16018</v>
       </c>
       <c r="Q101" t="n">
-        <v>5494</v>
+        <v>5567</v>
       </c>
       <c r="R101" t="n">
         <v>36463</v>
@@ -9596,7 +9596,7 @@
         <v>5714</v>
       </c>
       <c r="X101" t="n">
-        <v>4483</v>
+        <v>4143</v>
       </c>
       <c r="Y101" t="n">
         <v>10034</v>
@@ -9611,7 +9611,98 @@
         <v>4698</v>
       </c>
       <c r="AC101" t="n">
-        <v>591017</v>
+        <v>588792</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7021</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13097</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11551</v>
+      </c>
+      <c r="E102" t="n">
+        <v>46473</v>
+      </c>
+      <c r="F102" t="n">
+        <v>23463</v>
+      </c>
+      <c r="G102" t="n">
+        <v>59795</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12923</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16894</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5213</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43313</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3388</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1926</v>
+      </c>
+      <c r="N102" t="n">
+        <v>13034</v>
+      </c>
+      <c r="O102" t="n">
+        <v>49473</v>
+      </c>
+      <c r="P102" t="n">
+        <v>17579</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5820</v>
+      </c>
+      <c r="R102" t="n">
+        <v>37507</v>
+      </c>
+      <c r="S102" t="n">
+        <v>6717</v>
+      </c>
+      <c r="T102" t="n">
+        <v>60932</v>
+      </c>
+      <c r="U102" t="n">
+        <v>9282</v>
+      </c>
+      <c r="V102" t="n">
+        <v>11010</v>
+      </c>
+      <c r="W102" t="n">
+        <v>6459</v>
+      </c>
+      <c r="X102" t="n">
+        <v>4831</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>10532</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>129200</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8204</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4881</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>620518</v>
       </c>
     </row>
   </sheetData>
@@ -9625,7 +9716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18750,7 +18841,7 @@
         <v>379</v>
       </c>
       <c r="Q100" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="R100" t="n">
         <v>2933</v>
@@ -18762,7 +18853,7 @@
         <v>5686</v>
       </c>
       <c r="U100" t="n">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="V100" t="n">
         <v>245</v>
@@ -18786,7 +18877,7 @@
         <v>79</v>
       </c>
       <c r="AC100" t="n">
-        <v>31442</v>
+        <v>31473</v>
       </c>
     </row>
     <row r="101">
@@ -18811,7 +18902,7 @@
         <v>762</v>
       </c>
       <c r="G101" t="n">
-        <v>3666</v>
+        <v>3605</v>
       </c>
       <c r="H101" t="n">
         <v>191</v>
@@ -18820,7 +18911,7 @@
         <v>698</v>
       </c>
       <c r="J101" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K101" t="n">
         <v>1062</v>
@@ -18841,7 +18932,7 @@
         <v>414</v>
       </c>
       <c r="Q101" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="R101" t="n">
         <v>3012</v>
@@ -18862,7 +18953,7 @@
         <v>180</v>
       </c>
       <c r="X101" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y101" t="n">
         <v>152</v>
@@ -18877,7 +18968,98 @@
         <v>82</v>
       </c>
       <c r="AC101" t="n">
-        <v>32718</v>
+        <v>32656</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>181</v>
+      </c>
+      <c r="C102" t="n">
+        <v>531</v>
+      </c>
+      <c r="D102" t="n">
+        <v>254</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2183</v>
+      </c>
+      <c r="F102" t="n">
+        <v>790</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3813</v>
+      </c>
+      <c r="H102" t="n">
+        <v>196</v>
+      </c>
+      <c r="I102" t="n">
+        <v>737</v>
+      </c>
+      <c r="J102" t="n">
+        <v>164</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1095</v>
+      </c>
+      <c r="L102" t="n">
+        <v>84</v>
+      </c>
+      <c r="M102" t="n">
+        <v>20</v>
+      </c>
+      <c r="N102" t="n">
+        <v>323</v>
+      </c>
+      <c r="O102" t="n">
+        <v>3492</v>
+      </c>
+      <c r="P102" t="n">
+        <v>438</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>215</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3134</v>
+      </c>
+      <c r="S102" t="n">
+        <v>217</v>
+      </c>
+      <c r="T102" t="n">
+        <v>6327</v>
+      </c>
+      <c r="U102" t="n">
+        <v>378</v>
+      </c>
+      <c r="V102" t="n">
+        <v>265</v>
+      </c>
+      <c r="W102" t="n">
+        <v>194</v>
+      </c>
+      <c r="X102" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>156</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>8561</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>186</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>34160</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9563,7 +9563,7 @@
         <v>3029</v>
       </c>
       <c r="M101" t="n">
-        <v>1802</v>
+        <v>1925</v>
       </c>
       <c r="N101" t="n">
         <v>12010</v>
@@ -9587,7 +9587,7 @@
         <v>59240</v>
       </c>
       <c r="U101" t="n">
-        <v>9149</v>
+        <v>9280</v>
       </c>
       <c r="V101" t="n">
         <v>10398</v>
@@ -9611,7 +9611,7 @@
         <v>4698</v>
       </c>
       <c r="AC101" t="n">
-        <v>588792</v>
+        <v>589046</v>
       </c>
     </row>
     <row r="102">
@@ -9645,7 +9645,7 @@
         <v>16894</v>
       </c>
       <c r="J102" t="n">
-        <v>5213</v>
+        <v>5102</v>
       </c>
       <c r="K102" t="n">
         <v>43313</v>
@@ -9654,19 +9654,19 @@
         <v>3388</v>
       </c>
       <c r="M102" t="n">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="N102" t="n">
         <v>13034</v>
       </c>
       <c r="O102" t="n">
-        <v>49473</v>
+        <v>48049</v>
       </c>
       <c r="P102" t="n">
         <v>17579</v>
       </c>
       <c r="Q102" t="n">
-        <v>5820</v>
+        <v>5895</v>
       </c>
       <c r="R102" t="n">
         <v>37507</v>
@@ -9687,7 +9687,7 @@
         <v>6459</v>
       </c>
       <c r="X102" t="n">
-        <v>4831</v>
+        <v>4483</v>
       </c>
       <c r="Y102" t="n">
         <v>10532</v>
@@ -9696,13 +9696,104 @@
         <v>129200</v>
       </c>
       <c r="AA102" t="n">
-        <v>8204</v>
+        <v>8200</v>
       </c>
       <c r="AB102" t="n">
         <v>4881</v>
       </c>
       <c r="AC102" t="n">
-        <v>620518</v>
+        <v>618705</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7284</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13939</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12327</v>
+      </c>
+      <c r="E103" t="n">
+        <v>47666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>26419</v>
+      </c>
+      <c r="G103" t="n">
+        <v>62176</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14208</v>
+      </c>
+      <c r="I103" t="n">
+        <v>18480</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5613</v>
+      </c>
+      <c r="K103" t="n">
+        <v>45470</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3568</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1997</v>
+      </c>
+      <c r="N103" t="n">
+        <v>13995</v>
+      </c>
+      <c r="O103" t="n">
+        <v>52623</v>
+      </c>
+      <c r="P103" t="n">
+        <v>18579</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>6348</v>
+      </c>
+      <c r="R103" t="n">
+        <v>38511</v>
+      </c>
+      <c r="S103" t="n">
+        <v>7105</v>
+      </c>
+      <c r="T103" t="n">
+        <v>63066</v>
+      </c>
+      <c r="U103" t="n">
+        <v>9440</v>
+      </c>
+      <c r="V103" t="n">
+        <v>11583</v>
+      </c>
+      <c r="W103" t="n">
+        <v>6862</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5238</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>10846</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>134565</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>8577</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>5182</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>651667</v>
       </c>
     </row>
   </sheetData>
@@ -9716,7 +9807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18944,7 +19035,7 @@
         <v>6010</v>
       </c>
       <c r="U101" t="n">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="V101" t="n">
         <v>258</v>
@@ -18968,7 +19059,7 @@
         <v>82</v>
       </c>
       <c r="AC101" t="n">
-        <v>32656</v>
+        <v>32667</v>
       </c>
     </row>
     <row r="102">
@@ -19017,13 +19108,13 @@
         <v>323</v>
       </c>
       <c r="O102" t="n">
-        <v>3492</v>
+        <v>3416</v>
       </c>
       <c r="P102" t="n">
         <v>438</v>
       </c>
       <c r="Q102" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="R102" t="n">
         <v>3134</v>
@@ -19044,7 +19135,7 @@
         <v>194</v>
       </c>
       <c r="X102" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Y102" t="n">
         <v>156</v>
@@ -19059,7 +19150,98 @@
         <v>87</v>
       </c>
       <c r="AC102" t="n">
-        <v>34160</v>
+        <v>34077</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>190</v>
+      </c>
+      <c r="C103" t="n">
+        <v>557</v>
+      </c>
+      <c r="D103" t="n">
+        <v>260</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2199</v>
+      </c>
+      <c r="F103" t="n">
+        <v>819</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3907</v>
+      </c>
+      <c r="H103" t="n">
+        <v>202</v>
+      </c>
+      <c r="I103" t="n">
+        <v>790</v>
+      </c>
+      <c r="J103" t="n">
+        <v>167</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1132</v>
+      </c>
+      <c r="L103" t="n">
+        <v>91</v>
+      </c>
+      <c r="M103" t="n">
+        <v>21</v>
+      </c>
+      <c r="N103" t="n">
+        <v>344</v>
+      </c>
+      <c r="O103" t="n">
+        <v>3573</v>
+      </c>
+      <c r="P103" t="n">
+        <v>451</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>227</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3205</v>
+      </c>
+      <c r="S103" t="n">
+        <v>224</v>
+      </c>
+      <c r="T103" t="n">
+        <v>6473</v>
+      </c>
+      <c r="U103" t="n">
+        <v>387</v>
+      </c>
+      <c r="V103" t="n">
+        <v>276</v>
+      </c>
+      <c r="W103" t="n">
+        <v>213</v>
+      </c>
+      <c r="X103" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>159</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>8842</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>198</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>35135</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,7 +2629,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
         <v>42</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26">
@@ -2753,7 +2753,7 @@
         <v>37</v>
       </c>
       <c r="R26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
         <v>396</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="27">
@@ -2832,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -2877,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="AC27" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="28">
@@ -4127,7 +4127,7 @@
         <v>1246</v>
       </c>
       <c r="U41" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V41" t="n">
         <v>418</v>
@@ -4151,7 +4151,7 @@
         <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>10378</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="42">
@@ -5077,7 +5077,7 @@
         <v>83</v>
       </c>
       <c r="D52" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E52" t="n">
         <v>1554</v>
@@ -5152,7 +5152,7 @@
         <v>29</v>
       </c>
       <c r="AC52" t="n">
-        <v>29017</v>
+        <v>29019</v>
       </c>
     </row>
     <row r="53">
@@ -7130,7 +7130,7 @@
         <v>14156</v>
       </c>
       <c r="U74" t="n">
-        <v>1739</v>
+        <v>1821</v>
       </c>
       <c r="V74" t="n">
         <v>2182</v>
@@ -7154,7 +7154,7 @@
         <v>494</v>
       </c>
       <c r="AC74" t="n">
-        <v>136607</v>
+        <v>136689</v>
       </c>
     </row>
     <row r="75">
@@ -7221,7 +7221,7 @@
         <v>15741</v>
       </c>
       <c r="U75" t="n">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="V75" t="n">
         <v>2493</v>
@@ -7245,7 +7245,7 @@
         <v>573</v>
       </c>
       <c r="AC75" t="n">
-        <v>147095</v>
+        <v>147096</v>
       </c>
     </row>
     <row r="76">
@@ -7403,7 +7403,7 @@
         <v>17062</v>
       </c>
       <c r="U77" t="n">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="V77" t="n">
         <v>2576</v>
@@ -7427,7 +7427,7 @@
         <v>747</v>
       </c>
       <c r="AC77" t="n">
-        <v>163509</v>
+        <v>163510</v>
       </c>
     </row>
     <row r="78">
@@ -7494,7 +7494,7 @@
         <v>17939</v>
       </c>
       <c r="U78" t="n">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="V78" t="n">
         <v>2808</v>
@@ -7518,7 +7518,7 @@
         <v>828</v>
       </c>
       <c r="AC78" t="n">
-        <v>169732</v>
+        <v>169733</v>
       </c>
     </row>
     <row r="79">
@@ -7585,7 +7585,7 @@
         <v>18486</v>
       </c>
       <c r="U79" t="n">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="V79" t="n">
         <v>2917</v>
@@ -7609,7 +7609,7 @@
         <v>932</v>
       </c>
       <c r="AC79" t="n">
-        <v>179344</v>
+        <v>179346</v>
       </c>
     </row>
     <row r="80">
@@ -7676,7 +7676,7 @@
         <v>18728</v>
       </c>
       <c r="U80" t="n">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="V80" t="n">
         <v>2997</v>
@@ -7700,7 +7700,7 @@
         <v>1029</v>
       </c>
       <c r="AC80" t="n">
-        <v>191039</v>
+        <v>191040</v>
       </c>
     </row>
     <row r="81">
@@ -7767,7 +7767,7 @@
         <v>19467</v>
       </c>
       <c r="U81" t="n">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="V81" t="n">
         <v>3101</v>
@@ -7791,7 +7791,7 @@
         <v>1179</v>
       </c>
       <c r="AC81" t="n">
-        <v>205172</v>
+        <v>205173</v>
       </c>
     </row>
     <row r="82">
@@ -8040,7 +8040,7 @@
         <v>22238</v>
       </c>
       <c r="U84" t="n">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="V84" t="n">
         <v>3735</v>
@@ -8064,7 +8064,7 @@
         <v>1496</v>
       </c>
       <c r="AC84" t="n">
-        <v>242343</v>
+        <v>242344</v>
       </c>
     </row>
     <row r="85">
@@ -8131,7 +8131,7 @@
         <v>26665</v>
       </c>
       <c r="U85" t="n">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="V85" t="n">
         <v>3750</v>
@@ -8155,7 +8155,7 @@
         <v>1646</v>
       </c>
       <c r="AC85" t="n">
-        <v>256902</v>
+        <v>256903</v>
       </c>
     </row>
     <row r="86">
@@ -8168,7 +8168,7 @@
         <v>2482</v>
       </c>
       <c r="C86" t="n">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="D86" t="n">
         <v>4310</v>
@@ -8222,7 +8222,7 @@
         <v>27805</v>
       </c>
       <c r="U86" t="n">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="V86" t="n">
         <v>3798</v>
@@ -8246,7 +8246,7 @@
         <v>1809</v>
       </c>
       <c r="AC86" t="n">
-        <v>273507</v>
+        <v>273510</v>
       </c>
     </row>
     <row r="87">
@@ -8313,7 +8313,7 @@
         <v>30372</v>
       </c>
       <c r="U87" t="n">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="V87" t="n">
         <v>4973</v>
@@ -8337,7 +8337,7 @@
         <v>1976</v>
       </c>
       <c r="AC87" t="n">
-        <v>294623</v>
+        <v>294624</v>
       </c>
     </row>
     <row r="88">
@@ -8404,7 +8404,7 @@
         <v>32089</v>
       </c>
       <c r="U88" t="n">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="V88" t="n">
         <v>5473</v>
@@ -8428,7 +8428,7 @@
         <v>2205</v>
       </c>
       <c r="AC88" t="n">
-        <v>312760</v>
+        <v>312761</v>
       </c>
     </row>
     <row r="89">
@@ -8495,7 +8495,7 @@
         <v>33589</v>
       </c>
       <c r="U89" t="n">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="V89" t="n">
         <v>5918</v>
@@ -8519,7 +8519,7 @@
         <v>2430</v>
       </c>
       <c r="AC89" t="n">
-        <v>334567</v>
+        <v>334568</v>
       </c>
     </row>
     <row r="90">
@@ -8677,7 +8677,7 @@
         <v>37912</v>
       </c>
       <c r="U91" t="n">
-        <v>4773</v>
+        <v>4774</v>
       </c>
       <c r="V91" t="n">
         <v>6470</v>
@@ -8701,7 +8701,7 @@
         <v>2591</v>
       </c>
       <c r="AC91" t="n">
-        <v>365927</v>
+        <v>365928</v>
       </c>
     </row>
     <row r="92">
@@ -8768,7 +8768,7 @@
         <v>39298</v>
       </c>
       <c r="U92" t="n">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="V92" t="n">
         <v>6559</v>
@@ -8792,7 +8792,7 @@
         <v>2696</v>
       </c>
       <c r="AC92" t="n">
-        <v>378839</v>
+        <v>378840</v>
       </c>
     </row>
     <row r="93">
@@ -8859,7 +8859,7 @@
         <v>40024</v>
       </c>
       <c r="U93" t="n">
-        <v>5628</v>
+        <v>5630</v>
       </c>
       <c r="V93" t="n">
         <v>6785</v>
@@ -8883,7 +8883,7 @@
         <v>2858</v>
       </c>
       <c r="AC93" t="n">
-        <v>395165</v>
+        <v>395167</v>
       </c>
     </row>
     <row r="94">
@@ -8987,7 +8987,7 @@
         <v>5600</v>
       </c>
       <c r="C95" t="n">
-        <v>8055</v>
+        <v>8056</v>
       </c>
       <c r="D95" t="n">
         <v>8152</v>
@@ -9041,7 +9041,7 @@
         <v>44886</v>
       </c>
       <c r="U95" t="n">
-        <v>6461</v>
+        <v>6463</v>
       </c>
       <c r="V95" t="n">
         <v>8234</v>
@@ -9065,7 +9065,7 @@
         <v>3277</v>
       </c>
       <c r="AC95" t="n">
-        <v>443700</v>
+        <v>443703</v>
       </c>
     </row>
     <row r="96">
@@ -9078,7 +9078,7 @@
         <v>5841</v>
       </c>
       <c r="C96" t="n">
-        <v>8618</v>
+        <v>8619</v>
       </c>
       <c r="D96" t="n">
         <v>8469</v>
@@ -9132,7 +9132,7 @@
         <v>47953</v>
       </c>
       <c r="U96" t="n">
-        <v>7400</v>
+        <v>7402</v>
       </c>
       <c r="V96" t="n">
         <v>8843</v>
@@ -9156,7 +9156,7 @@
         <v>3611</v>
       </c>
       <c r="AC96" t="n">
-        <v>470590</v>
+        <v>470593</v>
       </c>
     </row>
     <row r="97">
@@ -9405,7 +9405,7 @@
         <v>54530</v>
       </c>
       <c r="U99" t="n">
-        <v>8231</v>
+        <v>8233</v>
       </c>
       <c r="V99" t="n">
         <v>9496</v>
@@ -9429,7 +9429,7 @@
         <v>4345</v>
       </c>
       <c r="AC99" t="n">
-        <v>531284</v>
+        <v>531286</v>
       </c>
     </row>
     <row r="100">
@@ -9496,7 +9496,7 @@
         <v>56732</v>
       </c>
       <c r="U100" t="n">
-        <v>9147</v>
+        <v>9149</v>
       </c>
       <c r="V100" t="n">
         <v>9919</v>
@@ -9520,7 +9520,7 @@
         <v>4483</v>
       </c>
       <c r="AC100" t="n">
-        <v>562961</v>
+        <v>562963</v>
       </c>
     </row>
     <row r="101">
@@ -9587,7 +9587,7 @@
         <v>59240</v>
       </c>
       <c r="U101" t="n">
-        <v>9280</v>
+        <v>9282</v>
       </c>
       <c r="V101" t="n">
         <v>10398</v>
@@ -9611,7 +9611,7 @@
         <v>4698</v>
       </c>
       <c r="AC101" t="n">
-        <v>589046</v>
+        <v>589048</v>
       </c>
     </row>
     <row r="102">
@@ -9654,7 +9654,7 @@
         <v>3388</v>
       </c>
       <c r="M102" t="n">
-        <v>1925</v>
+        <v>1997</v>
       </c>
       <c r="N102" t="n">
         <v>13034</v>
@@ -9678,7 +9678,7 @@
         <v>60932</v>
       </c>
       <c r="U102" t="n">
-        <v>9282</v>
+        <v>9433</v>
       </c>
       <c r="V102" t="n">
         <v>11010</v>
@@ -9687,10 +9687,10 @@
         <v>6459</v>
       </c>
       <c r="X102" t="n">
-        <v>4483</v>
+        <v>4831</v>
       </c>
       <c r="Y102" t="n">
-        <v>10532</v>
+        <v>10533</v>
       </c>
       <c r="Z102" t="n">
         <v>129200</v>
@@ -9702,7 +9702,7 @@
         <v>4881</v>
       </c>
       <c r="AC102" t="n">
-        <v>618705</v>
+        <v>619277</v>
       </c>
     </row>
     <row r="103">
@@ -9733,25 +9733,25 @@
         <v>14208</v>
       </c>
       <c r="I103" t="n">
-        <v>18480</v>
+        <v>18109</v>
       </c>
       <c r="J103" t="n">
-        <v>5613</v>
+        <v>5605</v>
       </c>
       <c r="K103" t="n">
         <v>45470</v>
       </c>
       <c r="L103" t="n">
-        <v>3568</v>
+        <v>3593</v>
       </c>
       <c r="M103" t="n">
-        <v>1997</v>
+        <v>2132</v>
       </c>
       <c r="N103" t="n">
         <v>13995</v>
       </c>
       <c r="O103" t="n">
-        <v>52623</v>
+        <v>50960</v>
       </c>
       <c r="P103" t="n">
         <v>18579</v>
@@ -9769,7 +9769,7 @@
         <v>63066</v>
       </c>
       <c r="U103" t="n">
-        <v>9440</v>
+        <v>9449</v>
       </c>
       <c r="V103" t="n">
         <v>11583</v>
@@ -9790,10 +9790,101 @@
         <v>8577</v>
       </c>
       <c r="AB103" t="n">
-        <v>5182</v>
+        <v>5505</v>
       </c>
       <c r="AC103" t="n">
-        <v>651667</v>
+        <v>650117</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7525</v>
+      </c>
+      <c r="C104" t="n">
+        <v>14818</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12773</v>
+      </c>
+      <c r="E104" t="n">
+        <v>48785</v>
+      </c>
+      <c r="F104" t="n">
+        <v>27396</v>
+      </c>
+      <c r="G104" t="n">
+        <v>63575</v>
+      </c>
+      <c r="H104" t="n">
+        <v>15850</v>
+      </c>
+      <c r="I104" t="n">
+        <v>18950</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5770</v>
+      </c>
+      <c r="K104" t="n">
+        <v>47593</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3788</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2132</v>
+      </c>
+      <c r="N104" t="n">
+        <v>14939</v>
+      </c>
+      <c r="O104" t="n">
+        <v>53860</v>
+      </c>
+      <c r="P104" t="n">
+        <v>19787</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>6605</v>
+      </c>
+      <c r="R104" t="n">
+        <v>39361</v>
+      </c>
+      <c r="S104" t="n">
+        <v>7478</v>
+      </c>
+      <c r="T104" t="n">
+        <v>64533</v>
+      </c>
+      <c r="U104" t="n">
+        <v>9449</v>
+      </c>
+      <c r="V104" t="n">
+        <v>12037</v>
+      </c>
+      <c r="W104" t="n">
+        <v>7720</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5529</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>11285</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>140549</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8972</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>5505</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>676564</v>
       </c>
     </row>
   </sheetData>
@@ -9807,7 +9898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13351,7 +13442,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
@@ -13417,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
@@ -13575,7 +13666,7 @@
         <v>58</v>
       </c>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V41" t="n">
         <v>7</v>
@@ -13599,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42">
@@ -14352,7 +14443,7 @@
         <v>22</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" t="n">
         <v>15</v>
@@ -14418,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="51">
@@ -16578,7 +16669,7 @@
         <v>1394</v>
       </c>
       <c r="U74" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V74" t="n">
         <v>91</v>
@@ -16602,7 +16693,7 @@
         <v>9</v>
       </c>
       <c r="AC74" t="n">
-        <v>9268</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="75">
@@ -16924,7 +17015,7 @@
         <v>121</v>
       </c>
       <c r="O78" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P78" t="n">
         <v>139</v>
@@ -16966,7 +17057,7 @@
         <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>11659</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="79">
@@ -17015,7 +17106,7 @@
         <v>127</v>
       </c>
       <c r="O79" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P79" t="n">
         <v>154</v>
@@ -17057,7 +17148,7 @@
         <v>21</v>
       </c>
       <c r="AC79" t="n">
-        <v>12502</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="80">
@@ -17106,7 +17197,7 @@
         <v>135</v>
       </c>
       <c r="O80" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P80" t="n">
         <v>157</v>
@@ -17148,7 +17239,7 @@
         <v>23</v>
       </c>
       <c r="AC80" t="n">
-        <v>13280</v>
+        <v>13281</v>
       </c>
     </row>
     <row r="81">
@@ -17197,7 +17288,7 @@
         <v>139</v>
       </c>
       <c r="O81" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P81" t="n">
         <v>160</v>
@@ -17239,7 +17330,7 @@
         <v>24</v>
       </c>
       <c r="AC81" t="n">
-        <v>14069</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="82">
@@ -17288,7 +17379,7 @@
         <v>146</v>
       </c>
       <c r="O82" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="P82" t="n">
         <v>170</v>
@@ -17330,7 +17421,7 @@
         <v>27</v>
       </c>
       <c r="AC82" t="n">
-        <v>14982</v>
+        <v>14983</v>
       </c>
     </row>
     <row r="83">
@@ -17379,7 +17470,7 @@
         <v>150</v>
       </c>
       <c r="O83" t="n">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P83" t="n">
         <v>183</v>
@@ -17421,7 +17512,7 @@
         <v>27</v>
       </c>
       <c r="AC83" t="n">
-        <v>15697</v>
+        <v>15698</v>
       </c>
     </row>
     <row r="84">
@@ -17470,7 +17561,7 @@
         <v>156</v>
       </c>
       <c r="O84" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="P84" t="n">
         <v>194</v>
@@ -17512,7 +17603,7 @@
         <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>16201</v>
+        <v>16202</v>
       </c>
     </row>
     <row r="85">
@@ -17561,7 +17652,7 @@
         <v>161</v>
       </c>
       <c r="O85" t="n">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="P85" t="n">
         <v>207</v>
@@ -17603,7 +17694,7 @@
         <v>38</v>
       </c>
       <c r="AC85" t="n">
-        <v>16924</v>
+        <v>16925</v>
       </c>
     </row>
     <row r="86">
@@ -17743,7 +17834,7 @@
         <v>177</v>
       </c>
       <c r="O87" t="n">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="P87" t="n">
         <v>230</v>
@@ -17785,7 +17876,7 @@
         <v>47</v>
       </c>
       <c r="AC87" t="n">
-        <v>19057</v>
+        <v>19059</v>
       </c>
     </row>
     <row r="88">
@@ -17834,7 +17925,7 @@
         <v>191</v>
       </c>
       <c r="O88" t="n">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="P88" t="n">
         <v>245</v>
@@ -17876,7 +17967,7 @@
         <v>49</v>
       </c>
       <c r="AC88" t="n">
-        <v>20126</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="89">
@@ -17925,7 +18016,7 @@
         <v>201</v>
       </c>
       <c r="O89" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="P89" t="n">
         <v>248</v>
@@ -17967,7 +18058,7 @@
         <v>51</v>
       </c>
       <c r="AC89" t="n">
-        <v>21157</v>
+        <v>21159</v>
       </c>
     </row>
     <row r="90">
@@ -18016,7 +18107,7 @@
         <v>217</v>
       </c>
       <c r="O90" t="n">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="P90" t="n">
         <v>258</v>
@@ -18058,7 +18149,7 @@
         <v>51</v>
       </c>
       <c r="AC90" t="n">
-        <v>22203</v>
+        <v>22205</v>
       </c>
     </row>
     <row r="91">
@@ -18107,7 +18198,7 @@
         <v>226</v>
       </c>
       <c r="O91" t="n">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="P91" t="n">
         <v>272</v>
@@ -18149,7 +18240,7 @@
         <v>52</v>
       </c>
       <c r="AC91" t="n">
-        <v>22855</v>
+        <v>22857</v>
       </c>
     </row>
     <row r="92">
@@ -18198,7 +18289,7 @@
         <v>230</v>
       </c>
       <c r="O92" t="n">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="P92" t="n">
         <v>279</v>
@@ -18240,7 +18331,7 @@
         <v>58</v>
       </c>
       <c r="AC92" t="n">
-        <v>23586</v>
+        <v>23590</v>
       </c>
     </row>
     <row r="93">
@@ -18289,7 +18380,7 @@
         <v>234</v>
       </c>
       <c r="O93" t="n">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="P93" t="n">
         <v>286</v>
@@ -18331,7 +18422,7 @@
         <v>64</v>
       </c>
       <c r="AC93" t="n">
-        <v>24638</v>
+        <v>24644</v>
       </c>
     </row>
     <row r="94">
@@ -18380,7 +18471,7 @@
         <v>240</v>
       </c>
       <c r="O94" t="n">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="P94" t="n">
         <v>298</v>
@@ -18422,7 +18513,7 @@
         <v>65</v>
       </c>
       <c r="AC94" t="n">
-        <v>25692</v>
+        <v>25702</v>
       </c>
     </row>
     <row r="95">
@@ -18471,7 +18562,7 @@
         <v>255</v>
       </c>
       <c r="O95" t="n">
-        <v>2759</v>
+        <v>2785</v>
       </c>
       <c r="P95" t="n">
         <v>318</v>
@@ -18513,7 +18604,7 @@
         <v>68</v>
       </c>
       <c r="AC95" t="n">
-        <v>26869</v>
+        <v>26895</v>
       </c>
     </row>
     <row r="96">
@@ -18562,7 +18653,7 @@
         <v>257</v>
       </c>
       <c r="O96" t="n">
-        <v>2873</v>
+        <v>2900</v>
       </c>
       <c r="P96" t="n">
         <v>327</v>
@@ -18604,7 +18695,7 @@
         <v>70</v>
       </c>
       <c r="AC96" t="n">
-        <v>28005</v>
+        <v>28032</v>
       </c>
     </row>
     <row r="97">
@@ -19102,7 +19193,7 @@
         <v>84</v>
       </c>
       <c r="M102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N102" t="n">
         <v>323</v>
@@ -19126,7 +19217,7 @@
         <v>6327</v>
       </c>
       <c r="U102" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="V102" t="n">
         <v>265</v>
@@ -19135,7 +19226,7 @@
         <v>194</v>
       </c>
       <c r="X102" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Y102" t="n">
         <v>156</v>
@@ -19150,7 +19241,7 @@
         <v>87</v>
       </c>
       <c r="AC102" t="n">
-        <v>34077</v>
+        <v>34099</v>
       </c>
     </row>
     <row r="103">
@@ -19181,7 +19272,7 @@
         <v>202</v>
       </c>
       <c r="I103" t="n">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="J103" t="n">
         <v>167</v>
@@ -19199,7 +19290,7 @@
         <v>344</v>
       </c>
       <c r="O103" t="n">
-        <v>3573</v>
+        <v>3538</v>
       </c>
       <c r="P103" t="n">
         <v>451</v>
@@ -19217,7 +19308,7 @@
         <v>6473</v>
       </c>
       <c r="U103" t="n">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="V103" t="n">
         <v>276</v>
@@ -19238,10 +19329,101 @@
         <v>198</v>
       </c>
       <c r="AB103" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AC103" t="n">
-        <v>35135</v>
+        <v>35120</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>201</v>
+      </c>
+      <c r="C104" t="n">
+        <v>582</v>
+      </c>
+      <c r="D104" t="n">
+        <v>269</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2232</v>
+      </c>
+      <c r="F104" t="n">
+        <v>846</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3965</v>
+      </c>
+      <c r="H104" t="n">
+        <v>208</v>
+      </c>
+      <c r="I104" t="n">
+        <v>806</v>
+      </c>
+      <c r="J104" t="n">
+        <v>172</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1170</v>
+      </c>
+      <c r="L104" t="n">
+        <v>101</v>
+      </c>
+      <c r="M104" t="n">
+        <v>21</v>
+      </c>
+      <c r="N104" t="n">
+        <v>368</v>
+      </c>
+      <c r="O104" t="n">
+        <v>3665</v>
+      </c>
+      <c r="P104" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>232</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3270</v>
+      </c>
+      <c r="S104" t="n">
+        <v>239</v>
+      </c>
+      <c r="T104" t="n">
+        <v>6639</v>
+      </c>
+      <c r="U104" t="n">
+        <v>410</v>
+      </c>
+      <c r="V104" t="n">
+        <v>283</v>
+      </c>
+      <c r="W104" t="n">
+        <v>228</v>
+      </c>
+      <c r="X104" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>166</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>9058</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>208</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>36044</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,142 +375,142 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>Espirito Santo</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
         <v>3788</v>
       </c>
       <c r="M104" t="n">
-        <v>2132</v>
+        <v>2253</v>
       </c>
       <c r="N104" t="n">
         <v>14939</v>
@@ -9869,7 +9869,7 @@
         <v>7720</v>
       </c>
       <c r="X104" t="n">
-        <v>5529</v>
+        <v>5238</v>
       </c>
       <c r="Y104" t="n">
         <v>11285</v>
@@ -9881,10 +9881,101 @@
         <v>8972</v>
       </c>
       <c r="AB104" t="n">
-        <v>5505</v>
+        <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>676564</v>
+        <v>676533</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7983</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15707</v>
+      </c>
+      <c r="D105" t="n">
+        <v>13045</v>
+      </c>
+      <c r="E105" t="n">
+        <v>49269</v>
+      </c>
+      <c r="F105" t="n">
+        <v>28250</v>
+      </c>
+      <c r="G105" t="n">
+        <v>64271</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16623</v>
+      </c>
+      <c r="I105" t="n">
+        <v>19619</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5898</v>
+      </c>
+      <c r="K105" t="n">
+        <v>48537</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4033</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2253</v>
+      </c>
+      <c r="N105" t="n">
+        <v>15712</v>
+      </c>
+      <c r="O105" t="n">
+        <v>54798</v>
+      </c>
+      <c r="P105" t="n">
+        <v>20310</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>6897</v>
+      </c>
+      <c r="R105" t="n">
+        <v>40242</v>
+      </c>
+      <c r="S105" t="n">
+        <v>7621</v>
+      </c>
+      <c r="T105" t="n">
+        <v>67756</v>
+      </c>
+      <c r="U105" t="n">
+        <v>9452</v>
+      </c>
+      <c r="V105" t="n">
+        <v>12135</v>
+      </c>
+      <c r="W105" t="n">
+        <v>8110</v>
+      </c>
+      <c r="X105" t="n">
+        <v>5529</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>11565</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>143073</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>9290</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>5644</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>693622</v>
       </c>
     </row>
   </sheetData>
@@ -9898,7 +9989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9914,142 +10005,142 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>Espirito Santo</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -19408,7 +19499,7 @@
         <v>228</v>
       </c>
       <c r="X104" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y104" t="n">
         <v>166</v>
@@ -19420,10 +19511,101 @@
         <v>208</v>
       </c>
       <c r="AB104" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC104" t="n">
         <v>36044</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>207</v>
+      </c>
+      <c r="C105" t="n">
+        <v>601</v>
+      </c>
+      <c r="D105" t="n">
+        <v>272</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F105" t="n">
+        <v>879</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3982</v>
+      </c>
+      <c r="H105" t="n">
+        <v>214</v>
+      </c>
+      <c r="I105" t="n">
+        <v>832</v>
+      </c>
+      <c r="J105" t="n">
+        <v>173</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1208</v>
+      </c>
+      <c r="L105" t="n">
+        <v>113</v>
+      </c>
+      <c r="M105" t="n">
+        <v>21</v>
+      </c>
+      <c r="N105" t="n">
+        <v>376</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3714</v>
+      </c>
+      <c r="P105" t="n">
+        <v>484</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>237</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3305</v>
+      </c>
+      <c r="S105" t="n">
+        <v>254</v>
+      </c>
+      <c r="T105" t="n">
+        <v>6707</v>
+      </c>
+      <c r="U105" t="n">
+        <v>424</v>
+      </c>
+      <c r="V105" t="n">
+        <v>286</v>
+      </c>
+      <c r="W105" t="n">
+        <v>235</v>
+      </c>
+      <c r="X105" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>171</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>9145</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>36548</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -9866,7 +9866,7 @@
         <v>12037</v>
       </c>
       <c r="W104" t="n">
-        <v>7720</v>
+        <v>7701</v>
       </c>
       <c r="X104" t="n">
         <v>5238</v>
@@ -9884,7 +9884,7 @@
         <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>676533</v>
+        <v>676514</v>
       </c>
     </row>
     <row r="105">
@@ -9960,7 +9960,7 @@
         <v>8110</v>
       </c>
       <c r="X105" t="n">
-        <v>5529</v>
+        <v>5768</v>
       </c>
       <c r="Y105" t="n">
         <v>11565</v>
@@ -9975,7 +9975,7 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>693622</v>
+        <v>693861</v>
       </c>
     </row>
   </sheetData>
@@ -19590,7 +19590,7 @@
         <v>235</v>
       </c>
       <c r="X105" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y105" t="n">
         <v>171</v>
@@ -19605,7 +19605,7 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36548</v>
+        <v>36551</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC105"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9757,7 +9757,7 @@
         <v>18579</v>
       </c>
       <c r="Q103" t="n">
-        <v>6348</v>
+        <v>6434</v>
       </c>
       <c r="R103" t="n">
         <v>38511</v>
@@ -9793,7 +9793,7 @@
         <v>5505</v>
       </c>
       <c r="AC103" t="n">
-        <v>650117</v>
+        <v>650203</v>
       </c>
     </row>
     <row r="104">
@@ -9827,7 +9827,7 @@
         <v>18950</v>
       </c>
       <c r="J104" t="n">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="K104" t="n">
         <v>47593</v>
@@ -9869,7 +9869,7 @@
         <v>7701</v>
       </c>
       <c r="X104" t="n">
-        <v>5238</v>
+        <v>5529</v>
       </c>
       <c r="Y104" t="n">
         <v>11285</v>
@@ -9884,7 +9884,7 @@
         <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>676514</v>
+        <v>676804</v>
       </c>
     </row>
     <row r="105">
@@ -9897,7 +9897,7 @@
         <v>7983</v>
       </c>
       <c r="C105" t="n">
-        <v>15707</v>
+        <v>15706</v>
       </c>
       <c r="D105" t="n">
         <v>13045</v>
@@ -9918,7 +9918,7 @@
         <v>19619</v>
       </c>
       <c r="J105" t="n">
-        <v>5898</v>
+        <v>5857</v>
       </c>
       <c r="K105" t="n">
         <v>48537</v>
@@ -9927,22 +9927,22 @@
         <v>4033</v>
       </c>
       <c r="M105" t="n">
-        <v>2253</v>
+        <v>2324</v>
       </c>
       <c r="N105" t="n">
-        <v>15712</v>
+        <v>15703</v>
       </c>
       <c r="O105" t="n">
-        <v>54798</v>
+        <v>54271</v>
       </c>
       <c r="P105" t="n">
-        <v>20310</v>
+        <v>20951</v>
       </c>
       <c r="Q105" t="n">
         <v>6897</v>
       </c>
       <c r="R105" t="n">
-        <v>40242</v>
+        <v>40705</v>
       </c>
       <c r="S105" t="n">
         <v>7621</v>
@@ -9975,7 +9975,98 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>693861</v>
+        <v>694458</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8128</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16339</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13294</v>
+      </c>
+      <c r="E106" t="n">
+        <v>49817</v>
+      </c>
+      <c r="F106" t="n">
+        <v>28715</v>
+      </c>
+      <c r="G106" t="n">
+        <v>66218</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16964</v>
+      </c>
+      <c r="I106" t="n">
+        <v>20659</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6348</v>
+      </c>
+      <c r="K106" t="n">
+        <v>49371</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4243</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2324</v>
+      </c>
+      <c r="N106" t="n">
+        <v>15883</v>
+      </c>
+      <c r="O106" t="n">
+        <v>57570</v>
+      </c>
+      <c r="P106" t="n">
+        <v>20951</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>7031</v>
+      </c>
+      <c r="R106" t="n">
+        <v>40705</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7927</v>
+      </c>
+      <c r="T106" t="n">
+        <v>69499</v>
+      </c>
+      <c r="U106" t="n">
+        <v>10888</v>
+      </c>
+      <c r="V106" t="n">
+        <v>12250</v>
+      </c>
+      <c r="W106" t="n">
+        <v>8626</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6056</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>11742</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>144593</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>9727</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>5807</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>711675</v>
       </c>
     </row>
   </sheetData>
@@ -9989,7 +10080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC105"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19387,7 +19478,7 @@
         <v>451</v>
       </c>
       <c r="Q103" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="R103" t="n">
         <v>3205</v>
@@ -19423,7 +19514,7 @@
         <v>96</v>
       </c>
       <c r="AC103" t="n">
-        <v>35120</v>
+        <v>35126</v>
       </c>
     </row>
     <row r="104">
@@ -19499,7 +19590,7 @@
         <v>228</v>
       </c>
       <c r="X104" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y104" t="n">
         <v>166</v>
@@ -19514,7 +19605,7 @@
         <v>99</v>
       </c>
       <c r="AC104" t="n">
-        <v>36044</v>
+        <v>36047</v>
       </c>
     </row>
     <row r="105">
@@ -19557,22 +19648,22 @@
         <v>113</v>
       </c>
       <c r="M105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N105" t="n">
         <v>376</v>
       </c>
       <c r="O105" t="n">
-        <v>3714</v>
+        <v>3678</v>
       </c>
       <c r="P105" t="n">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="Q105" t="n">
         <v>237</v>
       </c>
       <c r="R105" t="n">
-        <v>3305</v>
+        <v>3350</v>
       </c>
       <c r="S105" t="n">
         <v>254</v>
@@ -19605,7 +19696,98 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36551</v>
+        <v>36584</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>211</v>
+      </c>
+      <c r="C106" t="n">
+        <v>622</v>
+      </c>
+      <c r="D106" t="n">
+        <v>278</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2271</v>
+      </c>
+      <c r="F106" t="n">
+        <v>910</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4192</v>
+      </c>
+      <c r="H106" t="n">
+        <v>226</v>
+      </c>
+      <c r="I106" t="n">
+        <v>871</v>
+      </c>
+      <c r="J106" t="n">
+        <v>173</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1247</v>
+      </c>
+      <c r="L106" t="n">
+        <v>126</v>
+      </c>
+      <c r="M106" t="n">
+        <v>22</v>
+      </c>
+      <c r="N106" t="n">
+        <v>380</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3835</v>
+      </c>
+      <c r="P106" t="n">
+        <v>507</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>243</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3350</v>
+      </c>
+      <c r="S106" t="n">
+        <v>265</v>
+      </c>
+      <c r="T106" t="n">
+        <v>6781</v>
+      </c>
+      <c r="U106" t="n">
+        <v>431</v>
+      </c>
+      <c r="V106" t="n">
+        <v>291</v>
+      </c>
+      <c r="W106" t="n">
+        <v>245</v>
+      </c>
+      <c r="X106" t="n">
+        <v>168</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>177</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>9188</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>234</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>108</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>37352</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9827,7 +9827,7 @@
         <v>18950</v>
       </c>
       <c r="J104" t="n">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="K104" t="n">
         <v>47593</v>
@@ -9848,7 +9848,7 @@
         <v>19787</v>
       </c>
       <c r="Q104" t="n">
-        <v>6605</v>
+        <v>6693</v>
       </c>
       <c r="R104" t="n">
         <v>39361</v>
@@ -9884,7 +9884,7 @@
         <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>676804</v>
+        <v>676893</v>
       </c>
     </row>
     <row r="105">
@@ -9897,7 +9897,7 @@
         <v>7983</v>
       </c>
       <c r="C105" t="n">
-        <v>15706</v>
+        <v>16340</v>
       </c>
       <c r="D105" t="n">
         <v>13045</v>
@@ -9942,7 +9942,7 @@
         <v>6897</v>
       </c>
       <c r="R105" t="n">
-        <v>40705</v>
+        <v>40242</v>
       </c>
       <c r="S105" t="n">
         <v>7621</v>
@@ -9951,7 +9951,7 @@
         <v>67756</v>
       </c>
       <c r="U105" t="n">
-        <v>9452</v>
+        <v>10888</v>
       </c>
       <c r="V105" t="n">
         <v>12135</v>
@@ -9975,7 +9975,7 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>694458</v>
+        <v>696065</v>
       </c>
     </row>
     <row r="106">
@@ -10003,13 +10003,13 @@
         <v>66218</v>
       </c>
       <c r="H106" t="n">
-        <v>16964</v>
+        <v>16948</v>
       </c>
       <c r="I106" t="n">
         <v>20659</v>
       </c>
       <c r="J106" t="n">
-        <v>6348</v>
+        <v>6302</v>
       </c>
       <c r="K106" t="n">
         <v>49371</v>
@@ -10018,7 +10018,7 @@
         <v>4243</v>
       </c>
       <c r="M106" t="n">
-        <v>2324</v>
+        <v>2455</v>
       </c>
       <c r="N106" t="n">
         <v>15883</v>
@@ -10042,7 +10042,7 @@
         <v>69499</v>
       </c>
       <c r="U106" t="n">
-        <v>10888</v>
+        <v>11027</v>
       </c>
       <c r="V106" t="n">
         <v>12250</v>
@@ -10063,10 +10063,101 @@
         <v>9727</v>
       </c>
       <c r="AB106" t="n">
-        <v>5807</v>
+        <v>6052</v>
       </c>
       <c r="AC106" t="n">
-        <v>711675</v>
+        <v>712128</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8457</v>
+      </c>
+      <c r="C107" t="n">
+        <v>17193</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13771</v>
+      </c>
+      <c r="E107" t="n">
+        <v>51234</v>
+      </c>
+      <c r="F107" t="n">
+        <v>30481</v>
+      </c>
+      <c r="G107" t="n">
+        <v>69023</v>
+      </c>
+      <c r="H107" t="n">
+        <v>18090</v>
+      </c>
+      <c r="I107" t="n">
+        <v>21964</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7045</v>
+      </c>
+      <c r="K107" t="n">
+        <v>52069</v>
+      </c>
+      <c r="L107" t="n">
+        <v>4504</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2455</v>
+      </c>
+      <c r="N107" t="n">
+        <v>16102</v>
+      </c>
+      <c r="O107" t="n">
+        <v>60636</v>
+      </c>
+      <c r="P107" t="n">
+        <v>22452</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>7314</v>
+      </c>
+      <c r="R107" t="n">
+        <v>41010</v>
+      </c>
+      <c r="S107" t="n">
+        <v>8359</v>
+      </c>
+      <c r="T107" t="n">
+        <v>72979</v>
+      </c>
+      <c r="U107" t="n">
+        <v>11027</v>
+      </c>
+      <c r="V107" t="n">
+        <v>12802</v>
+      </c>
+      <c r="W107" t="n">
+        <v>9220</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6347</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>12192</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>150138</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>10126</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>6052</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>743042</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19569,7 +19660,7 @@
         <v>467</v>
       </c>
       <c r="Q104" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="R104" t="n">
         <v>3270</v>
@@ -19605,7 +19696,7 @@
         <v>99</v>
       </c>
       <c r="AC104" t="n">
-        <v>36047</v>
+        <v>36054</v>
       </c>
     </row>
     <row r="105">
@@ -19618,7 +19709,7 @@
         <v>207</v>
       </c>
       <c r="C105" t="n">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="D105" t="n">
         <v>272</v>
@@ -19663,7 +19754,7 @@
         <v>237</v>
       </c>
       <c r="R105" t="n">
-        <v>3350</v>
+        <v>3305</v>
       </c>
       <c r="S105" t="n">
         <v>254</v>
@@ -19672,7 +19763,7 @@
         <v>6707</v>
       </c>
       <c r="U105" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="V105" t="n">
         <v>286</v>
@@ -19696,7 +19787,7 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36584</v>
+        <v>36567</v>
       </c>
     </row>
     <row r="106">
@@ -19763,7 +19854,7 @@
         <v>6781</v>
       </c>
       <c r="U106" t="n">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="V106" t="n">
         <v>291</v>
@@ -19784,10 +19875,101 @@
         <v>234</v>
       </c>
       <c r="AB106" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AC106" t="n">
-        <v>37352</v>
+        <v>37386</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>223</v>
+      </c>
+      <c r="C107" t="n">
+        <v>640</v>
+      </c>
+      <c r="D107" t="n">
+        <v>285</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F107" t="n">
+        <v>937</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4359</v>
+      </c>
+      <c r="H107" t="n">
+        <v>236</v>
+      </c>
+      <c r="I107" t="n">
+        <v>904</v>
+      </c>
+      <c r="J107" t="n">
+        <v>184</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1285</v>
+      </c>
+      <c r="L107" t="n">
+        <v>140</v>
+      </c>
+      <c r="M107" t="n">
+        <v>22</v>
+      </c>
+      <c r="N107" t="n">
+        <v>399</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3898</v>
+      </c>
+      <c r="P107" t="n">
+        <v>534</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>253</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3453</v>
+      </c>
+      <c r="S107" t="n">
+        <v>283</v>
+      </c>
+      <c r="T107" t="n">
+        <v>6928</v>
+      </c>
+      <c r="U107" t="n">
+        <v>459</v>
+      </c>
+      <c r="V107" t="n">
+        <v>302</v>
+      </c>
+      <c r="W107" t="n">
+        <v>255</v>
+      </c>
+      <c r="X107" t="n">
+        <v>182</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>179</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>9522</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>38543</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9939,7 +9939,7 @@
         <v>20951</v>
       </c>
       <c r="Q105" t="n">
-        <v>6897</v>
+        <v>6987</v>
       </c>
       <c r="R105" t="n">
         <v>40242</v>
@@ -9975,7 +9975,7 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>696065</v>
+        <v>696155</v>
       </c>
     </row>
     <row r="106">
@@ -9988,7 +9988,7 @@
         <v>8128</v>
       </c>
       <c r="C106" t="n">
-        <v>16339</v>
+        <v>16340</v>
       </c>
       <c r="D106" t="n">
         <v>13294</v>
@@ -10030,7 +10030,7 @@
         <v>20951</v>
       </c>
       <c r="Q106" t="n">
-        <v>7031</v>
+        <v>7121</v>
       </c>
       <c r="R106" t="n">
         <v>40705</v>
@@ -10066,7 +10066,7 @@
         <v>6052</v>
       </c>
       <c r="AC106" t="n">
-        <v>712128</v>
+        <v>712219</v>
       </c>
     </row>
     <row r="107">
@@ -10100,7 +10100,7 @@
         <v>21964</v>
       </c>
       <c r="J107" t="n">
-        <v>7045</v>
+        <v>6936</v>
       </c>
       <c r="K107" t="n">
         <v>52069</v>
@@ -10109,7 +10109,7 @@
         <v>4504</v>
       </c>
       <c r="M107" t="n">
-        <v>2455</v>
+        <v>2597</v>
       </c>
       <c r="N107" t="n">
         <v>16102</v>
@@ -10121,7 +10121,7 @@
         <v>22452</v>
       </c>
       <c r="Q107" t="n">
-        <v>7314</v>
+        <v>7410</v>
       </c>
       <c r="R107" t="n">
         <v>41010</v>
@@ -10133,7 +10133,7 @@
         <v>72979</v>
       </c>
       <c r="U107" t="n">
-        <v>11027</v>
+        <v>11568</v>
       </c>
       <c r="V107" t="n">
         <v>12802</v>
@@ -10154,10 +10154,101 @@
         <v>10126</v>
       </c>
       <c r="AB107" t="n">
-        <v>6052</v>
+        <v>6257</v>
       </c>
       <c r="AC107" t="n">
-        <v>743042</v>
+        <v>743917</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8746</v>
+      </c>
+      <c r="C108" t="n">
+        <v>18176</v>
+      </c>
+      <c r="D108" t="n">
+        <v>14623</v>
+      </c>
+      <c r="E108" t="n">
+        <v>52849</v>
+      </c>
+      <c r="F108" t="n">
+        <v>32685</v>
+      </c>
+      <c r="G108" t="n">
+        <v>71947</v>
+      </c>
+      <c r="H108" t="n">
+        <v>19433</v>
+      </c>
+      <c r="I108" t="n">
+        <v>23391</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7503</v>
+      </c>
+      <c r="K108" t="n">
+        <v>53508</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4762</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2597</v>
+      </c>
+      <c r="N108" t="n">
+        <v>17501</v>
+      </c>
+      <c r="O108" t="n">
+        <v>63405</v>
+      </c>
+      <c r="P108" t="n">
+        <v>24032</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>7934</v>
+      </c>
+      <c r="R108" t="n">
+        <v>41935</v>
+      </c>
+      <c r="S108" t="n">
+        <v>8823</v>
+      </c>
+      <c r="T108" t="n">
+        <v>74373</v>
+      </c>
+      <c r="U108" t="n">
+        <v>11568</v>
+      </c>
+      <c r="V108" t="n">
+        <v>13619</v>
+      </c>
+      <c r="W108" t="n">
+        <v>9850</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6594</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>12594</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>156316</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>10616</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>6257</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>775637</v>
       </c>
     </row>
   </sheetData>
@@ -10171,7 +10262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19751,7 +19842,7 @@
         <v>507</v>
       </c>
       <c r="Q105" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="R105" t="n">
         <v>3305</v>
@@ -19787,7 +19878,7 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36567</v>
+        <v>36574</v>
       </c>
     </row>
     <row r="106">
@@ -19842,7 +19933,7 @@
         <v>507</v>
       </c>
       <c r="Q106" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="R106" t="n">
         <v>3350</v>
@@ -19878,7 +19969,7 @@
         <v>114</v>
       </c>
       <c r="AC106" t="n">
-        <v>37386</v>
+        <v>37393</v>
       </c>
     </row>
     <row r="107">
@@ -19921,7 +20012,7 @@
         <v>140</v>
       </c>
       <c r="M107" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N107" t="n">
         <v>399</v>
@@ -19933,7 +20024,7 @@
         <v>534</v>
       </c>
       <c r="Q107" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="R107" t="n">
         <v>3453</v>
@@ -19945,7 +20036,7 @@
         <v>6928</v>
       </c>
       <c r="U107" t="n">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="V107" t="n">
         <v>302</v>
@@ -19966,10 +20057,101 @@
         <v>252</v>
       </c>
       <c r="AB107" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC107" t="n">
-        <v>38543</v>
+        <v>38586</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>237</v>
+      </c>
+      <c r="C108" t="n">
+        <v>660</v>
+      </c>
+      <c r="D108" t="n">
+        <v>289</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2363</v>
+      </c>
+      <c r="F108" t="n">
+        <v>975</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4519</v>
+      </c>
+      <c r="H108" t="n">
+        <v>256</v>
+      </c>
+      <c r="I108" t="n">
+        <v>937</v>
+      </c>
+      <c r="J108" t="n">
+        <v>189</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1322</v>
+      </c>
+      <c r="L108" t="n">
+        <v>153</v>
+      </c>
+      <c r="M108" t="n">
+        <v>24</v>
+      </c>
+      <c r="N108" t="n">
+        <v>409</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3980</v>
+      </c>
+      <c r="P108" t="n">
+        <v>559</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>282</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3531</v>
+      </c>
+      <c r="S108" t="n">
+        <v>299</v>
+      </c>
+      <c r="T108" t="n">
+        <v>7138</v>
+      </c>
+      <c r="U108" t="n">
+        <v>487</v>
+      </c>
+      <c r="V108" t="n">
+        <v>316</v>
+      </c>
+      <c r="W108" t="n">
+        <v>267</v>
+      </c>
+      <c r="X108" t="n">
+        <v>188</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>184</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>9862</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>264</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>39810</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -10191,7 +10191,7 @@
         <v>23391</v>
       </c>
       <c r="J108" t="n">
-        <v>7503</v>
+        <v>7536</v>
       </c>
       <c r="K108" t="n">
         <v>53508</v>
@@ -10248,7 +10248,7 @@
         <v>6257</v>
       </c>
       <c r="AC108" t="n">
-        <v>775637</v>
+        <v>775670</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10191,7 +10191,7 @@
         <v>23391</v>
       </c>
       <c r="J108" t="n">
-        <v>7536</v>
+        <v>7380</v>
       </c>
       <c r="K108" t="n">
         <v>53508</v>
@@ -10200,7 +10200,7 @@
         <v>4762</v>
       </c>
       <c r="M108" t="n">
-        <v>2597</v>
+        <v>2853</v>
       </c>
       <c r="N108" t="n">
         <v>17501</v>
@@ -10224,7 +10224,7 @@
         <v>74373</v>
       </c>
       <c r="U108" t="n">
-        <v>11568</v>
+        <v>13234</v>
       </c>
       <c r="V108" t="n">
         <v>13619</v>
@@ -10242,13 +10242,104 @@
         <v>156316</v>
       </c>
       <c r="AA108" t="n">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="AB108" t="n">
-        <v>6257</v>
+        <v>6529</v>
       </c>
       <c r="AC108" t="n">
-        <v>775670</v>
+        <v>777707</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C109" t="n">
+        <v>19200</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15166</v>
+      </c>
+      <c r="E109" t="n">
+        <v>53989</v>
+      </c>
+      <c r="F109" t="n">
+        <v>33891</v>
+      </c>
+      <c r="G109" t="n">
+        <v>74692</v>
+      </c>
+      <c r="H109" t="n">
+        <v>20507</v>
+      </c>
+      <c r="I109" t="n">
+        <v>24428</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7841</v>
+      </c>
+      <c r="K109" t="n">
+        <v>55680</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5092</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2853</v>
+      </c>
+      <c r="N109" t="n">
+        <v>18448</v>
+      </c>
+      <c r="O109" t="n">
+        <v>65151</v>
+      </c>
+      <c r="P109" t="n">
+        <v>25370</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>8457</v>
+      </c>
+      <c r="R109" t="n">
+        <v>42994</v>
+      </c>
+      <c r="S109" t="n">
+        <v>9337</v>
+      </c>
+      <c r="T109" t="n">
+        <v>75775</v>
+      </c>
+      <c r="U109" t="n">
+        <v>13234</v>
+      </c>
+      <c r="V109" t="n">
+        <v>14168</v>
+      </c>
+      <c r="W109" t="n">
+        <v>10547</v>
+      </c>
+      <c r="X109" t="n">
+        <v>6712</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>12953</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>162520</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>11056</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>6529</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>805681</v>
       </c>
     </row>
   </sheetData>
@@ -10262,7 +10353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20103,7 +20194,7 @@
         <v>153</v>
       </c>
       <c r="M108" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N108" t="n">
         <v>409</v>
@@ -20127,7 +20218,7 @@
         <v>7138</v>
       </c>
       <c r="U108" t="n">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="V108" t="n">
         <v>316</v>
@@ -20148,10 +20239,101 @@
         <v>264</v>
       </c>
       <c r="AB108" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AC108" t="n">
-        <v>39810</v>
+        <v>39824</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>245</v>
+      </c>
+      <c r="C109" t="n">
+        <v>681</v>
+      </c>
+      <c r="D109" t="n">
+        <v>303</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4708</v>
+      </c>
+      <c r="H109" t="n">
+        <v>274</v>
+      </c>
+      <c r="I109" t="n">
+        <v>966</v>
+      </c>
+      <c r="J109" t="n">
+        <v>194</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1360</v>
+      </c>
+      <c r="L109" t="n">
+        <v>163</v>
+      </c>
+      <c r="M109" t="n">
+        <v>25</v>
+      </c>
+      <c r="N109" t="n">
+        <v>431</v>
+      </c>
+      <c r="O109" t="n">
+        <v>4090</v>
+      </c>
+      <c r="P109" t="n">
+        <v>570</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>282</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3633</v>
+      </c>
+      <c r="S109" t="n">
+        <v>317</v>
+      </c>
+      <c r="T109" t="n">
+        <v>7363</v>
+      </c>
+      <c r="U109" t="n">
+        <v>496</v>
+      </c>
+      <c r="V109" t="n">
+        <v>323</v>
+      </c>
+      <c r="W109" t="n">
+        <v>294</v>
+      </c>
+      <c r="X109" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>186</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>10145</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>283</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>124</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>41061</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9806,7 +9806,7 @@
         <v>7525</v>
       </c>
       <c r="C104" t="n">
-        <v>14818</v>
+        <v>15707</v>
       </c>
       <c r="D104" t="n">
         <v>12773</v>
@@ -9884,7 +9884,7 @@
         <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>676893</v>
+        <v>677782</v>
       </c>
     </row>
     <row r="105">
@@ -10282,7 +10282,7 @@
         <v>24428</v>
       </c>
       <c r="J109" t="n">
-        <v>7841</v>
+        <v>7774</v>
       </c>
       <c r="K109" t="n">
         <v>55680</v>
@@ -10291,7 +10291,7 @@
         <v>5092</v>
       </c>
       <c r="M109" t="n">
-        <v>2853</v>
+        <v>3001</v>
       </c>
       <c r="N109" t="n">
         <v>18448</v>
@@ -10303,7 +10303,7 @@
         <v>25370</v>
       </c>
       <c r="Q109" t="n">
-        <v>8457</v>
+        <v>8569</v>
       </c>
       <c r="R109" t="n">
         <v>42994</v>
@@ -10315,7 +10315,7 @@
         <v>75775</v>
       </c>
       <c r="U109" t="n">
-        <v>13234</v>
+        <v>13544</v>
       </c>
       <c r="V109" t="n">
         <v>14168</v>
@@ -10336,10 +10336,101 @@
         <v>11056</v>
       </c>
       <c r="AB109" t="n">
-        <v>6529</v>
+        <v>6744</v>
       </c>
       <c r="AC109" t="n">
-        <v>805681</v>
+        <v>806399</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>9295</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20031</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15683</v>
+      </c>
+      <c r="E110" t="n">
+        <v>55111</v>
+      </c>
+      <c r="F110" t="n">
+        <v>34665</v>
+      </c>
+      <c r="G110" t="n">
+        <v>75784</v>
+      </c>
+      <c r="H110" t="n">
+        <v>21396</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25502</v>
+      </c>
+      <c r="J110" t="n">
+        <v>7926</v>
+      </c>
+      <c r="K110" t="n">
+        <v>57605</v>
+      </c>
+      <c r="L110" t="n">
+        <v>5390</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3001</v>
+      </c>
+      <c r="N110" t="n">
+        <v>20106</v>
+      </c>
+      <c r="O110" t="n">
+        <v>66328</v>
+      </c>
+      <c r="P110" t="n">
+        <v>26556</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>8818</v>
+      </c>
+      <c r="R110" t="n">
+        <v>43872</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9825</v>
+      </c>
+      <c r="T110" t="n">
+        <v>77784</v>
+      </c>
+      <c r="U110" t="n">
+        <v>13544</v>
+      </c>
+      <c r="V110" t="n">
+        <v>14384</v>
+      </c>
+      <c r="W110" t="n">
+        <v>11224</v>
+      </c>
+      <c r="X110" t="n">
+        <v>6842</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>13165</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>167900</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>11534</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>6744</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>830015</v>
       </c>
     </row>
   </sheetData>
@@ -10353,7 +10444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19800,7 +19891,7 @@
         <v>201</v>
       </c>
       <c r="C104" t="n">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="D104" t="n">
         <v>269</v>
@@ -19878,7 +19969,7 @@
         <v>99</v>
       </c>
       <c r="AC104" t="n">
-        <v>36054</v>
+        <v>36073</v>
       </c>
     </row>
     <row r="105">
@@ -20285,7 +20376,7 @@
         <v>163</v>
       </c>
       <c r="M109" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N109" t="n">
         <v>431</v>
@@ -20297,7 +20388,7 @@
         <v>570</v>
       </c>
       <c r="Q109" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="R109" t="n">
         <v>3633</v>
@@ -20309,13 +20400,13 @@
         <v>7363</v>
       </c>
       <c r="U109" t="n">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="V109" t="n">
         <v>323</v>
       </c>
       <c r="W109" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X109" t="n">
         <v>192</v>
@@ -20330,10 +20421,101 @@
         <v>283</v>
       </c>
       <c r="AB109" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC109" t="n">
-        <v>41061</v>
+        <v>41086</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>254</v>
+      </c>
+      <c r="C110" t="n">
+        <v>701</v>
+      </c>
+      <c r="D110" t="n">
+        <v>312</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2429</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4812</v>
+      </c>
+      <c r="H110" t="n">
+        <v>282</v>
+      </c>
+      <c r="I110" t="n">
+        <v>999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>206</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1399</v>
+      </c>
+      <c r="L110" t="n">
+        <v>181</v>
+      </c>
+      <c r="M110" t="n">
+        <v>28</v>
+      </c>
+      <c r="N110" t="n">
+        <v>446</v>
+      </c>
+      <c r="O110" t="n">
+        <v>4132</v>
+      </c>
+      <c r="P110" t="n">
+        <v>610</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>302</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3694</v>
+      </c>
+      <c r="S110" t="n">
+        <v>335</v>
+      </c>
+      <c r="T110" t="n">
+        <v>7417</v>
+      </c>
+      <c r="U110" t="n">
+        <v>514</v>
+      </c>
+      <c r="V110" t="n">
+        <v>337</v>
+      </c>
+      <c r="W110" t="n">
+        <v>296</v>
+      </c>
+      <c r="X110" t="n">
+        <v>197</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>191</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>10368</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>305</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>128</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>41914</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -10388,7 +10388,7 @@
         <v>20106</v>
       </c>
       <c r="O110" t="n">
-        <v>66328</v>
+        <v>67476</v>
       </c>
       <c r="P110" t="n">
         <v>26556</v>
@@ -10430,7 +10430,7 @@
         <v>6744</v>
       </c>
       <c r="AC110" t="n">
-        <v>830015</v>
+        <v>831163</v>
       </c>
     </row>
   </sheetData>
@@ -20473,7 +20473,7 @@
         <v>446</v>
       </c>
       <c r="O110" t="n">
-        <v>4132</v>
+        <v>4181</v>
       </c>
       <c r="P110" t="n">
         <v>610</v>
@@ -20515,7 +20515,7 @@
         <v>128</v>
       </c>
       <c r="AC110" t="n">
-        <v>41914</v>
+        <v>41963</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC110"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9936,7 +9936,7 @@
         <v>54271</v>
       </c>
       <c r="P105" t="n">
-        <v>20951</v>
+        <v>20310</v>
       </c>
       <c r="Q105" t="n">
         <v>6987</v>
@@ -9975,7 +9975,7 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>696155</v>
+        <v>695514</v>
       </c>
     </row>
     <row r="106">
@@ -10382,13 +10382,13 @@
         <v>5390</v>
       </c>
       <c r="M110" t="n">
-        <v>3001</v>
+        <v>3235</v>
       </c>
       <c r="N110" t="n">
         <v>20106</v>
       </c>
       <c r="O110" t="n">
-        <v>67476</v>
+        <v>66328</v>
       </c>
       <c r="P110" t="n">
         <v>26556</v>
@@ -10427,10 +10427,101 @@
         <v>11534</v>
       </c>
       <c r="AB110" t="n">
-        <v>6744</v>
+        <v>6931</v>
       </c>
       <c r="AC110" t="n">
-        <v>831163</v>
+        <v>830436</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>9534</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20887</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16322</v>
+      </c>
+      <c r="E111" t="n">
+        <v>56026</v>
+      </c>
+      <c r="F111" t="n">
+        <v>35788</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76631</v>
+      </c>
+      <c r="H111" t="n">
+        <v>21959</v>
+      </c>
+      <c r="I111" t="n">
+        <v>26011</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7941</v>
+      </c>
+      <c r="K111" t="n">
+        <v>58859</v>
+      </c>
+      <c r="L111" t="n">
+        <v>5739</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3235</v>
+      </c>
+      <c r="N111" t="n">
+        <v>20614</v>
+      </c>
+      <c r="O111" t="n">
+        <v>68510</v>
+      </c>
+      <c r="P111" t="n">
+        <v>27454</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>9233</v>
+      </c>
+      <c r="R111" t="n">
+        <v>44671</v>
+      </c>
+      <c r="S111" t="n">
+        <v>10153</v>
+      </c>
+      <c r="T111" t="n">
+        <v>78836</v>
+      </c>
+      <c r="U111" t="n">
+        <v>13789</v>
+      </c>
+      <c r="V111" t="n">
+        <v>14627</v>
+      </c>
+      <c r="W111" t="n">
+        <v>11710</v>
+      </c>
+      <c r="X111" t="n">
+        <v>6875</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>13296</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>172875</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>12866</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>6931</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>851372</v>
       </c>
     </row>
   </sheetData>
@@ -10444,7 +10535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC110"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20021,7 +20112,7 @@
         <v>3678</v>
       </c>
       <c r="P105" t="n">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="Q105" t="n">
         <v>244</v>
@@ -20060,7 +20151,7 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36574</v>
+        <v>36551</v>
       </c>
     </row>
     <row r="106">
@@ -20473,7 +20564,7 @@
         <v>446</v>
       </c>
       <c r="O110" t="n">
-        <v>4181</v>
+        <v>4132</v>
       </c>
       <c r="P110" t="n">
         <v>610</v>
@@ -20512,10 +20603,101 @@
         <v>305</v>
       </c>
       <c r="AB110" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC110" t="n">
-        <v>41963</v>
+        <v>41916</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>256</v>
+      </c>
+      <c r="C111" t="n">
+        <v>723</v>
+      </c>
+      <c r="D111" t="n">
+        <v>319</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2465</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4853</v>
+      </c>
+      <c r="H111" t="n">
+        <v>293</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1028</v>
+      </c>
+      <c r="J111" t="n">
+        <v>211</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1436</v>
+      </c>
+      <c r="L111" t="n">
+        <v>199</v>
+      </c>
+      <c r="M111" t="n">
+        <v>28</v>
+      </c>
+      <c r="N111" t="n">
+        <v>454</v>
+      </c>
+      <c r="O111" t="n">
+        <v>4191</v>
+      </c>
+      <c r="P111" t="n">
+        <v>623</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>312</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3784</v>
+      </c>
+      <c r="S111" t="n">
+        <v>360</v>
+      </c>
+      <c r="T111" t="n">
+        <v>7592</v>
+      </c>
+      <c r="U111" t="n">
+        <v>533</v>
+      </c>
+      <c r="V111" t="n">
+        <v>344</v>
+      </c>
+      <c r="W111" t="n">
+        <v>309</v>
+      </c>
+      <c r="X111" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>193</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>10581</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>316</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>130</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>42802</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10406,7 +10406,7 @@
         <v>77784</v>
       </c>
       <c r="U110" t="n">
-        <v>13544</v>
+        <v>13789</v>
       </c>
       <c r="V110" t="n">
         <v>14384</v>
@@ -10430,7 +10430,7 @@
         <v>6931</v>
       </c>
       <c r="AC110" t="n">
-        <v>830436</v>
+        <v>830681</v>
       </c>
     </row>
     <row r="111">
@@ -10455,7 +10455,7 @@
         <v>35788</v>
       </c>
       <c r="G111" t="n">
-        <v>76631</v>
+        <v>76429</v>
       </c>
       <c r="H111" t="n">
         <v>21959</v>
@@ -10473,7 +10473,7 @@
         <v>5739</v>
       </c>
       <c r="M111" t="n">
-        <v>3235</v>
+        <v>3433</v>
       </c>
       <c r="N111" t="n">
         <v>20614</v>
@@ -10485,7 +10485,7 @@
         <v>27454</v>
       </c>
       <c r="Q111" t="n">
-        <v>9233</v>
+        <v>9353</v>
       </c>
       <c r="R111" t="n">
         <v>44671</v>
@@ -10497,7 +10497,7 @@
         <v>78836</v>
       </c>
       <c r="U111" t="n">
-        <v>13789</v>
+        <v>14171</v>
       </c>
       <c r="V111" t="n">
         <v>14627</v>
@@ -10518,10 +10518,101 @@
         <v>12866</v>
       </c>
       <c r="AB111" t="n">
-        <v>6931</v>
+        <v>6972</v>
       </c>
       <c r="AC111" t="n">
-        <v>851372</v>
+        <v>851911</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>9642</v>
+      </c>
+      <c r="C112" t="n">
+        <v>22200</v>
+      </c>
+      <c r="D112" t="n">
+        <v>16512</v>
+      </c>
+      <c r="E112" t="n">
+        <v>56506</v>
+      </c>
+      <c r="F112" t="n">
+        <v>36402</v>
+      </c>
+      <c r="G112" t="n">
+        <v>76833</v>
+      </c>
+      <c r="H112" t="n">
+        <v>22871</v>
+      </c>
+      <c r="I112" t="n">
+        <v>26469</v>
+      </c>
+      <c r="J112" t="n">
+        <v>7960</v>
+      </c>
+      <c r="K112" t="n">
+        <v>59850</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6108</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3433</v>
+      </c>
+      <c r="N112" t="n">
+        <v>21381</v>
+      </c>
+      <c r="O112" t="n">
+        <v>69224</v>
+      </c>
+      <c r="P112" t="n">
+        <v>28013</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>9706</v>
+      </c>
+      <c r="R112" t="n">
+        <v>45261</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10357</v>
+      </c>
+      <c r="T112" t="n">
+        <v>79572</v>
+      </c>
+      <c r="U112" t="n">
+        <v>14171</v>
+      </c>
+      <c r="V112" t="n">
+        <v>14661</v>
+      </c>
+      <c r="W112" t="n">
+        <v>11865</v>
+      </c>
+      <c r="X112" t="n">
+        <v>6881</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>13360</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>178202</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>13968</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>6972</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>868380</v>
       </c>
     </row>
   </sheetData>
@@ -10535,7 +10626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20491,7 +20582,7 @@
         <v>7363</v>
       </c>
       <c r="U109" t="n">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="V109" t="n">
         <v>323</v>
@@ -20515,7 +20606,7 @@
         <v>128</v>
       </c>
       <c r="AC109" t="n">
-        <v>41086</v>
+        <v>41092</v>
       </c>
     </row>
     <row r="110">
@@ -20582,7 +20673,7 @@
         <v>7417</v>
       </c>
       <c r="U110" t="n">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="V110" t="n">
         <v>337</v>
@@ -20606,7 +20697,7 @@
         <v>130</v>
       </c>
       <c r="AC110" t="n">
-        <v>41916</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="111">
@@ -20631,7 +20722,7 @@
         <v>1069</v>
       </c>
       <c r="G111" t="n">
-        <v>4853</v>
+        <v>4829</v>
       </c>
       <c r="H111" t="n">
         <v>293</v>
@@ -20649,7 +20740,7 @@
         <v>199</v>
       </c>
       <c r="M111" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N111" t="n">
         <v>454</v>
@@ -20661,7 +20752,7 @@
         <v>623</v>
       </c>
       <c r="Q111" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="R111" t="n">
         <v>3784</v>
@@ -20673,7 +20764,7 @@
         <v>7592</v>
       </c>
       <c r="U111" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V111" t="n">
         <v>344</v>
@@ -20694,10 +20785,101 @@
         <v>316</v>
       </c>
       <c r="AB111" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC111" t="n">
-        <v>42802</v>
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>259</v>
+      </c>
+      <c r="C112" t="n">
+        <v>745</v>
+      </c>
+      <c r="D112" t="n">
+        <v>324</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2492</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1105</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4885</v>
+      </c>
+      <c r="H112" t="n">
+        <v>304</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1055</v>
+      </c>
+      <c r="J112" t="n">
+        <v>216</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1467</v>
+      </c>
+      <c r="L112" t="n">
+        <v>213</v>
+      </c>
+      <c r="M112" t="n">
+        <v>31</v>
+      </c>
+      <c r="N112" t="n">
+        <v>475</v>
+      </c>
+      <c r="O112" t="n">
+        <v>4201</v>
+      </c>
+      <c r="P112" t="n">
+        <v>633</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>334</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3855</v>
+      </c>
+      <c r="S112" t="n">
+        <v>374</v>
+      </c>
+      <c r="T112" t="n">
+        <v>7672</v>
+      </c>
+      <c r="U112" t="n">
+        <v>534</v>
+      </c>
+      <c r="V112" t="n">
+        <v>350</v>
+      </c>
+      <c r="W112" t="n">
+        <v>324</v>
+      </c>
+      <c r="X112" t="n">
+        <v>203</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>195</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>10694</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>132</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>43402</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10564,7 +10564,7 @@
         <v>6108</v>
       </c>
       <c r="M112" t="n">
-        <v>3433</v>
+        <v>3551</v>
       </c>
       <c r="N112" t="n">
         <v>21381</v>
@@ -10597,7 +10597,7 @@
         <v>11865</v>
       </c>
       <c r="X112" t="n">
-        <v>6881</v>
+        <v>6875</v>
       </c>
       <c r="Y112" t="n">
         <v>13360</v>
@@ -10612,7 +10612,98 @@
         <v>6972</v>
       </c>
       <c r="AC112" t="n">
-        <v>868380</v>
+        <v>868492</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>9771</v>
+      </c>
+      <c r="C113" t="n">
+        <v>22962</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16813</v>
+      </c>
+      <c r="E113" t="n">
+        <v>56777</v>
+      </c>
+      <c r="F113" t="n">
+        <v>37620</v>
+      </c>
+      <c r="G113" t="n">
+        <v>79853</v>
+      </c>
+      <c r="H113" t="n">
+        <v>23684</v>
+      </c>
+      <c r="I113" t="n">
+        <v>27652</v>
+      </c>
+      <c r="J113" t="n">
+        <v>10441</v>
+      </c>
+      <c r="K113" t="n">
+        <v>60592</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6185</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3551</v>
+      </c>
+      <c r="N113" t="n">
+        <v>21728</v>
+      </c>
+      <c r="O113" t="n">
+        <v>71243</v>
+      </c>
+      <c r="P113" t="n">
+        <v>28668</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>9716</v>
+      </c>
+      <c r="R113" t="n">
+        <v>45507</v>
+      </c>
+      <c r="S113" t="n">
+        <v>10357</v>
+      </c>
+      <c r="T113" t="n">
+        <v>80946</v>
+      </c>
+      <c r="U113" t="n">
+        <v>14214</v>
+      </c>
+      <c r="V113" t="n">
+        <v>15438</v>
+      </c>
+      <c r="W113" t="n">
+        <v>12180</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6881</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>13960</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>181460</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>15675</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>7137</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>891011</v>
       </c>
     </row>
   </sheetData>
@@ -10626,7 +10717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20831,7 +20922,7 @@
         <v>213</v>
       </c>
       <c r="M112" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N112" t="n">
         <v>475</v>
@@ -20864,7 +20955,7 @@
         <v>324</v>
       </c>
       <c r="X112" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y112" t="n">
         <v>195</v>
@@ -20879,7 +20970,98 @@
         <v>132</v>
       </c>
       <c r="AC112" t="n">
-        <v>43402</v>
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>265</v>
+      </c>
+      <c r="C113" t="n">
+        <v>768</v>
+      </c>
+      <c r="D113" t="n">
+        <v>329</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2512</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1145</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5041</v>
+      </c>
+      <c r="H113" t="n">
+        <v>319</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1087</v>
+      </c>
+      <c r="J113" t="n">
+        <v>238</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1499</v>
+      </c>
+      <c r="L113" t="n">
+        <v>216</v>
+      </c>
+      <c r="M113" t="n">
+        <v>33</v>
+      </c>
+      <c r="N113" t="n">
+        <v>481</v>
+      </c>
+      <c r="O113" t="n">
+        <v>4291</v>
+      </c>
+      <c r="P113" t="n">
+        <v>656</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>334</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3886</v>
+      </c>
+      <c r="S113" t="n">
+        <v>374</v>
+      </c>
+      <c r="T113" t="n">
+        <v>7728</v>
+      </c>
+      <c r="U113" t="n">
+        <v>553</v>
+      </c>
+      <c r="V113" t="n">
+        <v>360</v>
+      </c>
+      <c r="W113" t="n">
+        <v>332</v>
+      </c>
+      <c r="X113" t="n">
+        <v>203</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>10767</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>352</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>136</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>44104</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -10534,7 +10534,7 @@
         <v>9642</v>
       </c>
       <c r="C112" t="n">
-        <v>22200</v>
+        <v>22199</v>
       </c>
       <c r="D112" t="n">
         <v>16512</v>
@@ -10588,7 +10588,7 @@
         <v>79572</v>
       </c>
       <c r="U112" t="n">
-        <v>14171</v>
+        <v>14214</v>
       </c>
       <c r="V112" t="n">
         <v>14661</v>
@@ -10597,7 +10597,7 @@
         <v>11865</v>
       </c>
       <c r="X112" t="n">
-        <v>6875</v>
+        <v>6881</v>
       </c>
       <c r="Y112" t="n">
         <v>13360</v>
@@ -10609,10 +10609,10 @@
         <v>13968</v>
       </c>
       <c r="AB112" t="n">
-        <v>6972</v>
+        <v>7137</v>
       </c>
       <c r="AC112" t="n">
-        <v>868492</v>
+        <v>868705</v>
       </c>
     </row>
     <row r="113">
@@ -10646,13 +10646,13 @@
         <v>27652</v>
       </c>
       <c r="J113" t="n">
-        <v>10441</v>
+        <v>10566</v>
       </c>
       <c r="K113" t="n">
         <v>60592</v>
       </c>
       <c r="L113" t="n">
-        <v>6185</v>
+        <v>6390</v>
       </c>
       <c r="M113" t="n">
         <v>3551</v>
@@ -10667,13 +10667,13 @@
         <v>28668</v>
       </c>
       <c r="Q113" t="n">
-        <v>9716</v>
+        <v>9839</v>
       </c>
       <c r="R113" t="n">
         <v>45507</v>
       </c>
       <c r="S113" t="n">
-        <v>10357</v>
+        <v>10881</v>
       </c>
       <c r="T113" t="n">
         <v>80946</v>
@@ -10688,7 +10688,7 @@
         <v>12180</v>
       </c>
       <c r="X113" t="n">
-        <v>6881</v>
+        <v>6935</v>
       </c>
       <c r="Y113" t="n">
         <v>13960</v>
@@ -10703,7 +10703,7 @@
         <v>7137</v>
       </c>
       <c r="AC113" t="n">
-        <v>891011</v>
+        <v>892042</v>
       </c>
     </row>
   </sheetData>
@@ -20892,7 +20892,7 @@
         <v>259</v>
       </c>
       <c r="C112" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D112" t="n">
         <v>324</v>
@@ -20946,7 +20946,7 @@
         <v>7672</v>
       </c>
       <c r="U112" t="n">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V112" t="n">
         <v>350</v>
@@ -20955,7 +20955,7 @@
         <v>324</v>
       </c>
       <c r="X112" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y112" t="n">
         <v>195</v>
@@ -20967,10 +20967,10 @@
         <v>330</v>
       </c>
       <c r="AB112" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC112" t="n">
-        <v>43401</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="113">
@@ -21010,7 +21010,7 @@
         <v>1499</v>
       </c>
       <c r="L113" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M113" t="n">
         <v>33</v>
@@ -21025,13 +21025,13 @@
         <v>656</v>
       </c>
       <c r="Q113" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="R113" t="n">
         <v>3886</v>
       </c>
       <c r="S113" t="n">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="T113" t="n">
         <v>7728</v>
@@ -21046,7 +21046,7 @@
         <v>332</v>
       </c>
       <c r="X113" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="Y113" t="n">
         <v>199</v>
@@ -21061,7 +21061,7 @@
         <v>136</v>
       </c>
       <c r="AC113" t="n">
-        <v>44104</v>
+        <v>44151</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,7 +8204,7 @@
         <v>4977</v>
       </c>
       <c r="O86" t="n">
-        <v>16295</v>
+        <v>17177</v>
       </c>
       <c r="P86" t="n">
         <v>5300</v>
@@ -8246,7 +8246,7 @@
         <v>1809</v>
       </c>
       <c r="AC86" t="n">
-        <v>273510</v>
+        <v>274392</v>
       </c>
     </row>
     <row r="87">
@@ -9660,7 +9660,7 @@
         <v>13034</v>
       </c>
       <c r="O102" t="n">
-        <v>48049</v>
+        <v>49473</v>
       </c>
       <c r="P102" t="n">
         <v>17579</v>
@@ -9702,7 +9702,7 @@
         <v>4881</v>
       </c>
       <c r="AC102" t="n">
-        <v>619277</v>
+        <v>620701</v>
       </c>
     </row>
     <row r="103">
@@ -9751,7 +9751,7 @@
         <v>13995</v>
       </c>
       <c r="O103" t="n">
-        <v>50960</v>
+        <v>53860</v>
       </c>
       <c r="P103" t="n">
         <v>18579</v>
@@ -9793,7 +9793,7 @@
         <v>5505</v>
       </c>
       <c r="AC103" t="n">
-        <v>650203</v>
+        <v>653103</v>
       </c>
     </row>
     <row r="104">
@@ -10634,7 +10634,7 @@
         <v>56777</v>
       </c>
       <c r="F113" t="n">
-        <v>37620</v>
+        <v>37621</v>
       </c>
       <c r="G113" t="n">
         <v>79853</v>
@@ -10646,7 +10646,7 @@
         <v>27652</v>
       </c>
       <c r="J113" t="n">
-        <v>10566</v>
+        <v>10441</v>
       </c>
       <c r="K113" t="n">
         <v>60592</v>
@@ -10655,7 +10655,7 @@
         <v>6390</v>
       </c>
       <c r="M113" t="n">
-        <v>3551</v>
+        <v>3785</v>
       </c>
       <c r="N113" t="n">
         <v>21728</v>
@@ -10679,7 +10679,7 @@
         <v>80946</v>
       </c>
       <c r="U113" t="n">
-        <v>14214</v>
+        <v>15212</v>
       </c>
       <c r="V113" t="n">
         <v>15438</v>
@@ -10700,10 +10700,101 @@
         <v>15675</v>
       </c>
       <c r="AB113" t="n">
-        <v>7137</v>
+        <v>7309</v>
       </c>
       <c r="AC113" t="n">
-        <v>892042</v>
+        <v>893322</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23632</v>
+      </c>
+      <c r="D114" t="n">
+        <v>18024</v>
+      </c>
+      <c r="E114" t="n">
+        <v>58018</v>
+      </c>
+      <c r="F114" t="n">
+        <v>39207</v>
+      </c>
+      <c r="G114" t="n">
+        <v>82169</v>
+      </c>
+      <c r="H114" t="n">
+        <v>25397</v>
+      </c>
+      <c r="I114" t="n">
+        <v>29030</v>
+      </c>
+      <c r="J114" t="n">
+        <v>11900</v>
+      </c>
+      <c r="K114" t="n">
+        <v>62711</v>
+      </c>
+      <c r="L114" t="n">
+        <v>6877</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3785</v>
+      </c>
+      <c r="N114" t="n">
+        <v>22024</v>
+      </c>
+      <c r="O114" t="n">
+        <v>74192</v>
+      </c>
+      <c r="P114" t="n">
+        <v>30128</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>10690</v>
+      </c>
+      <c r="R114" t="n">
+        <v>46427</v>
+      </c>
+      <c r="S114" t="n">
+        <v>11559</v>
+      </c>
+      <c r="T114" t="n">
+        <v>83343</v>
+      </c>
+      <c r="U114" t="n">
+        <v>15212</v>
+      </c>
+      <c r="V114" t="n">
+        <v>16471</v>
+      </c>
+      <c r="W114" t="n">
+        <v>13010</v>
+      </c>
+      <c r="X114" t="n">
+        <v>7150</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>14402</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>190285</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>16310</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>7309</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>929265</v>
       </c>
     </row>
   </sheetData>
@@ -10717,7 +10808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18562,7 +18653,7 @@
         <v>167</v>
       </c>
       <c r="O86" t="n">
-        <v>1519</v>
+        <v>1554</v>
       </c>
       <c r="P86" t="n">
         <v>219</v>
@@ -18604,7 +18695,7 @@
         <v>42</v>
       </c>
       <c r="AC86" t="n">
-        <v>18039</v>
+        <v>18074</v>
       </c>
     </row>
     <row r="87">
@@ -20018,7 +20109,7 @@
         <v>323</v>
       </c>
       <c r="O102" t="n">
-        <v>3416</v>
+        <v>3492</v>
       </c>
       <c r="P102" t="n">
         <v>438</v>
@@ -20060,7 +20151,7 @@
         <v>87</v>
       </c>
       <c r="AC102" t="n">
-        <v>34099</v>
+        <v>34175</v>
       </c>
     </row>
     <row r="103">
@@ -20109,7 +20200,7 @@
         <v>344</v>
       </c>
       <c r="O103" t="n">
-        <v>3538</v>
+        <v>3665</v>
       </c>
       <c r="P103" t="n">
         <v>451</v>
@@ -20151,7 +20242,7 @@
         <v>96</v>
       </c>
       <c r="AC103" t="n">
-        <v>35126</v>
+        <v>35253</v>
       </c>
     </row>
     <row r="104">
@@ -21013,7 +21104,7 @@
         <v>223</v>
       </c>
       <c r="M113" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N113" t="n">
         <v>481</v>
@@ -21037,7 +21128,7 @@
         <v>7728</v>
       </c>
       <c r="U113" t="n">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="V113" t="n">
         <v>360</v>
@@ -21058,10 +21149,101 @@
         <v>352</v>
       </c>
       <c r="AB113" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC113" t="n">
-        <v>44151</v>
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>271</v>
+      </c>
+      <c r="C114" t="n">
+        <v>793</v>
+      </c>
+      <c r="D114" t="n">
+        <v>337</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1181</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5192</v>
+      </c>
+      <c r="H114" t="n">
+        <v>348</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1132</v>
+      </c>
+      <c r="J114" t="n">
+        <v>249</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1537</v>
+      </c>
+      <c r="L114" t="n">
+        <v>250</v>
+      </c>
+      <c r="M114" t="n">
+        <v>36</v>
+      </c>
+      <c r="N114" t="n">
+        <v>502</v>
+      </c>
+      <c r="O114" t="n">
+        <v>4350</v>
+      </c>
+      <c r="P114" t="n">
+        <v>671</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>372</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3959</v>
+      </c>
+      <c r="S114" t="n">
+        <v>398</v>
+      </c>
+      <c r="T114" t="n">
+        <v>7967</v>
+      </c>
+      <c r="U114" t="n">
+        <v>585</v>
+      </c>
+      <c r="V114" t="n">
+        <v>374</v>
+      </c>
+      <c r="W114" t="n">
+        <v>346</v>
+      </c>
+      <c r="X114" t="n">
+        <v>224</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>212</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>11132</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>45472</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10731,13 +10731,13 @@
         <v>82169</v>
       </c>
       <c r="H114" t="n">
-        <v>25397</v>
+        <v>25380</v>
       </c>
       <c r="I114" t="n">
         <v>29030</v>
       </c>
       <c r="J114" t="n">
-        <v>11900</v>
+        <v>11836</v>
       </c>
       <c r="K114" t="n">
         <v>62711</v>
@@ -10746,7 +10746,7 @@
         <v>6877</v>
       </c>
       <c r="M114" t="n">
-        <v>3785</v>
+        <v>4164</v>
       </c>
       <c r="N114" t="n">
         <v>22024</v>
@@ -10791,10 +10791,101 @@
         <v>16310</v>
       </c>
       <c r="AB114" t="n">
-        <v>7309</v>
+        <v>7573</v>
       </c>
       <c r="AC114" t="n">
-        <v>929265</v>
+        <v>929827</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>10339</v>
+      </c>
+      <c r="C115" t="n">
+        <v>24867</v>
+      </c>
+      <c r="D115" t="n">
+        <v>18618</v>
+      </c>
+      <c r="E115" t="n">
+        <v>59547</v>
+      </c>
+      <c r="F115" t="n">
+        <v>40927</v>
+      </c>
+      <c r="G115" t="n">
+        <v>85606</v>
+      </c>
+      <c r="H115" t="n">
+        <v>27140</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30508</v>
+      </c>
+      <c r="J115" t="n">
+        <v>12826</v>
+      </c>
+      <c r="K115" t="n">
+        <v>64735</v>
+      </c>
+      <c r="L115" t="n">
+        <v>7361</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4164</v>
+      </c>
+      <c r="N115" t="n">
+        <v>23347</v>
+      </c>
+      <c r="O115" t="n">
+        <v>76623</v>
+      </c>
+      <c r="P115" t="n">
+        <v>31712</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>11225</v>
+      </c>
+      <c r="R115" t="n">
+        <v>47446</v>
+      </c>
+      <c r="S115" t="n">
+        <v>12099</v>
+      </c>
+      <c r="T115" t="n">
+        <v>86963</v>
+      </c>
+      <c r="U115" t="n">
+        <v>15690</v>
+      </c>
+      <c r="V115" t="n">
+        <v>17128</v>
+      </c>
+      <c r="W115" t="n">
+        <v>13567</v>
+      </c>
+      <c r="X115" t="n">
+        <v>7421</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>15015</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>191517</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>16807</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>7573</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>960771</v>
       </c>
     </row>
   </sheetData>
@@ -10808,7 +10899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21240,10 +21331,101 @@
         <v>364</v>
       </c>
       <c r="AB114" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AC114" t="n">
-        <v>45472</v>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>281</v>
+      </c>
+      <c r="C115" t="n">
+        <v>811</v>
+      </c>
+      <c r="D115" t="n">
+        <v>338</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2579</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5307</v>
+      </c>
+      <c r="H115" t="n">
+        <v>365</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1179</v>
+      </c>
+      <c r="J115" t="n">
+        <v>255</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1570</v>
+      </c>
+      <c r="L115" t="n">
+        <v>272</v>
+      </c>
+      <c r="M115" t="n">
+        <v>36</v>
+      </c>
+      <c r="N115" t="n">
+        <v>537</v>
+      </c>
+      <c r="O115" t="n">
+        <v>4395</v>
+      </c>
+      <c r="P115" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>394</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4009</v>
+      </c>
+      <c r="S115" t="n">
+        <v>421</v>
+      </c>
+      <c r="T115" t="n">
+        <v>8138</v>
+      </c>
+      <c r="U115" t="n">
+        <v>626</v>
+      </c>
+      <c r="V115" t="n">
+        <v>387</v>
+      </c>
+      <c r="W115" t="n">
+        <v>361</v>
+      </c>
+      <c r="X115" t="n">
+        <v>231</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>216</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>11521</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>383</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>149</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>46679</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10828,7 +10828,7 @@
         <v>30508</v>
       </c>
       <c r="J115" t="n">
-        <v>12826</v>
+        <v>12776</v>
       </c>
       <c r="K115" t="n">
         <v>64735</v>
@@ -10861,7 +10861,7 @@
         <v>86963</v>
       </c>
       <c r="U115" t="n">
-        <v>15690</v>
+        <v>15212</v>
       </c>
       <c r="V115" t="n">
         <v>17128</v>
@@ -10870,7 +10870,7 @@
         <v>13567</v>
       </c>
       <c r="X115" t="n">
-        <v>7421</v>
+        <v>7150</v>
       </c>
       <c r="Y115" t="n">
         <v>15015</v>
@@ -10885,7 +10885,98 @@
         <v>7573</v>
       </c>
       <c r="AC115" t="n">
-        <v>960771</v>
+        <v>959972</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>10339</v>
+      </c>
+      <c r="C116" t="n">
+        <v>24867</v>
+      </c>
+      <c r="D116" t="n">
+        <v>18618</v>
+      </c>
+      <c r="E116" t="n">
+        <v>59547</v>
+      </c>
+      <c r="F116" t="n">
+        <v>40927</v>
+      </c>
+      <c r="G116" t="n">
+        <v>86657</v>
+      </c>
+      <c r="H116" t="n">
+        <v>27445</v>
+      </c>
+      <c r="I116" t="n">
+        <v>30508</v>
+      </c>
+      <c r="J116" t="n">
+        <v>13102</v>
+      </c>
+      <c r="K116" t="n">
+        <v>64735</v>
+      </c>
+      <c r="L116" t="n">
+        <v>7361</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4274</v>
+      </c>
+      <c r="N116" t="n">
+        <v>24906</v>
+      </c>
+      <c r="O116" t="n">
+        <v>76623</v>
+      </c>
+      <c r="P116" t="n">
+        <v>31712</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>11225</v>
+      </c>
+      <c r="R116" t="n">
+        <v>48626</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12099</v>
+      </c>
+      <c r="T116" t="n">
+        <v>86963</v>
+      </c>
+      <c r="U116" t="n">
+        <v>15889</v>
+      </c>
+      <c r="V116" t="n">
+        <v>17128</v>
+      </c>
+      <c r="W116" t="n">
+        <v>13567</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7421</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>15015</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>192628</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>16807</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>7774</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>966763</v>
       </c>
     </row>
   </sheetData>
@@ -10899,7 +10990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21401,7 +21492,7 @@
         <v>8138</v>
       </c>
       <c r="U115" t="n">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="V115" t="n">
         <v>387</v>
@@ -21410,7 +21501,7 @@
         <v>361</v>
       </c>
       <c r="X115" t="n">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Y115" t="n">
         <v>216</v>
@@ -21425,7 +21516,98 @@
         <v>149</v>
       </c>
       <c r="AC115" t="n">
-        <v>46679</v>
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>281</v>
+      </c>
+      <c r="C116" t="n">
+        <v>811</v>
+      </c>
+      <c r="D116" t="n">
+        <v>338</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2579</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5352</v>
+      </c>
+      <c r="H116" t="n">
+        <v>369</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1179</v>
+      </c>
+      <c r="J116" t="n">
+        <v>264</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1570</v>
+      </c>
+      <c r="L116" t="n">
+        <v>272</v>
+      </c>
+      <c r="M116" t="n">
+        <v>39</v>
+      </c>
+      <c r="N116" t="n">
+        <v>570</v>
+      </c>
+      <c r="O116" t="n">
+        <v>4395</v>
+      </c>
+      <c r="P116" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>394</v>
+      </c>
+      <c r="R116" t="n">
+        <v>4057</v>
+      </c>
+      <c r="S116" t="n">
+        <v>421</v>
+      </c>
+      <c r="T116" t="n">
+        <v>8138</v>
+      </c>
+      <c r="U116" t="n">
+        <v>655</v>
+      </c>
+      <c r="V116" t="n">
+        <v>387</v>
+      </c>
+      <c r="W116" t="n">
+        <v>361</v>
+      </c>
+      <c r="X116" t="n">
+        <v>231</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>216</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>11846</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>383</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>152</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>47178</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -10770,7 +10770,7 @@
         <v>83343</v>
       </c>
       <c r="U114" t="n">
-        <v>15212</v>
+        <v>15690</v>
       </c>
       <c r="V114" t="n">
         <v>16471</v>
@@ -10794,7 +10794,7 @@
         <v>7573</v>
       </c>
       <c r="AC114" t="n">
-        <v>929827</v>
+        <v>930305</v>
       </c>
     </row>
     <row r="115">
@@ -10837,7 +10837,7 @@
         <v>7361</v>
       </c>
       <c r="M115" t="n">
-        <v>4164</v>
+        <v>4274</v>
       </c>
       <c r="N115" t="n">
         <v>23347</v>
@@ -10861,7 +10861,7 @@
         <v>86963</v>
       </c>
       <c r="U115" t="n">
-        <v>15212</v>
+        <v>15889</v>
       </c>
       <c r="V115" t="n">
         <v>17128</v>
@@ -10870,7 +10870,7 @@
         <v>13567</v>
       </c>
       <c r="X115" t="n">
-        <v>7150</v>
+        <v>7421</v>
       </c>
       <c r="Y115" t="n">
         <v>15015</v>
@@ -10882,10 +10882,10 @@
         <v>16807</v>
       </c>
       <c r="AB115" t="n">
-        <v>7573</v>
+        <v>7774</v>
       </c>
       <c r="AC115" t="n">
-        <v>959972</v>
+        <v>961231</v>
       </c>
     </row>
     <row r="116">
@@ -10895,37 +10895,37 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10339</v>
+        <v>10664</v>
       </c>
       <c r="C116" t="n">
-        <v>24867</v>
+        <v>25663</v>
       </c>
       <c r="D116" t="n">
-        <v>18618</v>
+        <v>19387</v>
       </c>
       <c r="E116" t="n">
-        <v>59547</v>
+        <v>60736</v>
       </c>
       <c r="F116" t="n">
-        <v>40927</v>
+        <v>41578</v>
       </c>
       <c r="G116" t="n">
-        <v>86657</v>
+        <v>88132</v>
       </c>
       <c r="H116" t="n">
-        <v>27445</v>
+        <v>28521</v>
       </c>
       <c r="I116" t="n">
-        <v>30508</v>
+        <v>31772</v>
       </c>
       <c r="J116" t="n">
-        <v>13102</v>
+        <v>13695</v>
       </c>
       <c r="K116" t="n">
-        <v>64735</v>
+        <v>66091</v>
       </c>
       <c r="L116" t="n">
-        <v>7361</v>
+        <v>8166</v>
       </c>
       <c r="M116" t="n">
         <v>4274</v>
@@ -10934,49 +10934,49 @@
         <v>24906</v>
       </c>
       <c r="O116" t="n">
-        <v>76623</v>
+        <v>80072</v>
       </c>
       <c r="P116" t="n">
-        <v>31712</v>
+        <v>31760</v>
       </c>
       <c r="Q116" t="n">
-        <v>11225</v>
+        <v>12059</v>
       </c>
       <c r="R116" t="n">
         <v>48626</v>
       </c>
       <c r="S116" t="n">
-        <v>12099</v>
+        <v>12567</v>
       </c>
       <c r="T116" t="n">
-        <v>86963</v>
+        <v>87317</v>
       </c>
       <c r="U116" t="n">
         <v>15889</v>
       </c>
       <c r="V116" t="n">
-        <v>17128</v>
+        <v>17822</v>
       </c>
       <c r="W116" t="n">
-        <v>13567</v>
+        <v>13804</v>
       </c>
       <c r="X116" t="n">
-        <v>7421</v>
+        <v>7650</v>
       </c>
       <c r="Y116" t="n">
-        <v>15015</v>
+        <v>15573</v>
       </c>
       <c r="Z116" t="n">
         <v>192628</v>
       </c>
       <c r="AA116" t="n">
-        <v>16807</v>
+        <v>17338</v>
       </c>
       <c r="AB116" t="n">
         <v>7774</v>
       </c>
       <c r="AC116" t="n">
-        <v>966763</v>
+        <v>984464</v>
       </c>
     </row>
   </sheetData>
@@ -21401,7 +21401,7 @@
         <v>7967</v>
       </c>
       <c r="U114" t="n">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="V114" t="n">
         <v>374</v>
@@ -21425,7 +21425,7 @@
         <v>149</v>
       </c>
       <c r="AC114" t="n">
-        <v>45481</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="115">
@@ -21468,7 +21468,7 @@
         <v>272</v>
       </c>
       <c r="M115" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N115" t="n">
         <v>537</v>
@@ -21492,7 +21492,7 @@
         <v>8138</v>
       </c>
       <c r="U115" t="n">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="V115" t="n">
         <v>387</v>
@@ -21501,7 +21501,7 @@
         <v>361</v>
       </c>
       <c r="X115" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Y115" t="n">
         <v>216</v>
@@ -21513,10 +21513,10 @@
         <v>383</v>
       </c>
       <c r="AB115" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AC115" t="n">
-        <v>46631</v>
+        <v>46714</v>
       </c>
     </row>
     <row r="116">
@@ -21526,37 +21526,37 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C116" t="n">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="D116" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E116" t="n">
-        <v>2579</v>
+        <v>2605</v>
       </c>
       <c r="F116" t="n">
-        <v>1222</v>
+        <v>1263</v>
       </c>
       <c r="G116" t="n">
-        <v>5352</v>
+        <v>5393</v>
       </c>
       <c r="H116" t="n">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="I116" t="n">
-        <v>1179</v>
+        <v>1223</v>
       </c>
       <c r="J116" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K116" t="n">
-        <v>1570</v>
+        <v>1607</v>
       </c>
       <c r="L116" t="n">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="M116" t="n">
         <v>39</v>
@@ -21565,49 +21565,49 @@
         <v>570</v>
       </c>
       <c r="O116" t="n">
-        <v>4395</v>
+        <v>4469</v>
       </c>
       <c r="P116" t="n">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="Q116" t="n">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="R116" t="n">
         <v>4057</v>
       </c>
       <c r="S116" t="n">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="T116" t="n">
-        <v>8138</v>
+        <v>8412</v>
       </c>
       <c r="U116" t="n">
         <v>655</v>
       </c>
       <c r="V116" t="n">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="W116" t="n">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="X116" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Y116" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Z116" t="n">
         <v>11846</v>
       </c>
       <c r="AA116" t="n">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="AB116" t="n">
         <v>152</v>
       </c>
       <c r="AC116" t="n">
-        <v>47178</v>
+        <v>47900</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10898,7 +10898,7 @@
         <v>10664</v>
       </c>
       <c r="C116" t="n">
-        <v>25663</v>
+        <v>25633</v>
       </c>
       <c r="D116" t="n">
         <v>19387</v>
@@ -10919,7 +10919,7 @@
         <v>31772</v>
       </c>
       <c r="J116" t="n">
-        <v>13695</v>
+        <v>13665</v>
       </c>
       <c r="K116" t="n">
         <v>66091</v>
@@ -10928,7 +10928,7 @@
         <v>8166</v>
       </c>
       <c r="M116" t="n">
-        <v>4274</v>
+        <v>4666</v>
       </c>
       <c r="N116" t="n">
         <v>24906</v>
@@ -10952,7 +10952,7 @@
         <v>87317</v>
       </c>
       <c r="U116" t="n">
-        <v>15889</v>
+        <v>16039</v>
       </c>
       <c r="V116" t="n">
         <v>17822</v>
@@ -10973,10 +10973,101 @@
         <v>17338</v>
       </c>
       <c r="AB116" t="n">
-        <v>7774</v>
+        <v>7956</v>
       </c>
       <c r="AC116" t="n">
-        <v>984464</v>
+        <v>985128</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>10987</v>
+      </c>
+      <c r="C117" t="n">
+        <v>26906</v>
+      </c>
+      <c r="D117" t="n">
+        <v>19922</v>
+      </c>
+      <c r="E117" t="n">
+        <v>61683</v>
+      </c>
+      <c r="F117" t="n">
+        <v>43922</v>
+      </c>
+      <c r="G117" t="n">
+        <v>90441</v>
+      </c>
+      <c r="H117" t="n">
+        <v>30902</v>
+      </c>
+      <c r="I117" t="n">
+        <v>33232</v>
+      </c>
+      <c r="J117" t="n">
+        <v>14587</v>
+      </c>
+      <c r="K117" t="n">
+        <v>68500</v>
+      </c>
+      <c r="L117" t="n">
+        <v>8353</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4666</v>
+      </c>
+      <c r="N117" t="n">
+        <v>26052</v>
+      </c>
+      <c r="O117" t="n">
+        <v>82881</v>
+      </c>
+      <c r="P117" t="n">
+        <v>35093</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>12932</v>
+      </c>
+      <c r="R117" t="n">
+        <v>49720</v>
+      </c>
+      <c r="S117" t="n">
+        <v>13813</v>
+      </c>
+      <c r="T117" t="n">
+        <v>93378</v>
+      </c>
+      <c r="U117" t="n">
+        <v>16039</v>
+      </c>
+      <c r="V117" t="n">
+        <v>18587</v>
+      </c>
+      <c r="W117" t="n">
+        <v>14353</v>
+      </c>
+      <c r="X117" t="n">
+        <v>7650</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>16332</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>211658</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>17808</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>7956</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1038353</v>
       </c>
     </row>
   </sheetData>
@@ -10990,7 +11081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21559,7 +21650,7 @@
         <v>295</v>
       </c>
       <c r="M116" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N116" t="n">
         <v>570</v>
@@ -21583,7 +21674,7 @@
         <v>8412</v>
       </c>
       <c r="U116" t="n">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="V116" t="n">
         <v>406</v>
@@ -21604,10 +21695,101 @@
         <v>400</v>
       </c>
       <c r="AB116" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AC116" t="n">
-        <v>47900</v>
+        <v>47946</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>292</v>
+      </c>
+      <c r="C117" t="n">
+        <v>848</v>
+      </c>
+      <c r="D117" t="n">
+        <v>348</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2624</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5497</v>
+      </c>
+      <c r="H117" t="n">
+        <v>397</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1267</v>
+      </c>
+      <c r="J117" t="n">
+        <v>289</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1645</v>
+      </c>
+      <c r="L117" t="n">
+        <v>309</v>
+      </c>
+      <c r="M117" t="n">
+        <v>40</v>
+      </c>
+      <c r="N117" t="n">
+        <v>600</v>
+      </c>
+      <c r="O117" t="n">
+        <v>4519</v>
+      </c>
+      <c r="P117" t="n">
+        <v>724</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>428</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4102</v>
+      </c>
+      <c r="S117" t="n">
+        <v>459</v>
+      </c>
+      <c r="T117" t="n">
+        <v>8595</v>
+      </c>
+      <c r="U117" t="n">
+        <v>693</v>
+      </c>
+      <c r="V117" t="n">
+        <v>423</v>
+      </c>
+      <c r="W117" t="n">
+        <v>391</v>
+      </c>
+      <c r="X117" t="n">
+        <v>239</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>234</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>12232</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>426</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>159</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>49085</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11010,16 +11010,16 @@
         <v>33232</v>
       </c>
       <c r="J117" t="n">
-        <v>14587</v>
+        <v>14540</v>
       </c>
       <c r="K117" t="n">
         <v>68500</v>
       </c>
       <c r="L117" t="n">
-        <v>8353</v>
+        <v>8725</v>
       </c>
       <c r="M117" t="n">
-        <v>4666</v>
+        <v>4990</v>
       </c>
       <c r="N117" t="n">
         <v>26052</v>
@@ -11043,7 +11043,7 @@
         <v>93378</v>
       </c>
       <c r="U117" t="n">
-        <v>16039</v>
+        <v>19206</v>
       </c>
       <c r="V117" t="n">
         <v>18587</v>
@@ -11052,7 +11052,7 @@
         <v>14353</v>
       </c>
       <c r="X117" t="n">
-        <v>7650</v>
+        <v>8037</v>
       </c>
       <c r="Y117" t="n">
         <v>16332</v>
@@ -11064,10 +11064,101 @@
         <v>17808</v>
       </c>
       <c r="AB117" t="n">
-        <v>7956</v>
+        <v>8203</v>
       </c>
       <c r="AC117" t="n">
-        <v>1038353</v>
+        <v>1042803</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>11263</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27698</v>
+      </c>
+      <c r="D118" t="n">
+        <v>21574</v>
+      </c>
+      <c r="E118" t="n">
+        <v>62902</v>
+      </c>
+      <c r="F118" t="n">
+        <v>45304</v>
+      </c>
+      <c r="G118" t="n">
+        <v>92397</v>
+      </c>
+      <c r="H118" t="n">
+        <v>32235</v>
+      </c>
+      <c r="I118" t="n">
+        <v>34238</v>
+      </c>
+      <c r="J118" t="n">
+        <v>15477</v>
+      </c>
+      <c r="K118" t="n">
+        <v>69673</v>
+      </c>
+      <c r="L118" t="n">
+        <v>9262</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4990</v>
+      </c>
+      <c r="N118" t="n">
+        <v>27305</v>
+      </c>
+      <c r="O118" t="n">
+        <v>84654</v>
+      </c>
+      <c r="P118" t="n">
+        <v>36521</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>13821</v>
+      </c>
+      <c r="R118" t="n">
+        <v>51118</v>
+      </c>
+      <c r="S118" t="n">
+        <v>14264</v>
+      </c>
+      <c r="T118" t="n">
+        <v>95537</v>
+      </c>
+      <c r="U118" t="n">
+        <v>19206</v>
+      </c>
+      <c r="V118" t="n">
+        <v>19138</v>
+      </c>
+      <c r="W118" t="n">
+        <v>14952</v>
+      </c>
+      <c r="X118" t="n">
+        <v>8120</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>17108</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>215793</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>18449</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>8203</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1071202</v>
       </c>
     </row>
   </sheetData>
@@ -11081,7 +11172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21592,7 +21683,7 @@
         <v>361</v>
       </c>
       <c r="X115" t="n">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Y115" t="n">
         <v>216</v>
@@ -21607,7 +21698,7 @@
         <v>152</v>
       </c>
       <c r="AC115" t="n">
-        <v>46714</v>
+        <v>46707</v>
       </c>
     </row>
     <row r="116">
@@ -21726,7 +21817,7 @@
         <v>5497</v>
       </c>
       <c r="H117" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I117" t="n">
         <v>1267</v>
@@ -21738,10 +21829,10 @@
         <v>1645</v>
       </c>
       <c r="L117" t="n">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="M117" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N117" t="n">
         <v>600</v>
@@ -21765,7 +21856,7 @@
         <v>8595</v>
       </c>
       <c r="U117" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="V117" t="n">
         <v>423</v>
@@ -21774,7 +21865,7 @@
         <v>391</v>
       </c>
       <c r="X117" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Y117" t="n">
         <v>234</v>
@@ -21786,10 +21877,101 @@
         <v>426</v>
       </c>
       <c r="AB117" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AC117" t="n">
-        <v>49085</v>
+        <v>49118</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>297</v>
+      </c>
+      <c r="C118" t="n">
+        <v>866</v>
+      </c>
+      <c r="D118" t="n">
+        <v>353</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2650</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5520</v>
+      </c>
+      <c r="H118" t="n">
+        <v>405</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1297</v>
+      </c>
+      <c r="J118" t="n">
+        <v>295</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1684</v>
+      </c>
+      <c r="L118" t="n">
+        <v>341</v>
+      </c>
+      <c r="M118" t="n">
+        <v>43</v>
+      </c>
+      <c r="N118" t="n">
+        <v>636</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4583</v>
+      </c>
+      <c r="P118" t="n">
+        <v>743</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>437</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4148</v>
+      </c>
+      <c r="S118" t="n">
+        <v>485</v>
+      </c>
+      <c r="T118" t="n">
+        <v>8824</v>
+      </c>
+      <c r="U118" t="n">
+        <v>697</v>
+      </c>
+      <c r="V118" t="n">
+        <v>430</v>
+      </c>
+      <c r="W118" t="n">
+        <v>409</v>
+      </c>
+      <c r="X118" t="n">
+        <v>251</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>237</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>12494</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>448</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>167</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>50090</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10998,7 +10998,7 @@
         <v>61683</v>
       </c>
       <c r="F117" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="G117" t="n">
         <v>90441</v>
@@ -11067,7 +11067,7 @@
         <v>8203</v>
       </c>
       <c r="AC117" t="n">
-        <v>1042803</v>
+        <v>1042804</v>
       </c>
     </row>
     <row r="118">
@@ -11089,19 +11089,19 @@
         <v>62902</v>
       </c>
       <c r="F118" t="n">
-        <v>45304</v>
+        <v>45305</v>
       </c>
       <c r="G118" t="n">
         <v>92397</v>
       </c>
       <c r="H118" t="n">
-        <v>32235</v>
+        <v>32238</v>
       </c>
       <c r="I118" t="n">
         <v>34238</v>
       </c>
       <c r="J118" t="n">
-        <v>15477</v>
+        <v>15450</v>
       </c>
       <c r="K118" t="n">
         <v>69673</v>
@@ -11110,7 +11110,7 @@
         <v>9262</v>
       </c>
       <c r="M118" t="n">
-        <v>4990</v>
+        <v>5237</v>
       </c>
       <c r="N118" t="n">
         <v>27305</v>
@@ -11134,7 +11134,7 @@
         <v>95537</v>
       </c>
       <c r="U118" t="n">
-        <v>19206</v>
+        <v>19290</v>
       </c>
       <c r="V118" t="n">
         <v>19138</v>
@@ -11155,10 +11155,101 @@
         <v>18449</v>
       </c>
       <c r="AB118" t="n">
-        <v>8203</v>
+        <v>8354</v>
       </c>
       <c r="AC118" t="n">
-        <v>1071202</v>
+        <v>1071661</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>11381</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28657</v>
+      </c>
+      <c r="D119" t="n">
+        <v>21840</v>
+      </c>
+      <c r="E119" t="n">
+        <v>63410</v>
+      </c>
+      <c r="F119" t="n">
+        <v>46279</v>
+      </c>
+      <c r="G119" t="n">
+        <v>92866</v>
+      </c>
+      <c r="H119" t="n">
+        <v>33227</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34866</v>
+      </c>
+      <c r="J119" t="n">
+        <v>15928</v>
+      </c>
+      <c r="K119" t="n">
+        <v>70059</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9776</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5237</v>
+      </c>
+      <c r="N119" t="n">
+        <v>27641</v>
+      </c>
+      <c r="O119" t="n">
+        <v>86020</v>
+      </c>
+      <c r="P119" t="n">
+        <v>36784</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>14501</v>
+      </c>
+      <c r="R119" t="n">
+        <v>52113</v>
+      </c>
+      <c r="S119" t="n">
+        <v>14476</v>
+      </c>
+      <c r="T119" t="n">
+        <v>96133</v>
+      </c>
+      <c r="U119" t="n">
+        <v>19290</v>
+      </c>
+      <c r="V119" t="n">
+        <v>19348</v>
+      </c>
+      <c r="W119" t="n">
+        <v>15181</v>
+      </c>
+      <c r="X119" t="n">
+        <v>8188</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>17582</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>219185</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>18985</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>8354</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1087307</v>
       </c>
     </row>
   </sheetData>
@@ -11172,7 +11263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21923,7 +22014,7 @@
         <v>341</v>
       </c>
       <c r="M118" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N118" t="n">
         <v>636</v>
@@ -21968,10 +22059,101 @@
         <v>448</v>
       </c>
       <c r="AB118" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AC118" t="n">
-        <v>50090</v>
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>300</v>
+      </c>
+      <c r="C119" t="n">
+        <v>884</v>
+      </c>
+      <c r="D119" t="n">
+        <v>359</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2657</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5523</v>
+      </c>
+      <c r="H119" t="n">
+        <v>423</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1328</v>
+      </c>
+      <c r="J119" t="n">
+        <v>306</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1721</v>
+      </c>
+      <c r="L119" t="n">
+        <v>370</v>
+      </c>
+      <c r="M119" t="n">
+        <v>45</v>
+      </c>
+      <c r="N119" t="n">
+        <v>661</v>
+      </c>
+      <c r="O119" t="n">
+        <v>4605</v>
+      </c>
+      <c r="P119" t="n">
+        <v>766</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>451</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4234</v>
+      </c>
+      <c r="S119" t="n">
+        <v>502</v>
+      </c>
+      <c r="T119" t="n">
+        <v>8875</v>
+      </c>
+      <c r="U119" t="n">
+        <v>697</v>
+      </c>
+      <c r="V119" t="n">
+        <v>434</v>
+      </c>
+      <c r="W119" t="n">
+        <v>417</v>
+      </c>
+      <c r="X119" t="n">
+        <v>251</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>12588</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>462</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>50671</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11180,7 +11180,7 @@
         <v>63410</v>
       </c>
       <c r="F119" t="n">
-        <v>46279</v>
+        <v>46280</v>
       </c>
       <c r="G119" t="n">
         <v>92866</v>
@@ -11192,7 +11192,7 @@
         <v>34866</v>
       </c>
       <c r="J119" t="n">
-        <v>15928</v>
+        <v>15904</v>
       </c>
       <c r="K119" t="n">
         <v>70059</v>
@@ -11201,7 +11201,7 @@
         <v>9776</v>
       </c>
       <c r="M119" t="n">
-        <v>5237</v>
+        <v>5391</v>
       </c>
       <c r="N119" t="n">
         <v>27641</v>
@@ -11225,7 +11225,7 @@
         <v>96133</v>
       </c>
       <c r="U119" t="n">
-        <v>19290</v>
+        <v>19957</v>
       </c>
       <c r="V119" t="n">
         <v>19348</v>
@@ -11246,10 +11246,101 @@
         <v>18985</v>
       </c>
       <c r="AB119" t="n">
-        <v>8354</v>
+        <v>8477</v>
       </c>
       <c r="AC119" t="n">
-        <v>1087307</v>
+        <v>1088228</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>11539</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29395</v>
+      </c>
+      <c r="D120" t="n">
+        <v>24862</v>
+      </c>
+      <c r="E120" t="n">
+        <v>63731</v>
+      </c>
+      <c r="F120" t="n">
+        <v>47086</v>
+      </c>
+      <c r="G120" t="n">
+        <v>94708</v>
+      </c>
+      <c r="H120" t="n">
+        <v>34148</v>
+      </c>
+      <c r="I120" t="n">
+        <v>36147</v>
+      </c>
+      <c r="J120" t="n">
+        <v>17085</v>
+      </c>
+      <c r="K120" t="n">
+        <v>70689</v>
+      </c>
+      <c r="L120" t="n">
+        <v>10270</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5391</v>
+      </c>
+      <c r="N120" t="n">
+        <v>28918</v>
+      </c>
+      <c r="O120" t="n">
+        <v>88636</v>
+      </c>
+      <c r="P120" t="n">
+        <v>37253</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>15124</v>
+      </c>
+      <c r="R120" t="n">
+        <v>52494</v>
+      </c>
+      <c r="S120" t="n">
+        <v>15269</v>
+      </c>
+      <c r="T120" t="n">
+        <v>97573</v>
+      </c>
+      <c r="U120" t="n">
+        <v>19957</v>
+      </c>
+      <c r="V120" t="n">
+        <v>19710</v>
+      </c>
+      <c r="W120" t="n">
+        <v>15827</v>
+      </c>
+      <c r="X120" t="n">
+        <v>8188</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>17937</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>221973</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>19384</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>8477</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1111771</v>
       </c>
     </row>
   </sheetData>
@@ -11263,7 +11354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22105,7 +22196,7 @@
         <v>370</v>
       </c>
       <c r="M119" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N119" t="n">
         <v>661</v>
@@ -22129,7 +22220,7 @@
         <v>8875</v>
       </c>
       <c r="U119" t="n">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="V119" t="n">
         <v>434</v>
@@ -22150,10 +22241,101 @@
         <v>462</v>
       </c>
       <c r="AB119" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AC119" t="n">
-        <v>50671</v>
+        <v>50709</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>305</v>
+      </c>
+      <c r="C120" t="n">
+        <v>903</v>
+      </c>
+      <c r="D120" t="n">
+        <v>372</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2671</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1441</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5618</v>
+      </c>
+      <c r="H120" t="n">
+        <v>449</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1387</v>
+      </c>
+      <c r="J120" t="n">
+        <v>324</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1760</v>
+      </c>
+      <c r="L120" t="n">
+        <v>394</v>
+      </c>
+      <c r="M120" t="n">
+        <v>49</v>
+      </c>
+      <c r="N120" t="n">
+        <v>688</v>
+      </c>
+      <c r="O120" t="n">
+        <v>4672</v>
+      </c>
+      <c r="P120" t="n">
+        <v>784</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>469</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4252</v>
+      </c>
+      <c r="S120" t="n">
+        <v>517</v>
+      </c>
+      <c r="T120" t="n">
+        <v>8933</v>
+      </c>
+      <c r="U120" t="n">
+        <v>730</v>
+      </c>
+      <c r="V120" t="n">
+        <v>458</v>
+      </c>
+      <c r="W120" t="n">
+        <v>431</v>
+      </c>
+      <c r="X120" t="n">
+        <v>251</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>256</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>12634</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>491</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>178</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>51417</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11292,7 +11292,7 @@
         <v>10270</v>
       </c>
       <c r="M120" t="n">
-        <v>5391</v>
+        <v>5784</v>
       </c>
       <c r="N120" t="n">
         <v>28918</v>
@@ -11313,10 +11313,10 @@
         <v>15269</v>
       </c>
       <c r="T120" t="n">
-        <v>97573</v>
+        <v>97572</v>
       </c>
       <c r="U120" t="n">
-        <v>19957</v>
+        <v>20075</v>
       </c>
       <c r="V120" t="n">
         <v>19710</v>
@@ -11325,7 +11325,7 @@
         <v>15827</v>
       </c>
       <c r="X120" t="n">
-        <v>8188</v>
+        <v>10340</v>
       </c>
       <c r="Y120" t="n">
         <v>17937</v>
@@ -11337,10 +11337,101 @@
         <v>19384</v>
       </c>
       <c r="AB120" t="n">
-        <v>8477</v>
+        <v>8766</v>
       </c>
       <c r="AC120" t="n">
-        <v>1111771</v>
+        <v>1114722</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>11810</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30248</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26437</v>
+      </c>
+      <c r="E121" t="n">
+        <v>65073</v>
+      </c>
+      <c r="F121" t="n">
+        <v>49084</v>
+      </c>
+      <c r="G121" t="n">
+        <v>98055</v>
+      </c>
+      <c r="H121" t="n">
+        <v>35368</v>
+      </c>
+      <c r="I121" t="n">
+        <v>37225</v>
+      </c>
+      <c r="J121" t="n">
+        <v>18059</v>
+      </c>
+      <c r="K121" t="n">
+        <v>72021</v>
+      </c>
+      <c r="L121" t="n">
+        <v>11017</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5784</v>
+      </c>
+      <c r="N121" t="n">
+        <v>29897</v>
+      </c>
+      <c r="O121" t="n">
+        <v>91708</v>
+      </c>
+      <c r="P121" t="n">
+        <v>38999</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>15853</v>
+      </c>
+      <c r="R121" t="n">
+        <v>52831</v>
+      </c>
+      <c r="S121" t="n">
+        <v>16277</v>
+      </c>
+      <c r="T121" t="n">
+        <v>100869</v>
+      </c>
+      <c r="U121" t="n">
+        <v>20075</v>
+      </c>
+      <c r="V121" t="n">
+        <v>20864</v>
+      </c>
+      <c r="W121" t="n">
+        <v>16499</v>
+      </c>
+      <c r="X121" t="n">
+        <v>10803</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>19244</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>229475</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>19883</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>8766</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1152224</v>
       </c>
     </row>
   </sheetData>
@@ -11354,7 +11445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22287,7 +22378,7 @@
         <v>394</v>
       </c>
       <c r="M120" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N120" t="n">
         <v>688</v>
@@ -22311,13 +22402,13 @@
         <v>8933</v>
       </c>
       <c r="U120" t="n">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="V120" t="n">
         <v>458</v>
       </c>
       <c r="W120" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="X120" t="n">
         <v>251</v>
@@ -22332,10 +22423,101 @@
         <v>491</v>
       </c>
       <c r="AB120" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC120" t="n">
-        <v>51417</v>
+        <v>51445</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>321</v>
+      </c>
+      <c r="C121" t="n">
+        <v>920</v>
+      </c>
+      <c r="D121" t="n">
+        <v>380</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2686</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5728</v>
+      </c>
+      <c r="H121" t="n">
+        <v>475</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1432</v>
+      </c>
+      <c r="J121" t="n">
+        <v>355</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1797</v>
+      </c>
+      <c r="L121" t="n">
+        <v>423</v>
+      </c>
+      <c r="M121" t="n">
+        <v>56</v>
+      </c>
+      <c r="N121" t="n">
+        <v>720</v>
+      </c>
+      <c r="O121" t="n">
+        <v>4726</v>
+      </c>
+      <c r="P121" t="n">
+        <v>807</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>498</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4339</v>
+      </c>
+      <c r="S121" t="n">
+        <v>534</v>
+      </c>
+      <c r="T121" t="n">
+        <v>9153</v>
+      </c>
+      <c r="U121" t="n">
+        <v>750</v>
+      </c>
+      <c r="V121" t="n">
+        <v>477</v>
+      </c>
+      <c r="W121" t="n">
+        <v>444</v>
+      </c>
+      <c r="X121" t="n">
+        <v>259</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>263</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>13068</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>511</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>179</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>52792</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9806,7 +9806,7 @@
         <v>7525</v>
       </c>
       <c r="C104" t="n">
-        <v>15707</v>
+        <v>14818</v>
       </c>
       <c r="D104" t="n">
         <v>12773</v>
@@ -9884,7 +9884,7 @@
         <v>5644</v>
       </c>
       <c r="AC104" t="n">
-        <v>677782</v>
+        <v>676893</v>
       </c>
     </row>
     <row r="105">
@@ -9897,7 +9897,7 @@
         <v>7983</v>
       </c>
       <c r="C105" t="n">
-        <v>16340</v>
+        <v>15707</v>
       </c>
       <c r="D105" t="n">
         <v>13045</v>
@@ -9975,7 +9975,7 @@
         <v>5644</v>
       </c>
       <c r="AC105" t="n">
-        <v>695514</v>
+        <v>694881</v>
       </c>
     </row>
     <row r="106">
@@ -11271,7 +11271,7 @@
         <v>63731</v>
       </c>
       <c r="F120" t="n">
-        <v>47086</v>
+        <v>47087</v>
       </c>
       <c r="G120" t="n">
         <v>94708</v>
@@ -11340,7 +11340,7 @@
         <v>8766</v>
       </c>
       <c r="AC120" t="n">
-        <v>1114722</v>
+        <v>1114723</v>
       </c>
     </row>
     <row r="121">
@@ -11362,7 +11362,7 @@
         <v>65073</v>
       </c>
       <c r="F121" t="n">
-        <v>49084</v>
+        <v>49085</v>
       </c>
       <c r="G121" t="n">
         <v>98055</v>
@@ -11371,19 +11371,19 @@
         <v>35368</v>
       </c>
       <c r="I121" t="n">
-        <v>37225</v>
+        <v>36827</v>
       </c>
       <c r="J121" t="n">
-        <v>18059</v>
+        <v>18014</v>
       </c>
       <c r="K121" t="n">
         <v>72021</v>
       </c>
       <c r="L121" t="n">
-        <v>11017</v>
+        <v>10992</v>
       </c>
       <c r="M121" t="n">
-        <v>5784</v>
+        <v>6201</v>
       </c>
       <c r="N121" t="n">
         <v>29897</v>
@@ -11401,13 +11401,13 @@
         <v>52831</v>
       </c>
       <c r="S121" t="n">
-        <v>16277</v>
+        <v>16227</v>
       </c>
       <c r="T121" t="n">
         <v>100869</v>
       </c>
       <c r="U121" t="n">
-        <v>20075</v>
+        <v>21844</v>
       </c>
       <c r="V121" t="n">
         <v>20864</v>
@@ -11428,10 +11428,101 @@
         <v>19883</v>
       </c>
       <c r="AB121" t="n">
-        <v>8766</v>
+        <v>9098</v>
       </c>
       <c r="AC121" t="n">
-        <v>1152224</v>
+        <v>1154225</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>12022</v>
+      </c>
+      <c r="C122" t="n">
+        <v>31230</v>
+      </c>
+      <c r="D122" t="n">
+        <v>26919</v>
+      </c>
+      <c r="E122" t="n">
+        <v>66764</v>
+      </c>
+      <c r="F122" t="n">
+        <v>51931</v>
+      </c>
+      <c r="G122" t="n">
+        <v>99578</v>
+      </c>
+      <c r="H122" t="n">
+        <v>37254</v>
+      </c>
+      <c r="I122" t="n">
+        <v>38483</v>
+      </c>
+      <c r="J122" t="n">
+        <v>19302</v>
+      </c>
+      <c r="K122" t="n">
+        <v>73314</v>
+      </c>
+      <c r="L122" t="n">
+        <v>11571</v>
+      </c>
+      <c r="M122" t="n">
+        <v>6201</v>
+      </c>
+      <c r="N122" t="n">
+        <v>31343</v>
+      </c>
+      <c r="O122" t="n">
+        <v>94036</v>
+      </c>
+      <c r="P122" t="n">
+        <v>39912</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>16963</v>
+      </c>
+      <c r="R122" t="n">
+        <v>54022</v>
+      </c>
+      <c r="S122" t="n">
+        <v>17080</v>
+      </c>
+      <c r="T122" t="n">
+        <v>103493</v>
+      </c>
+      <c r="U122" t="n">
+        <v>21844</v>
+      </c>
+      <c r="V122" t="n">
+        <v>22009</v>
+      </c>
+      <c r="W122" t="n">
+        <v>17424</v>
+      </c>
+      <c r="X122" t="n">
+        <v>11872</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>20921</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>238822</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>20353</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>9098</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1193761</v>
       </c>
     </row>
   </sheetData>
@@ -11445,7 +11536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20892,7 +20983,7 @@
         <v>201</v>
       </c>
       <c r="C104" t="n">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="D104" t="n">
         <v>269</v>
@@ -20970,7 +21061,7 @@
         <v>99</v>
       </c>
       <c r="AC104" t="n">
-        <v>36073</v>
+        <v>36054</v>
       </c>
     </row>
     <row r="105">
@@ -20983,7 +21074,7 @@
         <v>207</v>
       </c>
       <c r="C105" t="n">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="D105" t="n">
         <v>272</v>
@@ -21061,7 +21152,7 @@
         <v>99</v>
       </c>
       <c r="AC105" t="n">
-        <v>36551</v>
+        <v>36530</v>
       </c>
     </row>
     <row r="106">
@@ -22457,7 +22548,7 @@
         <v>475</v>
       </c>
       <c r="I121" t="n">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="J121" t="n">
         <v>355</v>
@@ -22493,7 +22584,7 @@
         <v>9153</v>
       </c>
       <c r="U121" t="n">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="V121" t="n">
         <v>477</v>
@@ -22514,10 +22605,101 @@
         <v>511</v>
       </c>
       <c r="AB121" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC121" t="n">
-        <v>52792</v>
+        <v>52851</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>326</v>
+      </c>
+      <c r="C122" t="n">
+        <v>938</v>
+      </c>
+      <c r="D122" t="n">
+        <v>387</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2710</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1541</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5815</v>
+      </c>
+      <c r="H122" t="n">
+        <v>495</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1463</v>
+      </c>
+      <c r="J122" t="n">
+        <v>375</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1836</v>
+      </c>
+      <c r="L122" t="n">
+        <v>445</v>
+      </c>
+      <c r="M122" t="n">
+        <v>56</v>
+      </c>
+      <c r="N122" t="n">
+        <v>771</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4748</v>
+      </c>
+      <c r="P122" t="n">
+        <v>828</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>521</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4425</v>
+      </c>
+      <c r="S122" t="n">
+        <v>546</v>
+      </c>
+      <c r="T122" t="n">
+        <v>9295</v>
+      </c>
+      <c r="U122" t="n">
+        <v>814</v>
+      </c>
+      <c r="V122" t="n">
+        <v>500</v>
+      </c>
+      <c r="W122" t="n">
+        <v>455</v>
+      </c>
+      <c r="X122" t="n">
+        <v>271</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>279</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>13352</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>524</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>181</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>53897</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11453,7 +11453,7 @@
         <v>66764</v>
       </c>
       <c r="F122" t="n">
-        <v>51931</v>
+        <v>51932</v>
       </c>
       <c r="G122" t="n">
         <v>99578</v>
@@ -11465,7 +11465,7 @@
         <v>38483</v>
       </c>
       <c r="J122" t="n">
-        <v>19302</v>
+        <v>19280</v>
       </c>
       <c r="K122" t="n">
         <v>73314</v>
@@ -11474,7 +11474,7 @@
         <v>11571</v>
       </c>
       <c r="M122" t="n">
-        <v>6201</v>
+        <v>6523</v>
       </c>
       <c r="N122" t="n">
         <v>31343</v>
@@ -11498,13 +11498,13 @@
         <v>103493</v>
       </c>
       <c r="U122" t="n">
-        <v>21844</v>
+        <v>22665</v>
       </c>
       <c r="V122" t="n">
         <v>22009</v>
       </c>
       <c r="W122" t="n">
-        <v>17424</v>
+        <v>18173</v>
       </c>
       <c r="X122" t="n">
         <v>11872</v>
@@ -11519,10 +11519,101 @@
         <v>20353</v>
       </c>
       <c r="AB122" t="n">
-        <v>9098</v>
+        <v>9425</v>
       </c>
       <c r="AC122" t="n">
-        <v>1193761</v>
+        <v>1195959</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>12304</v>
+      </c>
+      <c r="C123" t="n">
+        <v>32065</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27415</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67267</v>
+      </c>
+      <c r="F123" t="n">
+        <v>54291</v>
+      </c>
+      <c r="G123" t="n">
+        <v>103118</v>
+      </c>
+      <c r="H123" t="n">
+        <v>38871</v>
+      </c>
+      <c r="I123" t="n">
+        <v>40406</v>
+      </c>
+      <c r="J123" t="n">
+        <v>20377</v>
+      </c>
+      <c r="K123" t="n">
+        <v>74925</v>
+      </c>
+      <c r="L123" t="n">
+        <v>12601</v>
+      </c>
+      <c r="M123" t="n">
+        <v>6523</v>
+      </c>
+      <c r="N123" t="n">
+        <v>32769</v>
+      </c>
+      <c r="O123" t="n">
+        <v>96472</v>
+      </c>
+      <c r="P123" t="n">
+        <v>40824</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>17821</v>
+      </c>
+      <c r="R123" t="n">
+        <v>55136</v>
+      </c>
+      <c r="S123" t="n">
+        <v>18023</v>
+      </c>
+      <c r="T123" t="n">
+        <v>105897</v>
+      </c>
+      <c r="U123" t="n">
+        <v>22738</v>
+      </c>
+      <c r="V123" t="n">
+        <v>23060</v>
+      </c>
+      <c r="W123" t="n">
+        <v>18173</v>
+      </c>
+      <c r="X123" t="n">
+        <v>12911</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>21951</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>248587</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>21081</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>9425</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1235031</v>
       </c>
     </row>
   </sheetData>
@@ -11536,7 +11627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22651,7 +22742,7 @@
         <v>445</v>
       </c>
       <c r="M122" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N122" t="n">
         <v>771</v>
@@ -22675,13 +22766,13 @@
         <v>9295</v>
       </c>
       <c r="U122" t="n">
-        <v>814</v>
+        <v>858</v>
       </c>
       <c r="V122" t="n">
         <v>500</v>
       </c>
       <c r="W122" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="X122" t="n">
         <v>271</v>
@@ -22696,10 +22787,101 @@
         <v>524</v>
       </c>
       <c r="AB122" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC122" t="n">
-        <v>53897</v>
+        <v>53960</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>335</v>
+      </c>
+      <c r="C123" t="n">
+        <v>958</v>
+      </c>
+      <c r="D123" t="n">
+        <v>394</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2731</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1601</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5895</v>
+      </c>
+      <c r="H123" t="n">
+        <v>509</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1490</v>
+      </c>
+      <c r="J123" t="n">
+        <v>384</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1871</v>
+      </c>
+      <c r="L123" t="n">
+        <v>476</v>
+      </c>
+      <c r="M123" t="n">
+        <v>61</v>
+      </c>
+      <c r="N123" t="n">
+        <v>806</v>
+      </c>
+      <c r="O123" t="n">
+        <v>4803</v>
+      </c>
+      <c r="P123" t="n">
+        <v>842</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>539</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4488</v>
+      </c>
+      <c r="S123" t="n">
+        <v>574</v>
+      </c>
+      <c r="T123" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U123" t="n">
+        <v>865</v>
+      </c>
+      <c r="V123" t="n">
+        <v>500</v>
+      </c>
+      <c r="W123" t="n">
+        <v>467</v>
+      </c>
+      <c r="X123" t="n">
+        <v>271</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>289</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>13759</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>554</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>183</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>55095</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11380,7 +11380,7 @@
         <v>72021</v>
       </c>
       <c r="L121" t="n">
-        <v>10992</v>
+        <v>11017</v>
       </c>
       <c r="M121" t="n">
         <v>6201</v>
@@ -11431,7 +11431,7 @@
         <v>9098</v>
       </c>
       <c r="AC121" t="n">
-        <v>1154225</v>
+        <v>1154250</v>
       </c>
     </row>
     <row r="122">
@@ -11577,7 +11577,7 @@
         <v>40824</v>
       </c>
       <c r="Q123" t="n">
-        <v>17821</v>
+        <v>17822</v>
       </c>
       <c r="R123" t="n">
         <v>55136</v>
@@ -11589,7 +11589,7 @@
         <v>105897</v>
       </c>
       <c r="U123" t="n">
-        <v>22738</v>
+        <v>22665</v>
       </c>
       <c r="V123" t="n">
         <v>23060</v>
@@ -11598,7 +11598,7 @@
         <v>18173</v>
       </c>
       <c r="X123" t="n">
-        <v>12911</v>
+        <v>11872</v>
       </c>
       <c r="Y123" t="n">
         <v>21951</v>
@@ -11613,7 +11613,98 @@
         <v>9425</v>
       </c>
       <c r="AC123" t="n">
-        <v>1235031</v>
+        <v>1233920</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>12644</v>
+      </c>
+      <c r="C124" t="n">
+        <v>32864</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27662</v>
+      </c>
+      <c r="E124" t="n">
+        <v>68220</v>
+      </c>
+      <c r="F124" t="n">
+        <v>56422</v>
+      </c>
+      <c r="G124" t="n">
+        <v>105270</v>
+      </c>
+      <c r="H124" t="n">
+        <v>41326</v>
+      </c>
+      <c r="I124" t="n">
+        <v>41652</v>
+      </c>
+      <c r="J124" t="n">
+        <v>21240</v>
+      </c>
+      <c r="K124" t="n">
+        <v>76698</v>
+      </c>
+      <c r="L124" t="n">
+        <v>13026</v>
+      </c>
+      <c r="M124" t="n">
+        <v>6913</v>
+      </c>
+      <c r="N124" t="n">
+        <v>38891</v>
+      </c>
+      <c r="O124" t="n">
+        <v>99313</v>
+      </c>
+      <c r="P124" t="n">
+        <v>42832</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>18464</v>
+      </c>
+      <c r="R124" t="n">
+        <v>55804</v>
+      </c>
+      <c r="S124" t="n">
+        <v>18023</v>
+      </c>
+      <c r="T124" t="n">
+        <v>108497</v>
+      </c>
+      <c r="U124" t="n">
+        <v>23730</v>
+      </c>
+      <c r="V124" t="n">
+        <v>24114</v>
+      </c>
+      <c r="W124" t="n">
+        <v>19271</v>
+      </c>
+      <c r="X124" t="n">
+        <v>12911</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>22947</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>258508</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>21908</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>9681</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1278831</v>
       </c>
     </row>
   </sheetData>
@@ -11627,7 +11718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22857,7 +22948,7 @@
         <v>9450</v>
       </c>
       <c r="U123" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="V123" t="n">
         <v>500</v>
@@ -22881,7 +22972,98 @@
         <v>183</v>
       </c>
       <c r="AC123" t="n">
-        <v>55095</v>
+        <v>55088</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>343</v>
+      </c>
+      <c r="C124" t="n">
+        <v>975</v>
+      </c>
+      <c r="D124" t="n">
+        <v>401</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2739</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1642</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5962</v>
+      </c>
+      <c r="H124" t="n">
+        <v>532</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1507</v>
+      </c>
+      <c r="J124" t="n">
+        <v>425</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1906</v>
+      </c>
+      <c r="L124" t="n">
+        <v>480</v>
+      </c>
+      <c r="M124" t="n">
+        <v>68</v>
+      </c>
+      <c r="N124" t="n">
+        <v>833</v>
+      </c>
+      <c r="O124" t="n">
+        <v>4834</v>
+      </c>
+      <c r="P124" t="n">
+        <v>864</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>551</v>
+      </c>
+      <c r="R124" t="n">
+        <v>4610</v>
+      </c>
+      <c r="S124" t="n">
+        <v>574</v>
+      </c>
+      <c r="T124" t="n">
+        <v>9587</v>
+      </c>
+      <c r="U124" t="n">
+        <v>889</v>
+      </c>
+      <c r="V124" t="n">
+        <v>540</v>
+      </c>
+      <c r="W124" t="n">
+        <v>476</v>
+      </c>
+      <c r="X124" t="n">
+        <v>273</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>298</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>13966</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>579</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>186</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>56040</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -10825,7 +10825,7 @@
         <v>27140</v>
       </c>
       <c r="I115" t="n">
-        <v>30508</v>
+        <v>30507</v>
       </c>
       <c r="J115" t="n">
         <v>12776</v>
@@ -10885,7 +10885,7 @@
         <v>7774</v>
       </c>
       <c r="AC115" t="n">
-        <v>961231</v>
+        <v>961230</v>
       </c>
     </row>
     <row r="116">
@@ -11498,13 +11498,13 @@
         <v>103493</v>
       </c>
       <c r="U122" t="n">
-        <v>22665</v>
+        <v>22738</v>
       </c>
       <c r="V122" t="n">
         <v>22009</v>
       </c>
       <c r="W122" t="n">
-        <v>18173</v>
+        <v>17424</v>
       </c>
       <c r="X122" t="n">
         <v>11872</v>
@@ -11522,7 +11522,7 @@
         <v>9425</v>
       </c>
       <c r="AC122" t="n">
-        <v>1195959</v>
+        <v>1195283</v>
       </c>
     </row>
     <row r="123">
@@ -11544,7 +11544,7 @@
         <v>67267</v>
       </c>
       <c r="F123" t="n">
-        <v>54291</v>
+        <v>54292</v>
       </c>
       <c r="G123" t="n">
         <v>103118</v>
@@ -11565,7 +11565,7 @@
         <v>12601</v>
       </c>
       <c r="M123" t="n">
-        <v>6523</v>
+        <v>6913</v>
       </c>
       <c r="N123" t="n">
         <v>32769</v>
@@ -11589,7 +11589,7 @@
         <v>105897</v>
       </c>
       <c r="U123" t="n">
-        <v>22665</v>
+        <v>23806</v>
       </c>
       <c r="V123" t="n">
         <v>23060</v>
@@ -11598,7 +11598,7 @@
         <v>18173</v>
       </c>
       <c r="X123" t="n">
-        <v>11872</v>
+        <v>12911</v>
       </c>
       <c r="Y123" t="n">
         <v>21951</v>
@@ -11610,10 +11610,10 @@
         <v>21081</v>
       </c>
       <c r="AB123" t="n">
-        <v>9425</v>
+        <v>9681</v>
       </c>
       <c r="AC123" t="n">
-        <v>1233920</v>
+        <v>1236747</v>
       </c>
     </row>
     <row r="124">
@@ -11647,13 +11647,13 @@
         <v>41652</v>
       </c>
       <c r="J124" t="n">
-        <v>21240</v>
+        <v>21449</v>
       </c>
       <c r="K124" t="n">
         <v>76698</v>
       </c>
       <c r="L124" t="n">
-        <v>13026</v>
+        <v>13406</v>
       </c>
       <c r="M124" t="n">
         <v>6913</v>
@@ -11668,19 +11668,19 @@
         <v>42832</v>
       </c>
       <c r="Q124" t="n">
-        <v>18464</v>
+        <v>18672</v>
       </c>
       <c r="R124" t="n">
         <v>55804</v>
       </c>
       <c r="S124" t="n">
-        <v>18023</v>
+        <v>18665</v>
       </c>
       <c r="T124" t="n">
         <v>108497</v>
       </c>
       <c r="U124" t="n">
-        <v>23730</v>
+        <v>23806</v>
       </c>
       <c r="V124" t="n">
         <v>24114</v>
@@ -11689,7 +11689,7 @@
         <v>19271</v>
       </c>
       <c r="X124" t="n">
-        <v>12911</v>
+        <v>13078</v>
       </c>
       <c r="Y124" t="n">
         <v>22947</v>
@@ -11704,7 +11704,7 @@
         <v>9681</v>
       </c>
       <c r="AC124" t="n">
-        <v>1278831</v>
+        <v>1280513</v>
       </c>
     </row>
   </sheetData>
@@ -22857,13 +22857,13 @@
         <v>9295</v>
       </c>
       <c r="U122" t="n">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="V122" t="n">
         <v>500</v>
       </c>
       <c r="W122" t="n">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="X122" t="n">
         <v>271</v>
@@ -22881,7 +22881,7 @@
         <v>183</v>
       </c>
       <c r="AC122" t="n">
-        <v>53960</v>
+        <v>53955</v>
       </c>
     </row>
     <row r="123">
@@ -22924,7 +22924,7 @@
         <v>476</v>
       </c>
       <c r="M123" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N123" t="n">
         <v>806</v>
@@ -22948,7 +22948,7 @@
         <v>9450</v>
       </c>
       <c r="U123" t="n">
-        <v>858</v>
+        <v>896</v>
       </c>
       <c r="V123" t="n">
         <v>500</v>
@@ -22957,7 +22957,7 @@
         <v>467</v>
       </c>
       <c r="X123" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Y123" t="n">
         <v>289</v>
@@ -22969,10 +22969,10 @@
         <v>554</v>
       </c>
       <c r="AB123" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AC123" t="n">
-        <v>55088</v>
+        <v>55135</v>
       </c>
     </row>
     <row r="124">
@@ -23012,7 +23012,7 @@
         <v>1906</v>
       </c>
       <c r="L124" t="n">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="M124" t="n">
         <v>68</v>
@@ -23027,19 +23027,19 @@
         <v>864</v>
       </c>
       <c r="Q124" t="n">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="R124" t="n">
         <v>4610</v>
       </c>
       <c r="S124" t="n">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="T124" t="n">
         <v>9587</v>
       </c>
       <c r="U124" t="n">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="V124" t="n">
         <v>540</v>
@@ -23048,7 +23048,7 @@
         <v>476</v>
       </c>
       <c r="X124" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Y124" t="n">
         <v>298</v>
@@ -23063,7 +23063,7 @@
         <v>186</v>
       </c>
       <c r="AC124" t="n">
-        <v>56040</v>
+        <v>56110</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11647,7 +11647,7 @@
         <v>41652</v>
       </c>
       <c r="J124" t="n">
-        <v>21449</v>
+        <v>21441</v>
       </c>
       <c r="K124" t="n">
         <v>76698</v>
@@ -11656,7 +11656,7 @@
         <v>13406</v>
       </c>
       <c r="M124" t="n">
-        <v>6913</v>
+        <v>7307</v>
       </c>
       <c r="N124" t="n">
         <v>38891</v>
@@ -11680,7 +11680,7 @@
         <v>108497</v>
       </c>
       <c r="U124" t="n">
-        <v>23806</v>
+        <v>24253</v>
       </c>
       <c r="V124" t="n">
         <v>24114</v>
@@ -11701,10 +11701,101 @@
         <v>21908</v>
       </c>
       <c r="AB124" t="n">
-        <v>9681</v>
+        <v>9966</v>
       </c>
       <c r="AC124" t="n">
-        <v>1280513</v>
+        <v>1281631</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>12913</v>
+      </c>
+      <c r="C125" t="n">
+        <v>33521</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27901</v>
+      </c>
+      <c r="E125" t="n">
+        <v>69022</v>
+      </c>
+      <c r="F125" t="n">
+        <v>65244</v>
+      </c>
+      <c r="G125" t="n">
+        <v>107064</v>
+      </c>
+      <c r="H125" t="n">
+        <v>42766</v>
+      </c>
+      <c r="I125" t="n">
+        <v>43099</v>
+      </c>
+      <c r="J125" t="n">
+        <v>21865</v>
+      </c>
+      <c r="K125" t="n">
+        <v>78115</v>
+      </c>
+      <c r="L125" t="n">
+        <v>14128</v>
+      </c>
+      <c r="M125" t="n">
+        <v>7307</v>
+      </c>
+      <c r="N125" t="n">
+        <v>40966</v>
+      </c>
+      <c r="O125" t="n">
+        <v>100443</v>
+      </c>
+      <c r="P125" t="n">
+        <v>44242</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>19819</v>
+      </c>
+      <c r="R125" t="n">
+        <v>57089</v>
+      </c>
+      <c r="S125" t="n">
+        <v>19158</v>
+      </c>
+      <c r="T125" t="n">
+        <v>108803</v>
+      </c>
+      <c r="U125" t="n">
+        <v>24253</v>
+      </c>
+      <c r="V125" t="n">
+        <v>25000</v>
+      </c>
+      <c r="W125" t="n">
+        <v>19271</v>
+      </c>
+      <c r="X125" t="n">
+        <v>13078</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>23808</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>265581</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>23319</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>9966</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1317741</v>
       </c>
     </row>
   </sheetData>
@@ -11718,7 +11809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21680,7 +21771,7 @@
         <v>323</v>
       </c>
       <c r="W109" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X109" t="n">
         <v>192</v>
@@ -21698,7 +21789,7 @@
         <v>128</v>
       </c>
       <c r="AC109" t="n">
-        <v>41092</v>
+        <v>41093</v>
       </c>
     </row>
     <row r="110">
@@ -23039,7 +23130,7 @@
         <v>9587</v>
       </c>
       <c r="U124" t="n">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="V124" t="n">
         <v>540</v>
@@ -23060,10 +23151,101 @@
         <v>579</v>
       </c>
       <c r="AB124" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AC124" t="n">
-        <v>56110</v>
+        <v>56128</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>351</v>
+      </c>
+      <c r="C125" t="n">
+        <v>993</v>
+      </c>
+      <c r="D125" t="n">
+        <v>406</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1697</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5987</v>
+      </c>
+      <c r="H125" t="n">
+        <v>537</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1542</v>
+      </c>
+      <c r="J125" t="n">
+        <v>434</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1943</v>
+      </c>
+      <c r="L125" t="n">
+        <v>533</v>
+      </c>
+      <c r="M125" t="n">
+        <v>71</v>
+      </c>
+      <c r="N125" t="n">
+        <v>882</v>
+      </c>
+      <c r="O125" t="n">
+        <v>4845</v>
+      </c>
+      <c r="P125" t="n">
+        <v>896</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>575</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4708</v>
+      </c>
+      <c r="S125" t="n">
+        <v>615</v>
+      </c>
+      <c r="T125" t="n">
+        <v>9789</v>
+      </c>
+      <c r="U125" t="n">
+        <v>909</v>
+      </c>
+      <c r="V125" t="n">
+        <v>554</v>
+      </c>
+      <c r="W125" t="n">
+        <v>476</v>
+      </c>
+      <c r="X125" t="n">
+        <v>281</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>304</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>14263</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>605</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>191</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>57159</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11735,7 +11735,7 @@
         <v>42766</v>
       </c>
       <c r="I125" t="n">
-        <v>43099</v>
+        <v>41652</v>
       </c>
       <c r="J125" t="n">
         <v>21865</v>
@@ -11747,7 +11747,7 @@
         <v>14128</v>
       </c>
       <c r="M125" t="n">
-        <v>7307</v>
+        <v>7527</v>
       </c>
       <c r="N125" t="n">
         <v>40966</v>
@@ -11771,7 +11771,7 @@
         <v>108803</v>
       </c>
       <c r="U125" t="n">
-        <v>24253</v>
+        <v>24301</v>
       </c>
       <c r="V125" t="n">
         <v>25000</v>
@@ -11780,7 +11780,7 @@
         <v>19271</v>
       </c>
       <c r="X125" t="n">
-        <v>13078</v>
+        <v>14341</v>
       </c>
       <c r="Y125" t="n">
         <v>23808</v>
@@ -11792,10 +11792,101 @@
         <v>23319</v>
       </c>
       <c r="AB125" t="n">
-        <v>9966</v>
+        <v>10228</v>
       </c>
       <c r="AC125" t="n">
-        <v>1317741</v>
+        <v>1318087</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>13058</v>
+      </c>
+      <c r="C126" t="n">
+        <v>34312</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27985</v>
+      </c>
+      <c r="E126" t="n">
+        <v>69649</v>
+      </c>
+      <c r="F126" t="n">
+        <v>68495</v>
+      </c>
+      <c r="G126" t="n">
+        <v>107593</v>
+      </c>
+      <c r="H126" t="n">
+        <v>44905</v>
+      </c>
+      <c r="I126" t="n">
+        <v>43683</v>
+      </c>
+      <c r="J126" t="n">
+        <v>22165</v>
+      </c>
+      <c r="K126" t="n">
+        <v>78512</v>
+      </c>
+      <c r="L126" t="n">
+        <v>14687</v>
+      </c>
+      <c r="M126" t="n">
+        <v>7527</v>
+      </c>
+      <c r="N126" t="n">
+        <v>42741</v>
+      </c>
+      <c r="O126" t="n">
+        <v>101207</v>
+      </c>
+      <c r="P126" t="n">
+        <v>44679</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>20742</v>
+      </c>
+      <c r="R126" t="n">
+        <v>58107</v>
+      </c>
+      <c r="S126" t="n">
+        <v>19753</v>
+      </c>
+      <c r="T126" t="n">
+        <v>111298</v>
+      </c>
+      <c r="U126" t="n">
+        <v>24456</v>
+      </c>
+      <c r="V126" t="n">
+        <v>25243</v>
+      </c>
+      <c r="W126" t="n">
+        <v>19820</v>
+      </c>
+      <c r="X126" t="n">
+        <v>14341</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>24364</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>271737</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>24421</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>10228</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1345708</v>
       </c>
     </row>
   </sheetData>
@@ -11809,7 +11900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23185,7 +23276,7 @@
         <v>537</v>
       </c>
       <c r="I125" t="n">
-        <v>1542</v>
+        <v>1507</v>
       </c>
       <c r="J125" t="n">
         <v>434</v>
@@ -23197,7 +23288,7 @@
         <v>533</v>
       </c>
       <c r="M125" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N125" t="n">
         <v>882</v>
@@ -23221,7 +23312,7 @@
         <v>9789</v>
       </c>
       <c r="U125" t="n">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="V125" t="n">
         <v>554</v>
@@ -23242,10 +23333,101 @@
         <v>605</v>
       </c>
       <c r="AB125" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC125" t="n">
-        <v>57159</v>
+        <v>57154</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>353</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D126" t="n">
+        <v>407</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2784</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1748</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5995</v>
+      </c>
+      <c r="H126" t="n">
+        <v>548</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J126" t="n">
+        <v>436</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1982</v>
+      </c>
+      <c r="L126" t="n">
+        <v>563</v>
+      </c>
+      <c r="M126" t="n">
+        <v>75</v>
+      </c>
+      <c r="N126" t="n">
+        <v>899</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4870</v>
+      </c>
+      <c r="P126" t="n">
+        <v>911</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>599</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4751</v>
+      </c>
+      <c r="S126" t="n">
+        <v>643</v>
+      </c>
+      <c r="T126" t="n">
+        <v>9819</v>
+      </c>
+      <c r="U126" t="n">
+        <v>937</v>
+      </c>
+      <c r="V126" t="n">
+        <v>559</v>
+      </c>
+      <c r="W126" t="n">
+        <v>486</v>
+      </c>
+      <c r="X126" t="n">
+        <v>281</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>312</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>14338</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>620</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>192</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>57688</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -11829,7 +11829,7 @@
         <v>43683</v>
       </c>
       <c r="J126" t="n">
-        <v>22165</v>
+        <v>22183</v>
       </c>
       <c r="K126" t="n">
         <v>78512</v>
@@ -11871,7 +11871,7 @@
         <v>19820</v>
       </c>
       <c r="X126" t="n">
-        <v>14341</v>
+        <v>14459</v>
       </c>
       <c r="Y126" t="n">
         <v>24364</v>
@@ -11886,7 +11886,7 @@
         <v>10228</v>
       </c>
       <c r="AC126" t="n">
-        <v>1345708</v>
+        <v>1345844</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11777,7 +11777,7 @@
         <v>25000</v>
       </c>
       <c r="W125" t="n">
-        <v>19271</v>
+        <v>19735</v>
       </c>
       <c r="X125" t="n">
         <v>14341</v>
@@ -11795,7 +11795,7 @@
         <v>10228</v>
       </c>
       <c r="AC125" t="n">
-        <v>1318087</v>
+        <v>1318551</v>
       </c>
     </row>
     <row r="126">
@@ -11829,7 +11829,7 @@
         <v>43683</v>
       </c>
       <c r="J126" t="n">
-        <v>22183</v>
+        <v>22165</v>
       </c>
       <c r="K126" t="n">
         <v>78512</v>
@@ -11838,7 +11838,7 @@
         <v>14687</v>
       </c>
       <c r="M126" t="n">
-        <v>7527</v>
+        <v>7676</v>
       </c>
       <c r="N126" t="n">
         <v>42741</v>
@@ -11862,7 +11862,7 @@
         <v>111298</v>
       </c>
       <c r="U126" t="n">
-        <v>24456</v>
+        <v>28970</v>
       </c>
       <c r="V126" t="n">
         <v>25243</v>
@@ -11883,10 +11883,101 @@
         <v>24421</v>
       </c>
       <c r="AB126" t="n">
-        <v>10228</v>
+        <v>10359</v>
       </c>
       <c r="AC126" t="n">
-        <v>1345844</v>
+        <v>1350620</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>13146</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35117</v>
+      </c>
+      <c r="D127" t="n">
+        <v>28253</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69893</v>
+      </c>
+      <c r="F127" t="n">
+        <v>69467</v>
+      </c>
+      <c r="G127" t="n">
+        <v>108225</v>
+      </c>
+      <c r="H127" t="n">
+        <v>47071</v>
+      </c>
+      <c r="I127" t="n">
+        <v>45097</v>
+      </c>
+      <c r="J127" t="n">
+        <v>23379</v>
+      </c>
+      <c r="K127" t="n">
+        <v>78969</v>
+      </c>
+      <c r="L127" t="n">
+        <v>15086</v>
+      </c>
+      <c r="M127" t="n">
+        <v>7676</v>
+      </c>
+      <c r="N127" t="n">
+        <v>43864</v>
+      </c>
+      <c r="O127" t="n">
+        <v>103206</v>
+      </c>
+      <c r="P127" t="n">
+        <v>45057</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>21326</v>
+      </c>
+      <c r="R127" t="n">
+        <v>58476</v>
+      </c>
+      <c r="S127" t="n">
+        <v>20422</v>
+      </c>
+      <c r="T127" t="n">
+        <v>111883</v>
+      </c>
+      <c r="U127" t="n">
+        <v>29721</v>
+      </c>
+      <c r="V127" t="n">
+        <v>25659</v>
+      </c>
+      <c r="W127" t="n">
+        <v>20406</v>
+      </c>
+      <c r="X127" t="n">
+        <v>14459</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>25056</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>275145</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>24817</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>10359</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1371235</v>
       </c>
     </row>
   </sheetData>
@@ -11900,7 +11991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23318,7 +23409,7 @@
         <v>554</v>
       </c>
       <c r="W125" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X125" t="n">
         <v>281</v>
@@ -23336,7 +23427,7 @@
         <v>192</v>
       </c>
       <c r="AC125" t="n">
-        <v>57154</v>
+        <v>57159</v>
       </c>
     </row>
     <row r="126">
@@ -23403,7 +23494,7 @@
         <v>9819</v>
       </c>
       <c r="U126" t="n">
-        <v>937</v>
+        <v>994</v>
       </c>
       <c r="V126" t="n">
         <v>559</v>
@@ -23424,10 +23515,101 @@
         <v>620</v>
       </c>
       <c r="AB126" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AC126" t="n">
-        <v>57688</v>
+        <v>57748</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>361</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D127" t="n">
+        <v>413</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2792</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6076</v>
+      </c>
+      <c r="H127" t="n">
+        <v>559</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1621</v>
+      </c>
+      <c r="J127" t="n">
+        <v>467</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2012</v>
+      </c>
+      <c r="L127" t="n">
+        <v>582</v>
+      </c>
+      <c r="M127" t="n">
+        <v>75</v>
+      </c>
+      <c r="N127" t="n">
+        <v>940</v>
+      </c>
+      <c r="O127" t="n">
+        <v>4920</v>
+      </c>
+      <c r="P127" t="n">
+        <v>931</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>613</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4782</v>
+      </c>
+      <c r="S127" t="n">
+        <v>663</v>
+      </c>
+      <c r="T127" t="n">
+        <v>9848</v>
+      </c>
+      <c r="U127" t="n">
+        <v>994</v>
+      </c>
+      <c r="V127" t="n">
+        <v>582</v>
+      </c>
+      <c r="W127" t="n">
+        <v>500</v>
+      </c>
+      <c r="X127" t="n">
+        <v>281</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>324</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>14398</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>653</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>195</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>58414</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11926,10 +11926,10 @@
         <v>78969</v>
       </c>
       <c r="L127" t="n">
-        <v>15086</v>
+        <v>15328</v>
       </c>
       <c r="M127" t="n">
-        <v>7676</v>
+        <v>7965</v>
       </c>
       <c r="N127" t="n">
         <v>43864</v>
@@ -11953,7 +11953,7 @@
         <v>111883</v>
       </c>
       <c r="U127" t="n">
-        <v>29721</v>
+        <v>30287</v>
       </c>
       <c r="V127" t="n">
         <v>25659</v>
@@ -11962,7 +11962,7 @@
         <v>20406</v>
       </c>
       <c r="X127" t="n">
-        <v>14459</v>
+        <v>14641</v>
       </c>
       <c r="Y127" t="n">
         <v>25056</v>
@@ -11974,10 +11974,101 @@
         <v>24817</v>
       </c>
       <c r="AB127" t="n">
-        <v>10359</v>
+        <v>10764</v>
       </c>
       <c r="AC127" t="n">
-        <v>1371235</v>
+        <v>1372919</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>13253</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35962</v>
+      </c>
+      <c r="D128" t="n">
+        <v>28492</v>
+      </c>
+      <c r="E128" t="n">
+        <v>70823</v>
+      </c>
+      <c r="F128" t="n">
+        <v>73307</v>
+      </c>
+      <c r="G128" t="n">
+        <v>110483</v>
+      </c>
+      <c r="H128" t="n">
+        <v>49218</v>
+      </c>
+      <c r="I128" t="n">
+        <v>46893</v>
+      </c>
+      <c r="J128" t="n">
+        <v>24953</v>
+      </c>
+      <c r="K128" t="n">
+        <v>80451</v>
+      </c>
+      <c r="L128" t="n">
+        <v>16304</v>
+      </c>
+      <c r="M128" t="n">
+        <v>7965</v>
+      </c>
+      <c r="N128" t="n">
+        <v>45001</v>
+      </c>
+      <c r="O128" t="n">
+        <v>105853</v>
+      </c>
+      <c r="P128" t="n">
+        <v>46957</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>22877</v>
+      </c>
+      <c r="R128" t="n">
+        <v>58858</v>
+      </c>
+      <c r="S128" t="n">
+        <v>22059</v>
+      </c>
+      <c r="T128" t="n">
+        <v>112611</v>
+      </c>
+      <c r="U128" t="n">
+        <v>30305</v>
+      </c>
+      <c r="V128" t="n">
+        <v>26941</v>
+      </c>
+      <c r="W128" t="n">
+        <v>21251</v>
+      </c>
+      <c r="X128" t="n">
+        <v>15153</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>26354</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>281380</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>25411</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>10764</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1409879</v>
       </c>
     </row>
   </sheetData>
@@ -11991,7 +12082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23558,10 +23649,10 @@
         <v>2012</v>
       </c>
       <c r="L127" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="M127" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N127" t="n">
         <v>940</v>
@@ -23585,7 +23676,7 @@
         <v>9848</v>
       </c>
       <c r="U127" t="n">
-        <v>994</v>
+        <v>1034</v>
       </c>
       <c r="V127" t="n">
         <v>582</v>
@@ -23594,7 +23685,7 @@
         <v>500</v>
       </c>
       <c r="X127" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y127" t="n">
         <v>324</v>
@@ -23606,10 +23697,101 @@
         <v>653</v>
       </c>
       <c r="AB127" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AC127" t="n">
-        <v>58414</v>
+        <v>58470</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>365</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D128" t="n">
+        <v>417</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2823</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1853</v>
+      </c>
+      <c r="G128" t="n">
+        <v>6146</v>
+      </c>
+      <c r="H128" t="n">
+        <v>587</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1648</v>
+      </c>
+      <c r="J128" t="n">
+        <v>491</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2048</v>
+      </c>
+      <c r="L128" t="n">
+        <v>629</v>
+      </c>
+      <c r="M128" t="n">
+        <v>83</v>
+      </c>
+      <c r="N128" t="n">
+        <v>965</v>
+      </c>
+      <c r="O128" t="n">
+        <v>4960</v>
+      </c>
+      <c r="P128" t="n">
+        <v>977</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>649</v>
+      </c>
+      <c r="R128" t="n">
+        <v>4829</v>
+      </c>
+      <c r="S128" t="n">
+        <v>686</v>
+      </c>
+      <c r="T128" t="n">
+        <v>10080</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1040</v>
+      </c>
+      <c r="V128" t="n">
+        <v>614</v>
+      </c>
+      <c r="W128" t="n">
+        <v>518</v>
+      </c>
+      <c r="X128" t="n">
+        <v>314</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>341</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>14763</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>676</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>59754</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10937,7 +10937,7 @@
         <v>80072</v>
       </c>
       <c r="P116" t="n">
-        <v>31760</v>
+        <v>33382</v>
       </c>
       <c r="Q116" t="n">
         <v>12059</v>
@@ -10976,7 +10976,7 @@
         <v>7956</v>
       </c>
       <c r="AC116" t="n">
-        <v>985128</v>
+        <v>986750</v>
       </c>
     </row>
     <row r="117">
@@ -11028,7 +11028,7 @@
         <v>82881</v>
       </c>
       <c r="P117" t="n">
-        <v>35093</v>
+        <v>35098</v>
       </c>
       <c r="Q117" t="n">
         <v>12932</v>
@@ -11067,7 +11067,7 @@
         <v>8203</v>
       </c>
       <c r="AC117" t="n">
-        <v>1042804</v>
+        <v>1042809</v>
       </c>
     </row>
     <row r="118">
@@ -11119,7 +11119,7 @@
         <v>84654</v>
       </c>
       <c r="P118" t="n">
-        <v>36521</v>
+        <v>36526</v>
       </c>
       <c r="Q118" t="n">
         <v>13821</v>
@@ -11158,7 +11158,7 @@
         <v>8354</v>
       </c>
       <c r="AC118" t="n">
-        <v>1071661</v>
+        <v>1071666</v>
       </c>
     </row>
     <row r="119">
@@ -11210,7 +11210,7 @@
         <v>86020</v>
       </c>
       <c r="P119" t="n">
-        <v>36784</v>
+        <v>36789</v>
       </c>
       <c r="Q119" t="n">
         <v>14501</v>
@@ -11249,7 +11249,7 @@
         <v>8477</v>
       </c>
       <c r="AC119" t="n">
-        <v>1088228</v>
+        <v>1088233</v>
       </c>
     </row>
     <row r="120">
@@ -11301,7 +11301,7 @@
         <v>88636</v>
       </c>
       <c r="P120" t="n">
-        <v>37253</v>
+        <v>37258</v>
       </c>
       <c r="Q120" t="n">
         <v>15124</v>
@@ -11340,7 +11340,7 @@
         <v>8766</v>
       </c>
       <c r="AC120" t="n">
-        <v>1114723</v>
+        <v>1114728</v>
       </c>
     </row>
     <row r="121">
@@ -11392,7 +11392,7 @@
         <v>91708</v>
       </c>
       <c r="P121" t="n">
-        <v>38999</v>
+        <v>39004</v>
       </c>
       <c r="Q121" t="n">
         <v>15853</v>
@@ -11431,7 +11431,7 @@
         <v>9098</v>
       </c>
       <c r="AC121" t="n">
-        <v>1154250</v>
+        <v>1154255</v>
       </c>
     </row>
     <row r="122">
@@ -11483,7 +11483,7 @@
         <v>94036</v>
       </c>
       <c r="P122" t="n">
-        <v>39912</v>
+        <v>39917</v>
       </c>
       <c r="Q122" t="n">
         <v>16963</v>
@@ -11522,7 +11522,7 @@
         <v>9425</v>
       </c>
       <c r="AC122" t="n">
-        <v>1195283</v>
+        <v>1195288</v>
       </c>
     </row>
     <row r="123">
@@ -11574,7 +11574,7 @@
         <v>96472</v>
       </c>
       <c r="P123" t="n">
-        <v>40824</v>
+        <v>40829</v>
       </c>
       <c r="Q123" t="n">
         <v>17822</v>
@@ -11613,7 +11613,7 @@
         <v>9681</v>
       </c>
       <c r="AC123" t="n">
-        <v>1236747</v>
+        <v>1236752</v>
       </c>
     </row>
     <row r="124">
@@ -11665,7 +11665,7 @@
         <v>99313</v>
       </c>
       <c r="P124" t="n">
-        <v>42832</v>
+        <v>42837</v>
       </c>
       <c r="Q124" t="n">
         <v>18672</v>
@@ -11704,7 +11704,7 @@
         <v>9966</v>
       </c>
       <c r="AC124" t="n">
-        <v>1281631</v>
+        <v>1281636</v>
       </c>
     </row>
     <row r="125">
@@ -11756,7 +11756,7 @@
         <v>100443</v>
       </c>
       <c r="P125" t="n">
-        <v>44242</v>
+        <v>44247</v>
       </c>
       <c r="Q125" t="n">
         <v>19819</v>
@@ -11795,7 +11795,7 @@
         <v>10228</v>
       </c>
       <c r="AC125" t="n">
-        <v>1318551</v>
+        <v>1318556</v>
       </c>
     </row>
     <row r="126">
@@ -11847,7 +11847,7 @@
         <v>101207</v>
       </c>
       <c r="P126" t="n">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="Q126" t="n">
         <v>20742</v>
@@ -11886,7 +11886,7 @@
         <v>10359</v>
       </c>
       <c r="AC126" t="n">
-        <v>1350620</v>
+        <v>1350625</v>
       </c>
     </row>
     <row r="127">
@@ -11938,7 +11938,7 @@
         <v>103206</v>
       </c>
       <c r="P127" t="n">
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="Q127" t="n">
         <v>21326</v>
@@ -11953,7 +11953,7 @@
         <v>111883</v>
       </c>
       <c r="U127" t="n">
-        <v>30287</v>
+        <v>30352</v>
       </c>
       <c r="V127" t="n">
         <v>25659</v>
@@ -11977,7 +11977,7 @@
         <v>10764</v>
       </c>
       <c r="AC127" t="n">
-        <v>1372919</v>
+        <v>1372989</v>
       </c>
     </row>
     <row r="128">
@@ -12011,7 +12011,7 @@
         <v>46893</v>
       </c>
       <c r="J128" t="n">
-        <v>24953</v>
+        <v>24910</v>
       </c>
       <c r="K128" t="n">
         <v>80451</v>
@@ -12020,7 +12020,7 @@
         <v>16304</v>
       </c>
       <c r="M128" t="n">
-        <v>7965</v>
+        <v>8676</v>
       </c>
       <c r="N128" t="n">
         <v>45001</v>
@@ -12044,7 +12044,7 @@
         <v>112611</v>
       </c>
       <c r="U128" t="n">
-        <v>30305</v>
+        <v>31899</v>
       </c>
       <c r="V128" t="n">
         <v>26941</v>
@@ -12065,10 +12065,101 @@
         <v>25411</v>
       </c>
       <c r="AB128" t="n">
-        <v>10764</v>
+        <v>11222</v>
       </c>
       <c r="AC128" t="n">
-        <v>1409879</v>
+        <v>1412599</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>13715</v>
+      </c>
+      <c r="C129" t="n">
+        <v>36819</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28927</v>
+      </c>
+      <c r="E129" t="n">
+        <v>72284</v>
+      </c>
+      <c r="F129" t="n">
+        <v>76485</v>
+      </c>
+      <c r="G129" t="n">
+        <v>114038</v>
+      </c>
+      <c r="H129" t="n">
+        <v>50676</v>
+      </c>
+      <c r="I129" t="n">
+        <v>48821</v>
+      </c>
+      <c r="J129" t="n">
+        <v>26192</v>
+      </c>
+      <c r="K129" t="n">
+        <v>83256</v>
+      </c>
+      <c r="L129" t="n">
+        <v>17401</v>
+      </c>
+      <c r="M129" t="n">
+        <v>8676</v>
+      </c>
+      <c r="N129" t="n">
+        <v>47584</v>
+      </c>
+      <c r="O129" t="n">
+        <v>108067</v>
+      </c>
+      <c r="P129" t="n">
+        <v>48175</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>24225</v>
+      </c>
+      <c r="R129" t="n">
+        <v>59705</v>
+      </c>
+      <c r="S129" t="n">
+        <v>23307</v>
+      </c>
+      <c r="T129" t="n">
+        <v>115278</v>
+      </c>
+      <c r="U129" t="n">
+        <v>31899</v>
+      </c>
+      <c r="V129" t="n">
+        <v>28171</v>
+      </c>
+      <c r="W129" t="n">
+        <v>21523</v>
+      </c>
+      <c r="X129" t="n">
+        <v>17583</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>27279</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>289935</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>25915</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>11222</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1457158</v>
       </c>
     </row>
   </sheetData>
@@ -12082,7 +12173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23676,7 +23767,7 @@
         <v>9848</v>
       </c>
       <c r="U127" t="n">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="V127" t="n">
         <v>582</v>
@@ -23700,7 +23791,7 @@
         <v>200</v>
       </c>
       <c r="AC127" t="n">
-        <v>58470</v>
+        <v>58475</v>
       </c>
     </row>
     <row r="128">
@@ -23743,7 +23834,7 @@
         <v>629</v>
       </c>
       <c r="M128" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N128" t="n">
         <v>965</v>
@@ -23767,7 +23858,7 @@
         <v>10080</v>
       </c>
       <c r="U128" t="n">
-        <v>1040</v>
+        <v>1067</v>
       </c>
       <c r="V128" t="n">
         <v>614</v>
@@ -23788,10 +23879,101 @@
         <v>676</v>
       </c>
       <c r="AB128" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AC128" t="n">
-        <v>59754</v>
+        <v>59787</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>370</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D129" t="n">
+        <v>420</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2843</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1902</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6203</v>
+      </c>
+      <c r="H129" t="n">
+        <v>620</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1693</v>
+      </c>
+      <c r="J129" t="n">
+        <v>521</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2081</v>
+      </c>
+      <c r="L129" t="n">
+        <v>665</v>
+      </c>
+      <c r="M129" t="n">
+        <v>89</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1007</v>
+      </c>
+      <c r="O129" t="n">
+        <v>5004</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1002</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>663</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4894</v>
+      </c>
+      <c r="S129" t="n">
+        <v>697</v>
+      </c>
+      <c r="T129" t="n">
+        <v>10198</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1067</v>
+      </c>
+      <c r="V129" t="n">
+        <v>636</v>
+      </c>
+      <c r="W129" t="n">
+        <v>523</v>
+      </c>
+      <c r="X129" t="n">
+        <v>354</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>347</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>15030</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>702</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>204</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>60807</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11862,7 +11862,7 @@
         <v>111298</v>
       </c>
       <c r="U126" t="n">
-        <v>28970</v>
+        <v>29784</v>
       </c>
       <c r="V126" t="n">
         <v>25243</v>
@@ -11886,7 +11886,7 @@
         <v>10359</v>
       </c>
       <c r="AC126" t="n">
-        <v>1350625</v>
+        <v>1351439</v>
       </c>
     </row>
     <row r="127">
@@ -12044,7 +12044,7 @@
         <v>112611</v>
       </c>
       <c r="U128" t="n">
-        <v>31899</v>
+        <v>31964</v>
       </c>
       <c r="V128" t="n">
         <v>26941</v>
@@ -12068,7 +12068,7 @@
         <v>11222</v>
       </c>
       <c r="AC128" t="n">
-        <v>1412599</v>
+        <v>1412664</v>
       </c>
     </row>
     <row r="129">
@@ -12102,7 +12102,7 @@
         <v>48821</v>
       </c>
       <c r="J129" t="n">
-        <v>26192</v>
+        <v>26145</v>
       </c>
       <c r="K129" t="n">
         <v>83256</v>
@@ -12111,7 +12111,7 @@
         <v>17401</v>
       </c>
       <c r="M129" t="n">
-        <v>8676</v>
+        <v>9062</v>
       </c>
       <c r="N129" t="n">
         <v>47584</v>
@@ -12135,7 +12135,7 @@
         <v>115278</v>
       </c>
       <c r="U129" t="n">
-        <v>31899</v>
+        <v>32578</v>
       </c>
       <c r="V129" t="n">
         <v>28171</v>
@@ -12153,13 +12153,104 @@
         <v>289935</v>
       </c>
       <c r="AA129" t="n">
-        <v>25915</v>
+        <v>26612</v>
       </c>
       <c r="AB129" t="n">
-        <v>11222</v>
+        <v>11454</v>
       </c>
       <c r="AC129" t="n">
-        <v>1457158</v>
+        <v>1459105</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>14048</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37328</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29153</v>
+      </c>
+      <c r="E130" t="n">
+        <v>73530</v>
+      </c>
+      <c r="F130" t="n">
+        <v>79349</v>
+      </c>
+      <c r="G130" t="n">
+        <v>116519</v>
+      </c>
+      <c r="H130" t="n">
+        <v>52281</v>
+      </c>
+      <c r="I130" t="n">
+        <v>50242</v>
+      </c>
+      <c r="J130" t="n">
+        <v>26318</v>
+      </c>
+      <c r="K130" t="n">
+        <v>86025</v>
+      </c>
+      <c r="L130" t="n">
+        <v>17727</v>
+      </c>
+      <c r="M130" t="n">
+        <v>9062</v>
+      </c>
+      <c r="N130" t="n">
+        <v>50707</v>
+      </c>
+      <c r="O130" t="n">
+        <v>110411</v>
+      </c>
+      <c r="P130" t="n">
+        <v>49536</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>26304</v>
+      </c>
+      <c r="R130" t="n">
+        <v>61119</v>
+      </c>
+      <c r="S130" t="n">
+        <v>23307</v>
+      </c>
+      <c r="T130" t="n">
+        <v>116823</v>
+      </c>
+      <c r="U130" t="n">
+        <v>32897</v>
+      </c>
+      <c r="V130" t="n">
+        <v>29195</v>
+      </c>
+      <c r="W130" t="n">
+        <v>21970</v>
+      </c>
+      <c r="X130" t="n">
+        <v>17583</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>28575</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>302179</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>26612</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>11454</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1500254</v>
       </c>
     </row>
   </sheetData>
@@ -12173,7 +12264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23676,7 +23767,7 @@
         <v>9819</v>
       </c>
       <c r="U126" t="n">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="V126" t="n">
         <v>559</v>
@@ -23700,7 +23791,7 @@
         <v>195</v>
       </c>
       <c r="AC126" t="n">
-        <v>57748</v>
+        <v>57753</v>
       </c>
     </row>
     <row r="127">
@@ -23858,7 +23949,7 @@
         <v>10080</v>
       </c>
       <c r="U128" t="n">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="V128" t="n">
         <v>614</v>
@@ -23882,7 +23973,7 @@
         <v>204</v>
       </c>
       <c r="AC128" t="n">
-        <v>59787</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="129">
@@ -23925,7 +24016,7 @@
         <v>665</v>
       </c>
       <c r="M129" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N129" t="n">
         <v>1007</v>
@@ -23949,7 +24040,7 @@
         <v>10198</v>
       </c>
       <c r="U129" t="n">
-        <v>1067</v>
+        <v>1095</v>
       </c>
       <c r="V129" t="n">
         <v>636</v>
@@ -23967,13 +24058,104 @@
         <v>15030</v>
       </c>
       <c r="AA129" t="n">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="AB129" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AC129" t="n">
-        <v>60807</v>
+        <v>60865</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>378</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D130" t="n">
+        <v>427</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2862</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1947</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6307</v>
+      </c>
+      <c r="H130" t="n">
+        <v>631</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1728</v>
+      </c>
+      <c r="J130" t="n">
+        <v>572</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2119</v>
+      </c>
+      <c r="L130" t="n">
+        <v>674</v>
+      </c>
+      <c r="M130" t="n">
+        <v>103</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1059</v>
+      </c>
+      <c r="O130" t="n">
+        <v>5050</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1044</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>706</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4968</v>
+      </c>
+      <c r="S130" t="n">
+        <v>697</v>
+      </c>
+      <c r="T130" t="n">
+        <v>10332</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1103</v>
+      </c>
+      <c r="V130" t="n">
+        <v>663</v>
+      </c>
+      <c r="W130" t="n">
+        <v>530</v>
+      </c>
+      <c r="X130" t="n">
+        <v>354</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>362</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>15351</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>725</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>209</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>61992</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12199,10 +12199,10 @@
         <v>86025</v>
       </c>
       <c r="L130" t="n">
-        <v>17727</v>
+        <v>18356</v>
       </c>
       <c r="M130" t="n">
-        <v>9062</v>
+        <v>9388</v>
       </c>
       <c r="N130" t="n">
         <v>50707</v>
@@ -12220,13 +12220,13 @@
         <v>61119</v>
       </c>
       <c r="S130" t="n">
-        <v>23307</v>
+        <v>24376</v>
       </c>
       <c r="T130" t="n">
         <v>116823</v>
       </c>
       <c r="U130" t="n">
-        <v>32897</v>
+        <v>33487</v>
       </c>
       <c r="V130" t="n">
         <v>29195</v>
@@ -12235,7 +12235,7 @@
         <v>21970</v>
       </c>
       <c r="X130" t="n">
-        <v>17583</v>
+        <v>18323</v>
       </c>
       <c r="Y130" t="n">
         <v>28575</v>
@@ -12247,10 +12247,101 @@
         <v>26612</v>
       </c>
       <c r="AB130" t="n">
-        <v>11454</v>
+        <v>11736</v>
       </c>
       <c r="AC130" t="n">
-        <v>1500254</v>
+        <v>1503890</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>14112</v>
+      </c>
+      <c r="C131" t="n">
+        <v>38404</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29574</v>
+      </c>
+      <c r="E131" t="n">
+        <v>74537</v>
+      </c>
+      <c r="F131" t="n">
+        <v>82314</v>
+      </c>
+      <c r="G131" t="n">
+        <v>118311</v>
+      </c>
+      <c r="H131" t="n">
+        <v>53996</v>
+      </c>
+      <c r="I131" t="n">
+        <v>51689</v>
+      </c>
+      <c r="J131" t="n">
+        <v>27502</v>
+      </c>
+      <c r="K131" t="n">
+        <v>88214</v>
+      </c>
+      <c r="L131" t="n">
+        <v>19540</v>
+      </c>
+      <c r="M131" t="n">
+        <v>9388</v>
+      </c>
+      <c r="N131" t="n">
+        <v>53351</v>
+      </c>
+      <c r="O131" t="n">
+        <v>112531</v>
+      </c>
+      <c r="P131" t="n">
+        <v>50765</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>28166</v>
+      </c>
+      <c r="R131" t="n">
+        <v>62362</v>
+      </c>
+      <c r="S131" t="n">
+        <v>25561</v>
+      </c>
+      <c r="T131" t="n">
+        <v>118956</v>
+      </c>
+      <c r="U131" t="n">
+        <v>33487</v>
+      </c>
+      <c r="V131" t="n">
+        <v>30371</v>
+      </c>
+      <c r="W131" t="n">
+        <v>22241</v>
+      </c>
+      <c r="X131" t="n">
+        <v>18769</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>30261</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>310702</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>28186</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>11736</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1545026</v>
       </c>
     </row>
   </sheetData>
@@ -12264,7 +12355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24104,10 +24195,10 @@
         <v>2119</v>
       </c>
       <c r="L130" t="n">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="M130" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N130" t="n">
         <v>1059</v>
@@ -24125,13 +24216,13 @@
         <v>4968</v>
       </c>
       <c r="S130" t="n">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="T130" t="n">
         <v>10332</v>
       </c>
       <c r="U130" t="n">
-        <v>1103</v>
+        <v>1177</v>
       </c>
       <c r="V130" t="n">
         <v>663</v>
@@ -24140,7 +24231,7 @@
         <v>530</v>
       </c>
       <c r="X130" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Y130" t="n">
         <v>362</v>
@@ -24152,10 +24243,101 @@
         <v>725</v>
       </c>
       <c r="AB130" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AC130" t="n">
-        <v>61992</v>
+        <v>62137</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>387</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D131" t="n">
+        <v>438</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6373</v>
+      </c>
+      <c r="H131" t="n">
+        <v>643</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1758</v>
+      </c>
+      <c r="J131" t="n">
+        <v>602</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2153</v>
+      </c>
+      <c r="L131" t="n">
+        <v>741</v>
+      </c>
+      <c r="M131" t="n">
+        <v>107</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1110</v>
+      </c>
+      <c r="O131" t="n">
+        <v>5069</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1062</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>728</v>
+      </c>
+      <c r="R131" t="n">
+        <v>5068</v>
+      </c>
+      <c r="S131" t="n">
+        <v>762</v>
+      </c>
+      <c r="T131" t="n">
+        <v>10500</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1177</v>
+      </c>
+      <c r="V131" t="n">
+        <v>690</v>
+      </c>
+      <c r="W131" t="n">
+        <v>533</v>
+      </c>
+      <c r="X131" t="n">
+        <v>358</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>376</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>15694</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>764</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>211</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>63305</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12029,7 +12029,7 @@
         <v>105853</v>
       </c>
       <c r="P128" t="n">
-        <v>46957</v>
+        <v>46962</v>
       </c>
       <c r="Q128" t="n">
         <v>22877</v>
@@ -12068,7 +12068,7 @@
         <v>11222</v>
       </c>
       <c r="AC128" t="n">
-        <v>1412664</v>
+        <v>1412669</v>
       </c>
     </row>
     <row r="129">
@@ -12120,7 +12120,7 @@
         <v>108067</v>
       </c>
       <c r="P129" t="n">
-        <v>48175</v>
+        <v>48180</v>
       </c>
       <c r="Q129" t="n">
         <v>24225</v>
@@ -12135,7 +12135,7 @@
         <v>115278</v>
       </c>
       <c r="U129" t="n">
-        <v>32578</v>
+        <v>32962</v>
       </c>
       <c r="V129" t="n">
         <v>28171</v>
@@ -12159,7 +12159,7 @@
         <v>11454</v>
       </c>
       <c r="AC129" t="n">
-        <v>1459105</v>
+        <v>1459494</v>
       </c>
     </row>
     <row r="130">
@@ -12211,7 +12211,7 @@
         <v>110411</v>
       </c>
       <c r="P130" t="n">
-        <v>49536</v>
+        <v>49541</v>
       </c>
       <c r="Q130" t="n">
         <v>26304</v>
@@ -12250,7 +12250,7 @@
         <v>11736</v>
       </c>
       <c r="AC130" t="n">
-        <v>1503890</v>
+        <v>1503895</v>
       </c>
     </row>
     <row r="131">
@@ -12293,7 +12293,7 @@
         <v>19540</v>
       </c>
       <c r="M131" t="n">
-        <v>9388</v>
+        <v>9910</v>
       </c>
       <c r="N131" t="n">
         <v>53351</v>
@@ -12302,7 +12302,7 @@
         <v>112531</v>
       </c>
       <c r="P131" t="n">
-        <v>50765</v>
+        <v>50770</v>
       </c>
       <c r="Q131" t="n">
         <v>28166</v>
@@ -12317,7 +12317,7 @@
         <v>118956</v>
       </c>
       <c r="U131" t="n">
-        <v>33487</v>
+        <v>33910</v>
       </c>
       <c r="V131" t="n">
         <v>30371</v>
@@ -12338,10 +12338,101 @@
         <v>28186</v>
       </c>
       <c r="AB131" t="n">
-        <v>11736</v>
+        <v>12282</v>
       </c>
       <c r="AC131" t="n">
-        <v>1545026</v>
+        <v>1546522</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39255</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29809</v>
+      </c>
+      <c r="E132" t="n">
+        <v>75945</v>
+      </c>
+      <c r="F132" t="n">
+        <v>85485</v>
+      </c>
+      <c r="G132" t="n">
+        <v>121464</v>
+      </c>
+      <c r="H132" t="n">
+        <v>55760</v>
+      </c>
+      <c r="I132" t="n">
+        <v>52824</v>
+      </c>
+      <c r="J132" t="n">
+        <v>28526</v>
+      </c>
+      <c r="K132" t="n">
+        <v>89057</v>
+      </c>
+      <c r="L132" t="n">
+        <v>20333</v>
+      </c>
+      <c r="M132" t="n">
+        <v>9910</v>
+      </c>
+      <c r="N132" t="n">
+        <v>55958</v>
+      </c>
+      <c r="O132" t="n">
+        <v>113811</v>
+      </c>
+      <c r="P132" t="n">
+        <v>52306</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>30570</v>
+      </c>
+      <c r="R132" t="n">
+        <v>63457</v>
+      </c>
+      <c r="S132" t="n">
+        <v>26079</v>
+      </c>
+      <c r="T132" t="n">
+        <v>120440</v>
+      </c>
+      <c r="U132" t="n">
+        <v>34257</v>
+      </c>
+      <c r="V132" t="n">
+        <v>31619</v>
+      </c>
+      <c r="W132" t="n">
+        <v>22957</v>
+      </c>
+      <c r="X132" t="n">
+        <v>18922</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>31931</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>312530</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>29761</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>12282</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1579735</v>
       </c>
     </row>
   </sheetData>
@@ -12355,7 +12446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24131,7 +24222,7 @@
         <v>10198</v>
       </c>
       <c r="U129" t="n">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="V129" t="n">
         <v>636</v>
@@ -24155,7 +24246,7 @@
         <v>209</v>
       </c>
       <c r="AC129" t="n">
-        <v>60865</v>
+        <v>60878</v>
       </c>
     </row>
     <row r="130">
@@ -24289,7 +24380,7 @@
         <v>741</v>
       </c>
       <c r="M131" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N131" t="n">
         <v>1110</v>
@@ -24313,7 +24404,7 @@
         <v>10500</v>
       </c>
       <c r="U131" t="n">
-        <v>1177</v>
+        <v>1200</v>
       </c>
       <c r="V131" t="n">
         <v>690</v>
@@ -24322,7 +24413,7 @@
         <v>533</v>
       </c>
       <c r="X131" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Y131" t="n">
         <v>376</v>
@@ -24334,10 +24425,101 @@
         <v>764</v>
       </c>
       <c r="AB131" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AC131" t="n">
-        <v>63305</v>
+        <v>63345</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>391</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1134</v>
+      </c>
+      <c r="D132" t="n">
+        <v>441</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2918</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6441</v>
+      </c>
+      <c r="H132" t="n">
+        <v>671</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1781</v>
+      </c>
+      <c r="J132" t="n">
+        <v>621</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2185</v>
+      </c>
+      <c r="L132" t="n">
+        <v>786</v>
+      </c>
+      <c r="M132" t="n">
+        <v>114</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1183</v>
+      </c>
+      <c r="O132" t="n">
+        <v>5096</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1082</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>763</v>
+      </c>
+      <c r="R132" t="n">
+        <v>5116</v>
+      </c>
+      <c r="S132" t="n">
+        <v>784</v>
+      </c>
+      <c r="T132" t="n">
+        <v>10624</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1200</v>
+      </c>
+      <c r="V132" t="n">
+        <v>715</v>
+      </c>
+      <c r="W132" t="n">
+        <v>548</v>
+      </c>
+      <c r="X132" t="n">
+        <v>368</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>383</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>15996</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>783</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>215</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>64389</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12384,7 +12384,7 @@
         <v>20333</v>
       </c>
       <c r="M132" t="n">
-        <v>9910</v>
+        <v>10089</v>
       </c>
       <c r="N132" t="n">
         <v>55958</v>
@@ -12393,7 +12393,7 @@
         <v>113811</v>
       </c>
       <c r="P132" t="n">
-        <v>52306</v>
+        <v>52311</v>
       </c>
       <c r="Q132" t="n">
         <v>30570</v>
@@ -12408,7 +12408,7 @@
         <v>120440</v>
       </c>
       <c r="U132" t="n">
-        <v>34257</v>
+        <v>34645</v>
       </c>
       <c r="V132" t="n">
         <v>31619</v>
@@ -12429,10 +12429,101 @@
         <v>29761</v>
       </c>
       <c r="AB132" t="n">
-        <v>12282</v>
+        <v>12475</v>
       </c>
       <c r="AC132" t="n">
-        <v>1579735</v>
+        <v>1580500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>14622</v>
+      </c>
+      <c r="C133" t="n">
+        <v>39935</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29883</v>
+      </c>
+      <c r="E133" t="n">
+        <v>76014</v>
+      </c>
+      <c r="F133" t="n">
+        <v>87048</v>
+      </c>
+      <c r="G133" t="n">
+        <v>121986</v>
+      </c>
+      <c r="H133" t="n">
+        <v>57854</v>
+      </c>
+      <c r="I133" t="n">
+        <v>53393</v>
+      </c>
+      <c r="J133" t="n">
+        <v>28526</v>
+      </c>
+      <c r="K133" t="n">
+        <v>89714</v>
+      </c>
+      <c r="L133" t="n">
+        <v>21081</v>
+      </c>
+      <c r="M133" t="n">
+        <v>10089</v>
+      </c>
+      <c r="N133" t="n">
+        <v>58283</v>
+      </c>
+      <c r="O133" t="n">
+        <v>114535</v>
+      </c>
+      <c r="P133" t="n">
+        <v>52728</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>31459</v>
+      </c>
+      <c r="R133" t="n">
+        <v>65129</v>
+      </c>
+      <c r="S133" t="n">
+        <v>26511</v>
+      </c>
+      <c r="T133" t="n">
+        <v>121292</v>
+      </c>
+      <c r="U133" t="n">
+        <v>34717</v>
+      </c>
+      <c r="V133" t="n">
+        <v>31955</v>
+      </c>
+      <c r="W133" t="n">
+        <v>23479</v>
+      </c>
+      <c r="X133" t="n">
+        <v>18948</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>32969</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>320179</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>30217</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>12476</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1605022</v>
       </c>
     </row>
   </sheetData>
@@ -12446,7 +12537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24471,7 +24562,7 @@
         <v>786</v>
       </c>
       <c r="M132" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N132" t="n">
         <v>1183</v>
@@ -24495,7 +24586,7 @@
         <v>10624</v>
       </c>
       <c r="U132" t="n">
-        <v>1200</v>
+        <v>1213</v>
       </c>
       <c r="V132" t="n">
         <v>715</v>
@@ -24516,10 +24607,101 @@
         <v>783</v>
       </c>
       <c r="AB132" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AC132" t="n">
-        <v>64389</v>
+        <v>64410</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>391</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1153</v>
+      </c>
+      <c r="D133" t="n">
+        <v>442</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2929</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2107</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6441</v>
+      </c>
+      <c r="H133" t="n">
+        <v>699</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1804</v>
+      </c>
+      <c r="J133" t="n">
+        <v>621</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2219</v>
+      </c>
+      <c r="L133" t="n">
+        <v>821</v>
+      </c>
+      <c r="M133" t="n">
+        <v>117</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1201</v>
+      </c>
+      <c r="O133" t="n">
+        <v>5105</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1099</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>795</v>
+      </c>
+      <c r="R133" t="n">
+        <v>5143</v>
+      </c>
+      <c r="S133" t="n">
+        <v>809</v>
+      </c>
+      <c r="T133" t="n">
+        <v>10667</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V133" t="n">
+        <v>727</v>
+      </c>
+      <c r="W133" t="n">
+        <v>555</v>
+      </c>
+      <c r="X133" t="n">
+        <v>371</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>393</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>16078</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>798</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>220</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>64924</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12305,7 +12305,7 @@
         <v>50770</v>
       </c>
       <c r="Q131" t="n">
-        <v>28166</v>
+        <v>28167</v>
       </c>
       <c r="R131" t="n">
         <v>62362</v>
@@ -12317,7 +12317,7 @@
         <v>118956</v>
       </c>
       <c r="U131" t="n">
-        <v>33910</v>
+        <v>34322</v>
       </c>
       <c r="V131" t="n">
         <v>30371</v>
@@ -12341,7 +12341,7 @@
         <v>12282</v>
       </c>
       <c r="AC131" t="n">
-        <v>1546522</v>
+        <v>1546935</v>
       </c>
     </row>
     <row r="132">
@@ -12396,7 +12396,7 @@
         <v>52311</v>
       </c>
       <c r="Q132" t="n">
-        <v>30570</v>
+        <v>30571</v>
       </c>
       <c r="R132" t="n">
         <v>63457</v>
@@ -12429,10 +12429,10 @@
         <v>29761</v>
       </c>
       <c r="AB132" t="n">
-        <v>12475</v>
+        <v>12476</v>
       </c>
       <c r="AC132" t="n">
-        <v>1580500</v>
+        <v>1580502</v>
       </c>
     </row>
     <row r="133">
@@ -12475,7 +12475,7 @@
         <v>21081</v>
       </c>
       <c r="M133" t="n">
-        <v>10089</v>
+        <v>10253</v>
       </c>
       <c r="N133" t="n">
         <v>58283</v>
@@ -12484,7 +12484,7 @@
         <v>114535</v>
       </c>
       <c r="P133" t="n">
-        <v>52728</v>
+        <v>52733</v>
       </c>
       <c r="Q133" t="n">
         <v>31459</v>
@@ -12499,7 +12499,7 @@
         <v>121292</v>
       </c>
       <c r="U133" t="n">
-        <v>34717</v>
+        <v>35056</v>
       </c>
       <c r="V133" t="n">
         <v>31955</v>
@@ -12520,10 +12520,101 @@
         <v>30217</v>
       </c>
       <c r="AB133" t="n">
-        <v>12476</v>
+        <v>12640</v>
       </c>
       <c r="AC133" t="n">
-        <v>1605022</v>
+        <v>1605694</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>14688</v>
+      </c>
+      <c r="C134" t="n">
+        <v>40569</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30004</v>
+      </c>
+      <c r="E134" t="n">
+        <v>76427</v>
+      </c>
+      <c r="F134" t="n">
+        <v>88279</v>
+      </c>
+      <c r="G134" t="n">
+        <v>123394</v>
+      </c>
+      <c r="H134" t="n">
+        <v>60383</v>
+      </c>
+      <c r="I134" t="n">
+        <v>54547</v>
+      </c>
+      <c r="J134" t="n">
+        <v>30187</v>
+      </c>
+      <c r="K134" t="n">
+        <v>90251</v>
+      </c>
+      <c r="L134" t="n">
+        <v>22078</v>
+      </c>
+      <c r="M134" t="n">
+        <v>10253</v>
+      </c>
+      <c r="N134" t="n">
+        <v>59626</v>
+      </c>
+      <c r="O134" t="n">
+        <v>116152</v>
+      </c>
+      <c r="P134" t="n">
+        <v>53151</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>32769</v>
+      </c>
+      <c r="R134" t="n">
+        <v>65642</v>
+      </c>
+      <c r="S134" t="n">
+        <v>27514</v>
+      </c>
+      <c r="T134" t="n">
+        <v>121879</v>
+      </c>
+      <c r="U134" t="n">
+        <v>35056</v>
+      </c>
+      <c r="V134" t="n">
+        <v>32401</v>
+      </c>
+      <c r="W134" t="n">
+        <v>23921</v>
+      </c>
+      <c r="X134" t="n">
+        <v>19088</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>33822</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>323070</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>30718</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>12640</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1628509</v>
       </c>
     </row>
   </sheetData>
@@ -12537,7 +12628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22499,7 +22590,7 @@
         <v>323</v>
       </c>
       <c r="W109" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X109" t="n">
         <v>192</v>
@@ -22517,7 +22608,7 @@
         <v>128</v>
       </c>
       <c r="AC109" t="n">
-        <v>41093</v>
+        <v>41092</v>
       </c>
     </row>
     <row r="110">
@@ -24495,7 +24586,7 @@
         <v>10500</v>
       </c>
       <c r="U131" t="n">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="V131" t="n">
         <v>690</v>
@@ -24519,7 +24610,7 @@
         <v>215</v>
       </c>
       <c r="AC131" t="n">
-        <v>63345</v>
+        <v>63350</v>
       </c>
     </row>
     <row r="132">
@@ -24653,7 +24744,7 @@
         <v>821</v>
       </c>
       <c r="M133" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N133" t="n">
         <v>1201</v>
@@ -24677,7 +24768,7 @@
         <v>10667</v>
       </c>
       <c r="U133" t="n">
-        <v>1219</v>
+        <v>1254</v>
       </c>
       <c r="V133" t="n">
         <v>727</v>
@@ -24698,10 +24789,101 @@
         <v>798</v>
       </c>
       <c r="AB133" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AC133" t="n">
-        <v>64924</v>
+        <v>64968</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>394</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D134" t="n">
+        <v>449</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2938</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6504</v>
+      </c>
+      <c r="H134" t="n">
+        <v>726</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1838</v>
+      </c>
+      <c r="J134" t="n">
+        <v>654</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2250</v>
+      </c>
+      <c r="L134" t="n">
+        <v>857</v>
+      </c>
+      <c r="M134" t="n">
+        <v>122</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1230</v>
+      </c>
+      <c r="O134" t="n">
+        <v>5128</v>
+      </c>
+      <c r="P134" t="n">
+        <v>1118</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>820</v>
+      </c>
+      <c r="R134" t="n">
+        <v>5163</v>
+      </c>
+      <c r="S134" t="n">
+        <v>834</v>
+      </c>
+      <c r="T134" t="n">
+        <v>10698</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1254</v>
+      </c>
+      <c r="V134" t="n">
+        <v>759</v>
+      </c>
+      <c r="W134" t="n">
+        <v>558</v>
+      </c>
+      <c r="X134" t="n">
+        <v>376</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>406</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>16134</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>826</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>224</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>65600</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12566,7 +12566,7 @@
         <v>22078</v>
       </c>
       <c r="M134" t="n">
-        <v>10253</v>
+        <v>10687</v>
       </c>
       <c r="N134" t="n">
         <v>59626</v>
@@ -12578,7 +12578,7 @@
         <v>53151</v>
       </c>
       <c r="Q134" t="n">
-        <v>32769</v>
+        <v>32770</v>
       </c>
       <c r="R134" t="n">
         <v>65642</v>
@@ -12590,7 +12590,7 @@
         <v>121879</v>
       </c>
       <c r="U134" t="n">
-        <v>35056</v>
+        <v>35809</v>
       </c>
       <c r="V134" t="n">
         <v>32401</v>
@@ -12611,10 +12611,101 @@
         <v>30718</v>
       </c>
       <c r="AB134" t="n">
-        <v>12640</v>
+        <v>13004</v>
       </c>
       <c r="AC134" t="n">
-        <v>1628509</v>
+        <v>1630061</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>14941</v>
+      </c>
+      <c r="C135" t="n">
+        <v>41524</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30294</v>
+      </c>
+      <c r="E135" t="n">
+        <v>79167</v>
+      </c>
+      <c r="F135" t="n">
+        <v>91954</v>
+      </c>
+      <c r="G135" t="n">
+        <v>126142</v>
+      </c>
+      <c r="H135" t="n">
+        <v>62694</v>
+      </c>
+      <c r="I135" t="n">
+        <v>56703</v>
+      </c>
+      <c r="J135" t="n">
+        <v>32001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>92088</v>
+      </c>
+      <c r="L135" t="n">
+        <v>23506</v>
+      </c>
+      <c r="M135" t="n">
+        <v>10687</v>
+      </c>
+      <c r="N135" t="n">
+        <v>60897</v>
+      </c>
+      <c r="O135" t="n">
+        <v>118744</v>
+      </c>
+      <c r="P135" t="n">
+        <v>54802</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>34309</v>
+      </c>
+      <c r="R135" t="n">
+        <v>66151</v>
+      </c>
+      <c r="S135" t="n">
+        <v>28411</v>
+      </c>
+      <c r="T135" t="n">
+        <v>124086</v>
+      </c>
+      <c r="U135" t="n">
+        <v>35820</v>
+      </c>
+      <c r="V135" t="n">
+        <v>33800</v>
+      </c>
+      <c r="W135" t="n">
+        <v>24564</v>
+      </c>
+      <c r="X135" t="n">
+        <v>19284</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>35343</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>332708</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>31640</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>13004</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1675264</v>
       </c>
     </row>
   </sheetData>
@@ -12628,7 +12719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24835,7 +24926,7 @@
         <v>857</v>
       </c>
       <c r="M134" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N134" t="n">
         <v>1230</v>
@@ -24859,7 +24950,7 @@
         <v>10698</v>
       </c>
       <c r="U134" t="n">
-        <v>1254</v>
+        <v>1289</v>
       </c>
       <c r="V134" t="n">
         <v>759</v>
@@ -24880,10 +24971,101 @@
         <v>826</v>
       </c>
       <c r="AB134" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AC134" t="n">
-        <v>65600</v>
+        <v>65645</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>399</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D135" t="n">
+        <v>455</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2216</v>
+      </c>
+      <c r="G135" t="n">
+        <v>6563</v>
+      </c>
+      <c r="H135" t="n">
+        <v>767</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1880</v>
+      </c>
+      <c r="J135" t="n">
+        <v>732</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2286</v>
+      </c>
+      <c r="L135" t="n">
+        <v>896</v>
+      </c>
+      <c r="M135" t="n">
+        <v>128</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1282</v>
+      </c>
+      <c r="O135" t="n">
+        <v>5169</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>851</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5234</v>
+      </c>
+      <c r="S135" t="n">
+        <v>858</v>
+      </c>
+      <c r="T135" t="n">
+        <v>10881</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1291</v>
+      </c>
+      <c r="V135" t="n">
+        <v>793</v>
+      </c>
+      <c r="W135" t="n">
+        <v>577</v>
+      </c>
+      <c r="X135" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>16475</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>851</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>228</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>66907</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12590,7 +12590,7 @@
         <v>121879</v>
       </c>
       <c r="U134" t="n">
-        <v>35809</v>
+        <v>35897</v>
       </c>
       <c r="V134" t="n">
         <v>32401</v>
@@ -12614,7 +12614,7 @@
         <v>13004</v>
       </c>
       <c r="AC134" t="n">
-        <v>1630061</v>
+        <v>1630149</v>
       </c>
     </row>
     <row r="135">
@@ -12657,7 +12657,7 @@
         <v>23506</v>
       </c>
       <c r="M135" t="n">
-        <v>10687</v>
+        <v>11063</v>
       </c>
       <c r="N135" t="n">
         <v>60897</v>
@@ -12666,7 +12666,7 @@
         <v>118744</v>
       </c>
       <c r="P135" t="n">
-        <v>54802</v>
+        <v>54807</v>
       </c>
       <c r="Q135" t="n">
         <v>34309</v>
@@ -12681,7 +12681,7 @@
         <v>124086</v>
       </c>
       <c r="U135" t="n">
-        <v>35820</v>
+        <v>36493</v>
       </c>
       <c r="V135" t="n">
         <v>33800</v>
@@ -12702,10 +12702,101 @@
         <v>31640</v>
       </c>
       <c r="AB135" t="n">
-        <v>13004</v>
+        <v>13440</v>
       </c>
       <c r="AC135" t="n">
-        <v>1675264</v>
+        <v>1676754</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>15167</v>
+      </c>
+      <c r="C136" t="n">
+        <v>42322</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30524</v>
+      </c>
+      <c r="E136" t="n">
+        <v>80082</v>
+      </c>
+      <c r="F136" t="n">
+        <v>95536</v>
+      </c>
+      <c r="G136" t="n">
+        <v>129598</v>
+      </c>
+      <c r="H136" t="n">
+        <v>64314</v>
+      </c>
+      <c r="I136" t="n">
+        <v>58537</v>
+      </c>
+      <c r="J136" t="n">
+        <v>33367</v>
+      </c>
+      <c r="K136" t="n">
+        <v>92939</v>
+      </c>
+      <c r="L136" t="n">
+        <v>24804</v>
+      </c>
+      <c r="M136" t="n">
+        <v>11063</v>
+      </c>
+      <c r="N136" t="n">
+        <v>64035</v>
+      </c>
+      <c r="O136" t="n">
+        <v>120731</v>
+      </c>
+      <c r="P136" t="n">
+        <v>56349</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>35715</v>
+      </c>
+      <c r="R136" t="n">
+        <v>67604</v>
+      </c>
+      <c r="S136" t="n">
+        <v>29745</v>
+      </c>
+      <c r="T136" t="n">
+        <v>126329</v>
+      </c>
+      <c r="U136" t="n">
+        <v>36511</v>
+      </c>
+      <c r="V136" t="n">
+        <v>35557</v>
+      </c>
+      <c r="W136" t="n">
+        <v>25067</v>
+      </c>
+      <c r="X136" t="n">
+        <v>19284</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>36810</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>341365</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>32490</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>13440</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1719285</v>
       </c>
     </row>
   </sheetData>
@@ -12719,7 +12810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24950,7 +25041,7 @@
         <v>10698</v>
       </c>
       <c r="U134" t="n">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="V134" t="n">
         <v>759</v>
@@ -24974,7 +25065,7 @@
         <v>228</v>
       </c>
       <c r="AC134" t="n">
-        <v>65645</v>
+        <v>65653</v>
       </c>
     </row>
     <row r="135">
@@ -25008,7 +25099,7 @@
         <v>1880</v>
       </c>
       <c r="J135" t="n">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="K135" t="n">
         <v>2286</v>
@@ -25017,7 +25108,7 @@
         <v>896</v>
       </c>
       <c r="M135" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N135" t="n">
         <v>1282</v>
@@ -25041,7 +25132,7 @@
         <v>10881</v>
       </c>
       <c r="U135" t="n">
-        <v>1291</v>
+        <v>1322</v>
       </c>
       <c r="V135" t="n">
         <v>793</v>
@@ -25062,10 +25153,101 @@
         <v>851</v>
       </c>
       <c r="AB135" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AC135" t="n">
-        <v>66907</v>
+        <v>66943</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>404</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D136" t="n">
+        <v>462</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2967</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2277</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6665</v>
+      </c>
+      <c r="H136" t="n">
+        <v>801</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J136" t="n">
+        <v>748</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2324</v>
+      </c>
+      <c r="L136" t="n">
+        <v>921</v>
+      </c>
+      <c r="M136" t="n">
+        <v>134</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1355</v>
+      </c>
+      <c r="O136" t="n">
+        <v>5196</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1171</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>895</v>
+      </c>
+      <c r="R136" t="n">
+        <v>5323</v>
+      </c>
+      <c r="S136" t="n">
+        <v>888</v>
+      </c>
+      <c r="T136" t="n">
+        <v>10970</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1326</v>
+      </c>
+      <c r="V136" t="n">
+        <v>825</v>
+      </c>
+      <c r="W136" t="n">
+        <v>585</v>
+      </c>
+      <c r="X136" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>432</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>16788</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>875</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>233</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>68075</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -12781,7 +12781,7 @@
         <v>25067</v>
       </c>
       <c r="X136" t="n">
-        <v>19284</v>
+        <v>20154</v>
       </c>
       <c r="Y136" t="n">
         <v>36810</v>
@@ -12796,7 +12796,7 @@
         <v>13440</v>
       </c>
       <c r="AC136" t="n">
-        <v>1719285</v>
+        <v>1720155</v>
       </c>
     </row>
   </sheetData>
@@ -25232,7 +25232,7 @@
         <v>585</v>
       </c>
       <c r="X136" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Y136" t="n">
         <v>432</v>
@@ -25247,7 +25247,7 @@
         <v>233</v>
       </c>
       <c r="AC136" t="n">
-        <v>68075</v>
+        <v>68082</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12487,7 +12487,7 @@
         <v>52733</v>
       </c>
       <c r="Q133" t="n">
-        <v>31459</v>
+        <v>31460</v>
       </c>
       <c r="R133" t="n">
         <v>65129</v>
@@ -12523,7 +12523,7 @@
         <v>12640</v>
       </c>
       <c r="AC133" t="n">
-        <v>1605694</v>
+        <v>1605695</v>
       </c>
     </row>
     <row r="134">
@@ -12681,7 +12681,7 @@
         <v>124086</v>
       </c>
       <c r="U135" t="n">
-        <v>36493</v>
+        <v>36587</v>
       </c>
       <c r="V135" t="n">
         <v>33800</v>
@@ -12705,7 +12705,7 @@
         <v>13440</v>
       </c>
       <c r="AC135" t="n">
-        <v>1676754</v>
+        <v>1676848</v>
       </c>
     </row>
     <row r="136">
@@ -12736,7 +12736,7 @@
         <v>64314</v>
       </c>
       <c r="I136" t="n">
-        <v>58537</v>
+        <v>58841</v>
       </c>
       <c r="J136" t="n">
         <v>33367</v>
@@ -12748,7 +12748,7 @@
         <v>24804</v>
       </c>
       <c r="M136" t="n">
-        <v>11063</v>
+        <v>11671</v>
       </c>
       <c r="N136" t="n">
         <v>64035</v>
@@ -12772,7 +12772,7 @@
         <v>126329</v>
       </c>
       <c r="U136" t="n">
-        <v>36511</v>
+        <v>37137</v>
       </c>
       <c r="V136" t="n">
         <v>35557</v>
@@ -12793,10 +12793,101 @@
         <v>32490</v>
       </c>
       <c r="AB136" t="n">
-        <v>13440</v>
+        <v>13845</v>
       </c>
       <c r="AC136" t="n">
-        <v>1720155</v>
+        <v>1722098</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>15465</v>
+      </c>
+      <c r="C137" t="n">
+        <v>43191</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30763</v>
+      </c>
+      <c r="E137" t="n">
+        <v>81318</v>
+      </c>
+      <c r="F137" t="n">
+        <v>98319</v>
+      </c>
+      <c r="G137" t="n">
+        <v>131324</v>
+      </c>
+      <c r="H137" t="n">
+        <v>65677</v>
+      </c>
+      <c r="I137" t="n">
+        <v>60009</v>
+      </c>
+      <c r="J137" t="n">
+        <v>34654</v>
+      </c>
+      <c r="K137" t="n">
+        <v>95323</v>
+      </c>
+      <c r="L137" t="n">
+        <v>25264</v>
+      </c>
+      <c r="M137" t="n">
+        <v>11671</v>
+      </c>
+      <c r="N137" t="n">
+        <v>66864</v>
+      </c>
+      <c r="O137" t="n">
+        <v>122674</v>
+      </c>
+      <c r="P137" t="n">
+        <v>57619</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>37424</v>
+      </c>
+      <c r="R137" t="n">
+        <v>68767</v>
+      </c>
+      <c r="S137" t="n">
+        <v>31269</v>
+      </c>
+      <c r="T137" t="n">
+        <v>128324</v>
+      </c>
+      <c r="U137" t="n">
+        <v>37137</v>
+      </c>
+      <c r="V137" t="n">
+        <v>36434</v>
+      </c>
+      <c r="W137" t="n">
+        <v>25402</v>
+      </c>
+      <c r="X137" t="n">
+        <v>21220</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>38408</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>349715</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>33416</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>13845</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1761496</v>
       </c>
     </row>
   </sheetData>
@@ -12810,7 +12901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25132,7 +25223,7 @@
         <v>10881</v>
       </c>
       <c r="U135" t="n">
-        <v>1322</v>
+        <v>1332</v>
       </c>
       <c r="V135" t="n">
         <v>793</v>
@@ -25156,7 +25247,7 @@
         <v>233</v>
       </c>
       <c r="AC135" t="n">
-        <v>66943</v>
+        <v>66953</v>
       </c>
     </row>
     <row r="136">
@@ -25181,13 +25272,13 @@
         <v>2277</v>
       </c>
       <c r="G136" t="n">
-        <v>6665</v>
+        <v>6678</v>
       </c>
       <c r="H136" t="n">
         <v>801</v>
       </c>
       <c r="I136" t="n">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="J136" t="n">
         <v>748</v>
@@ -25199,7 +25290,7 @@
         <v>921</v>
       </c>
       <c r="M136" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N136" t="n">
         <v>1355</v>
@@ -25217,13 +25308,13 @@
         <v>5323</v>
       </c>
       <c r="S136" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="T136" t="n">
         <v>10970</v>
       </c>
       <c r="U136" t="n">
-        <v>1326</v>
+        <v>1351</v>
       </c>
       <c r="V136" t="n">
         <v>825</v>
@@ -25244,10 +25335,101 @@
         <v>875</v>
       </c>
       <c r="AB136" t="n">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC136" t="n">
-        <v>68082</v>
+        <v>68126</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>411</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D137" t="n">
+        <v>467</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2985</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2328</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6774</v>
+      </c>
+      <c r="H137" t="n">
+        <v>823</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1930</v>
+      </c>
+      <c r="J137" t="n">
+        <v>795</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2357</v>
+      </c>
+      <c r="L137" t="n">
+        <v>928</v>
+      </c>
+      <c r="M137" t="n">
+        <v>136</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1445</v>
+      </c>
+      <c r="O137" t="n">
+        <v>5224</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1196</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>931</v>
+      </c>
+      <c r="R137" t="n">
+        <v>5409</v>
+      </c>
+      <c r="S137" t="n">
+        <v>896</v>
+      </c>
+      <c r="T137" t="n">
+        <v>11115</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1351</v>
+      </c>
+      <c r="V137" t="n">
+        <v>870</v>
+      </c>
+      <c r="W137" t="n">
+        <v>589</v>
+      </c>
+      <c r="X137" t="n">
+        <v>393</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>447</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>17118</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>901</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>69289</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12830,7 +12830,7 @@
         <v>60009</v>
       </c>
       <c r="J137" t="n">
-        <v>34654</v>
+        <v>34627</v>
       </c>
       <c r="K137" t="n">
         <v>95323</v>
@@ -12839,7 +12839,7 @@
         <v>25264</v>
       </c>
       <c r="M137" t="n">
-        <v>11671</v>
+        <v>12261</v>
       </c>
       <c r="N137" t="n">
         <v>66864</v>
@@ -12863,7 +12863,7 @@
         <v>128324</v>
       </c>
       <c r="U137" t="n">
-        <v>37137</v>
+        <v>38342</v>
       </c>
       <c r="V137" t="n">
         <v>36434</v>
@@ -12884,10 +12884,101 @@
         <v>33416</v>
       </c>
       <c r="AB137" t="n">
-        <v>13845</v>
+        <v>14509</v>
       </c>
       <c r="AC137" t="n">
-        <v>1761496</v>
+        <v>1763928</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>15768</v>
+      </c>
+      <c r="C138" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D138" t="n">
+        <v>31080</v>
+      </c>
+      <c r="E138" t="n">
+        <v>82507</v>
+      </c>
+      <c r="F138" t="n">
+        <v>101186</v>
+      </c>
+      <c r="G138" t="n">
+        <v>134610</v>
+      </c>
+      <c r="H138" t="n">
+        <v>67297</v>
+      </c>
+      <c r="I138" t="n">
+        <v>61361</v>
+      </c>
+      <c r="J138" t="n">
+        <v>35740</v>
+      </c>
+      <c r="K138" t="n">
+        <v>96718</v>
+      </c>
+      <c r="L138" t="n">
+        <v>27636</v>
+      </c>
+      <c r="M138" t="n">
+        <v>12261</v>
+      </c>
+      <c r="N138" t="n">
+        <v>70086</v>
+      </c>
+      <c r="O138" t="n">
+        <v>124934</v>
+      </c>
+      <c r="P138" t="n">
+        <v>59118</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>39512</v>
+      </c>
+      <c r="R138" t="n">
+        <v>70100</v>
+      </c>
+      <c r="S138" t="n">
+        <v>32465</v>
+      </c>
+      <c r="T138" t="n">
+        <v>129443</v>
+      </c>
+      <c r="U138" t="n">
+        <v>38342</v>
+      </c>
+      <c r="V138" t="n">
+        <v>37490</v>
+      </c>
+      <c r="W138" t="n">
+        <v>26000</v>
+      </c>
+      <c r="X138" t="n">
+        <v>21849</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>40106</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>359110</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>34713</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>14509</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1807900</v>
       </c>
     </row>
   </sheetData>
@@ -12901,7 +12992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25381,7 +25472,7 @@
         <v>928</v>
       </c>
       <c r="M137" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N137" t="n">
         <v>1445</v>
@@ -25405,7 +25496,7 @@
         <v>11115</v>
       </c>
       <c r="U137" t="n">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="V137" t="n">
         <v>870</v>
@@ -25426,10 +25517,101 @@
         <v>901</v>
       </c>
       <c r="AB137" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AC137" t="n">
-        <v>69289</v>
+        <v>69315</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>417</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D138" t="n">
+        <v>470</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3008</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2383</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6842</v>
+      </c>
+      <c r="H138" t="n">
+        <v>856</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J138" t="n">
+        <v>835</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2392</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1026</v>
+      </c>
+      <c r="M138" t="n">
+        <v>146</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1504</v>
+      </c>
+      <c r="O138" t="n">
+        <v>5274</v>
+      </c>
+      <c r="P138" t="n">
+        <v>1229</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>978</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5482</v>
+      </c>
+      <c r="S138" t="n">
+        <v>914</v>
+      </c>
+      <c r="T138" t="n">
+        <v>11280</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1362</v>
+      </c>
+      <c r="V138" t="n">
+        <v>919</v>
+      </c>
+      <c r="W138" t="n">
+        <v>606</v>
+      </c>
+      <c r="X138" t="n">
+        <v>396</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>459</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>17442</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>931</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>245</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>70609</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12836,7 +12836,7 @@
         <v>95323</v>
       </c>
       <c r="L137" t="n">
-        <v>25264</v>
+        <v>26396</v>
       </c>
       <c r="M137" t="n">
         <v>12261</v>
@@ -12887,7 +12887,7 @@
         <v>14509</v>
       </c>
       <c r="AC137" t="n">
-        <v>1763928</v>
+        <v>1765060</v>
       </c>
     </row>
     <row r="138">
@@ -12921,7 +12921,7 @@
         <v>61361</v>
       </c>
       <c r="J138" t="n">
-        <v>35740</v>
+        <v>35706</v>
       </c>
       <c r="K138" t="n">
         <v>96718</v>
@@ -12930,7 +12930,7 @@
         <v>27636</v>
       </c>
       <c r="M138" t="n">
-        <v>12261</v>
+        <v>12969</v>
       </c>
       <c r="N138" t="n">
         <v>70086</v>
@@ -12939,7 +12939,7 @@
         <v>124934</v>
       </c>
       <c r="P138" t="n">
-        <v>59118</v>
+        <v>59123</v>
       </c>
       <c r="Q138" t="n">
         <v>39512</v>
@@ -12954,7 +12954,7 @@
         <v>129443</v>
       </c>
       <c r="U138" t="n">
-        <v>38342</v>
+        <v>38704</v>
       </c>
       <c r="V138" t="n">
         <v>37490</v>
@@ -12975,10 +12975,101 @@
         <v>34713</v>
       </c>
       <c r="AB138" t="n">
-        <v>14509</v>
+        <v>14939</v>
       </c>
       <c r="AC138" t="n">
-        <v>1807900</v>
+        <v>1809371</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C139" t="n">
+        <v>44633</v>
+      </c>
+      <c r="D139" t="n">
+        <v>31279</v>
+      </c>
+      <c r="E139" t="n">
+        <v>83230</v>
+      </c>
+      <c r="F139" t="n">
+        <v>104188</v>
+      </c>
+      <c r="G139" t="n">
+        <v>136001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>68406</v>
+      </c>
+      <c r="I139" t="n">
+        <v>62393</v>
+      </c>
+      <c r="J139" t="n">
+        <v>36275</v>
+      </c>
+      <c r="K139" t="n">
+        <v>98398</v>
+      </c>
+      <c r="L139" t="n">
+        <v>28526</v>
+      </c>
+      <c r="M139" t="n">
+        <v>12969</v>
+      </c>
+      <c r="N139" t="n">
+        <v>73813</v>
+      </c>
+      <c r="O139" t="n">
+        <v>125714</v>
+      </c>
+      <c r="P139" t="n">
+        <v>60426</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>40797</v>
+      </c>
+      <c r="R139" t="n">
+        <v>71370</v>
+      </c>
+      <c r="S139" t="n">
+        <v>32963</v>
+      </c>
+      <c r="T139" t="n">
+        <v>129675</v>
+      </c>
+      <c r="U139" t="n">
+        <v>38704</v>
+      </c>
+      <c r="V139" t="n">
+        <v>38720</v>
+      </c>
+      <c r="W139" t="n">
+        <v>26496</v>
+      </c>
+      <c r="X139" t="n">
+        <v>22225</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>42026</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>366890</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>36046</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>14939</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1843182</v>
       </c>
     </row>
   </sheetData>
@@ -12992,7 +13083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25469,7 +25560,7 @@
         <v>2357</v>
       </c>
       <c r="L137" t="n">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="M137" t="n">
         <v>146</v>
@@ -25520,7 +25611,7 @@
         <v>245</v>
       </c>
       <c r="AC137" t="n">
-        <v>69315</v>
+        <v>69348</v>
       </c>
     </row>
     <row r="138">
@@ -25563,7 +25654,7 @@
         <v>1026</v>
       </c>
       <c r="M138" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N138" t="n">
         <v>1504</v>
@@ -25587,7 +25678,7 @@
         <v>11280</v>
       </c>
       <c r="U138" t="n">
-        <v>1362</v>
+        <v>1386</v>
       </c>
       <c r="V138" t="n">
         <v>919</v>
@@ -25608,10 +25699,101 @@
         <v>931</v>
       </c>
       <c r="AB138" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AC138" t="n">
-        <v>70609</v>
+        <v>70646</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>419</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1264</v>
+      </c>
+      <c r="D139" t="n">
+        <v>473</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3023</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2436</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6867</v>
+      </c>
+      <c r="H139" t="n">
+        <v>871</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1995</v>
+      </c>
+      <c r="J139" t="n">
+        <v>847</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2426</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1047</v>
+      </c>
+      <c r="M139" t="n">
+        <v>153</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1550</v>
+      </c>
+      <c r="O139" t="n">
+        <v>5289</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1016</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5556</v>
+      </c>
+      <c r="S139" t="n">
+        <v>936</v>
+      </c>
+      <c r="T139" t="n">
+        <v>11406</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1386</v>
+      </c>
+      <c r="V139" t="n">
+        <v>943</v>
+      </c>
+      <c r="W139" t="n">
+        <v>617</v>
+      </c>
+      <c r="X139" t="n">
+        <v>396</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>485</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>17702</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>954</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>251</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>71558</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13012,16 +13012,16 @@
         <v>62393</v>
       </c>
       <c r="J139" t="n">
-        <v>36275</v>
+        <v>36273</v>
       </c>
       <c r="K139" t="n">
         <v>98398</v>
       </c>
       <c r="L139" t="n">
-        <v>28526</v>
+        <v>27636</v>
       </c>
       <c r="M139" t="n">
-        <v>12969</v>
+        <v>13197</v>
       </c>
       <c r="N139" t="n">
         <v>73813</v>
@@ -13045,7 +13045,7 @@
         <v>129675</v>
       </c>
       <c r="U139" t="n">
-        <v>38704</v>
+        <v>39421</v>
       </c>
       <c r="V139" t="n">
         <v>38720</v>
@@ -13066,10 +13066,101 @@
         <v>36046</v>
       </c>
       <c r="AB139" t="n">
-        <v>14939</v>
+        <v>15132</v>
       </c>
       <c r="AC139" t="n">
-        <v>1843182</v>
+        <v>1843428</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>16190</v>
+      </c>
+      <c r="C140" t="n">
+        <v>45330</v>
+      </c>
+      <c r="D140" t="n">
+        <v>31364</v>
+      </c>
+      <c r="E140" t="n">
+        <v>83526</v>
+      </c>
+      <c r="F140" t="n">
+        <v>105763</v>
+      </c>
+      <c r="G140" t="n">
+        <v>136790</v>
+      </c>
+      <c r="H140" t="n">
+        <v>70712</v>
+      </c>
+      <c r="I140" t="n">
+        <v>62873</v>
+      </c>
+      <c r="J140" t="n">
+        <v>36568</v>
+      </c>
+      <c r="K140" t="n">
+        <v>98952</v>
+      </c>
+      <c r="L140" t="n">
+        <v>28791</v>
+      </c>
+      <c r="M140" t="n">
+        <v>13197</v>
+      </c>
+      <c r="N140" t="n">
+        <v>75851</v>
+      </c>
+      <c r="O140" t="n">
+        <v>126509</v>
+      </c>
+      <c r="P140" t="n">
+        <v>60784</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>42537</v>
+      </c>
+      <c r="R140" t="n">
+        <v>72470</v>
+      </c>
+      <c r="S140" t="n">
+        <v>33359</v>
+      </c>
+      <c r="T140" t="n">
+        <v>129684</v>
+      </c>
+      <c r="U140" t="n">
+        <v>39421</v>
+      </c>
+      <c r="V140" t="n">
+        <v>39240</v>
+      </c>
+      <c r="W140" t="n">
+        <v>26728</v>
+      </c>
+      <c r="X140" t="n">
+        <v>22627</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>43031</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>371997</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>37631</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>15132</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1867057</v>
       </c>
     </row>
   </sheetData>
@@ -13083,7 +13174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25742,10 +25833,10 @@
         <v>2426</v>
       </c>
       <c r="L139" t="n">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="M139" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N139" t="n">
         <v>1550</v>
@@ -25769,7 +25860,7 @@
         <v>11406</v>
       </c>
       <c r="U139" t="n">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="V139" t="n">
         <v>943</v>
@@ -25790,10 +25881,101 @@
         <v>954</v>
       </c>
       <c r="AB139" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AC139" t="n">
-        <v>71558</v>
+        <v>71560</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>426</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1281</v>
+      </c>
+      <c r="D140" t="n">
+        <v>474</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3039</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6869</v>
+      </c>
+      <c r="H140" t="n">
+        <v>902</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J140" t="n">
+        <v>851</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2463</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1077</v>
+      </c>
+      <c r="M140" t="n">
+        <v>161</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1576</v>
+      </c>
+      <c r="O140" t="n">
+        <v>5293</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1284</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1045</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5595</v>
+      </c>
+      <c r="S140" t="n">
+        <v>960</v>
+      </c>
+      <c r="T140" t="n">
+        <v>11415</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1394</v>
+      </c>
+      <c r="V140" t="n">
+        <v>962</v>
+      </c>
+      <c r="W140" t="n">
+        <v>628</v>
+      </c>
+      <c r="X140" t="n">
+        <v>397</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>497</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>17848</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>984</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>255</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>72169</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13103,7 +13103,7 @@
         <v>62873</v>
       </c>
       <c r="J140" t="n">
-        <v>36568</v>
+        <v>36556</v>
       </c>
       <c r="K140" t="n">
         <v>98952</v>
@@ -13112,7 +13112,7 @@
         <v>28791</v>
       </c>
       <c r="M140" t="n">
-        <v>13197</v>
+        <v>13461</v>
       </c>
       <c r="N140" t="n">
         <v>75851</v>
@@ -13136,7 +13136,7 @@
         <v>129684</v>
       </c>
       <c r="U140" t="n">
-        <v>39421</v>
+        <v>39598</v>
       </c>
       <c r="V140" t="n">
         <v>39240</v>
@@ -13157,10 +13157,101 @@
         <v>37631</v>
       </c>
       <c r="AB140" t="n">
-        <v>15132</v>
+        <v>15307</v>
       </c>
       <c r="AC140" t="n">
-        <v>1867057</v>
+        <v>1867661</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>16260</v>
+      </c>
+      <c r="C141" t="n">
+        <v>46296</v>
+      </c>
+      <c r="D141" t="n">
+        <v>31552</v>
+      </c>
+      <c r="E141" t="n">
+        <v>84412</v>
+      </c>
+      <c r="F141" t="n">
+        <v>106891</v>
+      </c>
+      <c r="G141" t="n">
+        <v>137234</v>
+      </c>
+      <c r="H141" t="n">
+        <v>72284</v>
+      </c>
+      <c r="I141" t="n">
+        <v>63881</v>
+      </c>
+      <c r="J141" t="n">
+        <v>37359</v>
+      </c>
+      <c r="K141" t="n">
+        <v>99830</v>
+      </c>
+      <c r="L141" t="n">
+        <v>29279</v>
+      </c>
+      <c r="M141" t="n">
+        <v>13461</v>
+      </c>
+      <c r="N141" t="n">
+        <v>76822</v>
+      </c>
+      <c r="O141" t="n">
+        <v>128570</v>
+      </c>
+      <c r="P141" t="n">
+        <v>61108</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>43582</v>
+      </c>
+      <c r="R141" t="n">
+        <v>72901</v>
+      </c>
+      <c r="S141" t="n">
+        <v>34156</v>
+      </c>
+      <c r="T141" t="n">
+        <v>132044</v>
+      </c>
+      <c r="U141" t="n">
+        <v>39800</v>
+      </c>
+      <c r="V141" t="n">
+        <v>39656</v>
+      </c>
+      <c r="W141" t="n">
+        <v>27050</v>
+      </c>
+      <c r="X141" t="n">
+        <v>22968</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>43815</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>374607</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>38221</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>15307</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1889346</v>
       </c>
     </row>
   </sheetData>
@@ -13174,7 +13265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25927,7 +26018,7 @@
         <v>1077</v>
       </c>
       <c r="M140" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N140" t="n">
         <v>1576</v>
@@ -25951,7 +26042,7 @@
         <v>11415</v>
       </c>
       <c r="U140" t="n">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="V140" t="n">
         <v>962</v>
@@ -25972,10 +26063,101 @@
         <v>984</v>
       </c>
       <c r="AB140" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AC140" t="n">
-        <v>72169</v>
+        <v>72184</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>430</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D141" t="n">
+        <v>478</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3048</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2535</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6975</v>
+      </c>
+      <c r="H141" t="n">
+        <v>930</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2040</v>
+      </c>
+      <c r="J141" t="n">
+        <v>880</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2501</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1105</v>
+      </c>
+      <c r="M141" t="n">
+        <v>167</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1615</v>
+      </c>
+      <c r="O141" t="n">
+        <v>5318</v>
+      </c>
+      <c r="P141" t="n">
+        <v>1302</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1089</v>
+      </c>
+      <c r="R141" t="n">
+        <v>5652</v>
+      </c>
+      <c r="S141" t="n">
+        <v>992</v>
+      </c>
+      <c r="T141" t="n">
+        <v>11474</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1404</v>
+      </c>
+      <c r="V141" t="n">
+        <v>995</v>
+      </c>
+      <c r="W141" t="n">
+        <v>647</v>
+      </c>
+      <c r="X141" t="n">
+        <v>398</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>517</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>17907</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>1012</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>259</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>72967</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13121,7 +13121,7 @@
         <v>126509</v>
       </c>
       <c r="P140" t="n">
-        <v>60784</v>
+        <v>60789</v>
       </c>
       <c r="Q140" t="n">
         <v>42537</v>
@@ -13160,7 +13160,7 @@
         <v>15307</v>
       </c>
       <c r="AC140" t="n">
-        <v>1867661</v>
+        <v>1867666</v>
       </c>
     </row>
     <row r="141">
@@ -13194,7 +13194,7 @@
         <v>63881</v>
       </c>
       <c r="J141" t="n">
-        <v>37359</v>
+        <v>37333</v>
       </c>
       <c r="K141" t="n">
         <v>99830</v>
@@ -13203,7 +13203,7 @@
         <v>29279</v>
       </c>
       <c r="M141" t="n">
-        <v>13461</v>
+        <v>13934</v>
       </c>
       <c r="N141" t="n">
         <v>76822</v>
@@ -13212,7 +13212,7 @@
         <v>128570</v>
       </c>
       <c r="P141" t="n">
-        <v>61108</v>
+        <v>61113</v>
       </c>
       <c r="Q141" t="n">
         <v>43582</v>
@@ -13227,7 +13227,7 @@
         <v>132044</v>
       </c>
       <c r="U141" t="n">
-        <v>39800</v>
+        <v>40455</v>
       </c>
       <c r="V141" t="n">
         <v>39656</v>
@@ -13248,10 +13248,101 @@
         <v>38221</v>
       </c>
       <c r="AB141" t="n">
-        <v>15307</v>
+        <v>15723</v>
       </c>
       <c r="AC141" t="n">
-        <v>1889346</v>
+        <v>1890869</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>16479</v>
+      </c>
+      <c r="C142" t="n">
+        <v>47005</v>
+      </c>
+      <c r="D142" t="n">
+        <v>31885</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F142" t="n">
+        <v>110029</v>
+      </c>
+      <c r="G142" t="n">
+        <v>139437</v>
+      </c>
+      <c r="H142" t="n">
+        <v>73654</v>
+      </c>
+      <c r="I142" t="n">
+        <v>65213</v>
+      </c>
+      <c r="J142" t="n">
+        <v>38346</v>
+      </c>
+      <c r="K142" t="n">
+        <v>101467</v>
+      </c>
+      <c r="L142" t="n">
+        <v>29918</v>
+      </c>
+      <c r="M142" t="n">
+        <v>13934</v>
+      </c>
+      <c r="N142" t="n">
+        <v>78643</v>
+      </c>
+      <c r="O142" t="n">
+        <v>130834</v>
+      </c>
+      <c r="P142" t="n">
+        <v>62467</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>45363</v>
+      </c>
+      <c r="R142" t="n">
+        <v>73576</v>
+      </c>
+      <c r="S142" t="n">
+        <v>35445</v>
+      </c>
+      <c r="T142" t="n">
+        <v>132822</v>
+      </c>
+      <c r="U142" t="n">
+        <v>40455</v>
+      </c>
+      <c r="V142" t="n">
+        <v>40993</v>
+      </c>
+      <c r="W142" t="n">
+        <v>27528</v>
+      </c>
+      <c r="X142" t="n">
+        <v>23681</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>46050</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>386607</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>39167</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>15723</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1932521</v>
       </c>
     </row>
   </sheetData>
@@ -13265,7 +13356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26109,7 +26200,7 @@
         <v>1105</v>
       </c>
       <c r="M141" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="N141" t="n">
         <v>1615</v>
@@ -26133,7 +26224,7 @@
         <v>11474</v>
       </c>
       <c r="U141" t="n">
-        <v>1404</v>
+        <v>1449</v>
       </c>
       <c r="V141" t="n">
         <v>995</v>
@@ -26154,10 +26245,101 @@
         <v>1012</v>
       </c>
       <c r="AB141" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AC141" t="n">
-        <v>72967</v>
+        <v>73030</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-14</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>436</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1314</v>
+      </c>
+      <c r="D142" t="n">
+        <v>483</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3064</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2584</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6977</v>
+      </c>
+      <c r="H142" t="n">
+        <v>960</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2082</v>
+      </c>
+      <c r="J142" t="n">
+        <v>910</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2536</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1157</v>
+      </c>
+      <c r="M142" t="n">
+        <v>177</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1688</v>
+      </c>
+      <c r="O142" t="n">
+        <v>5337</v>
+      </c>
+      <c r="P142" t="n">
+        <v>1342</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1146</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5715</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1019</v>
+      </c>
+      <c r="T142" t="n">
+        <v>11624</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1449</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1060</v>
+      </c>
+      <c r="W142" t="n">
+        <v>663</v>
+      </c>
+      <c r="X142" t="n">
+        <v>403</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>534</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>18324</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>1033</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>267</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>74284</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13285,16 +13285,16 @@
         <v>65213</v>
       </c>
       <c r="J142" t="n">
-        <v>38346</v>
+        <v>38299</v>
       </c>
       <c r="K142" t="n">
         <v>101467</v>
       </c>
       <c r="L142" t="n">
-        <v>29918</v>
+        <v>29279</v>
       </c>
       <c r="M142" t="n">
-        <v>13934</v>
+        <v>14631</v>
       </c>
       <c r="N142" t="n">
         <v>78643</v>
@@ -13318,7 +13318,7 @@
         <v>132822</v>
       </c>
       <c r="U142" t="n">
-        <v>40455</v>
+        <v>40767</v>
       </c>
       <c r="V142" t="n">
         <v>40993</v>
@@ -13339,10 +13339,101 @@
         <v>39167</v>
       </c>
       <c r="AB142" t="n">
-        <v>15723</v>
+        <v>16031</v>
       </c>
       <c r="AC142" t="n">
-        <v>1932521</v>
+        <v>1933152</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>16672</v>
+      </c>
+      <c r="C143" t="n">
+        <v>47864</v>
+      </c>
+      <c r="D143" t="n">
+        <v>32408</v>
+      </c>
+      <c r="E143" t="n">
+        <v>86944</v>
+      </c>
+      <c r="F143" t="n">
+        <v>112993</v>
+      </c>
+      <c r="G143" t="n">
+        <v>141832</v>
+      </c>
+      <c r="H143" t="n">
+        <v>75381</v>
+      </c>
+      <c r="I143" t="n">
+        <v>66352</v>
+      </c>
+      <c r="J143" t="n">
+        <v>39662</v>
+      </c>
+      <c r="K143" t="n">
+        <v>102469</v>
+      </c>
+      <c r="L143" t="n">
+        <v>30536</v>
+      </c>
+      <c r="M143" t="n">
+        <v>14631</v>
+      </c>
+      <c r="N143" t="n">
+        <v>82010</v>
+      </c>
+      <c r="O143" t="n">
+        <v>133039</v>
+      </c>
+      <c r="P143" t="n">
+        <v>63944</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>47124</v>
+      </c>
+      <c r="R143" t="n">
+        <v>74960</v>
+      </c>
+      <c r="S143" t="n">
+        <v>36542</v>
+      </c>
+      <c r="T143" t="n">
+        <v>134449</v>
+      </c>
+      <c r="U143" t="n">
+        <v>40767</v>
+      </c>
+      <c r="V143" t="n">
+        <v>42239</v>
+      </c>
+      <c r="W143" t="n">
+        <v>27917</v>
+      </c>
+      <c r="X143" t="n">
+        <v>24397</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>47976</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>393176</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>40139</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>16031</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1972454</v>
       </c>
     </row>
   </sheetData>
@@ -13356,7 +13447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26288,10 +26379,10 @@
         <v>2536</v>
       </c>
       <c r="L142" t="n">
-        <v>1157</v>
+        <v>1105</v>
       </c>
       <c r="M142" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N142" t="n">
         <v>1688</v>
@@ -26315,7 +26406,7 @@
         <v>11624</v>
       </c>
       <c r="U142" t="n">
-        <v>1449</v>
+        <v>1479</v>
       </c>
       <c r="V142" t="n">
         <v>1060</v>
@@ -26336,10 +26427,101 @@
         <v>1033</v>
       </c>
       <c r="AB142" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC142" t="n">
-        <v>74284</v>
+        <v>74272</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>446</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D143" t="n">
+        <v>488</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2638</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7081</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2097</v>
+      </c>
+      <c r="J143" t="n">
+        <v>959</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2572</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1197</v>
+      </c>
+      <c r="M143" t="n">
+        <v>183</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1752</v>
+      </c>
+      <c r="O143" t="n">
+        <v>5385</v>
+      </c>
+      <c r="P143" t="n">
+        <v>1383</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R143" t="n">
+        <v>5772</v>
+      </c>
+      <c r="S143" t="n">
+        <v>1043</v>
+      </c>
+      <c r="T143" t="n">
+        <v>11757</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1479</v>
+      </c>
+      <c r="V143" t="n">
+        <v>1101</v>
+      </c>
+      <c r="W143" t="n">
+        <v>668</v>
+      </c>
+      <c r="X143" t="n">
+        <v>415</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>569</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>18640</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>1054</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>75562</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13136,7 +13136,7 @@
         <v>129684</v>
       </c>
       <c r="U140" t="n">
-        <v>39598</v>
+        <v>39908</v>
       </c>
       <c r="V140" t="n">
         <v>39240</v>
@@ -13160,7 +13160,7 @@
         <v>15307</v>
       </c>
       <c r="AC140" t="n">
-        <v>1867666</v>
+        <v>1867976</v>
       </c>
     </row>
     <row r="141">
@@ -13370,13 +13370,13 @@
         <v>141832</v>
       </c>
       <c r="H143" t="n">
-        <v>75381</v>
+        <v>75379</v>
       </c>
       <c r="I143" t="n">
         <v>66352</v>
       </c>
       <c r="J143" t="n">
-        <v>39662</v>
+        <v>39474</v>
       </c>
       <c r="K143" t="n">
         <v>102469</v>
@@ -13418,7 +13418,7 @@
         <v>27917</v>
       </c>
       <c r="X143" t="n">
-        <v>24397</v>
+        <v>23681</v>
       </c>
       <c r="Y143" t="n">
         <v>47976</v>
@@ -13433,7 +13433,98 @@
         <v>16031</v>
       </c>
       <c r="AC143" t="n">
-        <v>1972454</v>
+        <v>1971548</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>16865</v>
+      </c>
+      <c r="C144" t="n">
+        <v>48734</v>
+      </c>
+      <c r="D144" t="n">
+        <v>33004</v>
+      </c>
+      <c r="E144" t="n">
+        <v>88025</v>
+      </c>
+      <c r="F144" t="n">
+        <v>116373</v>
+      </c>
+      <c r="G144" t="n">
+        <v>144058</v>
+      </c>
+      <c r="H144" t="n">
+        <v>77621</v>
+      </c>
+      <c r="I144" t="n">
+        <v>68118</v>
+      </c>
+      <c r="J144" t="n">
+        <v>40544</v>
+      </c>
+      <c r="K144" t="n">
+        <v>104126</v>
+      </c>
+      <c r="L144" t="n">
+        <v>31111</v>
+      </c>
+      <c r="M144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="N144" t="n">
+        <v>84470</v>
+      </c>
+      <c r="O144" t="n">
+        <v>135164</v>
+      </c>
+      <c r="P144" t="n">
+        <v>65423</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>49405</v>
+      </c>
+      <c r="R144" t="n">
+        <v>76091</v>
+      </c>
+      <c r="S144" t="n">
+        <v>36542</v>
+      </c>
+      <c r="T144" t="n">
+        <v>134573</v>
+      </c>
+      <c r="U144" t="n">
+        <v>40978</v>
+      </c>
+      <c r="V144" t="n">
+        <v>45344</v>
+      </c>
+      <c r="W144" t="n">
+        <v>28654</v>
+      </c>
+      <c r="X144" t="n">
+        <v>24397</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>49781</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>402048</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>41226</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>16672</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2014677</v>
       </c>
     </row>
   </sheetData>
@@ -13447,7 +13538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26224,7 +26315,7 @@
         <v>11415</v>
       </c>
       <c r="U140" t="n">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="V140" t="n">
         <v>962</v>
@@ -26248,7 +26339,7 @@
         <v>259</v>
       </c>
       <c r="AC140" t="n">
-        <v>72184</v>
+        <v>72195</v>
       </c>
     </row>
     <row r="141">
@@ -26506,7 +26597,7 @@
         <v>668</v>
       </c>
       <c r="X143" t="n">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Y143" t="n">
         <v>569</v>
@@ -26521,7 +26612,98 @@
         <v>271</v>
       </c>
       <c r="AC143" t="n">
-        <v>75562</v>
+        <v>75550</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>447</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D144" t="n">
+        <v>493</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3095</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2693</v>
+      </c>
+      <c r="G144" t="n">
+        <v>7139</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1037</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2136</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1018</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2608</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1207</v>
+      </c>
+      <c r="M144" t="n">
+        <v>191</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1834</v>
+      </c>
+      <c r="O144" t="n">
+        <v>5448</v>
+      </c>
+      <c r="P144" t="n">
+        <v>1418</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1246</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5836</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1043</v>
+      </c>
+      <c r="T144" t="n">
+        <v>11849</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1501</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1141</v>
+      </c>
+      <c r="W144" t="n">
+        <v>677</v>
+      </c>
+      <c r="X144" t="n">
+        <v>415</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>588</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>19038</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>1071</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>278</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>76795</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13385,7 +13385,7 @@
         <v>30536</v>
       </c>
       <c r="M143" t="n">
-        <v>14631</v>
+        <v>15330</v>
       </c>
       <c r="N143" t="n">
         <v>82010</v>
@@ -13409,7 +13409,7 @@
         <v>134449</v>
       </c>
       <c r="U143" t="n">
-        <v>40767</v>
+        <v>40976</v>
       </c>
       <c r="V143" t="n">
         <v>42239</v>
@@ -13418,7 +13418,7 @@
         <v>27917</v>
       </c>
       <c r="X143" t="n">
-        <v>23681</v>
+        <v>24397</v>
       </c>
       <c r="Y143" t="n">
         <v>47976</v>
@@ -13430,10 +13430,10 @@
         <v>40139</v>
       </c>
       <c r="AB143" t="n">
-        <v>16031</v>
+        <v>16672</v>
       </c>
       <c r="AC143" t="n">
-        <v>1971548</v>
+        <v>1973813</v>
       </c>
     </row>
     <row r="144">
@@ -13473,10 +13473,10 @@
         <v>104126</v>
       </c>
       <c r="L144" t="n">
-        <v>31111</v>
+        <v>31717</v>
       </c>
       <c r="M144" t="n">
-        <v>15330</v>
+        <v>15805</v>
       </c>
       <c r="N144" t="n">
         <v>84470</v>
@@ -13485,7 +13485,7 @@
         <v>135164</v>
       </c>
       <c r="P144" t="n">
-        <v>65423</v>
+        <v>65428</v>
       </c>
       <c r="Q144" t="n">
         <v>49405</v>
@@ -13494,13 +13494,13 @@
         <v>76091</v>
       </c>
       <c r="S144" t="n">
-        <v>36542</v>
+        <v>37057</v>
       </c>
       <c r="T144" t="n">
         <v>134573</v>
       </c>
       <c r="U144" t="n">
-        <v>40978</v>
+        <v>41424</v>
       </c>
       <c r="V144" t="n">
         <v>45344</v>
@@ -13509,7 +13509,7 @@
         <v>28654</v>
       </c>
       <c r="X144" t="n">
-        <v>24397</v>
+        <v>25007</v>
       </c>
       <c r="Y144" t="n">
         <v>49781</v>
@@ -13521,10 +13521,101 @@
         <v>41226</v>
       </c>
       <c r="AB144" t="n">
-        <v>16672</v>
+        <v>16954</v>
       </c>
       <c r="AC144" t="n">
-        <v>2014677</v>
+        <v>2017616</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>16965</v>
+      </c>
+      <c r="C145" t="n">
+        <v>49253</v>
+      </c>
+      <c r="D145" t="n">
+        <v>33436</v>
+      </c>
+      <c r="E145" t="n">
+        <v>88822</v>
+      </c>
+      <c r="F145" t="n">
+        <v>118657</v>
+      </c>
+      <c r="G145" t="n">
+        <v>146064</v>
+      </c>
+      <c r="H145" t="n">
+        <v>79400</v>
+      </c>
+      <c r="I145" t="n">
+        <v>69463</v>
+      </c>
+      <c r="J145" t="n">
+        <v>40802</v>
+      </c>
+      <c r="K145" t="n">
+        <v>105183</v>
+      </c>
+      <c r="L145" t="n">
+        <v>32971</v>
+      </c>
+      <c r="M145" t="n">
+        <v>15805</v>
+      </c>
+      <c r="N145" t="n">
+        <v>87271</v>
+      </c>
+      <c r="O145" t="n">
+        <v>136947</v>
+      </c>
+      <c r="P145" t="n">
+        <v>66347</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>51321</v>
+      </c>
+      <c r="R145" t="n">
+        <v>77423</v>
+      </c>
+      <c r="S145" t="n">
+        <v>38568</v>
+      </c>
+      <c r="T145" t="n">
+        <v>135230</v>
+      </c>
+      <c r="U145" t="n">
+        <v>41424</v>
+      </c>
+      <c r="V145" t="n">
+        <v>46710</v>
+      </c>
+      <c r="W145" t="n">
+        <v>29117</v>
+      </c>
+      <c r="X145" t="n">
+        <v>25007</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>51549</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>407415</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>41888</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>16954</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2049992</v>
       </c>
     </row>
   </sheetData>
@@ -13538,7 +13629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26564,7 +26655,7 @@
         <v>1197</v>
       </c>
       <c r="M143" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N143" t="n">
         <v>1752</v>
@@ -26588,7 +26679,7 @@
         <v>11757</v>
       </c>
       <c r="U143" t="n">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="V143" t="n">
         <v>1101</v>
@@ -26597,7 +26688,7 @@
         <v>668</v>
       </c>
       <c r="X143" t="n">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Y143" t="n">
         <v>569</v>
@@ -26609,10 +26700,10 @@
         <v>1054</v>
       </c>
       <c r="AB143" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AC143" t="n">
-        <v>75550</v>
+        <v>75596</v>
       </c>
     </row>
     <row r="144">
@@ -26652,10 +26743,10 @@
         <v>2608</v>
       </c>
       <c r="L144" t="n">
-        <v>1207</v>
+        <v>1235</v>
       </c>
       <c r="M144" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="N144" t="n">
         <v>1834</v>
@@ -26673,13 +26764,13 @@
         <v>5836</v>
       </c>
       <c r="S144" t="n">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="T144" t="n">
         <v>11849</v>
       </c>
       <c r="U144" t="n">
-        <v>1501</v>
+        <v>1532</v>
       </c>
       <c r="V144" t="n">
         <v>1141</v>
@@ -26688,7 +26779,7 @@
         <v>677</v>
       </c>
       <c r="X144" t="n">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Y144" t="n">
         <v>588</v>
@@ -26700,10 +26791,101 @@
         <v>1071</v>
       </c>
       <c r="AB144" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AC144" t="n">
-        <v>76795</v>
+        <v>76903</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-17</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>452</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D145" t="n">
+        <v>499</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3118</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2738</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7166</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1060</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2174</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1079</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2640</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1268</v>
+      </c>
+      <c r="M145" t="n">
+        <v>203</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1904</v>
+      </c>
+      <c r="O145" t="n">
+        <v>5478</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1446</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1292</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5869</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1083</v>
+      </c>
+      <c r="T145" t="n">
+        <v>11919</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1532</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1174</v>
+      </c>
+      <c r="W145" t="n">
+        <v>686</v>
+      </c>
+      <c r="X145" t="n">
+        <v>425</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>646</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>19377</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>283</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>77964</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13409,7 +13409,7 @@
         <v>134449</v>
       </c>
       <c r="U143" t="n">
-        <v>40976</v>
+        <v>41096</v>
       </c>
       <c r="V143" t="n">
         <v>42239</v>
@@ -13433,7 +13433,7 @@
         <v>16672</v>
       </c>
       <c r="AC143" t="n">
-        <v>1973813</v>
+        <v>1973933</v>
       </c>
     </row>
     <row r="144">
@@ -13567,7 +13567,7 @@
         <v>32971</v>
       </c>
       <c r="M145" t="n">
-        <v>15805</v>
+        <v>16006</v>
       </c>
       <c r="N145" t="n">
         <v>87271</v>
@@ -13576,7 +13576,7 @@
         <v>136947</v>
       </c>
       <c r="P145" t="n">
-        <v>66347</v>
+        <v>66352</v>
       </c>
       <c r="Q145" t="n">
         <v>51321</v>
@@ -13591,7 +13591,7 @@
         <v>135230</v>
       </c>
       <c r="U145" t="n">
-        <v>41424</v>
+        <v>43432</v>
       </c>
       <c r="V145" t="n">
         <v>46710</v>
@@ -13600,7 +13600,7 @@
         <v>29117</v>
       </c>
       <c r="X145" t="n">
-        <v>25007</v>
+        <v>25373</v>
       </c>
       <c r="Y145" t="n">
         <v>51549</v>
@@ -13612,10 +13612,101 @@
         <v>41888</v>
       </c>
       <c r="AB145" t="n">
-        <v>16954</v>
+        <v>17209</v>
       </c>
       <c r="AC145" t="n">
-        <v>2049992</v>
+        <v>2052827</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>17202</v>
+      </c>
+      <c r="C146" t="n">
+        <v>49583</v>
+      </c>
+      <c r="D146" t="n">
+        <v>33585</v>
+      </c>
+      <c r="E146" t="n">
+        <v>90534</v>
+      </c>
+      <c r="F146" t="n">
+        <v>120238</v>
+      </c>
+      <c r="G146" t="n">
+        <v>146972</v>
+      </c>
+      <c r="H146" t="n">
+        <v>81163</v>
+      </c>
+      <c r="I146" t="n">
+        <v>70131</v>
+      </c>
+      <c r="J146" t="n">
+        <v>40795</v>
+      </c>
+      <c r="K146" t="n">
+        <v>106092</v>
+      </c>
+      <c r="L146" t="n">
+        <v>32971</v>
+      </c>
+      <c r="M146" t="n">
+        <v>16006</v>
+      </c>
+      <c r="N146" t="n">
+        <v>90875</v>
+      </c>
+      <c r="O146" t="n">
+        <v>137484</v>
+      </c>
+      <c r="P146" t="n">
+        <v>66971</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>53553</v>
+      </c>
+      <c r="R146" t="n">
+        <v>78509</v>
+      </c>
+      <c r="S146" t="n">
+        <v>39297</v>
+      </c>
+      <c r="T146" t="n">
+        <v>135230</v>
+      </c>
+      <c r="U146" t="n">
+        <v>43451</v>
+      </c>
+      <c r="V146" t="n">
+        <v>46847</v>
+      </c>
+      <c r="W146" t="n">
+        <v>29117</v>
+      </c>
+      <c r="X146" t="n">
+        <v>25373</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>52531</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>412027</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>43072</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>17209</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2076818</v>
       </c>
     </row>
   </sheetData>
@@ -13629,7 +13720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26679,7 +26770,7 @@
         <v>11757</v>
       </c>
       <c r="U143" t="n">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="V143" t="n">
         <v>1101</v>
@@ -26703,7 +26794,7 @@
         <v>278</v>
       </c>
       <c r="AC143" t="n">
-        <v>75596</v>
+        <v>75605</v>
       </c>
     </row>
     <row r="144">
@@ -26837,7 +26928,7 @@
         <v>1268</v>
       </c>
       <c r="M145" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="N145" t="n">
         <v>1904</v>
@@ -26861,7 +26952,7 @@
         <v>11919</v>
       </c>
       <c r="U145" t="n">
-        <v>1532</v>
+        <v>1572</v>
       </c>
       <c r="V145" t="n">
         <v>1174</v>
@@ -26870,7 +26961,7 @@
         <v>686</v>
       </c>
       <c r="X145" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Y145" t="n">
         <v>646</v>
@@ -26882,10 +26973,101 @@
         <v>1088</v>
       </c>
       <c r="AB145" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AC145" t="n">
-        <v>77964</v>
+        <v>78026</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>457</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D146" t="n">
+        <v>505</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3129</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2793</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7178</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1075</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2202</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1086</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2676</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1312</v>
+      </c>
+      <c r="M146" t="n">
+        <v>216</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1964</v>
+      </c>
+      <c r="O146" t="n">
+        <v>5523</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1477</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1308</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5928</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T146" t="n">
+        <v>11919</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1572</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1229</v>
+      </c>
+      <c r="W146" t="n">
+        <v>686</v>
+      </c>
+      <c r="X146" t="n">
+        <v>429</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>662</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>19647</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>1111</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>288</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>78853</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13558,7 +13558,7 @@
         <v>69463</v>
       </c>
       <c r="J145" t="n">
-        <v>40802</v>
+        <v>40718</v>
       </c>
       <c r="K145" t="n">
         <v>105183</v>
@@ -13615,7 +13615,7 @@
         <v>17209</v>
       </c>
       <c r="AC145" t="n">
-        <v>2052827</v>
+        <v>2052743</v>
       </c>
     </row>
     <row r="146">
@@ -13655,10 +13655,10 @@
         <v>106092</v>
       </c>
       <c r="L146" t="n">
-        <v>32971</v>
+        <v>32766</v>
       </c>
       <c r="M146" t="n">
-        <v>16006</v>
+        <v>16403</v>
       </c>
       <c r="N146" t="n">
         <v>90875</v>
@@ -13667,7 +13667,7 @@
         <v>137484</v>
       </c>
       <c r="P146" t="n">
-        <v>66971</v>
+        <v>66976</v>
       </c>
       <c r="Q146" t="n">
         <v>53553</v>
@@ -13676,13 +13676,13 @@
         <v>78509</v>
       </c>
       <c r="S146" t="n">
-        <v>39297</v>
+        <v>39296</v>
       </c>
       <c r="T146" t="n">
         <v>135230</v>
       </c>
       <c r="U146" t="n">
-        <v>43451</v>
+        <v>43766</v>
       </c>
       <c r="V146" t="n">
         <v>46847</v>
@@ -13691,7 +13691,7 @@
         <v>29117</v>
       </c>
       <c r="X146" t="n">
-        <v>25373</v>
+        <v>25467</v>
       </c>
       <c r="Y146" t="n">
         <v>52531</v>
@@ -13703,10 +13703,101 @@
         <v>43072</v>
       </c>
       <c r="AB146" t="n">
-        <v>17209</v>
+        <v>17773</v>
       </c>
       <c r="AC146" t="n">
-        <v>2076818</v>
+        <v>2077987</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>17295</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50079</v>
+      </c>
+      <c r="D147" t="n">
+        <v>33705</v>
+      </c>
+      <c r="E147" t="n">
+        <v>90913</v>
+      </c>
+      <c r="F147" t="n">
+        <v>122169</v>
+      </c>
+      <c r="G147" t="n">
+        <v>147378</v>
+      </c>
+      <c r="H147" t="n">
+        <v>82412</v>
+      </c>
+      <c r="I147" t="n">
+        <v>70609</v>
+      </c>
+      <c r="J147" t="n">
+        <v>40782</v>
+      </c>
+      <c r="K147" t="n">
+        <v>106325</v>
+      </c>
+      <c r="L147" t="n">
+        <v>34604</v>
+      </c>
+      <c r="M147" t="n">
+        <v>16403</v>
+      </c>
+      <c r="N147" t="n">
+        <v>92972</v>
+      </c>
+      <c r="O147" t="n">
+        <v>138396</v>
+      </c>
+      <c r="P147" t="n">
+        <v>67382</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>54629</v>
+      </c>
+      <c r="R147" t="n">
+        <v>79452</v>
+      </c>
+      <c r="S147" t="n">
+        <v>39606</v>
+      </c>
+      <c r="T147" t="n">
+        <v>138524</v>
+      </c>
+      <c r="U147" t="n">
+        <v>43766</v>
+      </c>
+      <c r="V147" t="n">
+        <v>47113</v>
+      </c>
+      <c r="W147" t="n">
+        <v>29117</v>
+      </c>
+      <c r="X147" t="n">
+        <v>25686</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>53336</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>415049</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>45243</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>17773</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2100718</v>
       </c>
     </row>
   </sheetData>
@@ -13720,7 +13811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26919,7 +27010,7 @@
         <v>2174</v>
       </c>
       <c r="J145" t="n">
-        <v>1079</v>
+        <v>1051</v>
       </c>
       <c r="K145" t="n">
         <v>2640</v>
@@ -26976,7 +27067,7 @@
         <v>288</v>
       </c>
       <c r="AC145" t="n">
-        <v>78026</v>
+        <v>77998</v>
       </c>
     </row>
     <row r="146">
@@ -27019,7 +27110,7 @@
         <v>1312</v>
       </c>
       <c r="M146" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N146" t="n">
         <v>1964</v>
@@ -27043,7 +27134,7 @@
         <v>11919</v>
       </c>
       <c r="U146" t="n">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="V146" t="n">
         <v>1229</v>
@@ -27064,10 +27155,101 @@
         <v>1111</v>
       </c>
       <c r="AB146" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AC146" t="n">
-        <v>78853</v>
+        <v>78870</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>460</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1397</v>
+      </c>
+      <c r="D147" t="n">
+        <v>507</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3149</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7179</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1085</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2222</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1106</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2708</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1348</v>
+      </c>
+      <c r="M147" t="n">
+        <v>222</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1982</v>
+      </c>
+      <c r="O147" t="n">
+        <v>5538</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1486</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1327</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5984</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1118</v>
+      </c>
+      <c r="T147" t="n">
+        <v>12114</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1577</v>
+      </c>
+      <c r="V147" t="n">
+        <v>1252</v>
+      </c>
+      <c r="W147" t="n">
+        <v>686</v>
+      </c>
+      <c r="X147" t="n">
+        <v>431</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>685</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>19732</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>1125</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>294</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>79554</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13749,7 +13749,7 @@
         <v>34604</v>
       </c>
       <c r="M147" t="n">
-        <v>16403</v>
+        <v>16637</v>
       </c>
       <c r="N147" t="n">
         <v>92972</v>
@@ -13758,7 +13758,7 @@
         <v>138396</v>
       </c>
       <c r="P147" t="n">
-        <v>67382</v>
+        <v>67387</v>
       </c>
       <c r="Q147" t="n">
         <v>54629</v>
@@ -13773,7 +13773,7 @@
         <v>138524</v>
       </c>
       <c r="U147" t="n">
-        <v>43766</v>
+        <v>44083</v>
       </c>
       <c r="V147" t="n">
         <v>47113</v>
@@ -13794,10 +13794,101 @@
         <v>45243</v>
       </c>
       <c r="AB147" t="n">
-        <v>17773</v>
+        <v>17898</v>
       </c>
       <c r="AC147" t="n">
-        <v>2100718</v>
+        <v>2101399</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>17462</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50307</v>
+      </c>
+      <c r="D148" t="n">
+        <v>34145</v>
+      </c>
+      <c r="E148" t="n">
+        <v>91389</v>
+      </c>
+      <c r="F148" t="n">
+        <v>123292</v>
+      </c>
+      <c r="G148" t="n">
+        <v>147818</v>
+      </c>
+      <c r="H148" t="n">
+        <v>84287</v>
+      </c>
+      <c r="I148" t="n">
+        <v>71703</v>
+      </c>
+      <c r="J148" t="n">
+        <v>41433</v>
+      </c>
+      <c r="K148" t="n">
+        <v>106906</v>
+      </c>
+      <c r="L148" t="n">
+        <v>35673</v>
+      </c>
+      <c r="M148" t="n">
+        <v>16637</v>
+      </c>
+      <c r="N148" t="n">
+        <v>94132</v>
+      </c>
+      <c r="O148" t="n">
+        <v>140393</v>
+      </c>
+      <c r="P148" t="n">
+        <v>67685</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>55909</v>
+      </c>
+      <c r="R148" t="n">
+        <v>80115</v>
+      </c>
+      <c r="S148" t="n">
+        <v>41433</v>
+      </c>
+      <c r="T148" t="n">
+        <v>141005</v>
+      </c>
+      <c r="U148" t="n">
+        <v>44083</v>
+      </c>
+      <c r="V148" t="n">
+        <v>47449</v>
+      </c>
+      <c r="W148" t="n">
+        <v>29801</v>
+      </c>
+      <c r="X148" t="n">
+        <v>25985</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>54414</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>416434</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>46059</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>17898</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2123847</v>
       </c>
     </row>
   </sheetData>
@@ -13811,7 +13902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27201,7 +27292,7 @@
         <v>1348</v>
       </c>
       <c r="M147" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N147" t="n">
         <v>1982</v>
@@ -27225,7 +27316,7 @@
         <v>12114</v>
       </c>
       <c r="U147" t="n">
-        <v>1577</v>
+        <v>1590</v>
       </c>
       <c r="V147" t="n">
         <v>1252</v>
@@ -27246,10 +27337,101 @@
         <v>1125</v>
       </c>
       <c r="AB147" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AC147" t="n">
-        <v>79554</v>
+        <v>79578</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>465</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1413</v>
+      </c>
+      <c r="D148" t="n">
+        <v>515</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3149</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2891</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7256</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1112</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2256</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1145</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2740</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1386</v>
+      </c>
+      <c r="M148" t="n">
+        <v>228</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O148" t="n">
+        <v>5554</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1517</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1357</v>
+      </c>
+      <c r="R148" t="n">
+        <v>6036</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1140</v>
+      </c>
+      <c r="T148" t="n">
+        <v>12161</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1590</v>
+      </c>
+      <c r="V148" t="n">
+        <v>1285</v>
+      </c>
+      <c r="W148" t="n">
+        <v>710</v>
+      </c>
+      <c r="X148" t="n">
+        <v>435</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>694</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>19788</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1156</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>299</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>80282</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13591,7 +13591,7 @@
         <v>135230</v>
       </c>
       <c r="U145" t="n">
-        <v>43432</v>
+        <v>43573</v>
       </c>
       <c r="V145" t="n">
         <v>46710</v>
@@ -13615,7 +13615,7 @@
         <v>17209</v>
       </c>
       <c r="AC145" t="n">
-        <v>2052743</v>
+        <v>2052884</v>
       </c>
     </row>
     <row r="146">
@@ -13840,7 +13840,7 @@
         <v>35673</v>
       </c>
       <c r="M148" t="n">
-        <v>16637</v>
+        <v>17386</v>
       </c>
       <c r="N148" t="n">
         <v>94132</v>
@@ -13858,13 +13858,13 @@
         <v>80115</v>
       </c>
       <c r="S148" t="n">
-        <v>41433</v>
+        <v>40276</v>
       </c>
       <c r="T148" t="n">
         <v>141005</v>
       </c>
       <c r="U148" t="n">
-        <v>44083</v>
+        <v>44340</v>
       </c>
       <c r="V148" t="n">
         <v>47449</v>
@@ -13885,10 +13885,101 @@
         <v>46059</v>
       </c>
       <c r="AB148" t="n">
-        <v>17898</v>
+        <v>18354</v>
       </c>
       <c r="AC148" t="n">
-        <v>2123847</v>
+        <v>2124152</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>17700</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50951</v>
+      </c>
+      <c r="D149" t="n">
+        <v>34405</v>
+      </c>
+      <c r="E149" t="n">
+        <v>92164</v>
+      </c>
+      <c r="F149" t="n">
+        <v>126844</v>
+      </c>
+      <c r="G149" t="n">
+        <v>151072</v>
+      </c>
+      <c r="H149" t="n">
+        <v>86076</v>
+      </c>
+      <c r="I149" t="n">
+        <v>72605</v>
+      </c>
+      <c r="J149" t="n">
+        <v>45254</v>
+      </c>
+      <c r="K149" t="n">
+        <v>108154</v>
+      </c>
+      <c r="L149" t="n">
+        <v>37429</v>
+      </c>
+      <c r="M149" t="n">
+        <v>17386</v>
+      </c>
+      <c r="N149" t="n">
+        <v>95566</v>
+      </c>
+      <c r="O149" t="n">
+        <v>142358</v>
+      </c>
+      <c r="P149" t="n">
+        <v>68844</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>57538</v>
+      </c>
+      <c r="R149" t="n">
+        <v>80441</v>
+      </c>
+      <c r="S149" t="n">
+        <v>41828</v>
+      </c>
+      <c r="T149" t="n">
+        <v>145121</v>
+      </c>
+      <c r="U149" t="n">
+        <v>44340</v>
+      </c>
+      <c r="V149" t="n">
+        <v>49840</v>
+      </c>
+      <c r="W149" t="n">
+        <v>30642</v>
+      </c>
+      <c r="X149" t="n">
+        <v>25985</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>56475</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>422669</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>47110</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>18354</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2167151</v>
       </c>
     </row>
   </sheetData>
@@ -13902,7 +13993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27134,7 +27225,7 @@
         <v>11919</v>
       </c>
       <c r="U145" t="n">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="V145" t="n">
         <v>1174</v>
@@ -27158,7 +27249,7 @@
         <v>288</v>
       </c>
       <c r="AC145" t="n">
-        <v>77998</v>
+        <v>78003</v>
       </c>
     </row>
     <row r="146">
@@ -27359,7 +27450,7 @@
         <v>515</v>
       </c>
       <c r="E148" t="n">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="F148" t="n">
         <v>2891</v>
@@ -27383,7 +27474,7 @@
         <v>1386</v>
       </c>
       <c r="M148" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="N148" t="n">
         <v>2004</v>
@@ -27407,7 +27498,7 @@
         <v>12161</v>
       </c>
       <c r="U148" t="n">
-        <v>1590</v>
+        <v>1628</v>
       </c>
       <c r="V148" t="n">
         <v>1285</v>
@@ -27428,10 +27519,101 @@
         <v>1156</v>
       </c>
       <c r="AB148" t="n">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AC148" t="n">
-        <v>80282</v>
+        <v>80346</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-21</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>469</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D149" t="n">
+        <v>533</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3169</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2936</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7305</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1158</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2280</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1178</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2778</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1432</v>
+      </c>
+      <c r="M149" t="n">
+        <v>248</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2071</v>
+      </c>
+      <c r="O149" t="n">
+        <v>5581</v>
+      </c>
+      <c r="P149" t="n">
+        <v>1558</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1415</v>
+      </c>
+      <c r="R149" t="n">
+        <v>6089</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1158</v>
+      </c>
+      <c r="T149" t="n">
+        <v>12293</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1628</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1349</v>
+      </c>
+      <c r="W149" t="n">
+        <v>727</v>
+      </c>
+      <c r="X149" t="n">
+        <v>435</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>738</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>20171</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1182</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>308</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>81617</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13931,7 +13931,7 @@
         <v>37429</v>
       </c>
       <c r="M149" t="n">
-        <v>17386</v>
+        <v>18889</v>
       </c>
       <c r="N149" t="n">
         <v>95566</v>
@@ -13949,13 +13949,13 @@
         <v>80441</v>
       </c>
       <c r="S149" t="n">
-        <v>41828</v>
+        <v>41815</v>
       </c>
       <c r="T149" t="n">
         <v>145121</v>
       </c>
       <c r="U149" t="n">
-        <v>44340</v>
+        <v>45313</v>
       </c>
       <c r="V149" t="n">
         <v>49840</v>
@@ -13964,7 +13964,7 @@
         <v>30642</v>
       </c>
       <c r="X149" t="n">
-        <v>25985</v>
+        <v>26954</v>
       </c>
       <c r="Y149" t="n">
         <v>56475</v>
@@ -13976,10 +13976,101 @@
         <v>47110</v>
       </c>
       <c r="AB149" t="n">
-        <v>18354</v>
+        <v>18850</v>
       </c>
       <c r="AC149" t="n">
-        <v>2167151</v>
+        <v>2171079</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>17979</v>
+      </c>
+      <c r="C150" t="n">
+        <v>51680</v>
+      </c>
+      <c r="D150" t="n">
+        <v>34660</v>
+      </c>
+      <c r="E150" t="n">
+        <v>92721</v>
+      </c>
+      <c r="F150" t="n">
+        <v>133245</v>
+      </c>
+      <c r="G150" t="n">
+        <v>154381</v>
+      </c>
+      <c r="H150" t="n">
+        <v>87801</v>
+      </c>
+      <c r="I150" t="n">
+        <v>73755</v>
+      </c>
+      <c r="J150" t="n">
+        <v>48682</v>
+      </c>
+      <c r="K150" t="n">
+        <v>109731</v>
+      </c>
+      <c r="L150" t="n">
+        <v>38931</v>
+      </c>
+      <c r="M150" t="n">
+        <v>18889</v>
+      </c>
+      <c r="N150" t="n">
+        <v>98741</v>
+      </c>
+      <c r="O150" t="n">
+        <v>144467</v>
+      </c>
+      <c r="P150" t="n">
+        <v>70972</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>59927</v>
+      </c>
+      <c r="R150" t="n">
+        <v>81382</v>
+      </c>
+      <c r="S150" t="n">
+        <v>41828</v>
+      </c>
+      <c r="T150" t="n">
+        <v>148623</v>
+      </c>
+      <c r="U150" t="n">
+        <v>45313</v>
+      </c>
+      <c r="V150" t="n">
+        <v>53073</v>
+      </c>
+      <c r="W150" t="n">
+        <v>32944</v>
+      </c>
+      <c r="X150" t="n">
+        <v>26954</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>59556</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>439446</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>48140</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>18850</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2232671</v>
       </c>
     </row>
   </sheetData>
@@ -13993,7 +14084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27565,7 +27656,7 @@
         <v>1432</v>
       </c>
       <c r="M149" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N149" t="n">
         <v>2071</v>
@@ -27589,7 +27680,7 @@
         <v>12293</v>
       </c>
       <c r="U149" t="n">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="V149" t="n">
         <v>1349</v>
@@ -27598,7 +27689,7 @@
         <v>727</v>
       </c>
       <c r="X149" t="n">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="Y149" t="n">
         <v>738</v>
@@ -27610,10 +27701,101 @@
         <v>1182</v>
       </c>
       <c r="AB149" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AC149" t="n">
-        <v>81617</v>
+        <v>81663</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>470</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1443</v>
+      </c>
+      <c r="D150" t="n">
+        <v>544</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3183</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2988</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7329</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1176</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2308</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1237</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2810</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1474</v>
+      </c>
+      <c r="M150" t="n">
+        <v>257</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2166</v>
+      </c>
+      <c r="O150" t="n">
+        <v>5616</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1581</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1486</v>
+      </c>
+      <c r="R150" t="n">
+        <v>6152</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1181</v>
+      </c>
+      <c r="T150" t="n">
+        <v>12443</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1642</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1397</v>
+      </c>
+      <c r="W150" t="n">
+        <v>758</v>
+      </c>
+      <c r="X150" t="n">
+        <v>451</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>765</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>20532</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>315</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>82915</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14022,7 +14022,7 @@
         <v>38931</v>
       </c>
       <c r="M150" t="n">
-        <v>18889</v>
+        <v>19671</v>
       </c>
       <c r="N150" t="n">
         <v>98741</v>
@@ -14040,13 +14040,13 @@
         <v>81382</v>
       </c>
       <c r="S150" t="n">
-        <v>41828</v>
+        <v>43179</v>
       </c>
       <c r="T150" t="n">
         <v>148623</v>
       </c>
       <c r="U150" t="n">
-        <v>45313</v>
+        <v>46187</v>
       </c>
       <c r="V150" t="n">
         <v>53073</v>
@@ -14055,7 +14055,7 @@
         <v>32944</v>
       </c>
       <c r="X150" t="n">
-        <v>26954</v>
+        <v>27932</v>
       </c>
       <c r="Y150" t="n">
         <v>59556</v>
@@ -14067,10 +14067,101 @@
         <v>48140</v>
       </c>
       <c r="AB150" t="n">
-        <v>18850</v>
+        <v>19423</v>
       </c>
       <c r="AC150" t="n">
-        <v>2232671</v>
+        <v>2237229</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>18157</v>
+      </c>
+      <c r="C151" t="n">
+        <v>52529</v>
+      </c>
+      <c r="D151" t="n">
+        <v>34838</v>
+      </c>
+      <c r="E151" t="n">
+        <v>94219</v>
+      </c>
+      <c r="F151" t="n">
+        <v>138358</v>
+      </c>
+      <c r="G151" t="n">
+        <v>156265</v>
+      </c>
+      <c r="H151" t="n">
+        <v>90023</v>
+      </c>
+      <c r="I151" t="n">
+        <v>74610</v>
+      </c>
+      <c r="J151" t="n">
+        <v>51423</v>
+      </c>
+      <c r="K151" t="n">
+        <v>111488</v>
+      </c>
+      <c r="L151" t="n">
+        <v>41016</v>
+      </c>
+      <c r="M151" t="n">
+        <v>19671</v>
+      </c>
+      <c r="N151" t="n">
+        <v>102568</v>
+      </c>
+      <c r="O151" t="n">
+        <v>146252</v>
+      </c>
+      <c r="P151" t="n">
+        <v>73104</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>62004</v>
+      </c>
+      <c r="R151" t="n">
+        <v>83240</v>
+      </c>
+      <c r="S151" t="n">
+        <v>44349</v>
+      </c>
+      <c r="T151" t="n">
+        <v>151549</v>
+      </c>
+      <c r="U151" t="n">
+        <v>46187</v>
+      </c>
+      <c r="V151" t="n">
+        <v>54841</v>
+      </c>
+      <c r="W151" t="n">
+        <v>34080</v>
+      </c>
+      <c r="X151" t="n">
+        <v>28874</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>62282</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>452007</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>49397</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>19423</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2292754</v>
       </c>
     </row>
   </sheetData>
@@ -14084,7 +14175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27747,7 +27838,7 @@
         <v>1474</v>
       </c>
       <c r="M150" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="N150" t="n">
         <v>2166</v>
@@ -27765,13 +27856,13 @@
         <v>6152</v>
       </c>
       <c r="S150" t="n">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="T150" t="n">
         <v>12443</v>
       </c>
       <c r="U150" t="n">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="V150" t="n">
         <v>1397</v>
@@ -27780,7 +27871,7 @@
         <v>758</v>
       </c>
       <c r="X150" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Y150" t="n">
         <v>765</v>
@@ -27792,10 +27883,101 @@
         <v>1211</v>
       </c>
       <c r="AB150" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AC150" t="n">
-        <v>82915</v>
+        <v>82959</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-23</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>474</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D151" t="n">
+        <v>548</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3193</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3044</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7411</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1218</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2341</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1295</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2840</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1498</v>
+      </c>
+      <c r="M151" t="n">
+        <v>266</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2238</v>
+      </c>
+      <c r="O151" t="n">
+        <v>5646</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1618</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1545</v>
+      </c>
+      <c r="R151" t="n">
+        <v>6211</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1215</v>
+      </c>
+      <c r="T151" t="n">
+        <v>12535</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1656</v>
+      </c>
+      <c r="V151" t="n">
+        <v>1456</v>
+      </c>
+      <c r="W151" t="n">
+        <v>784</v>
+      </c>
+      <c r="X151" t="n">
+        <v>465</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>812</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>20894</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>1247</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>326</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>84233</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14113,7 +14113,7 @@
         <v>41016</v>
       </c>
       <c r="M151" t="n">
-        <v>19671</v>
+        <v>20303</v>
       </c>
       <c r="N151" t="n">
         <v>102568</v>
@@ -14137,7 +14137,7 @@
         <v>151549</v>
       </c>
       <c r="U151" t="n">
-        <v>46187</v>
+        <v>46814</v>
       </c>
       <c r="V151" t="n">
         <v>54841</v>
@@ -14158,10 +14158,101 @@
         <v>49397</v>
       </c>
       <c r="AB151" t="n">
-        <v>19423</v>
+        <v>19965</v>
       </c>
       <c r="AC151" t="n">
-        <v>2292754</v>
+        <v>2294555</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>18393</v>
+      </c>
+      <c r="C152" t="n">
+        <v>53713</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35026</v>
+      </c>
+      <c r="E152" t="n">
+        <v>95424</v>
+      </c>
+      <c r="F152" t="n">
+        <v>142767</v>
+      </c>
+      <c r="G152" t="n">
+        <v>159953</v>
+      </c>
+      <c r="H152" t="n">
+        <v>92414</v>
+      </c>
+      <c r="I152" t="n">
+        <v>75854</v>
+      </c>
+      <c r="J152" t="n">
+        <v>54419</v>
+      </c>
+      <c r="K152" t="n">
+        <v>112683</v>
+      </c>
+      <c r="L152" t="n">
+        <v>42586</v>
+      </c>
+      <c r="M152" t="n">
+        <v>20303</v>
+      </c>
+      <c r="N152" t="n">
+        <v>106812</v>
+      </c>
+      <c r="O152" t="n">
+        <v>147923</v>
+      </c>
+      <c r="P152" t="n">
+        <v>74550</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>64259</v>
+      </c>
+      <c r="R152" t="n">
+        <v>85042</v>
+      </c>
+      <c r="S152" t="n">
+        <v>45389</v>
+      </c>
+      <c r="T152" t="n">
+        <v>154879</v>
+      </c>
+      <c r="U152" t="n">
+        <v>46814</v>
+      </c>
+      <c r="V152" t="n">
+        <v>57007</v>
+      </c>
+      <c r="W152" t="n">
+        <v>34873</v>
+      </c>
+      <c r="X152" t="n">
+        <v>29394</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>65017</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>463218</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>51132</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>19965</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2349809</v>
       </c>
     </row>
   </sheetData>
@@ -14175,7 +14266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27929,7 +28020,7 @@
         <v>1498</v>
       </c>
       <c r="M151" t="n">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="N151" t="n">
         <v>2238</v>
@@ -27953,7 +28044,7 @@
         <v>12535</v>
       </c>
       <c r="U151" t="n">
-        <v>1656</v>
+        <v>1672</v>
       </c>
       <c r="V151" t="n">
         <v>1456</v>
@@ -27974,10 +28065,101 @@
         <v>1247</v>
       </c>
       <c r="AB151" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AC151" t="n">
-        <v>84233</v>
+        <v>84272</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-24</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>480</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1471</v>
+      </c>
+      <c r="D152" t="n">
+        <v>552</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3199</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3096</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7456</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1244</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2373</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2871</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1556</v>
+      </c>
+      <c r="M152" t="n">
+        <v>281</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2315</v>
+      </c>
+      <c r="O152" t="n">
+        <v>5689</v>
+      </c>
+      <c r="P152" t="n">
+        <v>1653</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1598</v>
+      </c>
+      <c r="R152" t="n">
+        <v>6237</v>
+      </c>
+      <c r="S152" t="n">
+        <v>1228</v>
+      </c>
+      <c r="T152" t="n">
+        <v>12654</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1672</v>
+      </c>
+      <c r="V152" t="n">
+        <v>1494</v>
+      </c>
+      <c r="W152" t="n">
+        <v>801</v>
+      </c>
+      <c r="X152" t="n">
+        <v>473</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>844</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>21206</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>1284</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>334</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>85414</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14195,7 +14195,7 @@
         <v>75854</v>
       </c>
       <c r="J152" t="n">
-        <v>54419</v>
+        <v>54154</v>
       </c>
       <c r="K152" t="n">
         <v>112683</v>
@@ -14204,7 +14204,7 @@
         <v>42586</v>
       </c>
       <c r="M152" t="n">
-        <v>20303</v>
+        <v>21015</v>
       </c>
       <c r="N152" t="n">
         <v>106812</v>
@@ -14228,7 +14228,7 @@
         <v>154879</v>
       </c>
       <c r="U152" t="n">
-        <v>46814</v>
+        <v>47061</v>
       </c>
       <c r="V152" t="n">
         <v>57007</v>
@@ -14249,10 +14249,101 @@
         <v>51132</v>
       </c>
       <c r="AB152" t="n">
-        <v>19965</v>
+        <v>20920</v>
       </c>
       <c r="AC152" t="n">
-        <v>2349809</v>
+        <v>2351458</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>18657</v>
+      </c>
+      <c r="C153" t="n">
+        <v>54730</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35162</v>
+      </c>
+      <c r="E153" t="n">
+        <v>96094</v>
+      </c>
+      <c r="F153" t="n">
+        <v>146399</v>
+      </c>
+      <c r="G153" t="n">
+        <v>161844</v>
+      </c>
+      <c r="H153" t="n">
+        <v>94187</v>
+      </c>
+      <c r="I153" t="n">
+        <v>76598</v>
+      </c>
+      <c r="J153" t="n">
+        <v>55567</v>
+      </c>
+      <c r="K153" t="n">
+        <v>113563</v>
+      </c>
+      <c r="L153" t="n">
+        <v>43253</v>
+      </c>
+      <c r="M153" t="n">
+        <v>21015</v>
+      </c>
+      <c r="N153" t="n">
+        <v>110093</v>
+      </c>
+      <c r="O153" t="n">
+        <v>148463</v>
+      </c>
+      <c r="P153" t="n">
+        <v>75723</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>65593</v>
+      </c>
+      <c r="R153" t="n">
+        <v>86752</v>
+      </c>
+      <c r="S153" t="n">
+        <v>46044</v>
+      </c>
+      <c r="T153" t="n">
+        <v>156293</v>
+      </c>
+      <c r="U153" t="n">
+        <v>47061</v>
+      </c>
+      <c r="V153" t="n">
+        <v>59118</v>
+      </c>
+      <c r="W153" t="n">
+        <v>35573</v>
+      </c>
+      <c r="X153" t="n">
+        <v>29394</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>67333</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>479481</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>52264</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>20920</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2397174</v>
       </c>
     </row>
   </sheetData>
@@ -14266,7 +14357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28111,7 +28202,7 @@
         <v>1556</v>
       </c>
       <c r="M152" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="N152" t="n">
         <v>2315</v>
@@ -28135,7 +28226,7 @@
         <v>12654</v>
       </c>
       <c r="U152" t="n">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="V152" t="n">
         <v>1494</v>
@@ -28156,10 +28247,101 @@
         <v>1284</v>
       </c>
       <c r="AB152" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AC152" t="n">
-        <v>85414</v>
+        <v>85437</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>483</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D153" t="n">
+        <v>554</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3210</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7480</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1275</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2386</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2898</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1580</v>
+      </c>
+      <c r="M153" t="n">
+        <v>292</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2404</v>
+      </c>
+      <c r="O153" t="n">
+        <v>5716</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1653</v>
+      </c>
+      <c r="R153" t="n">
+        <v>6299</v>
+      </c>
+      <c r="S153" t="n">
+        <v>1243</v>
+      </c>
+      <c r="T153" t="n">
+        <v>12808</v>
+      </c>
+      <c r="U153" t="n">
+        <v>1678</v>
+      </c>
+      <c r="V153" t="n">
+        <v>1554</v>
+      </c>
+      <c r="W153" t="n">
+        <v>810</v>
+      </c>
+      <c r="X153" t="n">
+        <v>473</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>880</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>21517</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>1303</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>340</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>86517</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14295,7 +14295,7 @@
         <v>43253</v>
       </c>
       <c r="M153" t="n">
-        <v>21015</v>
+        <v>21514</v>
       </c>
       <c r="N153" t="n">
         <v>110093</v>
@@ -14319,7 +14319,7 @@
         <v>156293</v>
       </c>
       <c r="U153" t="n">
-        <v>47061</v>
+        <v>47099</v>
       </c>
       <c r="V153" t="n">
         <v>59118</v>
@@ -14328,7 +14328,7 @@
         <v>35573</v>
       </c>
       <c r="X153" t="n">
-        <v>29394</v>
+        <v>29829</v>
       </c>
       <c r="Y153" t="n">
         <v>67333</v>
@@ -14340,10 +14340,101 @@
         <v>52264</v>
       </c>
       <c r="AB153" t="n">
-        <v>20920</v>
+        <v>21767</v>
       </c>
       <c r="AC153" t="n">
-        <v>2397174</v>
+        <v>2398993</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>18745</v>
+      </c>
+      <c r="C154" t="n">
+        <v>55376</v>
+      </c>
+      <c r="D154" t="n">
+        <v>35220</v>
+      </c>
+      <c r="E154" t="n">
+        <v>96463</v>
+      </c>
+      <c r="F154" t="n">
+        <v>148179</v>
+      </c>
+      <c r="G154" t="n">
+        <v>162086</v>
+      </c>
+      <c r="H154" t="n">
+        <v>96332</v>
+      </c>
+      <c r="I154" t="n">
+        <v>77201</v>
+      </c>
+      <c r="J154" t="n">
+        <v>56267</v>
+      </c>
+      <c r="K154" t="n">
+        <v>113891</v>
+      </c>
+      <c r="L154" t="n">
+        <v>43637</v>
+      </c>
+      <c r="M154" t="n">
+        <v>21514</v>
+      </c>
+      <c r="N154" t="n">
+        <v>112571</v>
+      </c>
+      <c r="O154" t="n">
+        <v>148823</v>
+      </c>
+      <c r="P154" t="n">
+        <v>76153</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>67220</v>
+      </c>
+      <c r="R154" t="n">
+        <v>88466</v>
+      </c>
+      <c r="S154" t="n">
+        <v>46584</v>
+      </c>
+      <c r="T154" t="n">
+        <v>156325</v>
+      </c>
+      <c r="U154" t="n">
+        <v>47099</v>
+      </c>
+      <c r="V154" t="n">
+        <v>59779</v>
+      </c>
+      <c r="W154" t="n">
+        <v>35810</v>
+      </c>
+      <c r="X154" t="n">
+        <v>29902</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>68730</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>483982</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>52603</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>21767</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2420725</v>
       </c>
     </row>
   </sheetData>
@@ -14357,7 +14448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28293,7 +28384,7 @@
         <v>1580</v>
       </c>
       <c r="M153" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="N153" t="n">
         <v>2404</v>
@@ -28338,10 +28429,101 @@
         <v>1303</v>
       </c>
       <c r="AB153" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AC153" t="n">
-        <v>86517</v>
+        <v>86536</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-26</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>486</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D154" t="n">
+        <v>554</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3217</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3182</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7494</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1308</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2411</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1395</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2923</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1616</v>
+      </c>
+      <c r="M154" t="n">
+        <v>305</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2429</v>
+      </c>
+      <c r="O154" t="n">
+        <v>5729</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1698</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>1671</v>
+      </c>
+      <c r="R154" t="n">
+        <v>6352</v>
+      </c>
+      <c r="S154" t="n">
+        <v>1259</v>
+      </c>
+      <c r="T154" t="n">
+        <v>12835</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1678</v>
+      </c>
+      <c r="V154" t="n">
+        <v>1571</v>
+      </c>
+      <c r="W154" t="n">
+        <v>814</v>
+      </c>
+      <c r="X154" t="n">
+        <v>474</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>907</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>21606</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>1314</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>346</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>87074</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14377,7 +14377,7 @@
         <v>77201</v>
       </c>
       <c r="J154" t="n">
-        <v>56267</v>
+        <v>56250</v>
       </c>
       <c r="K154" t="n">
         <v>113891</v>
@@ -14386,7 +14386,7 @@
         <v>43637</v>
       </c>
       <c r="M154" t="n">
-        <v>21514</v>
+        <v>21802</v>
       </c>
       <c r="N154" t="n">
         <v>112571</v>
@@ -14410,7 +14410,7 @@
         <v>156325</v>
       </c>
       <c r="U154" t="n">
-        <v>47099</v>
+        <v>47430</v>
       </c>
       <c r="V154" t="n">
         <v>59779</v>
@@ -14431,10 +14431,101 @@
         <v>52603</v>
       </c>
       <c r="AB154" t="n">
-        <v>21767</v>
+        <v>22106</v>
       </c>
       <c r="AC154" t="n">
-        <v>2420725</v>
+        <v>2421666</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>18783</v>
+      </c>
+      <c r="C155" t="n">
+        <v>56204</v>
+      </c>
+      <c r="D155" t="n">
+        <v>35364</v>
+      </c>
+      <c r="E155" t="n">
+        <v>97079</v>
+      </c>
+      <c r="F155" t="n">
+        <v>149109</v>
+      </c>
+      <c r="G155" t="n">
+        <v>165055</v>
+      </c>
+      <c r="H155" t="n">
+        <v>98480</v>
+      </c>
+      <c r="I155" t="n">
+        <v>78180</v>
+      </c>
+      <c r="J155" t="n">
+        <v>59043</v>
+      </c>
+      <c r="K155" t="n">
+        <v>114585</v>
+      </c>
+      <c r="L155" t="n">
+        <v>45155</v>
+      </c>
+      <c r="M155" t="n">
+        <v>21802</v>
+      </c>
+      <c r="N155" t="n">
+        <v>113718</v>
+      </c>
+      <c r="O155" t="n">
+        <v>150616</v>
+      </c>
+      <c r="P155" t="n">
+        <v>76693</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>68001</v>
+      </c>
+      <c r="R155" t="n">
+        <v>89132</v>
+      </c>
+      <c r="S155" t="n">
+        <v>47551</v>
+      </c>
+      <c r="T155" t="n">
+        <v>157834</v>
+      </c>
+      <c r="U155" t="n">
+        <v>47430</v>
+      </c>
+      <c r="V155" t="n">
+        <v>60044</v>
+      </c>
+      <c r="W155" t="n">
+        <v>36148</v>
+      </c>
+      <c r="X155" t="n">
+        <v>30316</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>70138</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>487654</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>53612</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>22106</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2449832</v>
       </c>
     </row>
   </sheetData>
@@ -14448,7 +14539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28475,7 +28566,7 @@
         <v>1616</v>
       </c>
       <c r="M154" t="n">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N154" t="n">
         <v>2429</v>
@@ -28499,7 +28590,7 @@
         <v>12835</v>
       </c>
       <c r="U154" t="n">
-        <v>1678</v>
+        <v>1703</v>
       </c>
       <c r="V154" t="n">
         <v>1571</v>
@@ -28520,10 +28611,101 @@
         <v>1314</v>
       </c>
       <c r="AB154" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AC154" t="n">
-        <v>87074</v>
+        <v>87117</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>493</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D155" t="n">
+        <v>556</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3224</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3227</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7585</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1339</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2437</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1457</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2943</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1664</v>
+      </c>
+      <c r="M155" t="n">
+        <v>319</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2461</v>
+      </c>
+      <c r="O155" t="n">
+        <v>5753</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1727</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1703</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6376</v>
+      </c>
+      <c r="S155" t="n">
+        <v>1278</v>
+      </c>
+      <c r="T155" t="n">
+        <v>12876</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1703</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1611</v>
+      </c>
+      <c r="W155" t="n">
+        <v>830</v>
+      </c>
+      <c r="X155" t="n">
+        <v>479</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>924</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>21676</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>1340</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>87845</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14459,7 +14459,7 @@
         <v>149109</v>
       </c>
       <c r="G155" t="n">
-        <v>165055</v>
+        <v>162429</v>
       </c>
       <c r="H155" t="n">
         <v>98480</v>
@@ -14477,7 +14477,7 @@
         <v>45155</v>
       </c>
       <c r="M155" t="n">
-        <v>21802</v>
+        <v>22443</v>
       </c>
       <c r="N155" t="n">
         <v>113718</v>
@@ -14501,7 +14501,7 @@
         <v>157834</v>
       </c>
       <c r="U155" t="n">
-        <v>47430</v>
+        <v>48515</v>
       </c>
       <c r="V155" t="n">
         <v>60044</v>
@@ -14522,10 +14522,101 @@
         <v>53612</v>
       </c>
       <c r="AB155" t="n">
-        <v>22106</v>
+        <v>22851</v>
       </c>
       <c r="AC155" t="n">
-        <v>2449832</v>
+        <v>2449677</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>19132</v>
+      </c>
+      <c r="C156" t="n">
+        <v>57142</v>
+      </c>
+      <c r="D156" t="n">
+        <v>35697</v>
+      </c>
+      <c r="E156" t="n">
+        <v>98118</v>
+      </c>
+      <c r="F156" t="n">
+        <v>153313</v>
+      </c>
+      <c r="G156" t="n">
+        <v>165703</v>
+      </c>
+      <c r="H156" t="n">
+        <v>100726</v>
+      </c>
+      <c r="I156" t="n">
+        <v>79468</v>
+      </c>
+      <c r="J156" t="n">
+        <v>61613</v>
+      </c>
+      <c r="K156" t="n">
+        <v>115988</v>
+      </c>
+      <c r="L156" t="n">
+        <v>47045</v>
+      </c>
+      <c r="M156" t="n">
+        <v>22443</v>
+      </c>
+      <c r="N156" t="n">
+        <v>116645</v>
+      </c>
+      <c r="O156" t="n">
+        <v>150616</v>
+      </c>
+      <c r="P156" t="n">
+        <v>78175</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>69392</v>
+      </c>
+      <c r="R156" t="n">
+        <v>89678</v>
+      </c>
+      <c r="S156" t="n">
+        <v>47551</v>
+      </c>
+      <c r="T156" t="n">
+        <v>159639</v>
+      </c>
+      <c r="U156" t="n">
+        <v>48515</v>
+      </c>
+      <c r="V156" t="n">
+        <v>62347</v>
+      </c>
+      <c r="W156" t="n">
+        <v>36849</v>
+      </c>
+      <c r="X156" t="n">
+        <v>30316</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>73771</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>487654</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>55009</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>22851</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2485396</v>
       </c>
     </row>
   </sheetData>
@@ -14539,7 +14630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28639,7 +28730,7 @@
         <v>3227</v>
       </c>
       <c r="G155" t="n">
-        <v>7585</v>
+        <v>7509</v>
       </c>
       <c r="H155" t="n">
         <v>1339</v>
@@ -28657,7 +28748,7 @@
         <v>1664</v>
       </c>
       <c r="M155" t="n">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N155" t="n">
         <v>2461</v>
@@ -28681,7 +28772,7 @@
         <v>12876</v>
       </c>
       <c r="U155" t="n">
-        <v>1703</v>
+        <v>1720</v>
       </c>
       <c r="V155" t="n">
         <v>1611</v>
@@ -28702,10 +28793,101 @@
         <v>1340</v>
       </c>
       <c r="AB155" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AC155" t="n">
-        <v>87845</v>
+        <v>87802</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>500</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D156" t="n">
+        <v>558</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3236</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3270</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7616</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1391</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2463</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1501</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2959</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M156" t="n">
+        <v>328</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2551</v>
+      </c>
+      <c r="O156" t="n">
+        <v>5753</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1745</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1743</v>
+      </c>
+      <c r="R156" t="n">
+        <v>6421</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1292</v>
+      </c>
+      <c r="T156" t="n">
+        <v>13033</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1720</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1680</v>
+      </c>
+      <c r="W156" t="n">
+        <v>840</v>
+      </c>
+      <c r="X156" t="n">
+        <v>479</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>21676</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>1359</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>357</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>88658</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14568,13 +14568,13 @@
         <v>47045</v>
       </c>
       <c r="M156" t="n">
-        <v>22443</v>
+        <v>23411</v>
       </c>
       <c r="N156" t="n">
         <v>116645</v>
       </c>
       <c r="O156" t="n">
-        <v>150616</v>
+        <v>151849</v>
       </c>
       <c r="P156" t="n">
         <v>78175</v>
@@ -14586,13 +14586,13 @@
         <v>89678</v>
       </c>
       <c r="S156" t="n">
-        <v>47551</v>
+        <v>48962</v>
       </c>
       <c r="T156" t="n">
         <v>159639</v>
       </c>
       <c r="U156" t="n">
-        <v>48515</v>
+        <v>49194</v>
       </c>
       <c r="V156" t="n">
         <v>62347</v>
@@ -14601,7 +14601,7 @@
         <v>36849</v>
       </c>
       <c r="X156" t="n">
-        <v>30316</v>
+        <v>30996</v>
       </c>
       <c r="Y156" t="n">
         <v>73771</v>
@@ -14613,10 +14613,101 @@
         <v>55009</v>
       </c>
       <c r="AB156" t="n">
-        <v>22851</v>
+        <v>23517</v>
       </c>
       <c r="AC156" t="n">
-        <v>2485396</v>
+        <v>2491033</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>19366</v>
+      </c>
+      <c r="C157" t="n">
+        <v>58124</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35973</v>
+      </c>
+      <c r="E157" t="n">
+        <v>99093</v>
+      </c>
+      <c r="F157" t="n">
+        <v>157334</v>
+      </c>
+      <c r="G157" t="n">
+        <v>169138</v>
+      </c>
+      <c r="H157" t="n">
+        <v>102342</v>
+      </c>
+      <c r="I157" t="n">
+        <v>80647</v>
+      </c>
+      <c r="J157" t="n">
+        <v>64261</v>
+      </c>
+      <c r="K157" t="n">
+        <v>117694</v>
+      </c>
+      <c r="L157" t="n">
+        <v>48854</v>
+      </c>
+      <c r="M157" t="n">
+        <v>23411</v>
+      </c>
+      <c r="N157" t="n">
+        <v>119394</v>
+      </c>
+      <c r="O157" t="n">
+        <v>153360</v>
+      </c>
+      <c r="P157" t="n">
+        <v>79898</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>70920</v>
+      </c>
+      <c r="R157" t="n">
+        <v>91536</v>
+      </c>
+      <c r="S157" t="n">
+        <v>50206</v>
+      </c>
+      <c r="T157" t="n">
+        <v>161647</v>
+      </c>
+      <c r="U157" t="n">
+        <v>49194</v>
+      </c>
+      <c r="V157" t="n">
+        <v>64496</v>
+      </c>
+      <c r="W157" t="n">
+        <v>37634</v>
+      </c>
+      <c r="X157" t="n">
+        <v>31455</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>77001</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>514197</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>56214</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>23517</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2556906</v>
       </c>
     </row>
   </sheetData>
@@ -14630,7 +14721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28839,13 +28930,13 @@
         <v>1700</v>
       </c>
       <c r="M156" t="n">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="N156" t="n">
         <v>2551</v>
       </c>
       <c r="O156" t="n">
-        <v>5753</v>
+        <v>5716</v>
       </c>
       <c r="P156" t="n">
         <v>1745</v>
@@ -28863,7 +28954,7 @@
         <v>13033</v>
       </c>
       <c r="U156" t="n">
-        <v>1720</v>
+        <v>1741</v>
       </c>
       <c r="V156" t="n">
         <v>1680</v>
@@ -28872,7 +28963,7 @@
         <v>840</v>
       </c>
       <c r="X156" t="n">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="Y156" t="n">
         <v>960</v>
@@ -28884,10 +28975,101 @@
         <v>1359</v>
       </c>
       <c r="AB156" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AC156" t="n">
-        <v>88658</v>
+        <v>88677</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-29</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>510</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D157" t="n">
+        <v>559</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3246</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3321</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7648</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1419</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2490</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1554</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2978</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1752</v>
+      </c>
+      <c r="M157" t="n">
+        <v>342</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2608</v>
+      </c>
+      <c r="O157" t="n">
+        <v>5699</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1766</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1814</v>
+      </c>
+      <c r="R157" t="n">
+        <v>6484</v>
+      </c>
+      <c r="S157" t="n">
+        <v>1304</v>
+      </c>
+      <c r="T157" t="n">
+        <v>13198</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1741</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1750</v>
+      </c>
+      <c r="W157" t="n">
+        <v>855</v>
+      </c>
+      <c r="X157" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1002</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>22389</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>364</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>90224</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14607,7 +14607,7 @@
         <v>73771</v>
       </c>
       <c r="Z156" t="n">
-        <v>487654</v>
+        <v>500301</v>
       </c>
       <c r="AA156" t="n">
         <v>55009</v>
@@ -14616,7 +14616,7 @@
         <v>23517</v>
       </c>
       <c r="AC156" t="n">
-        <v>2491033</v>
+        <v>2503680</v>
       </c>
     </row>
     <row r="157">
@@ -14650,7 +14650,7 @@
         <v>80647</v>
       </c>
       <c r="J157" t="n">
-        <v>64261</v>
+        <v>64250</v>
       </c>
       <c r="K157" t="n">
         <v>117694</v>
@@ -14659,13 +14659,13 @@
         <v>48854</v>
       </c>
       <c r="M157" t="n">
-        <v>23411</v>
+        <v>24287</v>
       </c>
       <c r="N157" t="n">
         <v>119394</v>
       </c>
       <c r="O157" t="n">
-        <v>153360</v>
+        <v>153350</v>
       </c>
       <c r="P157" t="n">
         <v>79898</v>
@@ -14677,13 +14677,13 @@
         <v>91536</v>
       </c>
       <c r="S157" t="n">
-        <v>50206</v>
+        <v>50198</v>
       </c>
       <c r="T157" t="n">
         <v>161647</v>
       </c>
       <c r="U157" t="n">
-        <v>49194</v>
+        <v>49812</v>
       </c>
       <c r="V157" t="n">
         <v>64496</v>
@@ -14704,10 +14704,101 @@
         <v>56214</v>
       </c>
       <c r="AB157" t="n">
-        <v>23517</v>
+        <v>24278</v>
       </c>
       <c r="AC157" t="n">
-        <v>2556906</v>
+        <v>2559132</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>19573</v>
+      </c>
+      <c r="C158" t="n">
+        <v>58979</v>
+      </c>
+      <c r="D158" t="n">
+        <v>36272</v>
+      </c>
+      <c r="E158" t="n">
+        <v>100140</v>
+      </c>
+      <c r="F158" t="n">
+        <v>161630</v>
+      </c>
+      <c r="G158" t="n">
+        <v>171565</v>
+      </c>
+      <c r="H158" t="n">
+        <v>104446</v>
+      </c>
+      <c r="I158" t="n">
+        <v>81886</v>
+      </c>
+      <c r="J158" t="n">
+        <v>66899</v>
+      </c>
+      <c r="K158" t="n">
+        <v>119262</v>
+      </c>
+      <c r="L158" t="n">
+        <v>50538</v>
+      </c>
+      <c r="M158" t="n">
+        <v>24287</v>
+      </c>
+      <c r="N158" t="n">
+        <v>123415</v>
+      </c>
+      <c r="O158" t="n">
+        <v>154685</v>
+      </c>
+      <c r="P158" t="n">
+        <v>81108</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>73488</v>
+      </c>
+      <c r="R158" t="n">
+        <v>93373</v>
+      </c>
+      <c r="S158" t="n">
+        <v>51477</v>
+      </c>
+      <c r="T158" t="n">
+        <v>163642</v>
+      </c>
+      <c r="U158" t="n">
+        <v>49812</v>
+      </c>
+      <c r="V158" t="n">
+        <v>66473</v>
+      </c>
+      <c r="W158" t="n">
+        <v>38407</v>
+      </c>
+      <c r="X158" t="n">
+        <v>31455</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>80904</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>529006</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>57684</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>24278</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2614684</v>
       </c>
     </row>
   </sheetData>
@@ -14721,7 +14812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28969,7 +29060,7 @@
         <v>960</v>
       </c>
       <c r="Z156" t="n">
-        <v>21676</v>
+        <v>22059</v>
       </c>
       <c r="AA156" t="n">
         <v>1359</v>
@@ -28978,7 +29069,7 @@
         <v>364</v>
       </c>
       <c r="AC156" t="n">
-        <v>88677</v>
+        <v>89060</v>
       </c>
     </row>
     <row r="157">
@@ -29021,7 +29112,7 @@
         <v>1752</v>
       </c>
       <c r="M157" t="n">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="N157" t="n">
         <v>2608</v>
@@ -29045,7 +29136,7 @@
         <v>13198</v>
       </c>
       <c r="U157" t="n">
-        <v>1741</v>
+        <v>1757</v>
       </c>
       <c r="V157" t="n">
         <v>1750</v>
@@ -29066,10 +29157,101 @@
         <v>1390</v>
       </c>
       <c r="AB157" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AC157" t="n">
-        <v>90224</v>
+        <v>90259</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-30</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>521</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1554</v>
+      </c>
+      <c r="D158" t="n">
+        <v>561</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3252</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3391</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7664</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2514</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1606</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2996</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1794</v>
+      </c>
+      <c r="M158" t="n">
+        <v>357</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2692</v>
+      </c>
+      <c r="O158" t="n">
+        <v>5728</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1785</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1861</v>
+      </c>
+      <c r="R158" t="n">
+        <v>6526</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1329</v>
+      </c>
+      <c r="T158" t="n">
+        <v>13348</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1757</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1825</v>
+      </c>
+      <c r="W158" t="n">
+        <v>864</v>
+      </c>
+      <c r="X158" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1043</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>22710</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>1408</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>368</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>91399</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14750,7 +14750,7 @@
         <v>50538</v>
       </c>
       <c r="M158" t="n">
-        <v>24287</v>
+        <v>24936</v>
       </c>
       <c r="N158" t="n">
         <v>123415</v>
@@ -14774,7 +14774,7 @@
         <v>163642</v>
       </c>
       <c r="U158" t="n">
-        <v>49812</v>
+        <v>50563</v>
       </c>
       <c r="V158" t="n">
         <v>66473</v>
@@ -14783,7 +14783,7 @@
         <v>38407</v>
       </c>
       <c r="X158" t="n">
-        <v>31455</v>
+        <v>32016</v>
       </c>
       <c r="Y158" t="n">
         <v>80904</v>
@@ -14795,10 +14795,101 @@
         <v>57684</v>
       </c>
       <c r="AB158" t="n">
-        <v>24278</v>
+        <v>24824</v>
       </c>
       <c r="AC158" t="n">
-        <v>2614684</v>
+        <v>2617191</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>19625</v>
+      </c>
+      <c r="C159" t="n">
+        <v>59725</v>
+      </c>
+      <c r="D159" t="n">
+        <v>36468</v>
+      </c>
+      <c r="E159" t="n">
+        <v>100940</v>
+      </c>
+      <c r="F159" t="n">
+        <v>166154</v>
+      </c>
+      <c r="G159" t="n">
+        <v>174662</v>
+      </c>
+      <c r="H159" t="n">
+        <v>106292</v>
+      </c>
+      <c r="I159" t="n">
+        <v>83292</v>
+      </c>
+      <c r="J159" t="n">
+        <v>69250</v>
+      </c>
+      <c r="K159" t="n">
+        <v>120661</v>
+      </c>
+      <c r="L159" t="n">
+        <v>52078</v>
+      </c>
+      <c r="M159" t="n">
+        <v>24936</v>
+      </c>
+      <c r="N159" t="n">
+        <v>127106</v>
+      </c>
+      <c r="O159" t="n">
+        <v>156053</v>
+      </c>
+      <c r="P159" t="n">
+        <v>82794</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>76112</v>
+      </c>
+      <c r="R159" t="n">
+        <v>95005</v>
+      </c>
+      <c r="S159" t="n">
+        <v>52458</v>
+      </c>
+      <c r="T159" t="n">
+        <v>165495</v>
+      </c>
+      <c r="U159" t="n">
+        <v>50563</v>
+      </c>
+      <c r="V159" t="n">
+        <v>66692</v>
+      </c>
+      <c r="W159" t="n">
+        <v>38992</v>
+      </c>
+      <c r="X159" t="n">
+        <v>32723</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>84073</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>542304</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>58713</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>24824</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2667990</v>
       </c>
     </row>
   </sheetData>
@@ -14812,7 +14903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29203,7 +29294,7 @@
         <v>1794</v>
       </c>
       <c r="M158" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="N158" t="n">
         <v>2692</v>
@@ -29227,7 +29318,7 @@
         <v>13348</v>
       </c>
       <c r="U158" t="n">
-        <v>1757</v>
+        <v>1783</v>
       </c>
       <c r="V158" t="n">
         <v>1825</v>
@@ -29236,7 +29327,7 @@
         <v>864</v>
       </c>
       <c r="X158" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Y158" t="n">
         <v>1043</v>
@@ -29248,10 +29339,101 @@
         <v>1408</v>
       </c>
       <c r="AB158" t="n">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="AC158" t="n">
-        <v>91399</v>
+        <v>91461</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>531</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1567</v>
+      </c>
+      <c r="D159" t="n">
+        <v>565</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3268</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3463</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7692</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1469</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1677</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3013</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1842</v>
+      </c>
+      <c r="M159" t="n">
+        <v>376</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2769</v>
+      </c>
+      <c r="O159" t="n">
+        <v>5750</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1811</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1920</v>
+      </c>
+      <c r="R159" t="n">
+        <v>6557</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1354</v>
+      </c>
+      <c r="T159" t="n">
+        <v>13477</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1783</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1876</v>
+      </c>
+      <c r="W159" t="n">
+        <v>872</v>
+      </c>
+      <c r="X159" t="n">
+        <v>513</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1102</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>22997</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>1434</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>381</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>92604</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14735,7 +14735,7 @@
         <v>171565</v>
       </c>
       <c r="H158" t="n">
-        <v>104446</v>
+        <v>104442</v>
       </c>
       <c r="I158" t="n">
         <v>81886</v>
@@ -14798,7 +14798,7 @@
         <v>24824</v>
       </c>
       <c r="AC158" t="n">
-        <v>2617191</v>
+        <v>2617187</v>
       </c>
     </row>
     <row r="159">
@@ -14832,7 +14832,7 @@
         <v>83292</v>
       </c>
       <c r="J159" t="n">
-        <v>69250</v>
+        <v>69249</v>
       </c>
       <c r="K159" t="n">
         <v>120661</v>
@@ -14841,7 +14841,7 @@
         <v>52078</v>
       </c>
       <c r="M159" t="n">
-        <v>24936</v>
+        <v>25739</v>
       </c>
       <c r="N159" t="n">
         <v>127106</v>
@@ -14865,7 +14865,7 @@
         <v>165495</v>
       </c>
       <c r="U159" t="n">
-        <v>50563</v>
+        <v>51700</v>
       </c>
       <c r="V159" t="n">
         <v>66692</v>
@@ -14886,10 +14886,101 @@
         <v>58713</v>
       </c>
       <c r="AB159" t="n">
-        <v>24824</v>
+        <v>25346</v>
       </c>
       <c r="AC159" t="n">
-        <v>2667990</v>
+        <v>2670451</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>19930</v>
+      </c>
+      <c r="C160" t="n">
+        <v>60992</v>
+      </c>
+      <c r="D160" t="n">
+        <v>36595</v>
+      </c>
+      <c r="E160" t="n">
+        <v>101777</v>
+      </c>
+      <c r="F160" t="n">
+        <v>168926</v>
+      </c>
+      <c r="G160" t="n">
+        <v>176371</v>
+      </c>
+      <c r="H160" t="n">
+        <v>107922</v>
+      </c>
+      <c r="I160" t="n">
+        <v>83814</v>
+      </c>
+      <c r="J160" t="n">
+        <v>69820</v>
+      </c>
+      <c r="K160" t="n">
+        <v>121581</v>
+      </c>
+      <c r="L160" t="n">
+        <v>53151</v>
+      </c>
+      <c r="M160" t="n">
+        <v>25739</v>
+      </c>
+      <c r="N160" t="n">
+        <v>129985</v>
+      </c>
+      <c r="O160" t="n">
+        <v>156285</v>
+      </c>
+      <c r="P160" t="n">
+        <v>83461</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>77930</v>
+      </c>
+      <c r="R160" t="n">
+        <v>96746</v>
+      </c>
+      <c r="S160" t="n">
+        <v>52993</v>
+      </c>
+      <c r="T160" t="n">
+        <v>167213</v>
+      </c>
+      <c r="U160" t="n">
+        <v>51700</v>
+      </c>
+      <c r="V160" t="n">
+        <v>70456</v>
+      </c>
+      <c r="W160" t="n">
+        <v>39504</v>
+      </c>
+      <c r="X160" t="n">
+        <v>33151</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>86922</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>552318</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>59724</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>25346</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2710352</v>
       </c>
     </row>
   </sheetData>
@@ -14903,7 +14994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29385,7 +29476,7 @@
         <v>1842</v>
       </c>
       <c r="M159" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="N159" t="n">
         <v>2769</v>
@@ -29409,7 +29500,7 @@
         <v>13477</v>
       </c>
       <c r="U159" t="n">
-        <v>1783</v>
+        <v>1885</v>
       </c>
       <c r="V159" t="n">
         <v>1876</v>
@@ -29430,10 +29521,101 @@
         <v>1434</v>
       </c>
       <c r="AB159" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AC159" t="n">
-        <v>92604</v>
+        <v>92728</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>535</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1581</v>
+      </c>
+      <c r="D160" t="n">
+        <v>568</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3278</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3517</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7704</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1490</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2566</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1691</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3032</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1876</v>
+      </c>
+      <c r="M160" t="n">
+        <v>389</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2861</v>
+      </c>
+      <c r="O160" t="n">
+        <v>5773</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R160" t="n">
+        <v>6597</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1369</v>
+      </c>
+      <c r="T160" t="n">
+        <v>13556</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1885</v>
+      </c>
+      <c r="V160" t="n">
+        <v>1947</v>
+      </c>
+      <c r="W160" t="n">
+        <v>881</v>
+      </c>
+      <c r="X160" t="n">
+        <v>513</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1154</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>23236</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>1448</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>390</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>93645</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC160"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14932,7 +14932,7 @@
         <v>53151</v>
       </c>
       <c r="M160" t="n">
-        <v>25739</v>
+        <v>26003</v>
       </c>
       <c r="N160" t="n">
         <v>129985</v>
@@ -14956,7 +14956,7 @@
         <v>167213</v>
       </c>
       <c r="U160" t="n">
-        <v>51700</v>
+        <v>51988</v>
       </c>
       <c r="V160" t="n">
         <v>70456</v>
@@ -14977,10 +14977,101 @@
         <v>59724</v>
       </c>
       <c r="AB160" t="n">
-        <v>25346</v>
+        <v>26434</v>
       </c>
       <c r="AC160" t="n">
-        <v>2710352</v>
+        <v>2711992</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>19966</v>
+      </c>
+      <c r="C161" t="n">
+        <v>62240</v>
+      </c>
+      <c r="D161" t="n">
+        <v>36639</v>
+      </c>
+      <c r="E161" t="n">
+        <v>102124</v>
+      </c>
+      <c r="F161" t="n">
+        <v>170476</v>
+      </c>
+      <c r="G161" t="n">
+        <v>176773</v>
+      </c>
+      <c r="H161" t="n">
+        <v>110028</v>
+      </c>
+      <c r="I161" t="n">
+        <v>84255</v>
+      </c>
+      <c r="J161" t="n">
+        <v>70176</v>
+      </c>
+      <c r="K161" t="n">
+        <v>121953</v>
+      </c>
+      <c r="L161" t="n">
+        <v>53440</v>
+      </c>
+      <c r="M161" t="n">
+        <v>26003</v>
+      </c>
+      <c r="N161" t="n">
+        <v>132801</v>
+      </c>
+      <c r="O161" t="n">
+        <v>156505</v>
+      </c>
+      <c r="P161" t="n">
+        <v>84008</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>79605</v>
+      </c>
+      <c r="R161" t="n">
+        <v>97970</v>
+      </c>
+      <c r="S161" t="n">
+        <v>53224</v>
+      </c>
+      <c r="T161" t="n">
+        <v>167225</v>
+      </c>
+      <c r="U161" t="n">
+        <v>51988</v>
+      </c>
+      <c r="V161" t="n">
+        <v>71040</v>
+      </c>
+      <c r="W161" t="n">
+        <v>39893</v>
+      </c>
+      <c r="X161" t="n">
+        <v>33151</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>87982</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>558685</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>60035</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>26434</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2734619</v>
       </c>
     </row>
   </sheetData>
@@ -14994,7 +15085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC160"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29567,7 +29658,7 @@
         <v>1876</v>
       </c>
       <c r="M160" t="n">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="N160" t="n">
         <v>2861</v>
@@ -29591,7 +29682,7 @@
         <v>13556</v>
       </c>
       <c r="U160" t="n">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="V160" t="n">
         <v>1947</v>
@@ -29612,10 +29703,101 @@
         <v>1448</v>
       </c>
       <c r="AB160" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AC160" t="n">
-        <v>93645</v>
+        <v>93669</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>537</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1594</v>
+      </c>
+      <c r="D161" t="n">
+        <v>571</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3283</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3572</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7710</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1523</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2578</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1701</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3050</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1902</v>
+      </c>
+      <c r="M161" t="n">
+        <v>404</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2891</v>
+      </c>
+      <c r="O161" t="n">
+        <v>5784</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2005</v>
+      </c>
+      <c r="R161" t="n">
+        <v>6634</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1385</v>
+      </c>
+      <c r="T161" t="n">
+        <v>13572</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1889</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1974</v>
+      </c>
+      <c r="W161" t="n">
+        <v>884</v>
+      </c>
+      <c r="X161" t="n">
+        <v>513</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1175</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>23317</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>1465</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>395</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>94158</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15023,7 +15023,7 @@
         <v>53440</v>
       </c>
       <c r="M161" t="n">
-        <v>26003</v>
+        <v>26645</v>
       </c>
       <c r="N161" t="n">
         <v>132801</v>
@@ -15047,7 +15047,7 @@
         <v>167225</v>
       </c>
       <c r="U161" t="n">
-        <v>51988</v>
+        <v>52184</v>
       </c>
       <c r="V161" t="n">
         <v>71040</v>
@@ -15056,7 +15056,7 @@
         <v>39893</v>
       </c>
       <c r="X161" t="n">
-        <v>33151</v>
+        <v>33188</v>
       </c>
       <c r="Y161" t="n">
         <v>87982</v>
@@ -15068,10 +15068,101 @@
         <v>60035</v>
       </c>
       <c r="AB161" t="n">
-        <v>26434</v>
+        <v>26998</v>
       </c>
       <c r="AC161" t="n">
-        <v>2734619</v>
+        <v>2736058</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>20339</v>
+      </c>
+      <c r="C162" t="n">
+        <v>62778</v>
+      </c>
+      <c r="D162" t="n">
+        <v>36804</v>
+      </c>
+      <c r="E162" t="n">
+        <v>102386</v>
+      </c>
+      <c r="F162" t="n">
+        <v>171391</v>
+      </c>
+      <c r="G162" t="n">
+        <v>176972</v>
+      </c>
+      <c r="H162" t="n">
+        <v>112044</v>
+      </c>
+      <c r="I162" t="n">
+        <v>85215</v>
+      </c>
+      <c r="J162" t="n">
+        <v>70252</v>
+      </c>
+      <c r="K162" t="n">
+        <v>122482</v>
+      </c>
+      <c r="L162" t="n">
+        <v>55156</v>
+      </c>
+      <c r="M162" t="n">
+        <v>26645</v>
+      </c>
+      <c r="N162" t="n">
+        <v>133743</v>
+      </c>
+      <c r="O162" t="n">
+        <v>158277</v>
+      </c>
+      <c r="P162" t="n">
+        <v>84211</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>80865</v>
+      </c>
+      <c r="R162" t="n">
+        <v>98401</v>
+      </c>
+      <c r="S162" t="n">
+        <v>54443</v>
+      </c>
+      <c r="T162" t="n">
+        <v>168064</v>
+      </c>
+      <c r="U162" t="n">
+        <v>52184</v>
+      </c>
+      <c r="V162" t="n">
+        <v>71479</v>
+      </c>
+      <c r="W162" t="n">
+        <v>40016</v>
+      </c>
+      <c r="X162" t="n">
+        <v>33188</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>88889</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>560218</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>60479</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>26998</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2753919</v>
       </c>
     </row>
   </sheetData>
@@ -15085,7 +15176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29749,7 +29840,7 @@
         <v>1902</v>
       </c>
       <c r="M161" t="n">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="N161" t="n">
         <v>2891</v>
@@ -29773,7 +29864,7 @@
         <v>13572</v>
       </c>
       <c r="U161" t="n">
-        <v>1889</v>
+        <v>1900</v>
       </c>
       <c r="V161" t="n">
         <v>1974</v>
@@ -29794,10 +29885,101 @@
         <v>1465</v>
       </c>
       <c r="AB161" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AC161" t="n">
-        <v>94158</v>
+        <v>94193</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>539</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1607</v>
+      </c>
+      <c r="D162" t="n">
+        <v>576</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3288</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3624</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7761</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1546</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1716</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3069</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1927</v>
+      </c>
+      <c r="M162" t="n">
+        <v>421</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2894</v>
+      </c>
+      <c r="O162" t="n">
+        <v>5799</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1870</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>2050</v>
+      </c>
+      <c r="R162" t="n">
+        <v>6669</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1401</v>
+      </c>
+      <c r="T162" t="n">
+        <v>13604</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1900</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2016</v>
+      </c>
+      <c r="W162" t="n">
+        <v>888</v>
+      </c>
+      <c r="X162" t="n">
+        <v>513</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1196</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>23365</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>402</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>94731</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15114,7 +15114,7 @@
         <v>55156</v>
       </c>
       <c r="M162" t="n">
-        <v>26645</v>
+        <v>27678</v>
       </c>
       <c r="N162" t="n">
         <v>133743</v>
@@ -15138,7 +15138,7 @@
         <v>168064</v>
       </c>
       <c r="U162" t="n">
-        <v>52184</v>
+        <v>52724</v>
       </c>
       <c r="V162" t="n">
         <v>71479</v>
@@ -15147,7 +15147,7 @@
         <v>40016</v>
       </c>
       <c r="X162" t="n">
-        <v>33188</v>
+        <v>33194</v>
       </c>
       <c r="Y162" t="n">
         <v>88889</v>
@@ -15159,10 +15159,101 @@
         <v>60479</v>
       </c>
       <c r="AB162" t="n">
-        <v>26998</v>
+        <v>27664</v>
       </c>
       <c r="AC162" t="n">
-        <v>2753919</v>
+        <v>2756164</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>20710</v>
+      </c>
+      <c r="C163" t="n">
+        <v>63351</v>
+      </c>
+      <c r="D163" t="n">
+        <v>36999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>103269</v>
+      </c>
+      <c r="F163" t="n">
+        <v>175390</v>
+      </c>
+      <c r="G163" t="n">
+        <v>179976</v>
+      </c>
+      <c r="H163" t="n">
+        <v>113930</v>
+      </c>
+      <c r="I163" t="n">
+        <v>86209</v>
+      </c>
+      <c r="J163" t="n">
+        <v>75010</v>
+      </c>
+      <c r="K163" t="n">
+        <v>123887</v>
+      </c>
+      <c r="L163" t="n">
+        <v>57115</v>
+      </c>
+      <c r="M163" t="n">
+        <v>27678</v>
+      </c>
+      <c r="N163" t="n">
+        <v>135728</v>
+      </c>
+      <c r="O163" t="n">
+        <v>160695</v>
+      </c>
+      <c r="P163" t="n">
+        <v>85760</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>82718</v>
+      </c>
+      <c r="R163" t="n">
+        <v>98833</v>
+      </c>
+      <c r="S163" t="n">
+        <v>55718</v>
+      </c>
+      <c r="T163" t="n">
+        <v>168911</v>
+      </c>
+      <c r="U163" t="n">
+        <v>52724</v>
+      </c>
+      <c r="V163" t="n">
+        <v>73618</v>
+      </c>
+      <c r="W163" t="n">
+        <v>41239</v>
+      </c>
+      <c r="X163" t="n">
+        <v>33194</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>92157</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>575589</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>61069</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>27664</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2809141</v>
       </c>
     </row>
   </sheetData>
@@ -15176,7 +15267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29931,7 +30022,7 @@
         <v>1927</v>
       </c>
       <c r="M162" t="n">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="N162" t="n">
         <v>2894</v>
@@ -29955,7 +30046,7 @@
         <v>13604</v>
       </c>
       <c r="U162" t="n">
-        <v>1900</v>
+        <v>1932</v>
       </c>
       <c r="V162" t="n">
         <v>2016</v>
@@ -29964,7 +30055,7 @@
         <v>888</v>
       </c>
       <c r="X162" t="n">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="Y162" t="n">
         <v>1196</v>
@@ -29976,10 +30067,101 @@
         <v>1489</v>
       </c>
       <c r="AB162" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AC162" t="n">
-        <v>94731</v>
+        <v>94795</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>545</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1621</v>
+      </c>
+      <c r="D163" t="n">
+        <v>581</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3299</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3678</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7821</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1572</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2628</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1817</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3085</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1997</v>
+      </c>
+      <c r="M163" t="n">
+        <v>432</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3043</v>
+      </c>
+      <c r="O163" t="n">
+        <v>5818</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1901</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>2128</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6717</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1416</v>
+      </c>
+      <c r="T163" t="n">
+        <v>13715</v>
+      </c>
+      <c r="U163" t="n">
+        <v>1932</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2099</v>
+      </c>
+      <c r="W163" t="n">
+        <v>898</v>
+      </c>
+      <c r="X163" t="n">
+        <v>528</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1235</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>23702</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>1509</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>408</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>96125</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15190,7 +15190,7 @@
         <v>179976</v>
       </c>
       <c r="H163" t="n">
-        <v>113930</v>
+        <v>113924</v>
       </c>
       <c r="I163" t="n">
         <v>86209</v>
@@ -15205,7 +15205,7 @@
         <v>57115</v>
       </c>
       <c r="M163" t="n">
-        <v>27678</v>
+        <v>28315</v>
       </c>
       <c r="N163" t="n">
         <v>135728</v>
@@ -15229,7 +15229,7 @@
         <v>168911</v>
       </c>
       <c r="U163" t="n">
-        <v>52724</v>
+        <v>53649</v>
       </c>
       <c r="V163" t="n">
         <v>73618</v>
@@ -15238,7 +15238,7 @@
         <v>41239</v>
       </c>
       <c r="X163" t="n">
-        <v>33194</v>
+        <v>34296</v>
       </c>
       <c r="Y163" t="n">
         <v>92157</v>
@@ -15250,10 +15250,101 @@
         <v>61069</v>
       </c>
       <c r="AB163" t="n">
-        <v>27664</v>
+        <v>28312</v>
       </c>
       <c r="AC163" t="n">
-        <v>2809141</v>
+        <v>2812447</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>21033</v>
+      </c>
+      <c r="C164" t="n">
+        <v>64194</v>
+      </c>
+      <c r="D164" t="n">
+        <v>37318</v>
+      </c>
+      <c r="E164" t="n">
+        <v>104250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>179738</v>
+      </c>
+      <c r="G164" t="n">
+        <v>182453</v>
+      </c>
+      <c r="H164" t="n">
+        <v>115966</v>
+      </c>
+      <c r="I164" t="n">
+        <v>87243</v>
+      </c>
+      <c r="J164" t="n">
+        <v>78505</v>
+      </c>
+      <c r="K164" t="n">
+        <v>125459</v>
+      </c>
+      <c r="L164" t="n">
+        <v>58506</v>
+      </c>
+      <c r="M164" t="n">
+        <v>28315</v>
+      </c>
+      <c r="N164" t="n">
+        <v>139661</v>
+      </c>
+      <c r="O164" t="n">
+        <v>162822</v>
+      </c>
+      <c r="P164" t="n">
+        <v>87071</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>85317</v>
+      </c>
+      <c r="R164" t="n">
+        <v>100321</v>
+      </c>
+      <c r="S164" t="n">
+        <v>57100</v>
+      </c>
+      <c r="T164" t="n">
+        <v>172679</v>
+      </c>
+      <c r="U164" t="n">
+        <v>53649</v>
+      </c>
+      <c r="V164" t="n">
+        <v>76563</v>
+      </c>
+      <c r="W164" t="n">
+        <v>42021</v>
+      </c>
+      <c r="X164" t="n">
+        <v>34929</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>95410</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>585265</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>61986</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>28312</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2866086</v>
       </c>
     </row>
   </sheetData>
@@ -15267,7 +15358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30113,7 +30204,7 @@
         <v>1997</v>
       </c>
       <c r="M163" t="n">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="N163" t="n">
         <v>3043</v>
@@ -30137,7 +30228,7 @@
         <v>13715</v>
       </c>
       <c r="U163" t="n">
-        <v>1932</v>
+        <v>1939</v>
       </c>
       <c r="V163" t="n">
         <v>2099</v>
@@ -30146,7 +30237,7 @@
         <v>898</v>
       </c>
       <c r="X163" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Y163" t="n">
         <v>1235</v>
@@ -30158,10 +30249,101 @@
         <v>1509</v>
       </c>
       <c r="AB163" t="n">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AC163" t="n">
-        <v>96125</v>
+        <v>96153</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>547</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1633</v>
+      </c>
+      <c r="D164" t="n">
+        <v>588</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3317</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3736</v>
+      </c>
+      <c r="G164" t="n">
+        <v>7873</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1605</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2646</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1888</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3103</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M164" t="n">
+        <v>442</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3195</v>
+      </c>
+      <c r="O164" t="n">
+        <v>5835</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1922</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>2164</v>
+      </c>
+      <c r="R164" t="n">
+        <v>6758</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1436</v>
+      </c>
+      <c r="T164" t="n">
+        <v>13855</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1939</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2163</v>
+      </c>
+      <c r="W164" t="n">
+        <v>918</v>
+      </c>
+      <c r="X164" t="n">
+        <v>538</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1306</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>24109</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>1525</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>415</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>97469</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC164"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13564,7 +13564,7 @@
         <v>105183</v>
       </c>
       <c r="L145" t="n">
-        <v>32971</v>
+        <v>32321</v>
       </c>
       <c r="M145" t="n">
         <v>16006</v>
@@ -13615,7 +13615,7 @@
         <v>17209</v>
       </c>
       <c r="AC145" t="n">
-        <v>2052884</v>
+        <v>2052234</v>
       </c>
     </row>
     <row r="146">
@@ -15287,7 +15287,7 @@
         <v>87243</v>
       </c>
       <c r="J164" t="n">
-        <v>78505</v>
+        <v>78403</v>
       </c>
       <c r="K164" t="n">
         <v>125459</v>
@@ -15296,7 +15296,7 @@
         <v>58506</v>
       </c>
       <c r="M164" t="n">
-        <v>28315</v>
+        <v>29101</v>
       </c>
       <c r="N164" t="n">
         <v>139661</v>
@@ -15329,7 +15329,7 @@
         <v>42021</v>
       </c>
       <c r="X164" t="n">
-        <v>34929</v>
+        <v>34296</v>
       </c>
       <c r="Y164" t="n">
         <v>95410</v>
@@ -15344,7 +15344,98 @@
         <v>28312</v>
       </c>
       <c r="AC164" t="n">
-        <v>2866086</v>
+        <v>2866137</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>21263</v>
+      </c>
+      <c r="C165" t="n">
+        <v>65093</v>
+      </c>
+      <c r="D165" t="n">
+        <v>37735</v>
+      </c>
+      <c r="E165" t="n">
+        <v>105054</v>
+      </c>
+      <c r="F165" t="n">
+        <v>183690</v>
+      </c>
+      <c r="G165" t="n">
+        <v>184100</v>
+      </c>
+      <c r="H165" t="n">
+        <v>118000</v>
+      </c>
+      <c r="I165" t="n">
+        <v>88543</v>
+      </c>
+      <c r="J165" t="n">
+        <v>81564</v>
+      </c>
+      <c r="K165" t="n">
+        <v>127065</v>
+      </c>
+      <c r="L165" t="n">
+        <v>60409</v>
+      </c>
+      <c r="M165" t="n">
+        <v>29101</v>
+      </c>
+      <c r="N165" t="n">
+        <v>142828</v>
+      </c>
+      <c r="O165" t="n">
+        <v>164759</v>
+      </c>
+      <c r="P165" t="n">
+        <v>87867</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>87269</v>
+      </c>
+      <c r="R165" t="n">
+        <v>101395</v>
+      </c>
+      <c r="S165" t="n">
+        <v>57100</v>
+      </c>
+      <c r="T165" t="n">
+        <v>174064</v>
+      </c>
+      <c r="U165" t="n">
+        <v>54106</v>
+      </c>
+      <c r="V165" t="n">
+        <v>78837</v>
+      </c>
+      <c r="W165" t="n">
+        <v>42725</v>
+      </c>
+      <c r="X165" t="n">
+        <v>34929</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>98634</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>598670</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>62844</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>29539</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2917183</v>
       </c>
     </row>
   </sheetData>
@@ -15358,7 +15449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC164"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28563,7 +28654,7 @@
         <v>2640</v>
       </c>
       <c r="L145" t="n">
-        <v>1268</v>
+        <v>1291</v>
       </c>
       <c r="M145" t="n">
         <v>216</v>
@@ -28614,7 +28705,7 @@
         <v>288</v>
       </c>
       <c r="AC145" t="n">
-        <v>78003</v>
+        <v>78026</v>
       </c>
     </row>
     <row r="146">
@@ -30295,7 +30386,7 @@
         <v>2013</v>
       </c>
       <c r="M164" t="n">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="N164" t="n">
         <v>3195</v>
@@ -30328,7 +30419,7 @@
         <v>918</v>
       </c>
       <c r="X164" t="n">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Y164" t="n">
         <v>1306</v>
@@ -30343,7 +30434,98 @@
         <v>415</v>
       </c>
       <c r="AC164" t="n">
-        <v>97469</v>
+        <v>97479</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-06</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>552</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D165" t="n">
+        <v>594</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3335</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3789</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7921</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1651</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2667</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1924</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3120</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2013</v>
+      </c>
+      <c r="M165" t="n">
+        <v>458</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3304</v>
+      </c>
+      <c r="O165" t="n">
+        <v>5854</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1945</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>2224</v>
+      </c>
+      <c r="R165" t="n">
+        <v>6828</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1436</v>
+      </c>
+      <c r="T165" t="n">
+        <v>13941</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1954</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2231</v>
+      </c>
+      <c r="W165" t="n">
+        <v>923</v>
+      </c>
+      <c r="X165" t="n">
+        <v>538</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1357</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>24448</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>1537</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>428</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>98615</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -15320,7 +15320,7 @@
         <v>172679</v>
       </c>
       <c r="U164" t="n">
-        <v>53649</v>
+        <v>54268</v>
       </c>
       <c r="V164" t="n">
         <v>76563</v>
@@ -15329,7 +15329,7 @@
         <v>42021</v>
       </c>
       <c r="X164" t="n">
-        <v>34296</v>
+        <v>34929</v>
       </c>
       <c r="Y164" t="n">
         <v>95410</v>
@@ -15341,10 +15341,10 @@
         <v>61986</v>
       </c>
       <c r="AB164" t="n">
-        <v>28312</v>
+        <v>29539</v>
       </c>
       <c r="AC164" t="n">
-        <v>2866137</v>
+        <v>2868616</v>
       </c>
     </row>
     <row r="165">
@@ -15366,7 +15366,7 @@
         <v>105054</v>
       </c>
       <c r="F165" t="n">
-        <v>183690</v>
+        <v>183691</v>
       </c>
       <c r="G165" t="n">
         <v>184100</v>
@@ -15378,7 +15378,7 @@
         <v>88543</v>
       </c>
       <c r="J165" t="n">
-        <v>81564</v>
+        <v>81764</v>
       </c>
       <c r="K165" t="n">
         <v>127065</v>
@@ -15405,13 +15405,13 @@
         <v>101395</v>
       </c>
       <c r="S165" t="n">
-        <v>57100</v>
+        <v>58390</v>
       </c>
       <c r="T165" t="n">
         <v>174064</v>
       </c>
       <c r="U165" t="n">
-        <v>54106</v>
+        <v>54268</v>
       </c>
       <c r="V165" t="n">
         <v>78837</v>
@@ -15420,7 +15420,7 @@
         <v>42725</v>
       </c>
       <c r="X165" t="n">
-        <v>34929</v>
+        <v>35540</v>
       </c>
       <c r="Y165" t="n">
         <v>98634</v>
@@ -15435,7 +15435,7 @@
         <v>29539</v>
       </c>
       <c r="AC165" t="n">
-        <v>2917183</v>
+        <v>2919447</v>
       </c>
     </row>
   </sheetData>
@@ -30410,7 +30410,7 @@
         <v>13855</v>
       </c>
       <c r="U164" t="n">
-        <v>1939</v>
+        <v>1960</v>
       </c>
       <c r="V164" t="n">
         <v>2163</v>
@@ -30419,7 +30419,7 @@
         <v>918</v>
       </c>
       <c r="X164" t="n">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="Y164" t="n">
         <v>1306</v>
@@ -30431,10 +30431,10 @@
         <v>1525</v>
       </c>
       <c r="AB164" t="n">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="AC164" t="n">
-        <v>97479</v>
+        <v>97519</v>
       </c>
     </row>
     <row r="165">
@@ -30474,7 +30474,7 @@
         <v>3120</v>
       </c>
       <c r="L165" t="n">
-        <v>2013</v>
+        <v>2051</v>
       </c>
       <c r="M165" t="n">
         <v>458</v>
@@ -30495,13 +30495,13 @@
         <v>6828</v>
       </c>
       <c r="S165" t="n">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="T165" t="n">
         <v>13941</v>
       </c>
       <c r="U165" t="n">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="V165" t="n">
         <v>2231</v>
@@ -30510,7 +30510,7 @@
         <v>923</v>
       </c>
       <c r="X165" t="n">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Y165" t="n">
         <v>1357</v>
@@ -30525,7 +30525,7 @@
         <v>428</v>
       </c>
       <c r="AC165" t="n">
-        <v>98615</v>
+        <v>98681</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14580,7 +14580,7 @@
         <v>78175</v>
       </c>
       <c r="Q156" t="n">
-        <v>69392</v>
+        <v>69393</v>
       </c>
       <c r="R156" t="n">
         <v>89678</v>
@@ -14616,7 +14616,7 @@
         <v>23517</v>
       </c>
       <c r="AC156" t="n">
-        <v>2503680</v>
+        <v>2503681</v>
       </c>
     </row>
     <row r="157">
@@ -15378,7 +15378,7 @@
         <v>88543</v>
       </c>
       <c r="J165" t="n">
-        <v>81764</v>
+        <v>81719</v>
       </c>
       <c r="K165" t="n">
         <v>127065</v>
@@ -15387,7 +15387,7 @@
         <v>60409</v>
       </c>
       <c r="M165" t="n">
-        <v>29101</v>
+        <v>29988</v>
       </c>
       <c r="N165" t="n">
         <v>142828</v>
@@ -15411,7 +15411,7 @@
         <v>174064</v>
       </c>
       <c r="U165" t="n">
-        <v>54268</v>
+        <v>54881</v>
       </c>
       <c r="V165" t="n">
         <v>78837</v>
@@ -15429,13 +15429,104 @@
         <v>598670</v>
       </c>
       <c r="AA165" t="n">
-        <v>62844</v>
+        <v>63728</v>
       </c>
       <c r="AB165" t="n">
-        <v>29539</v>
+        <v>30358</v>
       </c>
       <c r="AC165" t="n">
-        <v>2919447</v>
+        <v>2922605</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>21376</v>
+      </c>
+      <c r="C166" t="n">
+        <v>65916</v>
+      </c>
+      <c r="D166" t="n">
+        <v>37964</v>
+      </c>
+      <c r="E166" t="n">
+        <v>105857</v>
+      </c>
+      <c r="F166" t="n">
+        <v>187893</v>
+      </c>
+      <c r="G166" t="n">
+        <v>186563</v>
+      </c>
+      <c r="H166" t="n">
+        <v>119903</v>
+      </c>
+      <c r="I166" t="n">
+        <v>89923</v>
+      </c>
+      <c r="J166" t="n">
+        <v>84175</v>
+      </c>
+      <c r="K166" t="n">
+        <v>128846</v>
+      </c>
+      <c r="L166" t="n">
+        <v>62785</v>
+      </c>
+      <c r="M166" t="n">
+        <v>29988</v>
+      </c>
+      <c r="N166" t="n">
+        <v>147323</v>
+      </c>
+      <c r="O166" t="n">
+        <v>167099</v>
+      </c>
+      <c r="P166" t="n">
+        <v>89117</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>88899</v>
+      </c>
+      <c r="R166" t="n">
+        <v>102872</v>
+      </c>
+      <c r="S166" t="n">
+        <v>59571</v>
+      </c>
+      <c r="T166" t="n">
+        <v>175696</v>
+      </c>
+      <c r="U166" t="n">
+        <v>54881</v>
+      </c>
+      <c r="V166" t="n">
+        <v>79026</v>
+      </c>
+      <c r="W166" t="n">
+        <v>43390</v>
+      </c>
+      <c r="X166" t="n">
+        <v>35933</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>101582</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>608379</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>63728</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>30358</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2969043</v>
       </c>
     </row>
   </sheetData>
@@ -15449,7 +15540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30477,7 +30568,7 @@
         <v>2051</v>
       </c>
       <c r="M165" t="n">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="N165" t="n">
         <v>3304</v>
@@ -30501,7 +30592,7 @@
         <v>13941</v>
       </c>
       <c r="U165" t="n">
-        <v>1960</v>
+        <v>1971</v>
       </c>
       <c r="V165" t="n">
         <v>2231</v>
@@ -30519,13 +30610,104 @@
         <v>24448</v>
       </c>
       <c r="AA165" t="n">
-        <v>1537</v>
+        <v>1558</v>
       </c>
       <c r="AB165" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AC165" t="n">
-        <v>98681</v>
+        <v>98745</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>556</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1654</v>
+      </c>
+      <c r="D166" t="n">
+        <v>599</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3345</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3843</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7946</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1682</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2698</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1974</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3138</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2101</v>
+      </c>
+      <c r="M166" t="n">
+        <v>481</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3381</v>
+      </c>
+      <c r="O166" t="n">
+        <v>5871</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1965</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>2270</v>
+      </c>
+      <c r="R166" t="n">
+        <v>6867</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1469</v>
+      </c>
+      <c r="T166" t="n">
+        <v>14028</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1971</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2282</v>
+      </c>
+      <c r="W166" t="n">
+        <v>934</v>
+      </c>
+      <c r="X166" t="n">
+        <v>547</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>24735</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>1558</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>437</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>99732</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15478,7 +15478,7 @@
         <v>62785</v>
       </c>
       <c r="M166" t="n">
-        <v>29988</v>
+        <v>30707</v>
       </c>
       <c r="N166" t="n">
         <v>147323</v>
@@ -15502,7 +15502,7 @@
         <v>175696</v>
       </c>
       <c r="U166" t="n">
-        <v>54881</v>
+        <v>55315</v>
       </c>
       <c r="V166" t="n">
         <v>79026</v>
@@ -15523,10 +15523,101 @@
         <v>63728</v>
       </c>
       <c r="AB166" t="n">
-        <v>30358</v>
+        <v>31103</v>
       </c>
       <c r="AC166" t="n">
-        <v>2969043</v>
+        <v>2970941</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>21498</v>
+      </c>
+      <c r="C167" t="n">
+        <v>66748</v>
+      </c>
+      <c r="D167" t="n">
+        <v>38139</v>
+      </c>
+      <c r="E167" t="n">
+        <v>106428</v>
+      </c>
+      <c r="F167" t="n">
+        <v>191401</v>
+      </c>
+      <c r="G167" t="n">
+        <v>188289</v>
+      </c>
+      <c r="H167" t="n">
+        <v>121824</v>
+      </c>
+      <c r="I167" t="n">
+        <v>91146</v>
+      </c>
+      <c r="J167" t="n">
+        <v>84992</v>
+      </c>
+      <c r="K167" t="n">
+        <v>129700</v>
+      </c>
+      <c r="L167" t="n">
+        <v>63336</v>
+      </c>
+      <c r="M167" t="n">
+        <v>30707</v>
+      </c>
+      <c r="N167" t="n">
+        <v>150723</v>
+      </c>
+      <c r="O167" t="n">
+        <v>167642</v>
+      </c>
+      <c r="P167" t="n">
+        <v>89893</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>88899</v>
+      </c>
+      <c r="R167" t="n">
+        <v>104113</v>
+      </c>
+      <c r="S167" t="n">
+        <v>59982</v>
+      </c>
+      <c r="T167" t="n">
+        <v>178524</v>
+      </c>
+      <c r="U167" t="n">
+        <v>55315</v>
+      </c>
+      <c r="V167" t="n">
+        <v>83595</v>
+      </c>
+      <c r="W167" t="n">
+        <v>43866</v>
+      </c>
+      <c r="X167" t="n">
+        <v>36387</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>104749</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>621731</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>64271</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>31103</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>3015001</v>
       </c>
     </row>
   </sheetData>
@@ -15540,7 +15631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30659,7 +30750,7 @@
         <v>2101</v>
       </c>
       <c r="M166" t="n">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="N166" t="n">
         <v>3381</v>
@@ -30683,7 +30774,7 @@
         <v>14028</v>
       </c>
       <c r="U166" t="n">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="V166" t="n">
         <v>2282</v>
@@ -30704,10 +30795,101 @@
         <v>1558</v>
       </c>
       <c r="AB166" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AC166" t="n">
-        <v>99732</v>
+        <v>99755</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>559</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D167" t="n">
+        <v>601</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3364</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3899</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7954</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1712</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2720</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3154</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2125</v>
+      </c>
+      <c r="M167" t="n">
+        <v>492</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3449</v>
+      </c>
+      <c r="O167" t="n">
+        <v>5885</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1983</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>2270</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6920</v>
+      </c>
+      <c r="S167" t="n">
+        <v>1480</v>
+      </c>
+      <c r="T167" t="n">
+        <v>14070</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1976</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2346</v>
+      </c>
+      <c r="W167" t="n">
+        <v>940</v>
+      </c>
+      <c r="X167" t="n">
+        <v>547</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1419</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>25016</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>1577</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>444</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>100584</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15490,7 +15490,7 @@
         <v>89117</v>
       </c>
       <c r="Q166" t="n">
-        <v>88899</v>
+        <v>89966</v>
       </c>
       <c r="R166" t="n">
         <v>102872</v>
@@ -15526,7 +15526,7 @@
         <v>31103</v>
       </c>
       <c r="AC166" t="n">
-        <v>2970941</v>
+        <v>2972008</v>
       </c>
     </row>
     <row r="167">
@@ -15560,7 +15560,7 @@
         <v>91146</v>
       </c>
       <c r="J167" t="n">
-        <v>84992</v>
+        <v>84963</v>
       </c>
       <c r="K167" t="n">
         <v>129700</v>
@@ -15569,7 +15569,7 @@
         <v>63336</v>
       </c>
       <c r="M167" t="n">
-        <v>30707</v>
+        <v>31344</v>
       </c>
       <c r="N167" t="n">
         <v>150723</v>
@@ -15581,7 +15581,7 @@
         <v>89893</v>
       </c>
       <c r="Q167" t="n">
-        <v>88899</v>
+        <v>89966</v>
       </c>
       <c r="R167" t="n">
         <v>104113</v>
@@ -15614,10 +15614,101 @@
         <v>64271</v>
       </c>
       <c r="AB167" t="n">
-        <v>31103</v>
+        <v>31663</v>
       </c>
       <c r="AC167" t="n">
-        <v>3015001</v>
+        <v>3017236</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>21587</v>
+      </c>
+      <c r="C168" t="n">
+        <v>67613</v>
+      </c>
+      <c r="D168" t="n">
+        <v>38208</v>
+      </c>
+      <c r="E168" t="n">
+        <v>106950</v>
+      </c>
+      <c r="F168" t="n">
+        <v>193029</v>
+      </c>
+      <c r="G168" t="n">
+        <v>188638</v>
+      </c>
+      <c r="H168" t="n">
+        <v>123057</v>
+      </c>
+      <c r="I168" t="n">
+        <v>91791</v>
+      </c>
+      <c r="J168" t="n">
+        <v>85154</v>
+      </c>
+      <c r="K168" t="n">
+        <v>130136</v>
+      </c>
+      <c r="L168" t="n">
+        <v>63680</v>
+      </c>
+      <c r="M168" t="n">
+        <v>31344</v>
+      </c>
+      <c r="N168" t="n">
+        <v>153927</v>
+      </c>
+      <c r="O168" t="n">
+        <v>168151</v>
+      </c>
+      <c r="P168" t="n">
+        <v>90082</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>89966</v>
+      </c>
+      <c r="R168" t="n">
+        <v>105134</v>
+      </c>
+      <c r="S168" t="n">
+        <v>60178</v>
+      </c>
+      <c r="T168" t="n">
+        <v>178850</v>
+      </c>
+      <c r="U168" t="n">
+        <v>55315</v>
+      </c>
+      <c r="V168" t="n">
+        <v>83991</v>
+      </c>
+      <c r="W168" t="n">
+        <v>44010</v>
+      </c>
+      <c r="X168" t="n">
+        <v>36449</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>105935</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>627126</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>64693</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>31663</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>3036657</v>
       </c>
     </row>
   </sheetData>
@@ -15631,7 +15722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30762,7 +30853,7 @@
         <v>1965</v>
       </c>
       <c r="Q166" t="n">
-        <v>2270</v>
+        <v>2345</v>
       </c>
       <c r="R166" t="n">
         <v>6867</v>
@@ -30798,7 +30889,7 @@
         <v>444</v>
       </c>
       <c r="AC166" t="n">
-        <v>99755</v>
+        <v>99830</v>
       </c>
     </row>
     <row r="167">
@@ -30841,7 +30932,7 @@
         <v>2125</v>
       </c>
       <c r="M167" t="n">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="N167" t="n">
         <v>3449</v>
@@ -30853,7 +30944,7 @@
         <v>1983</v>
       </c>
       <c r="Q167" t="n">
-        <v>2270</v>
+        <v>2345</v>
       </c>
       <c r="R167" t="n">
         <v>6920</v>
@@ -30886,10 +30977,101 @@
         <v>1577</v>
       </c>
       <c r="AB167" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AC167" t="n">
-        <v>100584</v>
+        <v>100683</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>561</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1677</v>
+      </c>
+      <c r="D168" t="n">
+        <v>602</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3359</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3953</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7979</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1735</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2735</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3169</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2147</v>
+      </c>
+      <c r="M168" t="n">
+        <v>509</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3537</v>
+      </c>
+      <c r="O168" t="n">
+        <v>5893</v>
+      </c>
+      <c r="P168" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>2345</v>
+      </c>
+      <c r="R168" t="n">
+        <v>6941</v>
+      </c>
+      <c r="S168" t="n">
+        <v>1503</v>
+      </c>
+      <c r="T168" t="n">
+        <v>14080</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1976</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2360</v>
+      </c>
+      <c r="W168" t="n">
+        <v>943</v>
+      </c>
+      <c r="X168" t="n">
+        <v>547</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1445</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>25114</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>1589</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>451</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>101170</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15660,7 +15660,7 @@
         <v>63680</v>
       </c>
       <c r="M168" t="n">
-        <v>31344</v>
+        <v>31739</v>
       </c>
       <c r="N168" t="n">
         <v>153927</v>
@@ -15675,7 +15675,7 @@
         <v>89966</v>
       </c>
       <c r="R168" t="n">
-        <v>105134</v>
+        <v>105381</v>
       </c>
       <c r="S168" t="n">
         <v>60178</v>
@@ -15684,7 +15684,7 @@
         <v>178850</v>
       </c>
       <c r="U168" t="n">
-        <v>55315</v>
+        <v>55617</v>
       </c>
       <c r="V168" t="n">
         <v>83991</v>
@@ -15705,10 +15705,101 @@
         <v>64693</v>
       </c>
       <c r="AB168" t="n">
-        <v>31663</v>
+        <v>32289</v>
       </c>
       <c r="AC168" t="n">
-        <v>3036657</v>
+        <v>3038227</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>21619</v>
+      </c>
+      <c r="C169" t="n">
+        <v>68237</v>
+      </c>
+      <c r="D169" t="n">
+        <v>38399</v>
+      </c>
+      <c r="E169" t="n">
+        <v>107197</v>
+      </c>
+      <c r="F169" t="n">
+        <v>194097</v>
+      </c>
+      <c r="G169" t="n">
+        <v>189023</v>
+      </c>
+      <c r="H169" t="n">
+        <v>126069</v>
+      </c>
+      <c r="I169" t="n">
+        <v>93069</v>
+      </c>
+      <c r="J169" t="n">
+        <v>88573</v>
+      </c>
+      <c r="K169" t="n">
+        <v>130566</v>
+      </c>
+      <c r="L169" t="n">
+        <v>65346</v>
+      </c>
+      <c r="M169" t="n">
+        <v>31739</v>
+      </c>
+      <c r="N169" t="n">
+        <v>155075</v>
+      </c>
+      <c r="O169" t="n">
+        <v>169613</v>
+      </c>
+      <c r="P169" t="n">
+        <v>90366</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>94124</v>
+      </c>
+      <c r="R169" t="n">
+        <v>105381</v>
+      </c>
+      <c r="S169" t="n">
+        <v>61144</v>
+      </c>
+      <c r="T169" t="n">
+        <v>180016</v>
+      </c>
+      <c r="U169" t="n">
+        <v>55617</v>
+      </c>
+      <c r="V169" t="n">
+        <v>84034</v>
+      </c>
+      <c r="W169" t="n">
+        <v>44372</v>
+      </c>
+      <c r="X169" t="n">
+        <v>36449</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>106928</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>628415</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>64974</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>32289</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>3062731</v>
       </c>
     </row>
   </sheetData>
@@ -15722,7 +15813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31008,7 +31099,7 @@
         <v>7979</v>
       </c>
       <c r="H168" t="n">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="I168" t="n">
         <v>2735</v>
@@ -31023,7 +31114,7 @@
         <v>2147</v>
       </c>
       <c r="M168" t="n">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="N168" t="n">
         <v>3537</v>
@@ -31038,7 +31129,7 @@
         <v>2345</v>
       </c>
       <c r="R168" t="n">
-        <v>6941</v>
+        <v>6970</v>
       </c>
       <c r="S168" t="n">
         <v>1503</v>
@@ -31047,7 +31138,7 @@
         <v>14080</v>
       </c>
       <c r="U168" t="n">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="V168" t="n">
         <v>2360</v>
@@ -31068,10 +31159,101 @@
         <v>1589</v>
       </c>
       <c r="AB168" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AC168" t="n">
-        <v>101170</v>
+        <v>101226</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>562</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D169" t="n">
+        <v>603</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3384</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4011</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7994</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1766</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2764</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2072</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3187</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2204</v>
+      </c>
+      <c r="M169" t="n">
+        <v>523</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3597</v>
+      </c>
+      <c r="O169" t="n">
+        <v>5901</v>
+      </c>
+      <c r="P169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>2398</v>
+      </c>
+      <c r="R169" t="n">
+        <v>6970</v>
+      </c>
+      <c r="S169" t="n">
+        <v>1526</v>
+      </c>
+      <c r="T169" t="n">
+        <v>14108</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1983</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2417</v>
+      </c>
+      <c r="W169" t="n">
+        <v>944</v>
+      </c>
+      <c r="X169" t="n">
+        <v>547</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1546</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>25151</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>1614</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>461</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>101944</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13018,7 +13018,7 @@
         <v>98398</v>
       </c>
       <c r="L139" t="n">
-        <v>27636</v>
+        <v>28526</v>
       </c>
       <c r="M139" t="n">
         <v>13197</v>
@@ -13069,7 +13069,7 @@
         <v>15132</v>
       </c>
       <c r="AC139" t="n">
-        <v>1843428</v>
+        <v>1844318</v>
       </c>
     </row>
     <row r="140">
@@ -13291,7 +13291,7 @@
         <v>101467</v>
       </c>
       <c r="L142" t="n">
-        <v>29279</v>
+        <v>29918</v>
       </c>
       <c r="M142" t="n">
         <v>14631</v>
@@ -13342,7 +13342,7 @@
         <v>16031</v>
       </c>
       <c r="AC142" t="n">
-        <v>1933152</v>
+        <v>1933791</v>
       </c>
     </row>
     <row r="143">
@@ -15751,7 +15751,7 @@
         <v>65346</v>
       </c>
       <c r="M169" t="n">
-        <v>31739</v>
+        <v>32562</v>
       </c>
       <c r="N169" t="n">
         <v>155075</v>
@@ -15775,7 +15775,7 @@
         <v>180016</v>
       </c>
       <c r="U169" t="n">
-        <v>55617</v>
+        <v>57921</v>
       </c>
       <c r="V169" t="n">
         <v>84034</v>
@@ -15784,7 +15784,7 @@
         <v>44372</v>
       </c>
       <c r="X169" t="n">
-        <v>36449</v>
+        <v>37006</v>
       </c>
       <c r="Y169" t="n">
         <v>106928</v>
@@ -15796,10 +15796,101 @@
         <v>64974</v>
       </c>
       <c r="AB169" t="n">
-        <v>32289</v>
+        <v>33047</v>
       </c>
       <c r="AC169" t="n">
-        <v>3062731</v>
+        <v>3067173</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>21757</v>
+      </c>
+      <c r="C170" t="n">
+        <v>68935</v>
+      </c>
+      <c r="D170" t="n">
+        <v>38636</v>
+      </c>
+      <c r="E170" t="n">
+        <v>108105</v>
+      </c>
+      <c r="F170" t="n">
+        <v>198767</v>
+      </c>
+      <c r="G170" t="n">
+        <v>191540</v>
+      </c>
+      <c r="H170" t="n">
+        <v>127484</v>
+      </c>
+      <c r="I170" t="n">
+        <v>94478</v>
+      </c>
+      <c r="J170" t="n">
+        <v>91745</v>
+      </c>
+      <c r="K170" t="n">
+        <v>132060</v>
+      </c>
+      <c r="L170" t="n">
+        <v>67144</v>
+      </c>
+      <c r="M170" t="n">
+        <v>32562</v>
+      </c>
+      <c r="N170" t="n">
+        <v>156551</v>
+      </c>
+      <c r="O170" t="n">
+        <v>171878</v>
+      </c>
+      <c r="P170" t="n">
+        <v>91819</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>95943</v>
+      </c>
+      <c r="R170" t="n">
+        <v>105982</v>
+      </c>
+      <c r="S170" t="n">
+        <v>62465</v>
+      </c>
+      <c r="T170" t="n">
+        <v>182563</v>
+      </c>
+      <c r="U170" t="n">
+        <v>57921</v>
+      </c>
+      <c r="V170" t="n">
+        <v>87415</v>
+      </c>
+      <c r="W170" t="n">
+        <v>45468</v>
+      </c>
+      <c r="X170" t="n">
+        <v>37006</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>109522</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>639562</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>65455</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>33047</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>3115810</v>
       </c>
     </row>
   </sheetData>
@@ -15813,7 +15904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28472,7 +28563,7 @@
         <v>2426</v>
       </c>
       <c r="L139" t="n">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="M139" t="n">
         <v>161</v>
@@ -28523,7 +28614,7 @@
         <v>255</v>
       </c>
       <c r="AC139" t="n">
-        <v>71560</v>
+        <v>71578</v>
       </c>
     </row>
     <row r="140">
@@ -28745,7 +28836,7 @@
         <v>2536</v>
       </c>
       <c r="L142" t="n">
-        <v>1105</v>
+        <v>1157</v>
       </c>
       <c r="M142" t="n">
         <v>183</v>
@@ -28796,7 +28887,7 @@
         <v>271</v>
       </c>
       <c r="AC142" t="n">
-        <v>74272</v>
+        <v>74324</v>
       </c>
     </row>
     <row r="143">
@@ -28836,7 +28927,7 @@
         <v>2572</v>
       </c>
       <c r="L143" t="n">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M143" t="n">
         <v>191</v>
@@ -28887,7 +28978,7 @@
         <v>278</v>
       </c>
       <c r="AC143" t="n">
-        <v>75605</v>
+        <v>75604</v>
       </c>
     </row>
     <row r="144">
@@ -31175,7 +31266,7 @@
         <v>562</v>
       </c>
       <c r="C169" t="n">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="D169" t="n">
         <v>603</v>
@@ -31190,7 +31281,7 @@
         <v>7994</v>
       </c>
       <c r="H169" t="n">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="I169" t="n">
         <v>2764</v>
@@ -31205,7 +31296,7 @@
         <v>2204</v>
       </c>
       <c r="M169" t="n">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="N169" t="n">
         <v>3597</v>
@@ -31229,7 +31320,7 @@
         <v>14108</v>
       </c>
       <c r="U169" t="n">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="V169" t="n">
         <v>2417</v>
@@ -31238,10 +31329,10 @@
         <v>944</v>
       </c>
       <c r="X169" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Y169" t="n">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="Z169" t="n">
         <v>25151</v>
@@ -31250,10 +31341,101 @@
         <v>1614</v>
       </c>
       <c r="AB169" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AC169" t="n">
-        <v>101944</v>
+        <v>101999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-11</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>565</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D170" t="n">
+        <v>604</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3405</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4067</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8043</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1819</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2783</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2122</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3204</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2239</v>
+      </c>
+      <c r="M170" t="n">
+        <v>545</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3613</v>
+      </c>
+      <c r="O170" t="n">
+        <v>5909</v>
+      </c>
+      <c r="P170" t="n">
+        <v>2046</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>2445</v>
+      </c>
+      <c r="R170" t="n">
+        <v>7008</v>
+      </c>
+      <c r="S170" t="n">
+        <v>1548</v>
+      </c>
+      <c r="T170" t="n">
+        <v>14212</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2003</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2472</v>
+      </c>
+      <c r="W170" t="n">
+        <v>966</v>
+      </c>
+      <c r="X170" t="n">
+        <v>551</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1619</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>25571</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>1633</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>474</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>103166</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15581,7 +15581,7 @@
         <v>89893</v>
       </c>
       <c r="Q167" t="n">
-        <v>89966</v>
+        <v>91127</v>
       </c>
       <c r="R167" t="n">
         <v>104113</v>
@@ -15617,7 +15617,7 @@
         <v>31663</v>
       </c>
       <c r="AC167" t="n">
-        <v>3017236</v>
+        <v>3018397</v>
       </c>
     </row>
     <row r="168">
@@ -15672,7 +15672,7 @@
         <v>90082</v>
       </c>
       <c r="Q168" t="n">
-        <v>89966</v>
+        <v>92866</v>
       </c>
       <c r="R168" t="n">
         <v>105381</v>
@@ -15708,7 +15708,7 @@
         <v>32289</v>
       </c>
       <c r="AC168" t="n">
-        <v>3038227</v>
+        <v>3041127</v>
       </c>
     </row>
     <row r="169">
@@ -15763,7 +15763,7 @@
         <v>90366</v>
       </c>
       <c r="Q169" t="n">
-        <v>94124</v>
+        <v>94373</v>
       </c>
       <c r="R169" t="n">
         <v>105381</v>
@@ -15799,7 +15799,7 @@
         <v>33047</v>
       </c>
       <c r="AC169" t="n">
-        <v>3067173</v>
+        <v>3067422</v>
       </c>
     </row>
     <row r="170">
@@ -15833,7 +15833,7 @@
         <v>94478</v>
       </c>
       <c r="J170" t="n">
-        <v>91745</v>
+        <v>91849</v>
       </c>
       <c r="K170" t="n">
         <v>132060</v>
@@ -15842,7 +15842,7 @@
         <v>67144</v>
       </c>
       <c r="M170" t="n">
-        <v>32562</v>
+        <v>33509</v>
       </c>
       <c r="N170" t="n">
         <v>156551</v>
@@ -15875,7 +15875,7 @@
         <v>45468</v>
       </c>
       <c r="X170" t="n">
-        <v>37006</v>
+        <v>37579</v>
       </c>
       <c r="Y170" t="n">
         <v>109522</v>
@@ -15887,10 +15887,101 @@
         <v>65455</v>
       </c>
       <c r="AB170" t="n">
-        <v>33047</v>
+        <v>33766</v>
       </c>
       <c r="AC170" t="n">
-        <v>3115810</v>
+        <v>3118153</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>21993</v>
+      </c>
+      <c r="C171" t="n">
+        <v>69751</v>
+      </c>
+      <c r="D171" t="n">
+        <v>38801</v>
+      </c>
+      <c r="E171" t="n">
+        <v>108920</v>
+      </c>
+      <c r="F171" t="n">
+        <v>203020</v>
+      </c>
+      <c r="G171" t="n">
+        <v>192652</v>
+      </c>
+      <c r="H171" t="n">
+        <v>129184</v>
+      </c>
+      <c r="I171" t="n">
+        <v>95753</v>
+      </c>
+      <c r="J171" t="n">
+        <v>95235</v>
+      </c>
+      <c r="K171" t="n">
+        <v>133265</v>
+      </c>
+      <c r="L171" t="n">
+        <v>69085</v>
+      </c>
+      <c r="M171" t="n">
+        <v>33509</v>
+      </c>
+      <c r="N171" t="n">
+        <v>160485</v>
+      </c>
+      <c r="O171" t="n">
+        <v>173625</v>
+      </c>
+      <c r="P171" t="n">
+        <v>92897</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>97785</v>
+      </c>
+      <c r="R171" t="n">
+        <v>107375</v>
+      </c>
+      <c r="S171" t="n">
+        <v>63662</v>
+      </c>
+      <c r="T171" t="n">
+        <v>185610</v>
+      </c>
+      <c r="U171" t="n">
+        <v>58132</v>
+      </c>
+      <c r="V171" t="n">
+        <v>90049</v>
+      </c>
+      <c r="W171" t="n">
+        <v>46061</v>
+      </c>
+      <c r="X171" t="n">
+        <v>38270</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>112401</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>655181</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>65865</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>33766</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3172332</v>
       </c>
     </row>
   </sheetData>
@@ -15904,7 +15995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31126,7 +31217,7 @@
         <v>1983</v>
       </c>
       <c r="Q167" t="n">
-        <v>2345</v>
+        <v>2319</v>
       </c>
       <c r="R167" t="n">
         <v>6920</v>
@@ -31162,7 +31253,7 @@
         <v>451</v>
       </c>
       <c r="AC167" t="n">
-        <v>100683</v>
+        <v>100657</v>
       </c>
     </row>
     <row r="168">
@@ -31372,7 +31463,7 @@
         <v>8043</v>
       </c>
       <c r="H170" t="n">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="I170" t="n">
         <v>2783</v>
@@ -31387,7 +31478,7 @@
         <v>2239</v>
       </c>
       <c r="M170" t="n">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="N170" t="n">
         <v>3613</v>
@@ -31411,7 +31502,7 @@
         <v>14212</v>
       </c>
       <c r="U170" t="n">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="V170" t="n">
         <v>2472</v>
@@ -31420,7 +31511,7 @@
         <v>966</v>
       </c>
       <c r="X170" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Y170" t="n">
         <v>1619</v>
@@ -31432,10 +31523,101 @@
         <v>1633</v>
       </c>
       <c r="AB170" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AC170" t="n">
-        <v>103166</v>
+        <v>103203</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>569</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D171" t="n">
+        <v>606</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3417</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4135</v>
+      </c>
+      <c r="G171" t="n">
+        <v>8076</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1870</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2805</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2182</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3215</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2264</v>
+      </c>
+      <c r="M171" t="n">
+        <v>559</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3783</v>
+      </c>
+      <c r="O171" t="n">
+        <v>5917</v>
+      </c>
+      <c r="P171" t="n">
+        <v>2071</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>2516</v>
+      </c>
+      <c r="R171" t="n">
+        <v>7049</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1567</v>
+      </c>
+      <c r="T171" t="n">
+        <v>14295</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2019</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2540</v>
+      </c>
+      <c r="W171" t="n">
+        <v>981</v>
+      </c>
+      <c r="X171" t="n">
+        <v>561</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>25869</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>1653</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>482</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>104349</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15775,7 +15775,7 @@
         <v>180016</v>
       </c>
       <c r="U169" t="n">
-        <v>57921</v>
+        <v>58132</v>
       </c>
       <c r="V169" t="n">
         <v>84034</v>
@@ -15799,7 +15799,7 @@
         <v>33047</v>
       </c>
       <c r="AC169" t="n">
-        <v>3067422</v>
+        <v>3067633</v>
       </c>
     </row>
     <row r="170">
@@ -15866,7 +15866,7 @@
         <v>182563</v>
       </c>
       <c r="U170" t="n">
-        <v>57921</v>
+        <v>58072</v>
       </c>
       <c r="V170" t="n">
         <v>87415</v>
@@ -15890,7 +15890,7 @@
         <v>33766</v>
       </c>
       <c r="AC170" t="n">
-        <v>3118153</v>
+        <v>3118304</v>
       </c>
     </row>
     <row r="171">
@@ -15924,7 +15924,7 @@
         <v>95753</v>
       </c>
       <c r="J171" t="n">
-        <v>95235</v>
+        <v>95177</v>
       </c>
       <c r="K171" t="n">
         <v>133265</v>
@@ -15933,7 +15933,7 @@
         <v>69085</v>
       </c>
       <c r="M171" t="n">
-        <v>33509</v>
+        <v>34559</v>
       </c>
       <c r="N171" t="n">
         <v>160485</v>
@@ -15957,7 +15957,7 @@
         <v>185610</v>
       </c>
       <c r="U171" t="n">
-        <v>58132</v>
+        <v>58072</v>
       </c>
       <c r="V171" t="n">
         <v>90049</v>
@@ -15978,10 +15978,101 @@
         <v>65865</v>
       </c>
       <c r="AB171" t="n">
-        <v>33766</v>
+        <v>34409</v>
       </c>
       <c r="AC171" t="n">
-        <v>3172332</v>
+        <v>3173907</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>22242</v>
+      </c>
+      <c r="C172" t="n">
+        <v>70629</v>
+      </c>
+      <c r="D172" t="n">
+        <v>39015</v>
+      </c>
+      <c r="E172" t="n">
+        <v>109802</v>
+      </c>
+      <c r="F172" t="n">
+        <v>206955</v>
+      </c>
+      <c r="G172" t="n">
+        <v>195298</v>
+      </c>
+      <c r="H172" t="n">
+        <v>131170</v>
+      </c>
+      <c r="I172" t="n">
+        <v>96949</v>
+      </c>
+      <c r="J172" t="n">
+        <v>98422</v>
+      </c>
+      <c r="K172" t="n">
+        <v>134193</v>
+      </c>
+      <c r="L172" t="n">
+        <v>70708</v>
+      </c>
+      <c r="M172" t="n">
+        <v>34559</v>
+      </c>
+      <c r="N172" t="n">
+        <v>164915</v>
+      </c>
+      <c r="O172" t="n">
+        <v>175608</v>
+      </c>
+      <c r="P172" t="n">
+        <v>93794</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>99667</v>
+      </c>
+      <c r="R172" t="n">
+        <v>108842</v>
+      </c>
+      <c r="S172" t="n">
+        <v>64595</v>
+      </c>
+      <c r="T172" t="n">
+        <v>188085</v>
+      </c>
+      <c r="U172" t="n">
+        <v>58072</v>
+      </c>
+      <c r="V172" t="n">
+        <v>92560</v>
+      </c>
+      <c r="W172" t="n">
+        <v>46676</v>
+      </c>
+      <c r="X172" t="n">
+        <v>38897</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>115032</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>674455</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>66810</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>34409</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>3232359</v>
       </c>
     </row>
   </sheetData>
@@ -15995,7 +16086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31411,7 +31502,7 @@
         <v>14108</v>
       </c>
       <c r="U169" t="n">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="V169" t="n">
         <v>2417</v>
@@ -31435,7 +31526,7 @@
         <v>474</v>
       </c>
       <c r="AC169" t="n">
-        <v>101999</v>
+        <v>102015</v>
       </c>
     </row>
     <row r="170">
@@ -31569,7 +31660,7 @@
         <v>2264</v>
       </c>
       <c r="M171" t="n">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="N171" t="n">
         <v>3783</v>
@@ -31587,13 +31678,13 @@
         <v>7049</v>
       </c>
       <c r="S171" t="n">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="T171" t="n">
         <v>14295</v>
       </c>
       <c r="U171" t="n">
-        <v>2019</v>
+        <v>2042</v>
       </c>
       <c r="V171" t="n">
         <v>2540</v>
@@ -31614,10 +31705,101 @@
         <v>1653</v>
       </c>
       <c r="AB171" t="n">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="AC171" t="n">
-        <v>104349</v>
+        <v>104393</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>574</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D172" t="n">
+        <v>609</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3435</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4202</v>
+      </c>
+      <c r="G172" t="n">
+        <v>8113</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2823</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2238</v>
+      </c>
+      <c r="K172" t="n">
+        <v>3228</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2302</v>
+      </c>
+      <c r="M172" t="n">
+        <v>570</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3846</v>
+      </c>
+      <c r="O172" t="n">
+        <v>5924</v>
+      </c>
+      <c r="P172" t="n">
+        <v>2092</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>2576</v>
+      </c>
+      <c r="R172" t="n">
+        <v>7084</v>
+      </c>
+      <c r="S172" t="n">
+        <v>1582</v>
+      </c>
+      <c r="T172" t="n">
+        <v>14412</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2042</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2584</v>
+      </c>
+      <c r="W172" t="n">
+        <v>993</v>
+      </c>
+      <c r="X172" t="n">
+        <v>565</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1696</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>26324</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>493</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>105603</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16024,7 +16024,7 @@
         <v>70708</v>
       </c>
       <c r="M172" t="n">
-        <v>34559</v>
+        <v>35434</v>
       </c>
       <c r="N172" t="n">
         <v>164915</v>
@@ -16069,10 +16069,101 @@
         <v>66810</v>
       </c>
       <c r="AB172" t="n">
-        <v>34409</v>
+        <v>35403</v>
       </c>
       <c r="AC172" t="n">
-        <v>3232359</v>
+        <v>3234228</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>22435</v>
+      </c>
+      <c r="C173" t="n">
+        <v>71232</v>
+      </c>
+      <c r="D173" t="n">
+        <v>39244</v>
+      </c>
+      <c r="E173" t="n">
+        <v>110777</v>
+      </c>
+      <c r="F173" t="n">
+        <v>210993</v>
+      </c>
+      <c r="G173" t="n">
+        <v>196667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>133166</v>
+      </c>
+      <c r="I173" t="n">
+        <v>98106</v>
+      </c>
+      <c r="J173" t="n">
+        <v>100897</v>
+      </c>
+      <c r="K173" t="n">
+        <v>135324</v>
+      </c>
+      <c r="L173" t="n">
+        <v>72269</v>
+      </c>
+      <c r="M173" t="n">
+        <v>35434</v>
+      </c>
+      <c r="N173" t="n">
+        <v>168428</v>
+      </c>
+      <c r="O173" t="n">
+        <v>177010</v>
+      </c>
+      <c r="P173" t="n">
+        <v>94660</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>101844</v>
+      </c>
+      <c r="R173" t="n">
+        <v>110409</v>
+      </c>
+      <c r="S173" t="n">
+        <v>65638</v>
+      </c>
+      <c r="T173" t="n">
+        <v>189891</v>
+      </c>
+      <c r="U173" t="n">
+        <v>58072</v>
+      </c>
+      <c r="V173" t="n">
+        <v>95142</v>
+      </c>
+      <c r="W173" t="n">
+        <v>47288</v>
+      </c>
+      <c r="X173" t="n">
+        <v>39397</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>118183</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>686122</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>67225</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>35403</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>3281256</v>
       </c>
     </row>
   </sheetData>
@@ -16086,7 +16177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31751,7 +31842,7 @@
         <v>2302</v>
       </c>
       <c r="M172" t="n">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="N172" t="n">
         <v>3846</v>
@@ -31769,13 +31860,13 @@
         <v>7084</v>
       </c>
       <c r="S172" t="n">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="T172" t="n">
         <v>14412</v>
       </c>
       <c r="U172" t="n">
-        <v>2042</v>
+        <v>2047</v>
       </c>
       <c r="V172" t="n">
         <v>2584</v>
@@ -31796,10 +31887,101 @@
         <v>1670</v>
       </c>
       <c r="AB172" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AC172" t="n">
-        <v>105603</v>
+        <v>105635</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>576</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D173" t="n">
+        <v>612</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3455</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4271</v>
+      </c>
+      <c r="G173" t="n">
+        <v>8127</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1935</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2849</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2286</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3240</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2336</v>
+      </c>
+      <c r="M173" t="n">
+        <v>591</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3943</v>
+      </c>
+      <c r="O173" t="n">
+        <v>5932</v>
+      </c>
+      <c r="P173" t="n">
+        <v>2113</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>2612</v>
+      </c>
+      <c r="R173" t="n">
+        <v>7111</v>
+      </c>
+      <c r="S173" t="n">
+        <v>1594</v>
+      </c>
+      <c r="T173" t="n">
+        <v>14507</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2047</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2631</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1001</v>
+      </c>
+      <c r="X173" t="n">
+        <v>568</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1742</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>26613</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>1684</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>106608</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC173"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16115,7 +16115,7 @@
         <v>72269</v>
       </c>
       <c r="M173" t="n">
-        <v>35434</v>
+        <v>36542</v>
       </c>
       <c r="N173" t="n">
         <v>168428</v>
@@ -16160,10 +16160,101 @@
         <v>67225</v>
       </c>
       <c r="AB173" t="n">
-        <v>35403</v>
+        <v>36478</v>
       </c>
       <c r="AC173" t="n">
-        <v>3281256</v>
+        <v>3283439</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>22516</v>
+      </c>
+      <c r="C174" t="n">
+        <v>72076</v>
+      </c>
+      <c r="D174" t="n">
+        <v>39431</v>
+      </c>
+      <c r="E174" t="n">
+        <v>111241</v>
+      </c>
+      <c r="F174" t="n">
+        <v>214379</v>
+      </c>
+      <c r="G174" t="n">
+        <v>197381</v>
+      </c>
+      <c r="H174" t="n">
+        <v>135014</v>
+      </c>
+      <c r="I174" t="n">
+        <v>98765</v>
+      </c>
+      <c r="J174" t="n">
+        <v>101305</v>
+      </c>
+      <c r="K174" t="n">
+        <v>136280</v>
+      </c>
+      <c r="L174" t="n">
+        <v>72791</v>
+      </c>
+      <c r="M174" t="n">
+        <v>36542</v>
+      </c>
+      <c r="N174" t="n">
+        <v>171514</v>
+      </c>
+      <c r="O174" t="n">
+        <v>177969</v>
+      </c>
+      <c r="P174" t="n">
+        <v>95588</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>103771</v>
+      </c>
+      <c r="R174" t="n">
+        <v>111773</v>
+      </c>
+      <c r="S174" t="n">
+        <v>67078</v>
+      </c>
+      <c r="T174" t="n">
+        <v>190614</v>
+      </c>
+      <c r="U174" t="n">
+        <v>58072</v>
+      </c>
+      <c r="V174" t="n">
+        <v>97445</v>
+      </c>
+      <c r="W174" t="n">
+        <v>47652</v>
+      </c>
+      <c r="X174" t="n">
+        <v>39623</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>120001</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>697530</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>67701</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>36478</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>3320530</v>
       </c>
     </row>
   </sheetData>
@@ -16177,7 +16268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC173"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31933,7 +32024,7 @@
         <v>2336</v>
       </c>
       <c r="M173" t="n">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="N173" t="n">
         <v>3943</v>
@@ -31957,7 +32048,7 @@
         <v>14507</v>
       </c>
       <c r="U173" t="n">
-        <v>2047</v>
+        <v>2068</v>
       </c>
       <c r="V173" t="n">
         <v>2631</v>
@@ -31978,10 +32069,101 @@
         <v>1684</v>
       </c>
       <c r="AB173" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AC173" t="n">
-        <v>106608</v>
+        <v>106642</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>576</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D174" t="n">
+        <v>613</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3463</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4338</v>
+      </c>
+      <c r="G174" t="n">
+        <v>8129</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1959</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2864</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2322</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3253</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2363</v>
+      </c>
+      <c r="M174" t="n">
+        <v>598</v>
+      </c>
+      <c r="N174" t="n">
+        <v>4044</v>
+      </c>
+      <c r="O174" t="n">
+        <v>5940</v>
+      </c>
+      <c r="P174" t="n">
+        <v>2138</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>2665</v>
+      </c>
+      <c r="R174" t="n">
+        <v>7156</v>
+      </c>
+      <c r="S174" t="n">
+        <v>1608</v>
+      </c>
+      <c r="T174" t="n">
+        <v>14526</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2068</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2647</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1012</v>
+      </c>
+      <c r="X174" t="n">
+        <v>568</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1767</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>26780</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>1696</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>506</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>107341</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16197,7 +16197,7 @@
         <v>98765</v>
       </c>
       <c r="J174" t="n">
-        <v>101305</v>
+        <v>101290</v>
       </c>
       <c r="K174" t="n">
         <v>136280</v>
@@ -16206,7 +16206,7 @@
         <v>72791</v>
       </c>
       <c r="M174" t="n">
-        <v>36542</v>
+        <v>36836</v>
       </c>
       <c r="N174" t="n">
         <v>171514</v>
@@ -16224,7 +16224,7 @@
         <v>111773</v>
       </c>
       <c r="S174" t="n">
-        <v>67078</v>
+        <v>66078</v>
       </c>
       <c r="T174" t="n">
         <v>190614</v>
@@ -16251,10 +16251,101 @@
         <v>67701</v>
       </c>
       <c r="AB174" t="n">
-        <v>36478</v>
+        <v>36989</v>
       </c>
       <c r="AC174" t="n">
-        <v>3320530</v>
+        <v>3320320</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>22548</v>
+      </c>
+      <c r="C175" t="n">
+        <v>72734</v>
+      </c>
+      <c r="D175" t="n">
+        <v>39518</v>
+      </c>
+      <c r="E175" t="n">
+        <v>111912</v>
+      </c>
+      <c r="F175" t="n">
+        <v>216030</v>
+      </c>
+      <c r="G175" t="n">
+        <v>197691</v>
+      </c>
+      <c r="H175" t="n">
+        <v>136467</v>
+      </c>
+      <c r="I175" t="n">
+        <v>99580</v>
+      </c>
+      <c r="J175" t="n">
+        <v>101919</v>
+      </c>
+      <c r="K175" t="n">
+        <v>136853</v>
+      </c>
+      <c r="L175" t="n">
+        <v>73269</v>
+      </c>
+      <c r="M175" t="n">
+        <v>36836</v>
+      </c>
+      <c r="N175" t="n">
+        <v>174402</v>
+      </c>
+      <c r="O175" t="n">
+        <v>178375</v>
+      </c>
+      <c r="P175" t="n">
+        <v>96033</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>105104</v>
+      </c>
+      <c r="R175" t="n">
+        <v>112958</v>
+      </c>
+      <c r="S175" t="n">
+        <v>66315</v>
+      </c>
+      <c r="T175" t="n">
+        <v>194279</v>
+      </c>
+      <c r="U175" t="n">
+        <v>58072</v>
+      </c>
+      <c r="V175" t="n">
+        <v>97877</v>
+      </c>
+      <c r="W175" t="n">
+        <v>47837</v>
+      </c>
+      <c r="X175" t="n">
+        <v>39623</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>120880</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>699493</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>67997</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>36989</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>3341591</v>
       </c>
     </row>
   </sheetData>
@@ -16268,7 +16359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32106,7 +32197,7 @@
         <v>2864</v>
       </c>
       <c r="J174" t="n">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="K174" t="n">
         <v>3253</v>
@@ -32115,7 +32206,7 @@
         <v>2363</v>
       </c>
       <c r="M174" t="n">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="N174" t="n">
         <v>4044</v>
@@ -32160,10 +32251,101 @@
         <v>1696</v>
       </c>
       <c r="AB174" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AC174" t="n">
-        <v>107341</v>
+        <v>107366</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>576</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D175" t="n">
+        <v>613</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3483</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4406</v>
+      </c>
+      <c r="G175" t="n">
+        <v>8133</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1976</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2875</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3264</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2377</v>
+      </c>
+      <c r="M175" t="n">
+        <v>626</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4132</v>
+      </c>
+      <c r="O175" t="n">
+        <v>5945</v>
+      </c>
+      <c r="P175" t="n">
+        <v>2162</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>2691</v>
+      </c>
+      <c r="R175" t="n">
+        <v>7188</v>
+      </c>
+      <c r="S175" t="n">
+        <v>1619</v>
+      </c>
+      <c r="T175" t="n">
+        <v>14562</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2068</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2689</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1013</v>
+      </c>
+      <c r="X175" t="n">
+        <v>568</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1797</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>26852</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>1705</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>511</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>107914</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16297,7 +16297,7 @@
         <v>73269</v>
       </c>
       <c r="M175" t="n">
-        <v>36836</v>
+        <v>37425</v>
       </c>
       <c r="N175" t="n">
         <v>174402</v>
@@ -16321,7 +16321,7 @@
         <v>194279</v>
       </c>
       <c r="U175" t="n">
-        <v>58072</v>
+        <v>58095</v>
       </c>
       <c r="V175" t="n">
         <v>97877</v>
@@ -16330,7 +16330,7 @@
         <v>47837</v>
       </c>
       <c r="X175" t="n">
-        <v>39623</v>
+        <v>39665</v>
       </c>
       <c r="Y175" t="n">
         <v>120880</v>
@@ -16342,10 +16342,101 @@
         <v>67997</v>
       </c>
       <c r="AB175" t="n">
-        <v>36989</v>
+        <v>37856</v>
       </c>
       <c r="AC175" t="n">
-        <v>3341591</v>
+        <v>3343112</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>22605</v>
+      </c>
+      <c r="C176" t="n">
+        <v>72938</v>
+      </c>
+      <c r="D176" t="n">
+        <v>39703</v>
+      </c>
+      <c r="E176" t="n">
+        <v>112263</v>
+      </c>
+      <c r="F176" t="n">
+        <v>217115</v>
+      </c>
+      <c r="G176" t="n">
+        <v>198252</v>
+      </c>
+      <c r="H176" t="n">
+        <v>138735</v>
+      </c>
+      <c r="I176" t="n">
+        <v>100859</v>
+      </c>
+      <c r="J176" t="n">
+        <v>104588</v>
+      </c>
+      <c r="K176" t="n">
+        <v>137408</v>
+      </c>
+      <c r="L176" t="n">
+        <v>74770</v>
+      </c>
+      <c r="M176" t="n">
+        <v>37425</v>
+      </c>
+      <c r="N176" t="n">
+        <v>175715</v>
+      </c>
+      <c r="O176" t="n">
+        <v>180090</v>
+      </c>
+      <c r="P176" t="n">
+        <v>96223</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>106379</v>
+      </c>
+      <c r="R176" t="n">
+        <v>113183</v>
+      </c>
+      <c r="S176" t="n">
+        <v>67226</v>
+      </c>
+      <c r="T176" t="n">
+        <v>194651</v>
+      </c>
+      <c r="U176" t="n">
+        <v>58095</v>
+      </c>
+      <c r="V176" t="n">
+        <v>98007</v>
+      </c>
+      <c r="W176" t="n">
+        <v>48232</v>
+      </c>
+      <c r="X176" t="n">
+        <v>39665</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>121666</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>702665</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>68313</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>37856</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>3364627</v>
       </c>
     </row>
   </sheetData>
@@ -16359,7 +16450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32191,7 +32282,7 @@
         <v>8129</v>
       </c>
       <c r="H174" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="I174" t="n">
         <v>2864</v>
@@ -32254,7 +32345,7 @@
         <v>511</v>
       </c>
       <c r="AC174" t="n">
-        <v>107366</v>
+        <v>107365</v>
       </c>
     </row>
     <row r="175">
@@ -32297,7 +32388,7 @@
         <v>2377</v>
       </c>
       <c r="M175" t="n">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="N175" t="n">
         <v>4132</v>
@@ -32321,7 +32412,7 @@
         <v>14562</v>
       </c>
       <c r="U175" t="n">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="V175" t="n">
         <v>2689</v>
@@ -32342,10 +32433,101 @@
         <v>1705</v>
       </c>
       <c r="AB175" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AC175" t="n">
-        <v>107914</v>
+        <v>107952</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>582</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D176" t="n">
+        <v>617</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3505</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4475</v>
+      </c>
+      <c r="G176" t="n">
+        <v>8172</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2043</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2908</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2378</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3277</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2416</v>
+      </c>
+      <c r="M176" t="n">
+        <v>640</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4223</v>
+      </c>
+      <c r="O176" t="n">
+        <v>5975</v>
+      </c>
+      <c r="P176" t="n">
+        <v>2183</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>2733</v>
+      </c>
+      <c r="R176" t="n">
+        <v>7210</v>
+      </c>
+      <c r="S176" t="n">
+        <v>1637</v>
+      </c>
+      <c r="T176" t="n">
+        <v>14566</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2087</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2744</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1017</v>
+      </c>
+      <c r="X176" t="n">
+        <v>568</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1839</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>26899</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>1717</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>516</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>108690</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16309,7 +16309,7 @@
         <v>96033</v>
       </c>
       <c r="Q175" t="n">
-        <v>105104</v>
+        <v>105106</v>
       </c>
       <c r="R175" t="n">
         <v>112958</v>
@@ -16345,7 +16345,7 @@
         <v>37856</v>
       </c>
       <c r="AC175" t="n">
-        <v>3343112</v>
+        <v>3343114</v>
       </c>
     </row>
     <row r="176">
@@ -16388,7 +16388,7 @@
         <v>74770</v>
       </c>
       <c r="M176" t="n">
-        <v>37425</v>
+        <v>38393</v>
       </c>
       <c r="N176" t="n">
         <v>175715</v>
@@ -16412,7 +16412,7 @@
         <v>194651</v>
       </c>
       <c r="U176" t="n">
-        <v>58095</v>
+        <v>58504</v>
       </c>
       <c r="V176" t="n">
         <v>98007</v>
@@ -16421,7 +16421,7 @@
         <v>48232</v>
       </c>
       <c r="X176" t="n">
-        <v>39665</v>
+        <v>40183</v>
       </c>
       <c r="Y176" t="n">
         <v>121666</v>
@@ -16433,10 +16433,101 @@
         <v>68313</v>
       </c>
       <c r="AB176" t="n">
-        <v>37856</v>
+        <v>38845</v>
       </c>
       <c r="AC176" t="n">
-        <v>3364627</v>
+        <v>3367511</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>22933</v>
+      </c>
+      <c r="C177" t="n">
+        <v>73701</v>
+      </c>
+      <c r="D177" t="n">
+        <v>39957</v>
+      </c>
+      <c r="E177" t="n">
+        <v>112881</v>
+      </c>
+      <c r="F177" t="n">
+        <v>221041</v>
+      </c>
+      <c r="G177" t="n">
+        <v>199828</v>
+      </c>
+      <c r="H177" t="n">
+        <v>140170</v>
+      </c>
+      <c r="I177" t="n">
+        <v>101874</v>
+      </c>
+      <c r="J177" t="n">
+        <v>107658</v>
+      </c>
+      <c r="K177" t="n">
+        <v>139185</v>
+      </c>
+      <c r="L177" t="n">
+        <v>76540</v>
+      </c>
+      <c r="M177" t="n">
+        <v>38393</v>
+      </c>
+      <c r="N177" t="n">
+        <v>177787</v>
+      </c>
+      <c r="O177" t="n">
+        <v>182231</v>
+      </c>
+      <c r="P177" t="n">
+        <v>97497</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>108237</v>
+      </c>
+      <c r="R177" t="n">
+        <v>113788</v>
+      </c>
+      <c r="S177" t="n">
+        <v>68475</v>
+      </c>
+      <c r="T177" t="n">
+        <v>199480</v>
+      </c>
+      <c r="U177" t="n">
+        <v>58504</v>
+      </c>
+      <c r="V177" t="n">
+        <v>101217</v>
+      </c>
+      <c r="W177" t="n">
+        <v>48923</v>
+      </c>
+      <c r="X177" t="n">
+        <v>40501</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>124313</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>711530</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>68699</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>38845</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3414188</v>
       </c>
     </row>
   </sheetData>
@@ -16450,7 +16541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32479,7 +32570,7 @@
         <v>2416</v>
       </c>
       <c r="M176" t="n">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="N176" t="n">
         <v>4223</v>
@@ -32503,7 +32594,7 @@
         <v>14566</v>
       </c>
       <c r="U176" t="n">
-        <v>2087</v>
+        <v>2108</v>
       </c>
       <c r="V176" t="n">
         <v>2744</v>
@@ -32512,7 +32603,7 @@
         <v>1017</v>
       </c>
       <c r="X176" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Y176" t="n">
         <v>1839</v>
@@ -32524,10 +32615,101 @@
         <v>1717</v>
       </c>
       <c r="AB176" t="n">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AC176" t="n">
-        <v>108690</v>
+        <v>108749</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-18</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>590</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D177" t="n">
+        <v>619</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3524</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4542</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8202</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2938</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2464</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3289</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2437</v>
+      </c>
+      <c r="M177" t="n">
+        <v>657</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4306</v>
+      </c>
+      <c r="O177" t="n">
+        <v>6015</v>
+      </c>
+      <c r="P177" t="n">
+        <v>2203</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>2781</v>
+      </c>
+      <c r="R177" t="n">
+        <v>7252</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1653</v>
+      </c>
+      <c r="T177" t="n">
+        <v>14728</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2108</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2822</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1026</v>
+      </c>
+      <c r="X177" t="n">
+        <v>575</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1883</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>27315</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>531</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>110063</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16470,7 +16470,7 @@
         <v>101874</v>
       </c>
       <c r="J177" t="n">
-        <v>107658</v>
+        <v>107910</v>
       </c>
       <c r="K177" t="n">
         <v>139185</v>
@@ -16479,7 +16479,7 @@
         <v>76540</v>
       </c>
       <c r="M177" t="n">
-        <v>38393</v>
+        <v>39381</v>
       </c>
       <c r="N177" t="n">
         <v>177787</v>
@@ -16503,7 +16503,7 @@
         <v>199480</v>
       </c>
       <c r="U177" t="n">
-        <v>58504</v>
+        <v>58864</v>
       </c>
       <c r="V177" t="n">
         <v>101217</v>
@@ -16524,10 +16524,101 @@
         <v>68699</v>
       </c>
       <c r="AB177" t="n">
-        <v>38845</v>
+        <v>39832</v>
       </c>
       <c r="AC177" t="n">
-        <v>3414188</v>
+        <v>3416775</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-19</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>23146</v>
+      </c>
+      <c r="C178" t="n">
+        <v>74140</v>
+      </c>
+      <c r="D178" t="n">
+        <v>40211</v>
+      </c>
+      <c r="E178" t="n">
+        <v>113592</v>
+      </c>
+      <c r="F178" t="n">
+        <v>224659</v>
+      </c>
+      <c r="G178" t="n">
+        <v>201201</v>
+      </c>
+      <c r="H178" t="n">
+        <v>141762</v>
+      </c>
+      <c r="I178" t="n">
+        <v>103090</v>
+      </c>
+      <c r="J178" t="n">
+        <v>110704</v>
+      </c>
+      <c r="K178" t="n">
+        <v>140571</v>
+      </c>
+      <c r="L178" t="n">
+        <v>78235</v>
+      </c>
+      <c r="M178" t="n">
+        <v>39381</v>
+      </c>
+      <c r="N178" t="n">
+        <v>181158</v>
+      </c>
+      <c r="O178" t="n">
+        <v>184253</v>
+      </c>
+      <c r="P178" t="n">
+        <v>98494</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>109896</v>
+      </c>
+      <c r="R178" t="n">
+        <v>115217</v>
+      </c>
+      <c r="S178" t="n">
+        <v>69839</v>
+      </c>
+      <c r="T178" t="n">
+        <v>202993</v>
+      </c>
+      <c r="U178" t="n">
+        <v>58864</v>
+      </c>
+      <c r="V178" t="n">
+        <v>103891</v>
+      </c>
+      <c r="W178" t="n">
+        <v>49721</v>
+      </c>
+      <c r="X178" t="n">
+        <v>40989</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>126850</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>721377</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>69067</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>39832</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>3463133</v>
       </c>
     </row>
   </sheetData>
@@ -16541,7 +16632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32555,7 +32646,7 @@
         <v>8172</v>
       </c>
       <c r="H176" t="n">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="I176" t="n">
         <v>2908</v>
@@ -32618,7 +32709,7 @@
         <v>531</v>
       </c>
       <c r="AC176" t="n">
-        <v>108749</v>
+        <v>108748</v>
       </c>
     </row>
     <row r="177">
@@ -32646,7 +32737,7 @@
         <v>8202</v>
       </c>
       <c r="H177" t="n">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="I177" t="n">
         <v>2938</v>
@@ -32661,7 +32752,7 @@
         <v>2437</v>
       </c>
       <c r="M177" t="n">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="N177" t="n">
         <v>4306</v>
@@ -32685,7 +32776,7 @@
         <v>14728</v>
       </c>
       <c r="U177" t="n">
-        <v>2108</v>
+        <v>2132</v>
       </c>
       <c r="V177" t="n">
         <v>2822</v>
@@ -32706,10 +32797,101 @@
         <v>1729</v>
       </c>
       <c r="AB177" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="AC177" t="n">
-        <v>110063</v>
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-19</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>591</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D178" t="n">
+        <v>622</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3537</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4611</v>
+      </c>
+      <c r="G178" t="n">
+        <v>8241</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2158</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2963</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2516</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3302</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2481</v>
+      </c>
+      <c r="M178" t="n">
+        <v>671</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4436</v>
+      </c>
+      <c r="O178" t="n">
+        <v>6027</v>
+      </c>
+      <c r="P178" t="n">
+        <v>2223</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>2808</v>
+      </c>
+      <c r="R178" t="n">
+        <v>7280</v>
+      </c>
+      <c r="S178" t="n">
+        <v>1660</v>
+      </c>
+      <c r="T178" t="n">
+        <v>14913</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2132</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2881</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1037</v>
+      </c>
+      <c r="X178" t="n">
+        <v>576</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1918</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>27591</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>1745</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>536</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>111240</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15957,7 +15957,7 @@
         <v>185610</v>
       </c>
       <c r="U171" t="n">
-        <v>58072</v>
+        <v>57272</v>
       </c>
       <c r="V171" t="n">
         <v>90049</v>
@@ -15981,7 +15981,7 @@
         <v>34409</v>
       </c>
       <c r="AC171" t="n">
-        <v>3173907</v>
+        <v>3173107</v>
       </c>
     </row>
     <row r="172">
@@ -16048,7 +16048,7 @@
         <v>188085</v>
       </c>
       <c r="U172" t="n">
-        <v>58072</v>
+        <v>57664</v>
       </c>
       <c r="V172" t="n">
         <v>92560</v>
@@ -16072,7 +16072,7 @@
         <v>35403</v>
       </c>
       <c r="AC172" t="n">
-        <v>3234228</v>
+        <v>3233820</v>
       </c>
     </row>
     <row r="173">
@@ -16139,7 +16139,7 @@
         <v>189891</v>
       </c>
       <c r="U173" t="n">
-        <v>58072</v>
+        <v>57860</v>
       </c>
       <c r="V173" t="n">
         <v>95142</v>
@@ -16163,7 +16163,7 @@
         <v>36478</v>
       </c>
       <c r="AC173" t="n">
-        <v>3283439</v>
+        <v>3283227</v>
       </c>
     </row>
     <row r="174">
@@ -16230,7 +16230,7 @@
         <v>190614</v>
       </c>
       <c r="U174" t="n">
-        <v>58072</v>
+        <v>57860</v>
       </c>
       <c r="V174" t="n">
         <v>97445</v>
@@ -16254,7 +16254,7 @@
         <v>36989</v>
       </c>
       <c r="AC174" t="n">
-        <v>3320320</v>
+        <v>3320108</v>
       </c>
     </row>
     <row r="175">
@@ -16570,7 +16570,7 @@
         <v>78235</v>
       </c>
       <c r="M178" t="n">
-        <v>39381</v>
+        <v>40201</v>
       </c>
       <c r="N178" t="n">
         <v>181158</v>
@@ -16594,7 +16594,7 @@
         <v>202993</v>
       </c>
       <c r="U178" t="n">
-        <v>58864</v>
+        <v>59335</v>
       </c>
       <c r="V178" t="n">
         <v>103891</v>
@@ -16615,10 +16615,101 @@
         <v>69067</v>
       </c>
       <c r="AB178" t="n">
-        <v>39832</v>
+        <v>40786</v>
       </c>
       <c r="AC178" t="n">
-        <v>3463133</v>
+        <v>3465378</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>23322</v>
+      </c>
+      <c r="C179" t="n">
+        <v>74622</v>
+      </c>
+      <c r="D179" t="n">
+        <v>40603</v>
+      </c>
+      <c r="E179" t="n">
+        <v>114335</v>
+      </c>
+      <c r="F179" t="n">
+        <v>228596</v>
+      </c>
+      <c r="G179" t="n">
+        <v>202422</v>
+      </c>
+      <c r="H179" t="n">
+        <v>143759</v>
+      </c>
+      <c r="I179" t="n">
+        <v>104169</v>
+      </c>
+      <c r="J179" t="n">
+        <v>112002</v>
+      </c>
+      <c r="K179" t="n">
+        <v>141860</v>
+      </c>
+      <c r="L179" t="n">
+        <v>79715</v>
+      </c>
+      <c r="M179" t="n">
+        <v>40201</v>
+      </c>
+      <c r="N179" t="n">
+        <v>185062</v>
+      </c>
+      <c r="O179" t="n">
+        <v>186646</v>
+      </c>
+      <c r="P179" t="n">
+        <v>99445</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>112245</v>
+      </c>
+      <c r="R179" t="n">
+        <v>116359</v>
+      </c>
+      <c r="S179" t="n">
+        <v>70536</v>
+      </c>
+      <c r="T179" t="n">
+        <v>205916</v>
+      </c>
+      <c r="U179" t="n">
+        <v>59335</v>
+      </c>
+      <c r="V179" t="n">
+        <v>104068</v>
+      </c>
+      <c r="W179" t="n">
+        <v>50147</v>
+      </c>
+      <c r="X179" t="n">
+        <v>41191</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>129072</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>730828</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>69502</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>40786</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>3506744</v>
       </c>
     </row>
   </sheetData>
@@ -16632,7 +16723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32828,7 +32919,7 @@
         <v>8241</v>
       </c>
       <c r="H178" t="n">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="I178" t="n">
         <v>2963</v>
@@ -32843,7 +32934,7 @@
         <v>2481</v>
       </c>
       <c r="M178" t="n">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="N178" t="n">
         <v>4436</v>
@@ -32867,7 +32958,7 @@
         <v>14913</v>
       </c>
       <c r="U178" t="n">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="V178" t="n">
         <v>2881</v>
@@ -32888,10 +32979,101 @@
         <v>1745</v>
       </c>
       <c r="AB178" t="n">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="AC178" t="n">
-        <v>111240</v>
+        <v>111263</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>595</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1793</v>
+      </c>
+      <c r="D179" t="n">
+        <v>626</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3551</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4685</v>
+      </c>
+      <c r="G179" t="n">
+        <v>8245</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2625</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3315</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2518</v>
+      </c>
+      <c r="M179" t="n">
+        <v>686</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4543</v>
+      </c>
+      <c r="O179" t="n">
+        <v>6037</v>
+      </c>
+      <c r="P179" t="n">
+        <v>2244</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>2891</v>
+      </c>
+      <c r="R179" t="n">
+        <v>7303</v>
+      </c>
+      <c r="S179" t="n">
+        <v>1672</v>
+      </c>
+      <c r="T179" t="n">
+        <v>15074</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2139</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2948</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1045</v>
+      </c>
+      <c r="X179" t="n">
+        <v>576</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1960</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>27905</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>1757</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>547</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>112460</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15866,7 +15866,7 @@
         <v>182563</v>
       </c>
       <c r="U170" t="n">
-        <v>58072</v>
+        <v>57921</v>
       </c>
       <c r="V170" t="n">
         <v>87415</v>
@@ -15890,7 +15890,7 @@
         <v>33766</v>
       </c>
       <c r="AC170" t="n">
-        <v>3118304</v>
+        <v>3118153</v>
       </c>
     </row>
     <row r="171">
@@ -16652,7 +16652,7 @@
         <v>104169</v>
       </c>
       <c r="J179" t="n">
-        <v>112002</v>
+        <v>111985</v>
       </c>
       <c r="K179" t="n">
         <v>141860</v>
@@ -16661,7 +16661,7 @@
         <v>79715</v>
       </c>
       <c r="M179" t="n">
-        <v>40201</v>
+        <v>40711</v>
       </c>
       <c r="N179" t="n">
         <v>185062</v>
@@ -16685,7 +16685,7 @@
         <v>205916</v>
       </c>
       <c r="U179" t="n">
-        <v>59335</v>
+        <v>59388</v>
       </c>
       <c r="V179" t="n">
         <v>104068</v>
@@ -16706,10 +16706,101 @@
         <v>69502</v>
       </c>
       <c r="AB179" t="n">
-        <v>40786</v>
+        <v>41848</v>
       </c>
       <c r="AC179" t="n">
-        <v>3506744</v>
+        <v>3508352</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>23337</v>
+      </c>
+      <c r="C180" t="n">
+        <v>74839</v>
+      </c>
+      <c r="D180" t="n">
+        <v>40875</v>
+      </c>
+      <c r="E180" t="n">
+        <v>114792</v>
+      </c>
+      <c r="F180" t="n">
+        <v>229743</v>
+      </c>
+      <c r="G180" t="n">
+        <v>202999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>145452</v>
+      </c>
+      <c r="I180" t="n">
+        <v>104988</v>
+      </c>
+      <c r="J180" t="n">
+        <v>114705</v>
+      </c>
+      <c r="K180" t="n">
+        <v>143103</v>
+      </c>
+      <c r="L180" t="n">
+        <v>80876</v>
+      </c>
+      <c r="M180" t="n">
+        <v>40711</v>
+      </c>
+      <c r="N180" t="n">
+        <v>188623</v>
+      </c>
+      <c r="O180" t="n">
+        <v>188644</v>
+      </c>
+      <c r="P180" t="n">
+        <v>100290</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>114588</v>
+      </c>
+      <c r="R180" t="n">
+        <v>117431</v>
+      </c>
+      <c r="S180" t="n">
+        <v>71510</v>
+      </c>
+      <c r="T180" t="n">
+        <v>207036</v>
+      </c>
+      <c r="U180" t="n">
+        <v>59388</v>
+      </c>
+      <c r="V180" t="n">
+        <v>104335</v>
+      </c>
+      <c r="W180" t="n">
+        <v>50514</v>
+      </c>
+      <c r="X180" t="n">
+        <v>41527</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>130349</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>735960</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>69845</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>41848</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>3538308</v>
       </c>
     </row>
   </sheetData>
@@ -16723,7 +16814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32230,7 +32321,7 @@
         <v>14212</v>
       </c>
       <c r="U170" t="n">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="V170" t="n">
         <v>2472</v>
@@ -32254,7 +32345,7 @@
         <v>482</v>
       </c>
       <c r="AC170" t="n">
-        <v>103203</v>
+        <v>103209</v>
       </c>
     </row>
     <row r="171">
@@ -33025,7 +33116,7 @@
         <v>2518</v>
       </c>
       <c r="M179" t="n">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="N179" t="n">
         <v>4543</v>
@@ -33049,7 +33140,7 @@
         <v>15074</v>
       </c>
       <c r="U179" t="n">
-        <v>2139</v>
+        <v>2160</v>
       </c>
       <c r="V179" t="n">
         <v>2948</v>
@@ -33070,10 +33161,101 @@
         <v>1757</v>
       </c>
       <c r="AB179" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="AC179" t="n">
-        <v>112460</v>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>598</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1802</v>
+      </c>
+      <c r="D180" t="n">
+        <v>627</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3556</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4757</v>
+      </c>
+      <c r="G180" t="n">
+        <v>8268</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2242</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3002</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2688</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3328</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2540</v>
+      </c>
+      <c r="M180" t="n">
+        <v>697</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4663</v>
+      </c>
+      <c r="O180" t="n">
+        <v>6047</v>
+      </c>
+      <c r="P180" t="n">
+        <v>2268</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>2928</v>
+      </c>
+      <c r="R180" t="n">
+        <v>7335</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1701</v>
+      </c>
+      <c r="T180" t="n">
+        <v>15202</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2160</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2993</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X180" t="n">
+        <v>579</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1995</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>28155</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>1761</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>556</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>113498</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16785,7 +16785,7 @@
         <v>50514</v>
       </c>
       <c r="X180" t="n">
-        <v>41527</v>
+        <v>41191</v>
       </c>
       <c r="Y180" t="n">
         <v>130349</v>
@@ -16800,7 +16800,98 @@
         <v>41848</v>
       </c>
       <c r="AC180" t="n">
-        <v>3538308</v>
+        <v>3537972</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>23665</v>
+      </c>
+      <c r="C181" t="n">
+        <v>75470</v>
+      </c>
+      <c r="D181" t="n">
+        <v>41031</v>
+      </c>
+      <c r="E181" t="n">
+        <v>115369</v>
+      </c>
+      <c r="F181" t="n">
+        <v>234204</v>
+      </c>
+      <c r="G181" t="n">
+        <v>204931</v>
+      </c>
+      <c r="H181" t="n">
+        <v>147127</v>
+      </c>
+      <c r="I181" t="n">
+        <v>105633</v>
+      </c>
+      <c r="J181" t="n">
+        <v>115771</v>
+      </c>
+      <c r="K181" t="n">
+        <v>143873</v>
+      </c>
+      <c r="L181" t="n">
+        <v>80938</v>
+      </c>
+      <c r="M181" t="n">
+        <v>41888</v>
+      </c>
+      <c r="N181" t="n">
+        <v>191507</v>
+      </c>
+      <c r="O181" t="n">
+        <v>189289</v>
+      </c>
+      <c r="P181" t="n">
+        <v>100970</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>116848</v>
+      </c>
+      <c r="R181" t="n">
+        <v>118027</v>
+      </c>
+      <c r="S181" t="n">
+        <v>71510</v>
+      </c>
+      <c r="T181" t="n">
+        <v>210464</v>
+      </c>
+      <c r="U181" t="n">
+        <v>59393</v>
+      </c>
+      <c r="V181" t="n">
+        <v>108839</v>
+      </c>
+      <c r="W181" t="n">
+        <v>50995</v>
+      </c>
+      <c r="X181" t="n">
+        <v>41527</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>132008</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>749244</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>70252</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>42839</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>3583612</v>
       </c>
     </row>
   </sheetData>
@@ -16814,7 +16905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33207,7 +33298,7 @@
         <v>2540</v>
       </c>
       <c r="M180" t="n">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N180" t="n">
         <v>4663</v>
@@ -33240,7 +33331,7 @@
         <v>1050</v>
       </c>
       <c r="X180" t="n">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y180" t="n">
         <v>1995</v>
@@ -33255,7 +33346,98 @@
         <v>556</v>
       </c>
       <c r="AC180" t="n">
-        <v>113498</v>
+        <v>113494</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>598</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D181" t="n">
+        <v>630</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3557</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4832</v>
+      </c>
+      <c r="G181" t="n">
+        <v>8288</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2257</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3016</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2735</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3340</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2540</v>
+      </c>
+      <c r="M181" t="n">
+        <v>722</v>
+      </c>
+      <c r="N181" t="n">
+        <v>4737</v>
+      </c>
+      <c r="O181" t="n">
+        <v>6057</v>
+      </c>
+      <c r="P181" t="n">
+        <v>2288</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>2961</v>
+      </c>
+      <c r="R181" t="n">
+        <v>7364</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1701</v>
+      </c>
+      <c r="T181" t="n">
+        <v>15267</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2165</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3046</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1061</v>
+      </c>
+      <c r="X181" t="n">
+        <v>579</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2027</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>28392</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>573</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>114314</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16752,7 +16752,7 @@
         <v>80876</v>
       </c>
       <c r="M180" t="n">
-        <v>40711</v>
+        <v>41888</v>
       </c>
       <c r="N180" t="n">
         <v>188623</v>
@@ -16776,7 +16776,7 @@
         <v>207036</v>
       </c>
       <c r="U180" t="n">
-        <v>59388</v>
+        <v>59590</v>
       </c>
       <c r="V180" t="n">
         <v>104335</v>
@@ -16785,7 +16785,7 @@
         <v>50514</v>
       </c>
       <c r="X180" t="n">
-        <v>41191</v>
+        <v>41527</v>
       </c>
       <c r="Y180" t="n">
         <v>130349</v>
@@ -16797,10 +16797,10 @@
         <v>69845</v>
       </c>
       <c r="AB180" t="n">
-        <v>41848</v>
+        <v>42839</v>
       </c>
       <c r="AC180" t="n">
-        <v>3537972</v>
+        <v>3540678</v>
       </c>
     </row>
     <row r="181">
@@ -16834,16 +16834,16 @@
         <v>105633</v>
       </c>
       <c r="J181" t="n">
-        <v>115771</v>
+        <v>116058</v>
       </c>
       <c r="K181" t="n">
         <v>143873</v>
       </c>
       <c r="L181" t="n">
-        <v>80938</v>
+        <v>81469</v>
       </c>
       <c r="M181" t="n">
-        <v>41888</v>
+        <v>42498</v>
       </c>
       <c r="N181" t="n">
         <v>191507</v>
@@ -16861,13 +16861,13 @@
         <v>118027</v>
       </c>
       <c r="S181" t="n">
-        <v>71510</v>
+        <v>71899</v>
       </c>
       <c r="T181" t="n">
         <v>210464</v>
       </c>
       <c r="U181" t="n">
-        <v>59393</v>
+        <v>59590</v>
       </c>
       <c r="V181" t="n">
         <v>108839</v>
@@ -16876,7 +16876,7 @@
         <v>50995</v>
       </c>
       <c r="X181" t="n">
-        <v>41527</v>
+        <v>41730</v>
       </c>
       <c r="Y181" t="n">
         <v>132008</v>
@@ -16888,10 +16888,101 @@
         <v>70252</v>
       </c>
       <c r="AB181" t="n">
-        <v>42839</v>
+        <v>43596</v>
       </c>
       <c r="AC181" t="n">
-        <v>3583612</v>
+        <v>3586586</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>23719</v>
+      </c>
+      <c r="C182" t="n">
+        <v>75857</v>
+      </c>
+      <c r="D182" t="n">
+        <v>41120</v>
+      </c>
+      <c r="E182" t="n">
+        <v>115615</v>
+      </c>
+      <c r="F182" t="n">
+        <v>236050</v>
+      </c>
+      <c r="G182" t="n">
+        <v>205441</v>
+      </c>
+      <c r="H182" t="n">
+        <v>148998</v>
+      </c>
+      <c r="I182" t="n">
+        <v>105892</v>
+      </c>
+      <c r="J182" t="n">
+        <v>116755</v>
+      </c>
+      <c r="K182" t="n">
+        <v>144400</v>
+      </c>
+      <c r="L182" t="n">
+        <v>81822</v>
+      </c>
+      <c r="M182" t="n">
+        <v>42498</v>
+      </c>
+      <c r="N182" t="n">
+        <v>194614</v>
+      </c>
+      <c r="O182" t="n">
+        <v>189582</v>
+      </c>
+      <c r="P182" t="n">
+        <v>101132</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>117959</v>
+      </c>
+      <c r="R182" t="n">
+        <v>119140</v>
+      </c>
+      <c r="S182" t="n">
+        <v>72165</v>
+      </c>
+      <c r="T182" t="n">
+        <v>210948</v>
+      </c>
+      <c r="U182" t="n">
+        <v>59590</v>
+      </c>
+      <c r="V182" t="n">
+        <v>109873</v>
+      </c>
+      <c r="W182" t="n">
+        <v>51421</v>
+      </c>
+      <c r="X182" t="n">
+        <v>41770</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>132492</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>754129</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>70472</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>43596</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>3607050</v>
       </c>
     </row>
   </sheetData>
@@ -16905,7 +16996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33298,7 +33389,7 @@
         <v>2540</v>
       </c>
       <c r="M180" t="n">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="N180" t="n">
         <v>4663</v>
@@ -33322,7 +33413,7 @@
         <v>15202</v>
       </c>
       <c r="U180" t="n">
-        <v>2160</v>
+        <v>2171</v>
       </c>
       <c r="V180" t="n">
         <v>2993</v>
@@ -33331,7 +33422,7 @@
         <v>1050</v>
       </c>
       <c r="X180" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Y180" t="n">
         <v>1995</v>
@@ -33343,10 +33434,10 @@
         <v>1761</v>
       </c>
       <c r="AB180" t="n">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="AC180" t="n">
-        <v>113494</v>
+        <v>113551</v>
       </c>
     </row>
     <row r="181">
@@ -33386,10 +33477,10 @@
         <v>3340</v>
       </c>
       <c r="L181" t="n">
-        <v>2540</v>
+        <v>2558</v>
       </c>
       <c r="M181" t="n">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="N181" t="n">
         <v>4737</v>
@@ -33407,13 +33498,13 @@
         <v>7364</v>
       </c>
       <c r="S181" t="n">
-        <v>1701</v>
+        <v>1714</v>
       </c>
       <c r="T181" t="n">
         <v>15267</v>
       </c>
       <c r="U181" t="n">
-        <v>2165</v>
+        <v>2171</v>
       </c>
       <c r="V181" t="n">
         <v>3046</v>
@@ -33434,10 +33525,101 @@
         <v>1771</v>
       </c>
       <c r="AB181" t="n">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AC181" t="n">
-        <v>114314</v>
+        <v>114379</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>600</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D182" t="n">
+        <v>631</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3563</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4905</v>
+      </c>
+      <c r="G182" t="n">
+        <v>8289</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2274</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3026</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2746</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3352</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2572</v>
+      </c>
+      <c r="M182" t="n">
+        <v>738</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4790</v>
+      </c>
+      <c r="O182" t="n">
+        <v>6062</v>
+      </c>
+      <c r="P182" t="n">
+        <v>2308</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>2977</v>
+      </c>
+      <c r="R182" t="n">
+        <v>7390</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1724</v>
+      </c>
+      <c r="T182" t="n">
+        <v>15292</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2171</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3062</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1065</v>
+      </c>
+      <c r="X182" t="n">
+        <v>579</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2042</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>28467</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>1782</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>585</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>114810</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16925,7 +16925,7 @@
         <v>105892</v>
       </c>
       <c r="J182" t="n">
-        <v>116755</v>
+        <v>116664</v>
       </c>
       <c r="K182" t="n">
         <v>144400</v>
@@ -16934,7 +16934,7 @@
         <v>81822</v>
       </c>
       <c r="M182" t="n">
-        <v>42498</v>
+        <v>43065</v>
       </c>
       <c r="N182" t="n">
         <v>194614</v>
@@ -16958,7 +16958,7 @@
         <v>210948</v>
       </c>
       <c r="U182" t="n">
-        <v>59590</v>
+        <v>59846</v>
       </c>
       <c r="V182" t="n">
         <v>109873</v>
@@ -16979,10 +16979,101 @@
         <v>70472</v>
       </c>
       <c r="AB182" t="n">
-        <v>43596</v>
+        <v>44273</v>
       </c>
       <c r="AC182" t="n">
-        <v>3607050</v>
+        <v>3608459</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>23729</v>
+      </c>
+      <c r="C183" t="n">
+        <v>76495</v>
+      </c>
+      <c r="D183" t="n">
+        <v>41254</v>
+      </c>
+      <c r="E183" t="n">
+        <v>115792</v>
+      </c>
+      <c r="F183" t="n">
+        <v>237208</v>
+      </c>
+      <c r="G183" t="n">
+        <v>205875</v>
+      </c>
+      <c r="H183" t="n">
+        <v>150519</v>
+      </c>
+      <c r="I183" t="n">
+        <v>106494</v>
+      </c>
+      <c r="J183" t="n">
+        <v>120223</v>
+      </c>
+      <c r="K183" t="n">
+        <v>144895</v>
+      </c>
+      <c r="L183" t="n">
+        <v>83490</v>
+      </c>
+      <c r="M183" t="n">
+        <v>43065</v>
+      </c>
+      <c r="N183" t="n">
+        <v>195920</v>
+      </c>
+      <c r="O183" t="n">
+        <v>191609</v>
+      </c>
+      <c r="P183" t="n">
+        <v>101303</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>119004</v>
+      </c>
+      <c r="R183" t="n">
+        <v>119357</v>
+      </c>
+      <c r="S183" t="n">
+        <v>72956</v>
+      </c>
+      <c r="T183" t="n">
+        <v>211360</v>
+      </c>
+      <c r="U183" t="n">
+        <v>59846</v>
+      </c>
+      <c r="V183" t="n">
+        <v>109953</v>
+      </c>
+      <c r="W183" t="n">
+        <v>51791</v>
+      </c>
+      <c r="X183" t="n">
+        <v>41770</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>133533</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>756480</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>70606</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>44273</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>3628800</v>
       </c>
     </row>
   </sheetData>
@@ -16996,7 +17087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33562,7 +33653,7 @@
         <v>3026</v>
       </c>
       <c r="J182" t="n">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="K182" t="n">
         <v>3352</v>
@@ -33571,7 +33662,7 @@
         <v>2572</v>
       </c>
       <c r="M182" t="n">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="N182" t="n">
         <v>4790</v>
@@ -33595,7 +33686,7 @@
         <v>15292</v>
       </c>
       <c r="U182" t="n">
-        <v>2171</v>
+        <v>2179</v>
       </c>
       <c r="V182" t="n">
         <v>3062</v>
@@ -33616,10 +33707,101 @@
         <v>1782</v>
       </c>
       <c r="AB182" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="AC182" t="n">
-        <v>114810</v>
+        <v>114834</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>604</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D183" t="n">
+        <v>637</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3578</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4981</v>
+      </c>
+      <c r="G183" t="n">
+        <v>8335</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2316</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2804</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3365</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2614</v>
+      </c>
+      <c r="M183" t="n">
+        <v>749</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4805</v>
+      </c>
+      <c r="O183" t="n">
+        <v>6078</v>
+      </c>
+      <c r="P183" t="n">
+        <v>2330</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>3010</v>
+      </c>
+      <c r="R183" t="n">
+        <v>7399</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1741</v>
+      </c>
+      <c r="T183" t="n">
+        <v>15392</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2179</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3102</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1073</v>
+      </c>
+      <c r="X183" t="n">
+        <v>579</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2066</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>28505</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>1793</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>593</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>115500</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -17016,7 +17016,7 @@
         <v>106494</v>
       </c>
       <c r="J183" t="n">
-        <v>120223</v>
+        <v>120515</v>
       </c>
       <c r="K183" t="n">
         <v>144895</v>
@@ -17058,7 +17058,7 @@
         <v>51791</v>
       </c>
       <c r="X183" t="n">
-        <v>41770</v>
+        <v>42044</v>
       </c>
       <c r="Y183" t="n">
         <v>133533</v>
@@ -17073,7 +17073,7 @@
         <v>44273</v>
       </c>
       <c r="AC183" t="n">
-        <v>3628800</v>
+        <v>3629366</v>
       </c>
     </row>
   </sheetData>
@@ -33786,7 +33786,7 @@
         <v>1073</v>
       </c>
       <c r="X183" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Y183" t="n">
         <v>2066</v>
@@ -33801,7 +33801,7 @@
         <v>593</v>
       </c>
       <c r="AC183" t="n">
-        <v>115500</v>
+        <v>115503</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17016,7 +17016,7 @@
         <v>106494</v>
       </c>
       <c r="J183" t="n">
-        <v>120515</v>
+        <v>120223</v>
       </c>
       <c r="K183" t="n">
         <v>144895</v>
@@ -17025,7 +17025,7 @@
         <v>83490</v>
       </c>
       <c r="M183" t="n">
-        <v>43065</v>
+        <v>44324</v>
       </c>
       <c r="N183" t="n">
         <v>195920</v>
@@ -17049,7 +17049,7 @@
         <v>211360</v>
       </c>
       <c r="U183" t="n">
-        <v>59846</v>
+        <v>60358</v>
       </c>
       <c r="V183" t="n">
         <v>109953</v>
@@ -17070,10 +17070,101 @@
         <v>70606</v>
       </c>
       <c r="AB183" t="n">
-        <v>44273</v>
+        <v>45400</v>
       </c>
       <c r="AC183" t="n">
-        <v>3629366</v>
+        <v>3631972</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>23936</v>
+      </c>
+      <c r="C184" t="n">
+        <v>76894</v>
+      </c>
+      <c r="D184" t="n">
+        <v>41553</v>
+      </c>
+      <c r="E184" t="n">
+        <v>116579</v>
+      </c>
+      <c r="F184" t="n">
+        <v>240939</v>
+      </c>
+      <c r="G184" t="n">
+        <v>207631</v>
+      </c>
+      <c r="H184" t="n">
+        <v>153690</v>
+      </c>
+      <c r="I184" t="n">
+        <v>107191</v>
+      </c>
+      <c r="J184" t="n">
+        <v>123306</v>
+      </c>
+      <c r="K184" t="n">
+        <v>145921</v>
+      </c>
+      <c r="L184" t="n">
+        <v>85253</v>
+      </c>
+      <c r="M184" t="n">
+        <v>44324</v>
+      </c>
+      <c r="N184" t="n">
+        <v>198736</v>
+      </c>
+      <c r="O184" t="n">
+        <v>193564</v>
+      </c>
+      <c r="P184" t="n">
+        <v>102208</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>120537</v>
+      </c>
+      <c r="R184" t="n">
+        <v>119958</v>
+      </c>
+      <c r="S184" t="n">
+        <v>74096</v>
+      </c>
+      <c r="T184" t="n">
+        <v>214003</v>
+      </c>
+      <c r="U184" t="n">
+        <v>60358</v>
+      </c>
+      <c r="V184" t="n">
+        <v>112763</v>
+      </c>
+      <c r="W184" t="n">
+        <v>52514</v>
+      </c>
+      <c r="X184" t="n">
+        <v>42359</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>135690</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>765670</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>70926</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>45400</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>3675999</v>
       </c>
     </row>
   </sheetData>
@@ -17087,7 +17178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33753,7 +33844,7 @@
         <v>2614</v>
       </c>
       <c r="M183" t="n">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="N183" t="n">
         <v>4805</v>
@@ -33777,7 +33868,7 @@
         <v>15392</v>
       </c>
       <c r="U183" t="n">
-        <v>2179</v>
+        <v>2198</v>
       </c>
       <c r="V183" t="n">
         <v>3102</v>
@@ -33798,10 +33889,101 @@
         <v>1793</v>
       </c>
       <c r="AB183" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="AC183" t="n">
-        <v>115503</v>
+        <v>115557</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>607</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1836</v>
+      </c>
+      <c r="D184" t="n">
+        <v>642</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3588</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5051</v>
+      </c>
+      <c r="G184" t="n">
+        <v>8346</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2344</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3068</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2862</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3377</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2653</v>
+      </c>
+      <c r="M184" t="n">
+        <v>767</v>
+      </c>
+      <c r="N184" t="n">
+        <v>4847</v>
+      </c>
+      <c r="O184" t="n">
+        <v>6097</v>
+      </c>
+      <c r="P184" t="n">
+        <v>2350</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>3062</v>
+      </c>
+      <c r="R184" t="n">
+        <v>7425</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1754</v>
+      </c>
+      <c r="T184" t="n">
+        <v>15560</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2198</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3161</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1087</v>
+      </c>
+      <c r="X184" t="n">
+        <v>582</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2116</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>28912</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>1808</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>610</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>116710</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17116,7 +17116,7 @@
         <v>85253</v>
       </c>
       <c r="M184" t="n">
-        <v>44324</v>
+        <v>45359</v>
       </c>
       <c r="N184" t="n">
         <v>198736</v>
@@ -17140,7 +17140,7 @@
         <v>214003</v>
       </c>
       <c r="U184" t="n">
-        <v>60358</v>
+        <v>60639</v>
       </c>
       <c r="V184" t="n">
         <v>112763</v>
@@ -17161,10 +17161,101 @@
         <v>70926</v>
       </c>
       <c r="AB184" t="n">
-        <v>45400</v>
+        <v>46364</v>
       </c>
       <c r="AC184" t="n">
-        <v>3675999</v>
+        <v>3678279</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>24119</v>
+      </c>
+      <c r="C185" t="n">
+        <v>77317</v>
+      </c>
+      <c r="D185" t="n">
+        <v>41981</v>
+      </c>
+      <c r="E185" t="n">
+        <v>117412</v>
+      </c>
+      <c r="F185" t="n">
+        <v>245021</v>
+      </c>
+      <c r="G185" t="n">
+        <v>209363</v>
+      </c>
+      <c r="H185" t="n">
+        <v>155253</v>
+      </c>
+      <c r="I185" t="n">
+        <v>107909</v>
+      </c>
+      <c r="J185" t="n">
+        <v>126420</v>
+      </c>
+      <c r="K185" t="n">
+        <v>147676</v>
+      </c>
+      <c r="L185" t="n">
+        <v>86704</v>
+      </c>
+      <c r="M185" t="n">
+        <v>45359</v>
+      </c>
+      <c r="N185" t="n">
+        <v>201973</v>
+      </c>
+      <c r="O185" t="n">
+        <v>195297</v>
+      </c>
+      <c r="P185" t="n">
+        <v>103213</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>122241</v>
+      </c>
+      <c r="R185" t="n">
+        <v>121078</v>
+      </c>
+      <c r="S185" t="n">
+        <v>75160</v>
+      </c>
+      <c r="T185" t="n">
+        <v>216675</v>
+      </c>
+      <c r="U185" t="n">
+        <v>60639</v>
+      </c>
+      <c r="V185" t="n">
+        <v>115984</v>
+      </c>
+      <c r="W185" t="n">
+        <v>53119</v>
+      </c>
+      <c r="X185" t="n">
+        <v>42690</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>137560</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>776135</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>71222</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>46364</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3723884</v>
       </c>
     </row>
   </sheetData>
@@ -17178,7 +17269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33935,7 +34026,7 @@
         <v>2653</v>
       </c>
       <c r="M184" t="n">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="N184" t="n">
         <v>4847</v>
@@ -33959,7 +34050,7 @@
         <v>15560</v>
       </c>
       <c r="U184" t="n">
-        <v>2198</v>
+        <v>2221</v>
       </c>
       <c r="V184" t="n">
         <v>3161</v>
@@ -33980,10 +34071,101 @@
         <v>1808</v>
       </c>
       <c r="AB184" t="n">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="AC184" t="n">
-        <v>116710</v>
+        <v>116760</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>607</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D185" t="n">
+        <v>647</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5116</v>
+      </c>
+      <c r="G185" t="n">
+        <v>8362</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2399</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3086</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2933</v>
+      </c>
+      <c r="K185" t="n">
+        <v>3390</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2668</v>
+      </c>
+      <c r="M185" t="n">
+        <v>784</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4948</v>
+      </c>
+      <c r="O185" t="n">
+        <v>6102</v>
+      </c>
+      <c r="P185" t="n">
+        <v>2371</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>3102</v>
+      </c>
+      <c r="R185" t="n">
+        <v>7460</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1765</v>
+      </c>
+      <c r="T185" t="n">
+        <v>15700</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2221</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3235</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1100</v>
+      </c>
+      <c r="X185" t="n">
+        <v>586</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2142</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>29194</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>1822</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>621</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>117805</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17207,7 +17207,7 @@
         <v>86704</v>
       </c>
       <c r="M185" t="n">
-        <v>45359</v>
+        <v>46261</v>
       </c>
       <c r="N185" t="n">
         <v>201973</v>
@@ -17231,7 +17231,7 @@
         <v>216675</v>
       </c>
       <c r="U185" t="n">
-        <v>60639</v>
+        <v>61090</v>
       </c>
       <c r="V185" t="n">
         <v>115984</v>
@@ -17252,10 +17252,192 @@
         <v>71222</v>
       </c>
       <c r="AB185" t="n">
-        <v>46364</v>
+        <v>47558</v>
       </c>
       <c r="AC185" t="n">
-        <v>3723884</v>
+        <v>3726431</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>24269</v>
+      </c>
+      <c r="C186" t="n">
+        <v>77755</v>
+      </c>
+      <c r="D186" t="n">
+        <v>42285</v>
+      </c>
+      <c r="E186" t="n">
+        <v>118083</v>
+      </c>
+      <c r="F186" t="n">
+        <v>247853</v>
+      </c>
+      <c r="G186" t="n">
+        <v>211053</v>
+      </c>
+      <c r="H186" t="n">
+        <v>156863</v>
+      </c>
+      <c r="I186" t="n">
+        <v>108662</v>
+      </c>
+      <c r="J186" t="n">
+        <v>128241</v>
+      </c>
+      <c r="K186" t="n">
+        <v>148923</v>
+      </c>
+      <c r="L186" t="n">
+        <v>88385</v>
+      </c>
+      <c r="M186" t="n">
+        <v>47152</v>
+      </c>
+      <c r="N186" t="n">
+        <v>205942</v>
+      </c>
+      <c r="O186" t="n">
+        <v>196874</v>
+      </c>
+      <c r="P186" t="n">
+        <v>104096</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>124074</v>
+      </c>
+      <c r="R186" t="n">
+        <v>122147</v>
+      </c>
+      <c r="S186" t="n">
+        <v>76033</v>
+      </c>
+      <c r="T186" t="n">
+        <v>219198</v>
+      </c>
+      <c r="U186" t="n">
+        <v>61416</v>
+      </c>
+      <c r="V186" t="n">
+        <v>118315</v>
+      </c>
+      <c r="W186" t="n">
+        <v>53805</v>
+      </c>
+      <c r="X186" t="n">
+        <v>42997</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>139638</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>784453</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>71599</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>48580</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>3768691</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>24462</v>
+      </c>
+      <c r="C187" t="n">
+        <v>78174</v>
+      </c>
+      <c r="D187" t="n">
+        <v>42625</v>
+      </c>
+      <c r="E187" t="n">
+        <v>118844</v>
+      </c>
+      <c r="F187" t="n">
+        <v>250977</v>
+      </c>
+      <c r="G187" t="n">
+        <v>213238</v>
+      </c>
+      <c r="H187" t="n">
+        <v>158180</v>
+      </c>
+      <c r="I187" t="n">
+        <v>109493</v>
+      </c>
+      <c r="J187" t="n">
+        <v>130208</v>
+      </c>
+      <c r="K187" t="n">
+        <v>150144</v>
+      </c>
+      <c r="L187" t="n">
+        <v>91135</v>
+      </c>
+      <c r="M187" t="n">
+        <v>47152</v>
+      </c>
+      <c r="N187" t="n">
+        <v>209465</v>
+      </c>
+      <c r="O187" t="n">
+        <v>198246</v>
+      </c>
+      <c r="P187" t="n">
+        <v>104803</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>126964</v>
+      </c>
+      <c r="R187" t="n">
+        <v>123146</v>
+      </c>
+      <c r="S187" t="n">
+        <v>76916</v>
+      </c>
+      <c r="T187" t="n">
+        <v>219198</v>
+      </c>
+      <c r="U187" t="n">
+        <v>61416</v>
+      </c>
+      <c r="V187" t="n">
+        <v>120739</v>
+      </c>
+      <c r="W187" t="n">
+        <v>54205</v>
+      </c>
+      <c r="X187" t="n">
+        <v>42997</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>141692</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>796209</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>72039</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>48580</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>3811247</v>
       </c>
     </row>
   </sheetData>
@@ -17269,7 +17451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34117,7 +34299,7 @@
         <v>2668</v>
       </c>
       <c r="M185" t="n">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="N185" t="n">
         <v>4948</v>
@@ -34141,7 +34323,7 @@
         <v>15700</v>
       </c>
       <c r="U185" t="n">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="V185" t="n">
         <v>3235</v>
@@ -34162,10 +34344,192 @@
         <v>1822</v>
       </c>
       <c r="AB185" t="n">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="AC185" t="n">
-        <v>117805</v>
+        <v>117839</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>607</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D186" t="n">
+        <v>652</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3616</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5178</v>
+      </c>
+      <c r="G186" t="n">
+        <v>8374</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2425</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3105</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2987</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3402</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2707</v>
+      </c>
+      <c r="M186" t="n">
+        <v>823</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5049</v>
+      </c>
+      <c r="O186" t="n">
+        <v>6106</v>
+      </c>
+      <c r="P186" t="n">
+        <v>2388</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>3153</v>
+      </c>
+      <c r="R186" t="n">
+        <v>7480</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1785</v>
+      </c>
+      <c r="T186" t="n">
+        <v>15859</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2240</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3275</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1109</v>
+      </c>
+      <c r="X186" t="n">
+        <v>587</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2170</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>29415</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>649</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>118824</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>608</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D187" t="n">
+        <v>657</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3629</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5243</v>
+      </c>
+      <c r="G187" t="n">
+        <v>8380</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2440</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3117</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3044</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3412</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2739</v>
+      </c>
+      <c r="M187" t="n">
+        <v>824</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5167</v>
+      </c>
+      <c r="O187" t="n">
+        <v>6109</v>
+      </c>
+      <c r="P187" t="n">
+        <v>2404</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>3194</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7512</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1804</v>
+      </c>
+      <c r="T187" t="n">
+        <v>15859</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2240</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3323</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1114</v>
+      </c>
+      <c r="X187" t="n">
+        <v>587</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2193</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>29694</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>1837</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>649</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>119640</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17386,10 +17386,10 @@
         <v>150144</v>
       </c>
       <c r="L187" t="n">
-        <v>91135</v>
+        <v>90135</v>
       </c>
       <c r="M187" t="n">
-        <v>47152</v>
+        <v>48023</v>
       </c>
       <c r="N187" t="n">
         <v>209465</v>
@@ -17413,7 +17413,7 @@
         <v>219198</v>
       </c>
       <c r="U187" t="n">
-        <v>61416</v>
+        <v>61704</v>
       </c>
       <c r="V187" t="n">
         <v>120739</v>
@@ -17422,7 +17422,7 @@
         <v>54205</v>
       </c>
       <c r="X187" t="n">
-        <v>42997</v>
+        <v>43299</v>
       </c>
       <c r="Y187" t="n">
         <v>141692</v>
@@ -17434,10 +17434,192 @@
         <v>72039</v>
       </c>
       <c r="AB187" t="n">
-        <v>48580</v>
+        <v>49651</v>
       </c>
       <c r="AC187" t="n">
-        <v>3811247</v>
+        <v>3812779</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>24601</v>
+      </c>
+      <c r="C188" t="n">
+        <v>78483</v>
+      </c>
+      <c r="D188" t="n">
+        <v>42771</v>
+      </c>
+      <c r="E188" t="n">
+        <v>120060</v>
+      </c>
+      <c r="F188" t="n">
+        <v>254790</v>
+      </c>
+      <c r="G188" t="n">
+        <v>214094</v>
+      </c>
+      <c r="H188" t="n">
+        <v>159526</v>
+      </c>
+      <c r="I188" t="n">
+        <v>110025</v>
+      </c>
+      <c r="J188" t="n">
+        <v>130541</v>
+      </c>
+      <c r="K188" t="n">
+        <v>150895</v>
+      </c>
+      <c r="L188" t="n">
+        <v>90651</v>
+      </c>
+      <c r="M188" t="n">
+        <v>48522</v>
+      </c>
+      <c r="N188" t="n">
+        <v>212565</v>
+      </c>
+      <c r="O188" t="n">
+        <v>199171</v>
+      </c>
+      <c r="P188" t="n">
+        <v>105531</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>128967</v>
+      </c>
+      <c r="R188" t="n">
+        <v>124151</v>
+      </c>
+      <c r="S188" t="n">
+        <v>77405</v>
+      </c>
+      <c r="T188" t="n">
+        <v>222957</v>
+      </c>
+      <c r="U188" t="n">
+        <v>61704</v>
+      </c>
+      <c r="V188" t="n">
+        <v>124416</v>
+      </c>
+      <c r="W188" t="n">
+        <v>54496</v>
+      </c>
+      <c r="X188" t="n">
+        <v>43470</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>146404</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>801422</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>72280</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>50373</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3850271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>24638</v>
+      </c>
+      <c r="C189" t="n">
+        <v>78637</v>
+      </c>
+      <c r="D189" t="n">
+        <v>42892</v>
+      </c>
+      <c r="E189" t="n">
+        <v>120060</v>
+      </c>
+      <c r="F189" t="n">
+        <v>256062</v>
+      </c>
+      <c r="G189" t="n">
+        <v>214457</v>
+      </c>
+      <c r="H189" t="n">
+        <v>160796</v>
+      </c>
+      <c r="I189" t="n">
+        <v>110351</v>
+      </c>
+      <c r="J189" t="n">
+        <v>130977</v>
+      </c>
+      <c r="K189" t="n">
+        <v>151212</v>
+      </c>
+      <c r="L189" t="n">
+        <v>90895</v>
+      </c>
+      <c r="M189" t="n">
+        <v>48522</v>
+      </c>
+      <c r="N189" t="n">
+        <v>215050</v>
+      </c>
+      <c r="O189" t="n">
+        <v>199556</v>
+      </c>
+      <c r="P189" t="n">
+        <v>105661</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>130603</v>
+      </c>
+      <c r="R189" t="n">
+        <v>125094</v>
+      </c>
+      <c r="S189" t="n">
+        <v>77405</v>
+      </c>
+      <c r="T189" t="n">
+        <v>223302</v>
+      </c>
+      <c r="U189" t="n">
+        <v>61704</v>
+      </c>
+      <c r="V189" t="n">
+        <v>124482</v>
+      </c>
+      <c r="W189" t="n">
+        <v>54679</v>
+      </c>
+      <c r="X189" t="n">
+        <v>43518</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>146864</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>803404</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>72417</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>50373</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3863611</v>
       </c>
     </row>
   </sheetData>
@@ -17451,7 +17633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34481,7 +34663,7 @@
         <v>2739</v>
       </c>
       <c r="M187" t="n">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="N187" t="n">
         <v>5167</v>
@@ -34505,7 +34687,7 @@
         <v>15859</v>
       </c>
       <c r="U187" t="n">
-        <v>2240</v>
+        <v>2248</v>
       </c>
       <c r="V187" t="n">
         <v>3323</v>
@@ -34526,10 +34708,192 @@
         <v>1837</v>
       </c>
       <c r="AB187" t="n">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="AC187" t="n">
-        <v>119640</v>
+        <v>119673</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>608</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D188" t="n">
+        <v>659</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3639</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5302</v>
+      </c>
+      <c r="G188" t="n">
+        <v>8382</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2450</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3066</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3424</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2756</v>
+      </c>
+      <c r="M188" t="n">
+        <v>851</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5270</v>
+      </c>
+      <c r="O188" t="n">
+        <v>6115</v>
+      </c>
+      <c r="P188" t="n">
+        <v>2422</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>3234</v>
+      </c>
+      <c r="R188" t="n">
+        <v>7547</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1825</v>
+      </c>
+      <c r="T188" t="n">
+        <v>16016</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2248</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3385</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1125</v>
+      </c>
+      <c r="X188" t="n">
+        <v>587</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2218</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>29944</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>1839</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>664</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>120575</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>609</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1878</v>
+      </c>
+      <c r="D189" t="n">
+        <v>660</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3639</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5344</v>
+      </c>
+      <c r="G189" t="n">
+        <v>8384</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2469</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3135</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3089</v>
+      </c>
+      <c r="K189" t="n">
+        <v>3436</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2777</v>
+      </c>
+      <c r="M189" t="n">
+        <v>851</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5326</v>
+      </c>
+      <c r="O189" t="n">
+        <v>6146</v>
+      </c>
+      <c r="P189" t="n">
+        <v>2435</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>3251</v>
+      </c>
+      <c r="R189" t="n">
+        <v>7574</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1825</v>
+      </c>
+      <c r="T189" t="n">
+        <v>16027</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2248</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3395</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1129</v>
+      </c>
+      <c r="X189" t="n">
+        <v>587</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2235</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>29978</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>1844</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>664</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>120935</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17571,7 +17571,7 @@
         <v>90895</v>
       </c>
       <c r="M189" t="n">
-        <v>48522</v>
+        <v>48937</v>
       </c>
       <c r="N189" t="n">
         <v>215050</v>
@@ -17595,7 +17595,7 @@
         <v>223302</v>
       </c>
       <c r="U189" t="n">
-        <v>61704</v>
+        <v>61961</v>
       </c>
       <c r="V189" t="n">
         <v>124482</v>
@@ -17616,10 +17616,101 @@
         <v>72417</v>
       </c>
       <c r="AB189" t="n">
-        <v>50373</v>
+        <v>50694</v>
       </c>
       <c r="AC189" t="n">
-        <v>3863611</v>
+        <v>3864604</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>24647</v>
+      </c>
+      <c r="C190" t="n">
+        <v>78804</v>
+      </c>
+      <c r="D190" t="n">
+        <v>43193</v>
+      </c>
+      <c r="E190" t="n">
+        <v>120296</v>
+      </c>
+      <c r="F190" t="n">
+        <v>256727</v>
+      </c>
+      <c r="G190" t="n">
+        <v>214953</v>
+      </c>
+      <c r="H190" t="n">
+        <v>162042</v>
+      </c>
+      <c r="I190" t="n">
+        <v>111263</v>
+      </c>
+      <c r="J190" t="n">
+        <v>133796</v>
+      </c>
+      <c r="K190" t="n">
+        <v>151615</v>
+      </c>
+      <c r="L190" t="n">
+        <v>92265</v>
+      </c>
+      <c r="M190" t="n">
+        <v>48937</v>
+      </c>
+      <c r="N190" t="n">
+        <v>216557</v>
+      </c>
+      <c r="O190" t="n">
+        <v>200985</v>
+      </c>
+      <c r="P190" t="n">
+        <v>105778</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>131906</v>
+      </c>
+      <c r="R190" t="n">
+        <v>125539</v>
+      </c>
+      <c r="S190" t="n">
+        <v>77859</v>
+      </c>
+      <c r="T190" t="n">
+        <v>223631</v>
+      </c>
+      <c r="U190" t="n">
+        <v>61961</v>
+      </c>
+      <c r="V190" t="n">
+        <v>125813</v>
+      </c>
+      <c r="W190" t="n">
+        <v>55153</v>
+      </c>
+      <c r="X190" t="n">
+        <v>43518</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>177777</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>804342</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>72528</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>50694</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3912579</v>
       </c>
     </row>
   </sheetData>
@@ -17633,7 +17724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34845,7 +34936,7 @@
         <v>2777</v>
       </c>
       <c r="M189" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="N189" t="n">
         <v>5326</v>
@@ -34869,7 +34960,7 @@
         <v>16027</v>
       </c>
       <c r="U189" t="n">
-        <v>2248</v>
+        <v>2264</v>
       </c>
       <c r="V189" t="n">
         <v>3395</v>
@@ -34890,10 +34981,101 @@
         <v>1844</v>
       </c>
       <c r="AB189" t="n">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="AC189" t="n">
-        <v>120935</v>
+        <v>120971</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>612</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D190" t="n">
+        <v>661</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3649</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5397</v>
+      </c>
+      <c r="G190" t="n">
+        <v>8409</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2521</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3158</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3159</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3446</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2811</v>
+      </c>
+      <c r="M190" t="n">
+        <v>862</v>
+      </c>
+      <c r="N190" t="n">
+        <v>5335</v>
+      </c>
+      <c r="O190" t="n">
+        <v>6176</v>
+      </c>
+      <c r="P190" t="n">
+        <v>2450</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>3290</v>
+      </c>
+      <c r="R190" t="n">
+        <v>7593</v>
+      </c>
+      <c r="S190" t="n">
+        <v>1843</v>
+      </c>
+      <c r="T190" t="n">
+        <v>16065</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2264</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3435</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1148</v>
+      </c>
+      <c r="X190" t="n">
+        <v>587</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2260</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>30014</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>1857</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>673</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>121562</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17456,7 +17456,7 @@
         <v>42771</v>
       </c>
       <c r="E188" t="n">
-        <v>120060</v>
+        <v>119859</v>
       </c>
       <c r="F188" t="n">
         <v>254790</v>
@@ -17528,7 +17528,7 @@
         <v>50373</v>
       </c>
       <c r="AC188" t="n">
-        <v>3850271</v>
+        <v>3850070</v>
       </c>
     </row>
     <row r="189">
@@ -17662,7 +17662,7 @@
         <v>92265</v>
       </c>
       <c r="M190" t="n">
-        <v>48937</v>
+        <v>49820</v>
       </c>
       <c r="N190" t="n">
         <v>216557</v>
@@ -17686,7 +17686,7 @@
         <v>223631</v>
       </c>
       <c r="U190" t="n">
-        <v>61961</v>
+        <v>62204</v>
       </c>
       <c r="V190" t="n">
         <v>125813</v>
@@ -17695,7 +17695,7 @@
         <v>55153</v>
       </c>
       <c r="X190" t="n">
-        <v>43518</v>
+        <v>43707</v>
       </c>
       <c r="Y190" t="n">
         <v>177777</v>
@@ -17707,10 +17707,101 @@
         <v>72528</v>
       </c>
       <c r="AB190" t="n">
-        <v>50694</v>
+        <v>51629</v>
       </c>
       <c r="AC190" t="n">
-        <v>3912579</v>
+        <v>3914829</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>24840</v>
+      </c>
+      <c r="C191" t="n">
+        <v>79258</v>
+      </c>
+      <c r="D191" t="n">
+        <v>43514</v>
+      </c>
+      <c r="E191" t="n">
+        <v>120919</v>
+      </c>
+      <c r="F191" t="n">
+        <v>259418</v>
+      </c>
+      <c r="G191" t="n">
+        <v>217295</v>
+      </c>
+      <c r="H191" t="n">
+        <v>163498</v>
+      </c>
+      <c r="I191" t="n">
+        <v>112072</v>
+      </c>
+      <c r="J191" t="n">
+        <v>136741</v>
+      </c>
+      <c r="K191" t="n">
+        <v>152681</v>
+      </c>
+      <c r="L191" t="n">
+        <v>93929</v>
+      </c>
+      <c r="M191" t="n">
+        <v>49820</v>
+      </c>
+      <c r="N191" t="n">
+        <v>218781</v>
+      </c>
+      <c r="O191" t="n">
+        <v>202436</v>
+      </c>
+      <c r="P191" t="n">
+        <v>106605</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>133574</v>
+      </c>
+      <c r="R191" t="n">
+        <v>127287</v>
+      </c>
+      <c r="S191" t="n">
+        <v>78922</v>
+      </c>
+      <c r="T191" t="n">
+        <v>226800</v>
+      </c>
+      <c r="U191" t="n">
+        <v>62204</v>
+      </c>
+      <c r="V191" t="n">
+        <v>127799</v>
+      </c>
+      <c r="W191" t="n">
+        <v>55768</v>
+      </c>
+      <c r="X191" t="n">
+        <v>44036</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>180474</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>814375</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>72723</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>51629</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3957398</v>
       </c>
     </row>
   </sheetData>
@@ -17724,7 +17815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34821,7 +34912,7 @@
         <v>659</v>
       </c>
       <c r="E188" t="n">
-        <v>3639</v>
+        <v>3634</v>
       </c>
       <c r="F188" t="n">
         <v>5302</v>
@@ -34893,7 +34984,7 @@
         <v>664</v>
       </c>
       <c r="AC188" t="n">
-        <v>120575</v>
+        <v>120570</v>
       </c>
     </row>
     <row r="189">
@@ -35027,7 +35118,7 @@
         <v>2811</v>
       </c>
       <c r="M190" t="n">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="N190" t="n">
         <v>5335</v>
@@ -35051,7 +35142,7 @@
         <v>16065</v>
       </c>
       <c r="U190" t="n">
-        <v>2264</v>
+        <v>2273</v>
       </c>
       <c r="V190" t="n">
         <v>3435</v>
@@ -35060,7 +35151,7 @@
         <v>1148</v>
       </c>
       <c r="X190" t="n">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Y190" t="n">
         <v>2260</v>
@@ -35072,10 +35163,101 @@
         <v>1857</v>
       </c>
       <c r="AB190" t="n">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="AC190" t="n">
-        <v>121562</v>
+        <v>121618</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>616</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D191" t="n">
+        <v>663</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3661</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G191" t="n">
+        <v>8459</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2573</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3184</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3242</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3457</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2837</v>
+      </c>
+      <c r="M191" t="n">
+        <v>890</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5364</v>
+      </c>
+      <c r="O191" t="n">
+        <v>6201</v>
+      </c>
+      <c r="P191" t="n">
+        <v>2465</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>3345</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7614</v>
+      </c>
+      <c r="S191" t="n">
+        <v>1846</v>
+      </c>
+      <c r="T191" t="n">
+        <v>16217</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2273</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3501</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1155</v>
+      </c>
+      <c r="X191" t="n">
+        <v>595</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2301</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>30375</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>1867</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>687</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>122731</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17753,7 +17753,7 @@
         <v>93929</v>
       </c>
       <c r="M191" t="n">
-        <v>49820</v>
+        <v>50645</v>
       </c>
       <c r="N191" t="n">
         <v>218781</v>
@@ -17777,7 +17777,7 @@
         <v>226800</v>
       </c>
       <c r="U191" t="n">
-        <v>62204</v>
+        <v>62645</v>
       </c>
       <c r="V191" t="n">
         <v>127799</v>
@@ -17795,13 +17795,104 @@
         <v>814375</v>
       </c>
       <c r="AA191" t="n">
-        <v>72723</v>
+        <v>72721</v>
       </c>
       <c r="AB191" t="n">
-        <v>51629</v>
+        <v>52124</v>
       </c>
       <c r="AC191" t="n">
-        <v>3957398</v>
+        <v>3959157</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>25027</v>
+      </c>
+      <c r="C192" t="n">
+        <v>79550</v>
+      </c>
+      <c r="D192" t="n">
+        <v>43800</v>
+      </c>
+      <c r="E192" t="n">
+        <v>121793</v>
+      </c>
+      <c r="F192" t="n">
+        <v>262299</v>
+      </c>
+      <c r="G192" t="n">
+        <v>218414</v>
+      </c>
+      <c r="H192" t="n">
+        <v>164649</v>
+      </c>
+      <c r="I192" t="n">
+        <v>112827</v>
+      </c>
+      <c r="J192" t="n">
+        <v>140192</v>
+      </c>
+      <c r="K192" t="n">
+        <v>154468</v>
+      </c>
+      <c r="L192" t="n">
+        <v>95233</v>
+      </c>
+      <c r="M192" t="n">
+        <v>50645</v>
+      </c>
+      <c r="N192" t="n">
+        <v>222048</v>
+      </c>
+      <c r="O192" t="n">
+        <v>203969</v>
+      </c>
+      <c r="P192" t="n">
+        <v>107384</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>135609</v>
+      </c>
+      <c r="R192" t="n">
+        <v>128724</v>
+      </c>
+      <c r="S192" t="n">
+        <v>79719</v>
+      </c>
+      <c r="T192" t="n">
+        <v>228332</v>
+      </c>
+      <c r="U192" t="n">
+        <v>62645</v>
+      </c>
+      <c r="V192" t="n">
+        <v>131461</v>
+      </c>
+      <c r="W192" t="n">
+        <v>56411</v>
+      </c>
+      <c r="X192" t="n">
+        <v>44036</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>182522</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>826331</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>72931</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>52124</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>4003143</v>
       </c>
     </row>
   </sheetData>
@@ -17815,7 +17906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35209,7 +35300,7 @@
         <v>2837</v>
       </c>
       <c r="M191" t="n">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="N191" t="n">
         <v>5364</v>
@@ -35233,7 +35324,7 @@
         <v>16217</v>
       </c>
       <c r="U191" t="n">
-        <v>2273</v>
+        <v>2283</v>
       </c>
       <c r="V191" t="n">
         <v>3501</v>
@@ -35254,10 +35345,101 @@
         <v>1867</v>
       </c>
       <c r="AB191" t="n">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="AC191" t="n">
-        <v>122731</v>
+        <v>122768</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>618</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D192" t="n">
+        <v>668</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3798</v>
+      </c>
+      <c r="F192" t="n">
+        <v>5502</v>
+      </c>
+      <c r="G192" t="n">
+        <v>8481</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2609</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3204</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3323</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3467</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2868</v>
+      </c>
+      <c r="M192" t="n">
+        <v>903</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5505</v>
+      </c>
+      <c r="O192" t="n">
+        <v>6215</v>
+      </c>
+      <c r="P192" t="n">
+        <v>2483</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>3399</v>
+      </c>
+      <c r="R192" t="n">
+        <v>7656</v>
+      </c>
+      <c r="S192" t="n">
+        <v>1855</v>
+      </c>
+      <c r="T192" t="n">
+        <v>16315</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2283</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3543</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1161</v>
+      </c>
+      <c r="X192" t="n">
+        <v>595</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2325</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>30673</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>1873</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>701</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>123925</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15775,7 +15775,7 @@
         <v>180016</v>
       </c>
       <c r="U169" t="n">
-        <v>58132</v>
+        <v>58072</v>
       </c>
       <c r="V169" t="n">
         <v>84034</v>
@@ -15799,7 +15799,7 @@
         <v>33047</v>
       </c>
       <c r="AC169" t="n">
-        <v>3067633</v>
+        <v>3067573</v>
       </c>
     </row>
     <row r="170">
@@ -17798,10 +17798,10 @@
         <v>72721</v>
       </c>
       <c r="AB191" t="n">
-        <v>52124</v>
+        <v>52125</v>
       </c>
       <c r="AC191" t="n">
-        <v>3959157</v>
+        <v>3959158</v>
       </c>
     </row>
     <row r="192">
@@ -17844,7 +17844,7 @@
         <v>95233</v>
       </c>
       <c r="M192" t="n">
-        <v>50645</v>
+        <v>51575</v>
       </c>
       <c r="N192" t="n">
         <v>222048</v>
@@ -17868,7 +17868,7 @@
         <v>228332</v>
       </c>
       <c r="U192" t="n">
-        <v>62645</v>
+        <v>63071</v>
       </c>
       <c r="V192" t="n">
         <v>131461</v>
@@ -17877,7 +17877,7 @@
         <v>56411</v>
       </c>
       <c r="X192" t="n">
-        <v>44036</v>
+        <v>44334</v>
       </c>
       <c r="Y192" t="n">
         <v>182522</v>
@@ -17889,10 +17889,465 @@
         <v>72931</v>
       </c>
       <c r="AB192" t="n">
-        <v>52124</v>
+        <v>52938</v>
       </c>
       <c r="AC192" t="n">
-        <v>4003143</v>
+        <v>4005611</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>25135</v>
+      </c>
+      <c r="C193" t="n">
+        <v>79797</v>
+      </c>
+      <c r="D193" t="n">
+        <v>44064</v>
+      </c>
+      <c r="E193" t="n">
+        <v>122520</v>
+      </c>
+      <c r="F193" t="n">
+        <v>265739</v>
+      </c>
+      <c r="G193" t="n">
+        <v>220040</v>
+      </c>
+      <c r="H193" t="n">
+        <v>165903</v>
+      </c>
+      <c r="I193" t="n">
+        <v>113759</v>
+      </c>
+      <c r="J193" t="n">
+        <v>143793</v>
+      </c>
+      <c r="K193" t="n">
+        <v>155717</v>
+      </c>
+      <c r="L193" t="n">
+        <v>96349</v>
+      </c>
+      <c r="M193" t="n">
+        <v>52406</v>
+      </c>
+      <c r="N193" t="n">
+        <v>224987</v>
+      </c>
+      <c r="O193" t="n">
+        <v>205291</v>
+      </c>
+      <c r="P193" t="n">
+        <v>108182</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>137865</v>
+      </c>
+      <c r="R193" t="n">
+        <v>130199</v>
+      </c>
+      <c r="S193" t="n">
+        <v>81626</v>
+      </c>
+      <c r="T193" t="n">
+        <v>230271</v>
+      </c>
+      <c r="U193" t="n">
+        <v>63507</v>
+      </c>
+      <c r="V193" t="n">
+        <v>134610</v>
+      </c>
+      <c r="W193" t="n">
+        <v>56618</v>
+      </c>
+      <c r="X193" t="n">
+        <v>44665</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>184204</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>837978</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>73182</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>54013</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>4052420</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>25249</v>
+      </c>
+      <c r="C194" t="n">
+        <v>80103</v>
+      </c>
+      <c r="D194" t="n">
+        <v>44454</v>
+      </c>
+      <c r="E194" t="n">
+        <v>123187</v>
+      </c>
+      <c r="F194" t="n">
+        <v>268137</v>
+      </c>
+      <c r="G194" t="n">
+        <v>222105</v>
+      </c>
+      <c r="H194" t="n">
+        <v>167200</v>
+      </c>
+      <c r="I194" t="n">
+        <v>114700</v>
+      </c>
+      <c r="J194" t="n">
+        <v>146441</v>
+      </c>
+      <c r="K194" t="n">
+        <v>157052</v>
+      </c>
+      <c r="L194" t="n">
+        <v>97550</v>
+      </c>
+      <c r="M194" t="n">
+        <v>53328</v>
+      </c>
+      <c r="N194" t="n">
+        <v>228013</v>
+      </c>
+      <c r="O194" t="n">
+        <v>206864</v>
+      </c>
+      <c r="P194" t="n">
+        <v>108925</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>139780</v>
+      </c>
+      <c r="R194" t="n">
+        <v>131230</v>
+      </c>
+      <c r="S194" t="n">
+        <v>81626</v>
+      </c>
+      <c r="T194" t="n">
+        <v>232489</v>
+      </c>
+      <c r="U194" t="n">
+        <v>63912</v>
+      </c>
+      <c r="V194" t="n">
+        <v>137217</v>
+      </c>
+      <c r="W194" t="n">
+        <v>57352</v>
+      </c>
+      <c r="X194" t="n">
+        <v>44975</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>186596</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>845016</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>73383</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>55075</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>4091959</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>25408</v>
+      </c>
+      <c r="C195" t="n">
+        <v>80462</v>
+      </c>
+      <c r="D195" t="n">
+        <v>44682</v>
+      </c>
+      <c r="E195" t="n">
+        <v>123726</v>
+      </c>
+      <c r="F195" t="n">
+        <v>270177</v>
+      </c>
+      <c r="G195" t="n">
+        <v>222179</v>
+      </c>
+      <c r="H195" t="n">
+        <v>168605</v>
+      </c>
+      <c r="I195" t="n">
+        <v>115172</v>
+      </c>
+      <c r="J195" t="n">
+        <v>147485</v>
+      </c>
+      <c r="K195" t="n">
+        <v>157844</v>
+      </c>
+      <c r="L195" t="n">
+        <v>98188</v>
+      </c>
+      <c r="M195" t="n">
+        <v>53491</v>
+      </c>
+      <c r="N195" t="n">
+        <v>231878</v>
+      </c>
+      <c r="O195" t="n">
+        <v>207638</v>
+      </c>
+      <c r="P195" t="n">
+        <v>109530</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>141648</v>
+      </c>
+      <c r="R195" t="n">
+        <v>131961</v>
+      </c>
+      <c r="S195" t="n">
+        <v>82006</v>
+      </c>
+      <c r="T195" t="n">
+        <v>232747</v>
+      </c>
+      <c r="U195" t="n">
+        <v>63912</v>
+      </c>
+      <c r="V195" t="n">
+        <v>143485</v>
+      </c>
+      <c r="W195" t="n">
+        <v>57865</v>
+      </c>
+      <c r="X195" t="n">
+        <v>45137</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>188361</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>853085</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>73631</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>55513</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>4125816</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>25443</v>
+      </c>
+      <c r="C196" t="n">
+        <v>80717</v>
+      </c>
+      <c r="D196" t="n">
+        <v>44770</v>
+      </c>
+      <c r="E196" t="n">
+        <v>123811</v>
+      </c>
+      <c r="F196" t="n">
+        <v>271255</v>
+      </c>
+      <c r="G196" t="n">
+        <v>222412</v>
+      </c>
+      <c r="H196" t="n">
+        <v>169617</v>
+      </c>
+      <c r="I196" t="n">
+        <v>115505</v>
+      </c>
+      <c r="J196" t="n">
+        <v>147717</v>
+      </c>
+      <c r="K196" t="n">
+        <v>158050</v>
+      </c>
+      <c r="L196" t="n">
+        <v>98346</v>
+      </c>
+      <c r="M196" t="n">
+        <v>54125</v>
+      </c>
+      <c r="N196" t="n">
+        <v>234804</v>
+      </c>
+      <c r="O196" t="n">
+        <v>208259</v>
+      </c>
+      <c r="P196" t="n">
+        <v>109673</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>143074</v>
+      </c>
+      <c r="R196" t="n">
+        <v>132152</v>
+      </c>
+      <c r="S196" t="n">
+        <v>82282</v>
+      </c>
+      <c r="T196" t="n">
+        <v>232818</v>
+      </c>
+      <c r="U196" t="n">
+        <v>64029</v>
+      </c>
+      <c r="V196" t="n">
+        <v>143914</v>
+      </c>
+      <c r="W196" t="n">
+        <v>58066</v>
+      </c>
+      <c r="X196" t="n">
+        <v>45253</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>189028</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>855722</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>73740</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>55906</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>4140488</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>25469</v>
+      </c>
+      <c r="C197" t="n">
+        <v>80786</v>
+      </c>
+      <c r="D197" t="n">
+        <v>44863</v>
+      </c>
+      <c r="E197" t="n">
+        <v>123905</v>
+      </c>
+      <c r="F197" t="n">
+        <v>271963</v>
+      </c>
+      <c r="G197" t="n">
+        <v>222473</v>
+      </c>
+      <c r="H197" t="n">
+        <v>170806</v>
+      </c>
+      <c r="I197" t="n">
+        <v>115793</v>
+      </c>
+      <c r="J197" t="n">
+        <v>147933</v>
+      </c>
+      <c r="K197" t="n">
+        <v>158310</v>
+      </c>
+      <c r="L197" t="n">
+        <v>98709</v>
+      </c>
+      <c r="M197" t="n">
+        <v>54125</v>
+      </c>
+      <c r="N197" t="n">
+        <v>236012</v>
+      </c>
+      <c r="O197" t="n">
+        <v>208560</v>
+      </c>
+      <c r="P197" t="n">
+        <v>109706</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>143853</v>
+      </c>
+      <c r="R197" t="n">
+        <v>132420</v>
+      </c>
+      <c r="S197" t="n">
+        <v>82564</v>
+      </c>
+      <c r="T197" t="n">
+        <v>233052</v>
+      </c>
+      <c r="U197" t="n">
+        <v>64029</v>
+      </c>
+      <c r="V197" t="n">
+        <v>143952</v>
+      </c>
+      <c r="W197" t="n">
+        <v>58237</v>
+      </c>
+      <c r="X197" t="n">
+        <v>45302</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>189477</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>857330</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>73846</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>55906</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>4149381</v>
       </c>
     </row>
   </sheetData>
@@ -17906,7 +18361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35391,7 +35846,7 @@
         <v>2868</v>
       </c>
       <c r="M192" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="N192" t="n">
         <v>5505</v>
@@ -35415,7 +35870,7 @@
         <v>16315</v>
       </c>
       <c r="U192" t="n">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="V192" t="n">
         <v>3543</v>
@@ -35424,7 +35879,7 @@
         <v>1161</v>
       </c>
       <c r="X192" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y192" t="n">
         <v>2325</v>
@@ -35436,10 +35891,465 @@
         <v>1873</v>
       </c>
       <c r="AB192" t="n">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="AC192" t="n">
-        <v>123925</v>
+        <v>123951</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>622</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D193" t="n">
+        <v>669</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3828</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5549</v>
+      </c>
+      <c r="G193" t="n">
+        <v>8532</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2641</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3221</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3385</v>
+      </c>
+      <c r="K193" t="n">
+        <v>3478</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2893</v>
+      </c>
+      <c r="M193" t="n">
+        <v>939</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5591</v>
+      </c>
+      <c r="O193" t="n">
+        <v>6228</v>
+      </c>
+      <c r="P193" t="n">
+        <v>2501</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>3449</v>
+      </c>
+      <c r="R193" t="n">
+        <v>7619</v>
+      </c>
+      <c r="S193" t="n">
+        <v>1884</v>
+      </c>
+      <c r="T193" t="n">
+        <v>16394</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2289</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3590</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1165</v>
+      </c>
+      <c r="X193" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2352</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>30905</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>1877</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>730</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>124839</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>623</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1917</v>
+      </c>
+      <c r="D194" t="n">
+        <v>670</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3834</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5590</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8563</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2681</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3235</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3488</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2923</v>
+      </c>
+      <c r="M194" t="n">
+        <v>953</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5708</v>
+      </c>
+      <c r="O194" t="n">
+        <v>6240</v>
+      </c>
+      <c r="P194" t="n">
+        <v>2517</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>3505</v>
+      </c>
+      <c r="R194" t="n">
+        <v>7645</v>
+      </c>
+      <c r="S194" t="n">
+        <v>1884</v>
+      </c>
+      <c r="T194" t="n">
+        <v>16467</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2293</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3650</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1172</v>
+      </c>
+      <c r="X194" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2376</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>31091</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>745</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>125688</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>624</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D195" t="n">
+        <v>671</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3841</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5627</v>
+      </c>
+      <c r="G195" t="n">
+        <v>8565</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2700</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3242</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3450</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3499</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M195" t="n">
+        <v>966</v>
+      </c>
+      <c r="N195" t="n">
+        <v>5708</v>
+      </c>
+      <c r="O195" t="n">
+        <v>6249</v>
+      </c>
+      <c r="P195" t="n">
+        <v>2529</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>3537</v>
+      </c>
+      <c r="R195" t="n">
+        <v>7670</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1893</v>
+      </c>
+      <c r="T195" t="n">
+        <v>16526</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2293</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3714</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1180</v>
+      </c>
+      <c r="X195" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>31313</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>748</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>126292</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>624</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D196" t="n">
+        <v>672</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3847</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5658</v>
+      </c>
+      <c r="G196" t="n">
+        <v>8566</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2710</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3256</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3508</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2955</v>
+      </c>
+      <c r="M196" t="n">
+        <v>970</v>
+      </c>
+      <c r="N196" t="n">
+        <v>5837</v>
+      </c>
+      <c r="O196" t="n">
+        <v>6257</v>
+      </c>
+      <c r="P196" t="n">
+        <v>2543</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>3551</v>
+      </c>
+      <c r="R196" t="n">
+        <v>7702</v>
+      </c>
+      <c r="S196" t="n">
+        <v>1901</v>
+      </c>
+      <c r="T196" t="n">
+        <v>16568</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2302</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3739</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1185</v>
+      </c>
+      <c r="X196" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2405</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>31353</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>1893</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>126750</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-07</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>624</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D197" t="n">
+        <v>673</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3849</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5693</v>
+      </c>
+      <c r="G197" t="n">
+        <v>8567</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2720</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3268</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3481</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3518</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2978</v>
+      </c>
+      <c r="M197" t="n">
+        <v>970</v>
+      </c>
+      <c r="N197" t="n">
+        <v>5851</v>
+      </c>
+      <c r="O197" t="n">
+        <v>6269</v>
+      </c>
+      <c r="P197" t="n">
+        <v>2550</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>3577</v>
+      </c>
+      <c r="R197" t="n">
+        <v>7721</v>
+      </c>
+      <c r="S197" t="n">
+        <v>1915</v>
+      </c>
+      <c r="T197" t="n">
+        <v>16593</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2302</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3756</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1187</v>
+      </c>
+      <c r="X197" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2422</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>31377</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>1898</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>127047</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18299,7 +18299,7 @@
         <v>98709</v>
       </c>
       <c r="M197" t="n">
-        <v>54125</v>
+        <v>54363</v>
       </c>
       <c r="N197" t="n">
         <v>236012</v>
@@ -18323,7 +18323,7 @@
         <v>233052</v>
       </c>
       <c r="U197" t="n">
-        <v>64029</v>
+        <v>64097</v>
       </c>
       <c r="V197" t="n">
         <v>143952</v>
@@ -18344,10 +18344,101 @@
         <v>73846</v>
       </c>
       <c r="AB197" t="n">
-        <v>55906</v>
+        <v>56223</v>
       </c>
       <c r="AC197" t="n">
-        <v>4149381</v>
+        <v>4150004</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>25494</v>
+      </c>
+      <c r="C198" t="n">
+        <v>80866</v>
+      </c>
+      <c r="D198" t="n">
+        <v>44999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>124223</v>
+      </c>
+      <c r="F198" t="n">
+        <v>272814</v>
+      </c>
+      <c r="G198" t="n">
+        <v>222884</v>
+      </c>
+      <c r="H198" t="n">
+        <v>171739</v>
+      </c>
+      <c r="I198" t="n">
+        <v>116578</v>
+      </c>
+      <c r="J198" t="n">
+        <v>151007</v>
+      </c>
+      <c r="K198" t="n">
+        <v>159163</v>
+      </c>
+      <c r="L198" t="n">
+        <v>100012</v>
+      </c>
+      <c r="M198" t="n">
+        <v>54363</v>
+      </c>
+      <c r="N198" t="n">
+        <v>236663</v>
+      </c>
+      <c r="O198" t="n">
+        <v>209808</v>
+      </c>
+      <c r="P198" t="n">
+        <v>109860</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>145257</v>
+      </c>
+      <c r="R198" t="n">
+        <v>132590</v>
+      </c>
+      <c r="S198" t="n">
+        <v>83502</v>
+      </c>
+      <c r="T198" t="n">
+        <v>233373</v>
+      </c>
+      <c r="U198" t="n">
+        <v>64097</v>
+      </c>
+      <c r="V198" t="n">
+        <v>144502</v>
+      </c>
+      <c r="W198" t="n">
+        <v>58559</v>
+      </c>
+      <c r="X198" t="n">
+        <v>45505</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>190397</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>858783</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>73971</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>56223</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>4167232</v>
       </c>
     </row>
   </sheetData>
@@ -18361,7 +18452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36301,7 +36392,7 @@
         <v>2978</v>
       </c>
       <c r="M197" t="n">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="N197" t="n">
         <v>5851</v>
@@ -36325,7 +36416,7 @@
         <v>16593</v>
       </c>
       <c r="U197" t="n">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="V197" t="n">
         <v>3756</v>
@@ -36346,10 +36437,101 @@
         <v>1898</v>
       </c>
       <c r="AB197" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AC197" t="n">
-        <v>127047</v>
+        <v>127070</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>630</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D198" t="n">
+        <v>675</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3855</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5734</v>
+      </c>
+      <c r="G198" t="n">
+        <v>8588</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2763</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3286</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3484</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3529</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3010</v>
+      </c>
+      <c r="M198" t="n">
+        <v>987</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5877</v>
+      </c>
+      <c r="O198" t="n">
+        <v>6280</v>
+      </c>
+      <c r="P198" t="n">
+        <v>2563</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>3615</v>
+      </c>
+      <c r="R198" t="n">
+        <v>7741</v>
+      </c>
+      <c r="S198" t="n">
+        <v>1924</v>
+      </c>
+      <c r="T198" t="n">
+        <v>16646</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2304</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3800</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1193</v>
+      </c>
+      <c r="X198" t="n">
+        <v>605</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2442</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>31430</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>1909</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>758</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>127571</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18381,7 +18381,7 @@
         <v>116578</v>
       </c>
       <c r="J198" t="n">
-        <v>151007</v>
+        <v>150865</v>
       </c>
       <c r="K198" t="n">
         <v>159163</v>
@@ -18390,7 +18390,7 @@
         <v>100012</v>
       </c>
       <c r="M198" t="n">
-        <v>54363</v>
+        <v>55345</v>
       </c>
       <c r="N198" t="n">
         <v>236663</v>
@@ -18414,7 +18414,7 @@
         <v>233373</v>
       </c>
       <c r="U198" t="n">
-        <v>64097</v>
+        <v>64354</v>
       </c>
       <c r="V198" t="n">
         <v>144502</v>
@@ -18435,10 +18435,192 @@
         <v>73971</v>
       </c>
       <c r="AB198" t="n">
-        <v>56223</v>
+        <v>56684</v>
       </c>
       <c r="AC198" t="n">
-        <v>4167232</v>
+        <v>4168790</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>25668</v>
+      </c>
+      <c r="C199" t="n">
+        <v>81092</v>
+      </c>
+      <c r="D199" t="n">
+        <v>45251</v>
+      </c>
+      <c r="E199" t="n">
+        <v>124959</v>
+      </c>
+      <c r="F199" t="n">
+        <v>275088</v>
+      </c>
+      <c r="G199" t="n">
+        <v>223863</v>
+      </c>
+      <c r="H199" t="n">
+        <v>172708</v>
+      </c>
+      <c r="I199" t="n">
+        <v>117270</v>
+      </c>
+      <c r="J199" t="n">
+        <v>154755</v>
+      </c>
+      <c r="K199" t="n">
+        <v>160239</v>
+      </c>
+      <c r="L199" t="n">
+        <v>101397</v>
+      </c>
+      <c r="M199" t="n">
+        <v>56046</v>
+      </c>
+      <c r="N199" t="n">
+        <v>238515</v>
+      </c>
+      <c r="O199" t="n">
+        <v>211061</v>
+      </c>
+      <c r="P199" t="n">
+        <v>110727</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>146333</v>
+      </c>
+      <c r="R199" t="n">
+        <v>133579</v>
+      </c>
+      <c r="S199" t="n">
+        <v>84508</v>
+      </c>
+      <c r="T199" t="n">
+        <v>233873</v>
+      </c>
+      <c r="U199" t="n">
+        <v>64740</v>
+      </c>
+      <c r="V199" t="n">
+        <v>147576</v>
+      </c>
+      <c r="W199" t="n">
+        <v>59196</v>
+      </c>
+      <c r="X199" t="n">
+        <v>45855</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>192982</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>866576</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>74121</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>57897</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>4205875</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>25877</v>
+      </c>
+      <c r="C200" t="n">
+        <v>81330</v>
+      </c>
+      <c r="D200" t="n">
+        <v>45529</v>
+      </c>
+      <c r="E200" t="n">
+        <v>125660</v>
+      </c>
+      <c r="F200" t="n">
+        <v>277327</v>
+      </c>
+      <c r="G200" t="n">
+        <v>224847</v>
+      </c>
+      <c r="H200" t="n">
+        <v>173631</v>
+      </c>
+      <c r="I200" t="n">
+        <v>118138</v>
+      </c>
+      <c r="J200" t="n">
+        <v>158021</v>
+      </c>
+      <c r="K200" t="n">
+        <v>160968</v>
+      </c>
+      <c r="L200" t="n">
+        <v>102846</v>
+      </c>
+      <c r="M200" t="n">
+        <v>56046</v>
+      </c>
+      <c r="N200" t="n">
+        <v>242533</v>
+      </c>
+      <c r="O200" t="n">
+        <v>212428</v>
+      </c>
+      <c r="P200" t="n">
+        <v>111495</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>148333</v>
+      </c>
+      <c r="R200" t="n">
+        <v>134619</v>
+      </c>
+      <c r="S200" t="n">
+        <v>85225</v>
+      </c>
+      <c r="T200" t="n">
+        <v>234813</v>
+      </c>
+      <c r="U200" t="n">
+        <v>64740</v>
+      </c>
+      <c r="V200" t="n">
+        <v>151392</v>
+      </c>
+      <c r="W200" t="n">
+        <v>59620</v>
+      </c>
+      <c r="X200" t="n">
+        <v>46102</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>194176</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>874754</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>74386</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>57899</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4242735</v>
       </c>
     </row>
   </sheetData>
@@ -18452,7 +18634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36483,7 +36665,7 @@
         <v>3010</v>
       </c>
       <c r="M198" t="n">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="N198" t="n">
         <v>5877</v>
@@ -36528,10 +36710,192 @@
         <v>1909</v>
       </c>
       <c r="AB198" t="n">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AC198" t="n">
-        <v>127571</v>
+        <v>127595</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>631</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D199" t="n">
+        <v>675</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3863</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5774</v>
+      </c>
+      <c r="G199" t="n">
+        <v>8634</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2813</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3298</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3605</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3539</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3040</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5935</v>
+      </c>
+      <c r="O199" t="n">
+        <v>6289</v>
+      </c>
+      <c r="P199" t="n">
+        <v>2578</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>3660</v>
+      </c>
+      <c r="R199" t="n">
+        <v>7764</v>
+      </c>
+      <c r="S199" t="n">
+        <v>1931</v>
+      </c>
+      <c r="T199" t="n">
+        <v>16770</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2310</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3882</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1207</v>
+      </c>
+      <c r="X199" t="n">
+        <v>607</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2460</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>31821</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>773</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>128752</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>635</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D200" t="n">
+        <v>676</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3874</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5818</v>
+      </c>
+      <c r="G200" t="n">
+        <v>8657</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2843</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3314</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3701</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3550</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3073</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N200" t="n">
+        <v>6009</v>
+      </c>
+      <c r="O200" t="n">
+        <v>6299</v>
+      </c>
+      <c r="P200" t="n">
+        <v>2590</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>3710</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7792</v>
+      </c>
+      <c r="S200" t="n">
+        <v>1947</v>
+      </c>
+      <c r="T200" t="n">
+        <v>16871</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2310</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3929</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1217</v>
+      </c>
+      <c r="X200" t="n">
+        <v>609</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2483</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>32104</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>1933</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>773</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>129698</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18526,10 +18526,10 @@
         <v>74121</v>
       </c>
       <c r="AB199" t="n">
-        <v>57897</v>
+        <v>57899</v>
       </c>
       <c r="AC199" t="n">
-        <v>4205875</v>
+        <v>4205877</v>
       </c>
     </row>
     <row r="200">
@@ -18563,7 +18563,7 @@
         <v>118138</v>
       </c>
       <c r="J200" t="n">
-        <v>158021</v>
+        <v>158548</v>
       </c>
       <c r="K200" t="n">
         <v>160968</v>
@@ -18572,7 +18572,7 @@
         <v>102846</v>
       </c>
       <c r="M200" t="n">
-        <v>56046</v>
+        <v>58304</v>
       </c>
       <c r="N200" t="n">
         <v>242533</v>
@@ -18596,7 +18596,7 @@
         <v>234813</v>
       </c>
       <c r="U200" t="n">
-        <v>64740</v>
+        <v>65099</v>
       </c>
       <c r="V200" t="n">
         <v>151392</v>
@@ -18617,10 +18617,192 @@
         <v>74386</v>
       </c>
       <c r="AB200" t="n">
-        <v>57899</v>
+        <v>58655</v>
       </c>
       <c r="AC200" t="n">
-        <v>4242735</v>
+        <v>4246635</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>26004</v>
+      </c>
+      <c r="C201" t="n">
+        <v>81440</v>
+      </c>
+      <c r="D201" t="n">
+        <v>45665</v>
+      </c>
+      <c r="E201" t="n">
+        <v>126423</v>
+      </c>
+      <c r="F201" t="n">
+        <v>279509</v>
+      </c>
+      <c r="G201" t="n">
+        <v>226021</v>
+      </c>
+      <c r="H201" t="n">
+        <v>174549</v>
+      </c>
+      <c r="I201" t="n">
+        <v>118814</v>
+      </c>
+      <c r="J201" t="n">
+        <v>162204</v>
+      </c>
+      <c r="K201" t="n">
+        <v>161994</v>
+      </c>
+      <c r="L201" t="n">
+        <v>104529</v>
+      </c>
+      <c r="M201" t="n">
+        <v>58671</v>
+      </c>
+      <c r="N201" t="n">
+        <v>246149</v>
+      </c>
+      <c r="O201" t="n">
+        <v>213655</v>
+      </c>
+      <c r="P201" t="n">
+        <v>112018</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>150668</v>
+      </c>
+      <c r="R201" t="n">
+        <v>135643</v>
+      </c>
+      <c r="S201" t="n">
+        <v>86085</v>
+      </c>
+      <c r="T201" t="n">
+        <v>240453</v>
+      </c>
+      <c r="U201" t="n">
+        <v>65266</v>
+      </c>
+      <c r="V201" t="n">
+        <v>153475</v>
+      </c>
+      <c r="W201" t="n">
+        <v>60068</v>
+      </c>
+      <c r="X201" t="n">
+        <v>46348</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>195701</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>882809</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>74645</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>59395</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>4288201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>26148</v>
+      </c>
+      <c r="C202" t="n">
+        <v>82028</v>
+      </c>
+      <c r="D202" t="n">
+        <v>45789</v>
+      </c>
+      <c r="E202" t="n">
+        <v>126939</v>
+      </c>
+      <c r="F202" t="n">
+        <v>281665</v>
+      </c>
+      <c r="G202" t="n">
+        <v>227075</v>
+      </c>
+      <c r="H202" t="n">
+        <v>175646</v>
+      </c>
+      <c r="I202" t="n">
+        <v>119354</v>
+      </c>
+      <c r="J202" t="n">
+        <v>162935</v>
+      </c>
+      <c r="K202" t="n">
+        <v>162476</v>
+      </c>
+      <c r="L202" t="n">
+        <v>105202</v>
+      </c>
+      <c r="M202" t="n">
+        <v>58671</v>
+      </c>
+      <c r="N202" t="n">
+        <v>250190</v>
+      </c>
+      <c r="O202" t="n">
+        <v>214376</v>
+      </c>
+      <c r="P202" t="n">
+        <v>112706</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>152913</v>
+      </c>
+      <c r="R202" t="n">
+        <v>136413</v>
+      </c>
+      <c r="S202" t="n">
+        <v>86396</v>
+      </c>
+      <c r="T202" t="n">
+        <v>240776</v>
+      </c>
+      <c r="U202" t="n">
+        <v>65266</v>
+      </c>
+      <c r="V202" t="n">
+        <v>156264</v>
+      </c>
+      <c r="W202" t="n">
+        <v>60362</v>
+      </c>
+      <c r="X202" t="n">
+        <v>46478</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>197064</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>890690</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>74765</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>59395</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>4317982</v>
       </c>
     </row>
   </sheetData>
@@ -18634,7 +18816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36847,7 +37029,7 @@
         <v>3073</v>
       </c>
       <c r="M200" t="n">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="N200" t="n">
         <v>6009</v>
@@ -36871,7 +37053,7 @@
         <v>16871</v>
       </c>
       <c r="U200" t="n">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="V200" t="n">
         <v>3929</v>
@@ -36892,10 +37074,192 @@
         <v>1933</v>
       </c>
       <c r="AB200" t="n">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="AC200" t="n">
-        <v>129698</v>
+        <v>129726</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>636</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D201" t="n">
+        <v>677</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3883</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5866</v>
+      </c>
+      <c r="G201" t="n">
+        <v>8683</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2867</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3332</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3761</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3560</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3093</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1055</v>
+      </c>
+      <c r="N201" t="n">
+        <v>6114</v>
+      </c>
+      <c r="O201" t="n">
+        <v>6307</v>
+      </c>
+      <c r="P201" t="n">
+        <v>2604</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>3781</v>
+      </c>
+      <c r="R201" t="n">
+        <v>7817</v>
+      </c>
+      <c r="S201" t="n">
+        <v>1958</v>
+      </c>
+      <c r="T201" t="n">
+        <v>16883</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2321</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3997</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1231</v>
+      </c>
+      <c r="X201" t="n">
+        <v>610</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2497</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>32338</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>1939</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>799</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>130574</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>637</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1972</v>
+      </c>
+      <c r="D202" t="n">
+        <v>678</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3888</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5912</v>
+      </c>
+      <c r="G202" t="n">
+        <v>8685</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2883</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3793</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3569</v>
+      </c>
+      <c r="L202" t="n">
+        <v>3111</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1055</v>
+      </c>
+      <c r="N202" t="n">
+        <v>6200</v>
+      </c>
+      <c r="O202" t="n">
+        <v>6344</v>
+      </c>
+      <c r="P202" t="n">
+        <v>2616</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>3801</v>
+      </c>
+      <c r="R202" t="n">
+        <v>7852</v>
+      </c>
+      <c r="S202" t="n">
+        <v>1967</v>
+      </c>
+      <c r="T202" t="n">
+        <v>16985</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2321</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4039</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1240</v>
+      </c>
+      <c r="X202" t="n">
+        <v>610</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2515</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>32567</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>1945</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>799</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>131322</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18787,7 +18787,7 @@
         <v>60362</v>
       </c>
       <c r="X202" t="n">
-        <v>46478</v>
+        <v>46348</v>
       </c>
       <c r="Y202" t="n">
         <v>197064</v>
@@ -18802,7 +18802,98 @@
         <v>59395</v>
       </c>
       <c r="AC202" t="n">
-        <v>4317982</v>
+        <v>4317852</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>26166</v>
+      </c>
+      <c r="C203" t="n">
+        <v>82230</v>
+      </c>
+      <c r="D203" t="n">
+        <v>45853</v>
+      </c>
+      <c r="E203" t="n">
+        <v>127132</v>
+      </c>
+      <c r="F203" t="n">
+        <v>282517</v>
+      </c>
+      <c r="G203" t="n">
+        <v>227449</v>
+      </c>
+      <c r="H203" t="n">
+        <v>176837</v>
+      </c>
+      <c r="I203" t="n">
+        <v>119548</v>
+      </c>
+      <c r="J203" t="n">
+        <v>163463</v>
+      </c>
+      <c r="K203" t="n">
+        <v>162583</v>
+      </c>
+      <c r="L203" t="n">
+        <v>105202</v>
+      </c>
+      <c r="M203" t="n">
+        <v>59077</v>
+      </c>
+      <c r="N203" t="n">
+        <v>252263</v>
+      </c>
+      <c r="O203" t="n">
+        <v>214376</v>
+      </c>
+      <c r="P203" t="n">
+        <v>112961</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>154171</v>
+      </c>
+      <c r="R203" t="n">
+        <v>136672</v>
+      </c>
+      <c r="S203" t="n">
+        <v>86396</v>
+      </c>
+      <c r="T203" t="n">
+        <v>242491</v>
+      </c>
+      <c r="U203" t="n">
+        <v>65300</v>
+      </c>
+      <c r="V203" t="n">
+        <v>156903</v>
+      </c>
+      <c r="W203" t="n">
+        <v>60484</v>
+      </c>
+      <c r="X203" t="n">
+        <v>46478</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>197745</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>892257</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>74833</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>59722</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>4331109</v>
       </c>
     </row>
   </sheetData>
@@ -18816,7 +18907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37262,6 +37353,97 @@
         <v>131322</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>640</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D203" t="n">
+        <v>678</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3892</v>
+      </c>
+      <c r="F203" t="n">
+        <v>5961</v>
+      </c>
+      <c r="G203" t="n">
+        <v>8686</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2899</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3346</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3805</v>
+      </c>
+      <c r="K203" t="n">
+        <v>3580</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3111</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1065</v>
+      </c>
+      <c r="N203" t="n">
+        <v>6276</v>
+      </c>
+      <c r="O203" t="n">
+        <v>6344</v>
+      </c>
+      <c r="P203" t="n">
+        <v>2627</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>3823</v>
+      </c>
+      <c r="R203" t="n">
+        <v>7874</v>
+      </c>
+      <c r="S203" t="n">
+        <v>1967</v>
+      </c>
+      <c r="T203" t="n">
+        <v>16990</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2321</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4055</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1246</v>
+      </c>
+      <c r="X203" t="n">
+        <v>610</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2529</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>32606</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>1949</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>806</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>131665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18617,10 +18617,10 @@
         <v>74386</v>
       </c>
       <c r="AB200" t="n">
-        <v>58655</v>
+        <v>58658</v>
       </c>
       <c r="AC200" t="n">
-        <v>4246635</v>
+        <v>4246638</v>
       </c>
     </row>
     <row r="201">
@@ -18693,7 +18693,7 @@
         <v>153475</v>
       </c>
       <c r="W201" t="n">
-        <v>60068</v>
+        <v>60038</v>
       </c>
       <c r="X201" t="n">
         <v>46348</v>
@@ -18711,7 +18711,7 @@
         <v>59395</v>
       </c>
       <c r="AC201" t="n">
-        <v>4288201</v>
+        <v>4288171</v>
       </c>
     </row>
     <row r="202">
@@ -18745,7 +18745,7 @@
         <v>119354</v>
       </c>
       <c r="J202" t="n">
-        <v>162935</v>
+        <v>162936</v>
       </c>
       <c r="K202" t="n">
         <v>162476</v>
@@ -18754,7 +18754,7 @@
         <v>105202</v>
       </c>
       <c r="M202" t="n">
-        <v>58671</v>
+        <v>59077</v>
       </c>
       <c r="N202" t="n">
         <v>250190</v>
@@ -18778,7 +18778,7 @@
         <v>240776</v>
       </c>
       <c r="U202" t="n">
-        <v>65266</v>
+        <v>65521</v>
       </c>
       <c r="V202" t="n">
         <v>156264</v>
@@ -18787,7 +18787,7 @@
         <v>60362</v>
       </c>
       <c r="X202" t="n">
-        <v>46348</v>
+        <v>46478</v>
       </c>
       <c r="Y202" t="n">
         <v>197064</v>
@@ -18799,10 +18799,10 @@
         <v>74765</v>
       </c>
       <c r="AB202" t="n">
-        <v>59395</v>
+        <v>59722</v>
       </c>
       <c r="AC202" t="n">
-        <v>4317852</v>
+        <v>4318971</v>
       </c>
     </row>
     <row r="203">
@@ -18836,22 +18836,22 @@
         <v>119548</v>
       </c>
       <c r="J203" t="n">
-        <v>163463</v>
+        <v>163535</v>
       </c>
       <c r="K203" t="n">
         <v>162583</v>
       </c>
       <c r="L203" t="n">
-        <v>105202</v>
+        <v>105445</v>
       </c>
       <c r="M203" t="n">
-        <v>59077</v>
+        <v>59408</v>
       </c>
       <c r="N203" t="n">
         <v>252263</v>
       </c>
       <c r="O203" t="n">
-        <v>214376</v>
+        <v>214806</v>
       </c>
       <c r="P203" t="n">
         <v>112961</v>
@@ -18863,13 +18863,13 @@
         <v>136672</v>
       </c>
       <c r="S203" t="n">
-        <v>86396</v>
+        <v>86538</v>
       </c>
       <c r="T203" t="n">
         <v>242491</v>
       </c>
       <c r="U203" t="n">
-        <v>65300</v>
+        <v>65584</v>
       </c>
       <c r="V203" t="n">
         <v>156903</v>
@@ -18878,7 +18878,7 @@
         <v>60484</v>
       </c>
       <c r="X203" t="n">
-        <v>46478</v>
+        <v>46545</v>
       </c>
       <c r="Y203" t="n">
         <v>197745</v>
@@ -18890,10 +18890,283 @@
         <v>74833</v>
       </c>
       <c r="AB203" t="n">
-        <v>59722</v>
+        <v>60035</v>
       </c>
       <c r="AC203" t="n">
-        <v>4331109</v>
+        <v>4332991</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>26176</v>
+      </c>
+      <c r="C204" t="n">
+        <v>82332</v>
+      </c>
+      <c r="D204" t="n">
+        <v>45955</v>
+      </c>
+      <c r="E204" t="n">
+        <v>127407</v>
+      </c>
+      <c r="F204" t="n">
+        <v>283235</v>
+      </c>
+      <c r="G204" t="n">
+        <v>227799</v>
+      </c>
+      <c r="H204" t="n">
+        <v>177921</v>
+      </c>
+      <c r="I204" t="n">
+        <v>120252</v>
+      </c>
+      <c r="J204" t="n">
+        <v>168026</v>
+      </c>
+      <c r="K204" t="n">
+        <v>162998</v>
+      </c>
+      <c r="L204" t="n">
+        <v>106895</v>
+      </c>
+      <c r="M204" t="n">
+        <v>60297</v>
+      </c>
+      <c r="N204" t="n">
+        <v>253997</v>
+      </c>
+      <c r="O204" t="n">
+        <v>216318</v>
+      </c>
+      <c r="P204" t="n">
+        <v>113163</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>154820</v>
+      </c>
+      <c r="R204" t="n">
+        <v>136853</v>
+      </c>
+      <c r="S204" t="n">
+        <v>87213</v>
+      </c>
+      <c r="T204" t="n">
+        <v>242811</v>
+      </c>
+      <c r="U204" t="n">
+        <v>65873</v>
+      </c>
+      <c r="V204" t="n">
+        <v>157907</v>
+      </c>
+      <c r="W204" t="n">
+        <v>60746</v>
+      </c>
+      <c r="X204" t="n">
+        <v>46848</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>198640</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>893349</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>75046</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>60725</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>4353602</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>26287</v>
+      </c>
+      <c r="C205" t="n">
+        <v>82595</v>
+      </c>
+      <c r="D205" t="n">
+        <v>46117</v>
+      </c>
+      <c r="E205" t="n">
+        <v>128150</v>
+      </c>
+      <c r="F205" t="n">
+        <v>285448</v>
+      </c>
+      <c r="G205" t="n">
+        <v>229250</v>
+      </c>
+      <c r="H205" t="n">
+        <v>178747</v>
+      </c>
+      <c r="I205" t="n">
+        <v>120974</v>
+      </c>
+      <c r="J205" t="n">
+        <v>171120</v>
+      </c>
+      <c r="K205" t="n">
+        <v>163802</v>
+      </c>
+      <c r="L205" t="n">
+        <v>108117</v>
+      </c>
+      <c r="M205" t="n">
+        <v>60297</v>
+      </c>
+      <c r="N205" t="n">
+        <v>255606</v>
+      </c>
+      <c r="O205" t="n">
+        <v>217500</v>
+      </c>
+      <c r="P205" t="n">
+        <v>113903</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>155820</v>
+      </c>
+      <c r="R205" t="n">
+        <v>137869</v>
+      </c>
+      <c r="S205" t="n">
+        <v>87959</v>
+      </c>
+      <c r="T205" t="n">
+        <v>244418</v>
+      </c>
+      <c r="U205" t="n">
+        <v>65873</v>
+      </c>
+      <c r="V205" t="n">
+        <v>160940</v>
+      </c>
+      <c r="W205" t="n">
+        <v>61260</v>
+      </c>
+      <c r="X205" t="n">
+        <v>46848</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>200241</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>901271</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>75203</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>60725</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>4386340</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>26287</v>
+      </c>
+      <c r="C206" t="n">
+        <v>82595</v>
+      </c>
+      <c r="D206" t="n">
+        <v>46117</v>
+      </c>
+      <c r="E206" t="n">
+        <v>128150</v>
+      </c>
+      <c r="F206" t="n">
+        <v>285448</v>
+      </c>
+      <c r="G206" t="n">
+        <v>229884</v>
+      </c>
+      <c r="H206" t="n">
+        <v>178747</v>
+      </c>
+      <c r="I206" t="n">
+        <v>120974</v>
+      </c>
+      <c r="J206" t="n">
+        <v>173493</v>
+      </c>
+      <c r="K206" t="n">
+        <v>163802</v>
+      </c>
+      <c r="L206" t="n">
+        <v>108117</v>
+      </c>
+      <c r="M206" t="n">
+        <v>60963</v>
+      </c>
+      <c r="N206" t="n">
+        <v>258595</v>
+      </c>
+      <c r="O206" t="n">
+        <v>217500</v>
+      </c>
+      <c r="P206" t="n">
+        <v>113903</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>155820</v>
+      </c>
+      <c r="R206" t="n">
+        <v>138568</v>
+      </c>
+      <c r="S206" t="n">
+        <v>87959</v>
+      </c>
+      <c r="T206" t="n">
+        <v>244418</v>
+      </c>
+      <c r="U206" t="n">
+        <v>65933</v>
+      </c>
+      <c r="V206" t="n">
+        <v>160940</v>
+      </c>
+      <c r="W206" t="n">
+        <v>61260</v>
+      </c>
+      <c r="X206" t="n">
+        <v>47164</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>200241</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>909428</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>75203</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>61271</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>4402780</v>
       </c>
     </row>
   </sheetData>
@@ -18907,7 +19180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36368,7 +36641,7 @@
         <v>668</v>
       </c>
       <c r="E192" t="n">
-        <v>3798</v>
+        <v>3819</v>
       </c>
       <c r="F192" t="n">
         <v>5502</v>
@@ -36440,7 +36713,7 @@
         <v>712</v>
       </c>
       <c r="AC192" t="n">
-        <v>123951</v>
+        <v>123972</v>
       </c>
     </row>
     <row r="193">
@@ -37302,7 +37575,7 @@
         <v>3111</v>
       </c>
       <c r="M202" t="n">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="N202" t="n">
         <v>6200</v>
@@ -37326,7 +37599,7 @@
         <v>16985</v>
       </c>
       <c r="U202" t="n">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="V202" t="n">
         <v>4039</v>
@@ -37347,10 +37620,10 @@
         <v>1945</v>
       </c>
       <c r="AB202" t="n">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="AC202" t="n">
-        <v>131322</v>
+        <v>131341</v>
       </c>
     </row>
     <row r="203">
@@ -37390,16 +37663,16 @@
         <v>3580</v>
       </c>
       <c r="L203" t="n">
-        <v>3111</v>
+        <v>3130</v>
       </c>
       <c r="M203" t="n">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="N203" t="n">
         <v>6276</v>
       </c>
       <c r="O203" t="n">
-        <v>6344</v>
+        <v>6368</v>
       </c>
       <c r="P203" t="n">
         <v>2627</v>
@@ -37411,13 +37684,13 @@
         <v>7874</v>
       </c>
       <c r="S203" t="n">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="T203" t="n">
         <v>16990</v>
       </c>
       <c r="U203" t="n">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="V203" t="n">
         <v>4055</v>
@@ -37438,10 +37711,283 @@
         <v>1949</v>
       </c>
       <c r="AB203" t="n">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="AC203" t="n">
-        <v>131665</v>
+        <v>131746</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>640</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D204" t="n">
+        <v>680</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3898</v>
+      </c>
+      <c r="F204" t="n">
+        <v>5999</v>
+      </c>
+      <c r="G204" t="n">
+        <v>8698</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2930</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3359</v>
+      </c>
+      <c r="J204" t="n">
+        <v>3877</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3590</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3157</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1106</v>
+      </c>
+      <c r="N204" t="n">
+        <v>6286</v>
+      </c>
+      <c r="O204" t="n">
+        <v>6387</v>
+      </c>
+      <c r="P204" t="n">
+        <v>2639</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>3853</v>
+      </c>
+      <c r="R204" t="n">
+        <v>7888</v>
+      </c>
+      <c r="S204" t="n">
+        <v>1988</v>
+      </c>
+      <c r="T204" t="n">
+        <v>17003</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2334</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4080</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1253</v>
+      </c>
+      <c r="X204" t="n">
+        <v>611</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2543</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>32642</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>1956</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>822</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>132204</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>642</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D205" t="n">
+        <v>682</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3907</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6040</v>
+      </c>
+      <c r="G205" t="n">
+        <v>8749</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2970</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3376</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3927</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3601</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3172</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1106</v>
+      </c>
+      <c r="N205" t="n">
+        <v>6328</v>
+      </c>
+      <c r="O205" t="n">
+        <v>6405</v>
+      </c>
+      <c r="P205" t="n">
+        <v>2649</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>3918</v>
+      </c>
+      <c r="R205" t="n">
+        <v>7914</v>
+      </c>
+      <c r="S205" t="n">
+        <v>1996</v>
+      </c>
+      <c r="T205" t="n">
+        <v>17180</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2334</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4174</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1269</v>
+      </c>
+      <c r="X205" t="n">
+        <v>611</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2569</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>32963</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>1962</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>822</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>133257</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>642</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D206" t="n">
+        <v>682</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3907</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6040</v>
+      </c>
+      <c r="G206" t="n">
+        <v>8757</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2970</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3376</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3935</v>
+      </c>
+      <c r="K206" t="n">
+        <v>3601</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3172</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1121</v>
+      </c>
+      <c r="N206" t="n">
+        <v>6419</v>
+      </c>
+      <c r="O206" t="n">
+        <v>6407</v>
+      </c>
+      <c r="P206" t="n">
+        <v>2649</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>3918</v>
+      </c>
+      <c r="R206" t="n">
+        <v>7933</v>
+      </c>
+      <c r="S206" t="n">
+        <v>1996</v>
+      </c>
+      <c r="T206" t="n">
+        <v>17180</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2334</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4174</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1269</v>
+      </c>
+      <c r="X206" t="n">
+        <v>611</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2569</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>33253</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>1962</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>831</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>133699</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19027,7 +19027,7 @@
         <v>108117</v>
       </c>
       <c r="M205" t="n">
-        <v>60297</v>
+        <v>60963</v>
       </c>
       <c r="N205" t="n">
         <v>255606</v>
@@ -19051,7 +19051,7 @@
         <v>244418</v>
       </c>
       <c r="U205" t="n">
-        <v>65873</v>
+        <v>66159</v>
       </c>
       <c r="V205" t="n">
         <v>160940</v>
@@ -19060,7 +19060,7 @@
         <v>61260</v>
       </c>
       <c r="X205" t="n">
-        <v>46848</v>
+        <v>47164</v>
       </c>
       <c r="Y205" t="n">
         <v>200241</v>
@@ -19072,10 +19072,10 @@
         <v>75203</v>
       </c>
       <c r="AB205" t="n">
-        <v>60725</v>
+        <v>61271</v>
       </c>
       <c r="AC205" t="n">
-        <v>4386340</v>
+        <v>4388154</v>
       </c>
     </row>
     <row r="206">
@@ -19085,88 +19085,1999 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>26287</v>
+        <v>26463</v>
       </c>
       <c r="C206" t="n">
-        <v>82595</v>
+        <v>82983</v>
       </c>
       <c r="D206" t="n">
-        <v>46117</v>
+        <v>46266</v>
       </c>
       <c r="E206" t="n">
-        <v>128150</v>
+        <v>128851</v>
       </c>
       <c r="F206" t="n">
-        <v>285448</v>
+        <v>287685</v>
       </c>
       <c r="G206" t="n">
-        <v>229884</v>
+        <v>230406</v>
       </c>
       <c r="H206" t="n">
-        <v>178747</v>
+        <v>179823</v>
       </c>
       <c r="I206" t="n">
-        <v>120974</v>
+        <v>121710</v>
       </c>
       <c r="J206" t="n">
-        <v>173493</v>
+        <v>174796</v>
       </c>
       <c r="K206" t="n">
-        <v>163802</v>
+        <v>164770</v>
       </c>
       <c r="L206" t="n">
-        <v>108117</v>
+        <v>109442</v>
       </c>
       <c r="M206" t="n">
-        <v>60963</v>
+        <v>61794</v>
       </c>
       <c r="N206" t="n">
         <v>258595</v>
       </c>
       <c r="O206" t="n">
-        <v>217500</v>
+        <v>218458</v>
       </c>
       <c r="P206" t="n">
-        <v>113903</v>
+        <v>114582</v>
       </c>
       <c r="Q206" t="n">
-        <v>155820</v>
+        <v>157330</v>
       </c>
       <c r="R206" t="n">
         <v>138568</v>
       </c>
       <c r="S206" t="n">
-        <v>87959</v>
+        <v>88671</v>
       </c>
       <c r="T206" t="n">
-        <v>244418</v>
+        <v>246182</v>
       </c>
       <c r="U206" t="n">
-        <v>65933</v>
+        <v>66551</v>
       </c>
       <c r="V206" t="n">
-        <v>160940</v>
+        <v>164373</v>
       </c>
       <c r="W206" t="n">
-        <v>61260</v>
+        <v>61619</v>
       </c>
       <c r="X206" t="n">
-        <v>47164</v>
+        <v>47398</v>
       </c>
       <c r="Y206" t="n">
-        <v>200241</v>
+        <v>201682</v>
       </c>
       <c r="Z206" t="n">
         <v>909428</v>
       </c>
       <c r="AA206" t="n">
-        <v>75203</v>
+        <v>75342</v>
       </c>
       <c r="AB206" t="n">
-        <v>61271</v>
+        <v>61683</v>
       </c>
       <c r="AC206" t="n">
-        <v>4402780</v>
+        <v>4425451</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>26716</v>
+      </c>
+      <c r="C207" t="n">
+        <v>83035</v>
+      </c>
+      <c r="D207" t="n">
+        <v>46372</v>
+      </c>
+      <c r="E207" t="n">
+        <v>129501</v>
+      </c>
+      <c r="F207" t="n">
+        <v>289655</v>
+      </c>
+      <c r="G207" t="n">
+        <v>231510</v>
+      </c>
+      <c r="H207" t="n">
+        <v>180844</v>
+      </c>
+      <c r="I207" t="n">
+        <v>122471</v>
+      </c>
+      <c r="J207" t="n">
+        <v>178413</v>
+      </c>
+      <c r="K207" t="n">
+        <v>165499</v>
+      </c>
+      <c r="L207" t="n">
+        <v>110705</v>
+      </c>
+      <c r="M207" t="n">
+        <v>62817</v>
+      </c>
+      <c r="N207" t="n">
+        <v>262001</v>
+      </c>
+      <c r="O207" t="n">
+        <v>219220</v>
+      </c>
+      <c r="P207" t="n">
+        <v>115359</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>159799</v>
+      </c>
+      <c r="R207" t="n">
+        <v>139325</v>
+      </c>
+      <c r="S207" t="n">
+        <v>89443</v>
+      </c>
+      <c r="T207" t="n">
+        <v>246843</v>
+      </c>
+      <c r="U207" t="n">
+        <v>66884</v>
+      </c>
+      <c r="V207" t="n">
+        <v>167781</v>
+      </c>
+      <c r="W207" t="n">
+        <v>62158</v>
+      </c>
+      <c r="X207" t="n">
+        <v>47692</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>202934</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>916821</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>75560</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>62498</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>4461856</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>26942</v>
+      </c>
+      <c r="C208" t="n">
+        <v>83298</v>
+      </c>
+      <c r="D208" t="n">
+        <v>46601</v>
+      </c>
+      <c r="E208" t="n">
+        <v>130359</v>
+      </c>
+      <c r="F208" t="n">
+        <v>292019</v>
+      </c>
+      <c r="G208" t="n">
+        <v>232950</v>
+      </c>
+      <c r="H208" t="n">
+        <v>181919</v>
+      </c>
+      <c r="I208" t="n">
+        <v>123273</v>
+      </c>
+      <c r="J208" t="n">
+        <v>182554</v>
+      </c>
+      <c r="K208" t="n">
+        <v>166580</v>
+      </c>
+      <c r="L208" t="n">
+        <v>112200</v>
+      </c>
+      <c r="M208" t="n">
+        <v>63466</v>
+      </c>
+      <c r="N208" t="n">
+        <v>265185</v>
+      </c>
+      <c r="O208" t="n">
+        <v>220205</v>
+      </c>
+      <c r="P208" t="n">
+        <v>115966</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>161922</v>
+      </c>
+      <c r="R208" t="n">
+        <v>140235</v>
+      </c>
+      <c r="S208" t="n">
+        <v>90061</v>
+      </c>
+      <c r="T208" t="n">
+        <v>249798</v>
+      </c>
+      <c r="U208" t="n">
+        <v>67193</v>
+      </c>
+      <c r="V208" t="n">
+        <v>170749</v>
+      </c>
+      <c r="W208" t="n">
+        <v>62495</v>
+      </c>
+      <c r="X208" t="n">
+        <v>48088</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>204166</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>924532</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>75664</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>63167</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>4501587</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>27061</v>
+      </c>
+      <c r="C209" t="n">
+        <v>83950</v>
+      </c>
+      <c r="D209" t="n">
+        <v>46738</v>
+      </c>
+      <c r="E209" t="n">
+        <v>131573</v>
+      </c>
+      <c r="F209" t="n">
+        <v>294210</v>
+      </c>
+      <c r="G209" t="n">
+        <v>233600</v>
+      </c>
+      <c r="H209" t="n">
+        <v>183096</v>
+      </c>
+      <c r="I209" t="n">
+        <v>123720</v>
+      </c>
+      <c r="J209" t="n">
+        <v>183481</v>
+      </c>
+      <c r="K209" t="n">
+        <v>167333</v>
+      </c>
+      <c r="L209" t="n">
+        <v>112817</v>
+      </c>
+      <c r="M209" t="n">
+        <v>63848</v>
+      </c>
+      <c r="N209" t="n">
+        <v>268009</v>
+      </c>
+      <c r="O209" t="n">
+        <v>220519</v>
+      </c>
+      <c r="P209" t="n">
+        <v>116588</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>163479</v>
+      </c>
+      <c r="R209" t="n">
+        <v>141042</v>
+      </c>
+      <c r="S209" t="n">
+        <v>90370</v>
+      </c>
+      <c r="T209" t="n">
+        <v>251261</v>
+      </c>
+      <c r="U209" t="n">
+        <v>67193</v>
+      </c>
+      <c r="V209" t="n">
+        <v>174140</v>
+      </c>
+      <c r="W209" t="n">
+        <v>62697</v>
+      </c>
+      <c r="X209" t="n">
+        <v>48302</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>205250</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>931673</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>75772</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>63423</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>4531145</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>27079</v>
+      </c>
+      <c r="C210" t="n">
+        <v>84508</v>
+      </c>
+      <c r="D210" t="n">
+        <v>46863</v>
+      </c>
+      <c r="E210" t="n">
+        <v>131757</v>
+      </c>
+      <c r="F210" t="n">
+        <v>295303</v>
+      </c>
+      <c r="G210" t="n">
+        <v>233891</v>
+      </c>
+      <c r="H210" t="n">
+        <v>183749</v>
+      </c>
+      <c r="I210" t="n">
+        <v>124291</v>
+      </c>
+      <c r="J210" t="n">
+        <v>184021</v>
+      </c>
+      <c r="K210" t="n">
+        <v>167657</v>
+      </c>
+      <c r="L210" t="n">
+        <v>113186</v>
+      </c>
+      <c r="M210" t="n">
+        <v>64033</v>
+      </c>
+      <c r="N210" t="n">
+        <v>270053</v>
+      </c>
+      <c r="O210" t="n">
+        <v>220775</v>
+      </c>
+      <c r="P210" t="n">
+        <v>116736</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>164888</v>
+      </c>
+      <c r="R210" t="n">
+        <v>141517</v>
+      </c>
+      <c r="S210" t="n">
+        <v>90617</v>
+      </c>
+      <c r="T210" t="n">
+        <v>251909</v>
+      </c>
+      <c r="U210" t="n">
+        <v>67447</v>
+      </c>
+      <c r="V210" t="n">
+        <v>174777</v>
+      </c>
+      <c r="W210" t="n">
+        <v>62863</v>
+      </c>
+      <c r="X210" t="n">
+        <v>48330</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>205620</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>935300</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>75873</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>63544</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>4546587</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>27106</v>
+      </c>
+      <c r="C211" t="n">
+        <v>84720</v>
+      </c>
+      <c r="D211" t="n">
+        <v>46946</v>
+      </c>
+      <c r="E211" t="n">
+        <v>131920</v>
+      </c>
+      <c r="F211" t="n">
+        <v>295996</v>
+      </c>
+      <c r="G211" t="n">
+        <v>234120</v>
+      </c>
+      <c r="H211" t="n">
+        <v>184555</v>
+      </c>
+      <c r="I211" t="n">
+        <v>125185</v>
+      </c>
+      <c r="J211" t="n">
+        <v>186596</v>
+      </c>
+      <c r="K211" t="n">
+        <v>167948</v>
+      </c>
+      <c r="L211" t="n">
+        <v>114930</v>
+      </c>
+      <c r="M211" t="n">
+        <v>64959</v>
+      </c>
+      <c r="N211" t="n">
+        <v>271194</v>
+      </c>
+      <c r="O211" t="n">
+        <v>221639</v>
+      </c>
+      <c r="P211" t="n">
+        <v>116879</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>165494</v>
+      </c>
+      <c r="R211" t="n">
+        <v>141777</v>
+      </c>
+      <c r="S211" t="n">
+        <v>91355</v>
+      </c>
+      <c r="T211" t="n">
+        <v>252046</v>
+      </c>
+      <c r="U211" t="n">
+        <v>67689</v>
+      </c>
+      <c r="V211" t="n">
+        <v>175349</v>
+      </c>
+      <c r="W211" t="n">
+        <v>63267</v>
+      </c>
+      <c r="X211" t="n">
+        <v>48542</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>206332</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>937332</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>76073</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>64273</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>4564222</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>27246</v>
+      </c>
+      <c r="C212" t="n">
+        <v>85008</v>
+      </c>
+      <c r="D212" t="n">
+        <v>47135</v>
+      </c>
+      <c r="E212" t="n">
+        <v>132687</v>
+      </c>
+      <c r="F212" t="n">
+        <v>297805</v>
+      </c>
+      <c r="G212" t="n">
+        <v>235222</v>
+      </c>
+      <c r="H212" t="n">
+        <v>185349</v>
+      </c>
+      <c r="I212" t="n">
+        <v>125871</v>
+      </c>
+      <c r="J212" t="n">
+        <v>190362</v>
+      </c>
+      <c r="K212" t="n">
+        <v>168913</v>
+      </c>
+      <c r="L212" t="n">
+        <v>116000</v>
+      </c>
+      <c r="M212" t="n">
+        <v>65611</v>
+      </c>
+      <c r="N212" t="n">
+        <v>273233</v>
+      </c>
+      <c r="O212" t="n">
+        <v>223021</v>
+      </c>
+      <c r="P212" t="n">
+        <v>117495</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>167678</v>
+      </c>
+      <c r="R212" t="n">
+        <v>142488</v>
+      </c>
+      <c r="S212" t="n">
+        <v>92030</v>
+      </c>
+      <c r="T212" t="n">
+        <v>253756</v>
+      </c>
+      <c r="U212" t="n">
+        <v>68000</v>
+      </c>
+      <c r="V212" t="n">
+        <v>177485</v>
+      </c>
+      <c r="W212" t="n">
+        <v>63781</v>
+      </c>
+      <c r="X212" t="n">
+        <v>48919</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>207692</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>945422</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>76193</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>64787</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>4599189</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>27397</v>
+      </c>
+      <c r="C213" t="n">
+        <v>85559</v>
+      </c>
+      <c r="D213" t="n">
+        <v>47364</v>
+      </c>
+      <c r="E213" t="n">
+        <v>133413</v>
+      </c>
+      <c r="F213" t="n">
+        <v>299415</v>
+      </c>
+      <c r="G213" t="n">
+        <v>236591</v>
+      </c>
+      <c r="H213" t="n">
+        <v>186054</v>
+      </c>
+      <c r="I213" t="n">
+        <v>126606</v>
+      </c>
+      <c r="J213" t="n">
+        <v>193827</v>
+      </c>
+      <c r="K213" t="n">
+        <v>169690</v>
+      </c>
+      <c r="L213" t="n">
+        <v>117299</v>
+      </c>
+      <c r="M213" t="n">
+        <v>66426</v>
+      </c>
+      <c r="N213" t="n">
+        <v>276314</v>
+      </c>
+      <c r="O213" t="n">
+        <v>224302</v>
+      </c>
+      <c r="P213" t="n">
+        <v>118048</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>168923</v>
+      </c>
+      <c r="R213" t="n">
+        <v>143165</v>
+      </c>
+      <c r="S213" t="n">
+        <v>92801</v>
+      </c>
+      <c r="T213" t="n">
+        <v>254885</v>
+      </c>
+      <c r="U213" t="n">
+        <v>68298</v>
+      </c>
+      <c r="V213" t="n">
+        <v>179436</v>
+      </c>
+      <c r="W213" t="n">
+        <v>64306</v>
+      </c>
+      <c r="X213" t="n">
+        <v>49216</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>208900</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>951973</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>76353</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>65354</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>4631915</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-24</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>27556</v>
+      </c>
+      <c r="C214" t="n">
+        <v>85753</v>
+      </c>
+      <c r="D214" t="n">
+        <v>47516</v>
+      </c>
+      <c r="E214" t="n">
+        <v>134289</v>
+      </c>
+      <c r="F214" t="n">
+        <v>301248</v>
+      </c>
+      <c r="G214" t="n">
+        <v>237147</v>
+      </c>
+      <c r="H214" t="n">
+        <v>186945</v>
+      </c>
+      <c r="I214" t="n">
+        <v>127368</v>
+      </c>
+      <c r="J214" t="n">
+        <v>196862</v>
+      </c>
+      <c r="K214" t="n">
+        <v>170186</v>
+      </c>
+      <c r="L214" t="n">
+        <v>118548</v>
+      </c>
+      <c r="M214" t="n">
+        <v>67196</v>
+      </c>
+      <c r="N214" t="n">
+        <v>278901</v>
+      </c>
+      <c r="O214" t="n">
+        <v>225624</v>
+      </c>
+      <c r="P214" t="n">
+        <v>118567</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>170508</v>
+      </c>
+      <c r="R214" t="n">
+        <v>143703</v>
+      </c>
+      <c r="S214" t="n">
+        <v>93399</v>
+      </c>
+      <c r="T214" t="n">
+        <v>257985</v>
+      </c>
+      <c r="U214" t="n">
+        <v>68572</v>
+      </c>
+      <c r="V214" t="n">
+        <v>181217</v>
+      </c>
+      <c r="W214" t="n">
+        <v>64481</v>
+      </c>
+      <c r="X214" t="n">
+        <v>49474</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>210048</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>958240</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>76603</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>65994</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>4663930</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-25</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>27710</v>
+      </c>
+      <c r="C215" t="n">
+        <v>85937</v>
+      </c>
+      <c r="D215" t="n">
+        <v>47657</v>
+      </c>
+      <c r="E215" t="n">
+        <v>135205</v>
+      </c>
+      <c r="F215" t="n">
+        <v>303058</v>
+      </c>
+      <c r="G215" t="n">
+        <v>237857</v>
+      </c>
+      <c r="H215" t="n">
+        <v>187895</v>
+      </c>
+      <c r="I215" t="n">
+        <v>128265</v>
+      </c>
+      <c r="J215" t="n">
+        <v>199325</v>
+      </c>
+      <c r="K215" t="n">
+        <v>170923</v>
+      </c>
+      <c r="L215" t="n">
+        <v>119728</v>
+      </c>
+      <c r="M215" t="n">
+        <v>67834</v>
+      </c>
+      <c r="N215" t="n">
+        <v>283479</v>
+      </c>
+      <c r="O215" t="n">
+        <v>226826</v>
+      </c>
+      <c r="P215" t="n">
+        <v>119134</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>171932</v>
+      </c>
+      <c r="R215" t="n">
+        <v>144268</v>
+      </c>
+      <c r="S215" t="n">
+        <v>94179</v>
+      </c>
+      <c r="T215" t="n">
+        <v>259488</v>
+      </c>
+      <c r="U215" t="n">
+        <v>68743</v>
+      </c>
+      <c r="V215" t="n">
+        <v>183115</v>
+      </c>
+      <c r="W215" t="n">
+        <v>64732</v>
+      </c>
+      <c r="X215" t="n">
+        <v>49681</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>211105</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>964921</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>76727</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>66516</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>4696240</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>27859</v>
+      </c>
+      <c r="C216" t="n">
+        <v>86124</v>
+      </c>
+      <c r="D216" t="n">
+        <v>47745</v>
+      </c>
+      <c r="E216" t="n">
+        <v>136169</v>
+      </c>
+      <c r="F216" t="n">
+        <v>305186</v>
+      </c>
+      <c r="G216" t="n">
+        <v>238582</v>
+      </c>
+      <c r="H216" t="n">
+        <v>188608</v>
+      </c>
+      <c r="I216" t="n">
+        <v>128722</v>
+      </c>
+      <c r="J216" t="n">
+        <v>199717</v>
+      </c>
+      <c r="K216" t="n">
+        <v>171480</v>
+      </c>
+      <c r="L216" t="n">
+        <v>120374</v>
+      </c>
+      <c r="M216" t="n">
+        <v>68092</v>
+      </c>
+      <c r="N216" t="n">
+        <v>286350</v>
+      </c>
+      <c r="O216" t="n">
+        <v>227756</v>
+      </c>
+      <c r="P216" t="n">
+        <v>119731</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>174011</v>
+      </c>
+      <c r="R216" t="n">
+        <v>144940</v>
+      </c>
+      <c r="S216" t="n">
+        <v>94540</v>
+      </c>
+      <c r="T216" t="n">
+        <v>259670</v>
+      </c>
+      <c r="U216" t="n">
+        <v>68743</v>
+      </c>
+      <c r="V216" t="n">
+        <v>185119</v>
+      </c>
+      <c r="W216" t="n">
+        <v>64923</v>
+      </c>
+      <c r="X216" t="n">
+        <v>49911</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>212091</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>970888</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>76917</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>66710</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>4720958</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>27874</v>
+      </c>
+      <c r="C217" t="n">
+        <v>86294</v>
+      </c>
+      <c r="D217" t="n">
+        <v>47795</v>
+      </c>
+      <c r="E217" t="n">
+        <v>136416</v>
+      </c>
+      <c r="F217" t="n">
+        <v>306036</v>
+      </c>
+      <c r="G217" t="n">
+        <v>239062</v>
+      </c>
+      <c r="H217" t="n">
+        <v>189513</v>
+      </c>
+      <c r="I217" t="n">
+        <v>129192</v>
+      </c>
+      <c r="J217" t="n">
+        <v>200144</v>
+      </c>
+      <c r="K217" t="n">
+        <v>171755</v>
+      </c>
+      <c r="L217" t="n">
+        <v>120641</v>
+      </c>
+      <c r="M217" t="n">
+        <v>68325</v>
+      </c>
+      <c r="N217" t="n">
+        <v>288619</v>
+      </c>
+      <c r="O217" t="n">
+        <v>228068</v>
+      </c>
+      <c r="P217" t="n">
+        <v>119783</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>175143</v>
+      </c>
+      <c r="R217" t="n">
+        <v>145016</v>
+      </c>
+      <c r="S217" t="n">
+        <v>94733</v>
+      </c>
+      <c r="T217" t="n">
+        <v>261860</v>
+      </c>
+      <c r="U217" t="n">
+        <v>69015</v>
+      </c>
+      <c r="V217" t="n">
+        <v>185516</v>
+      </c>
+      <c r="W217" t="n">
+        <v>65208</v>
+      </c>
+      <c r="X217" t="n">
+        <v>49968</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>212584</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>972237</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>77083</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>66865</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>4734745</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>27885</v>
+      </c>
+      <c r="C218" t="n">
+        <v>86393</v>
+      </c>
+      <c r="D218" t="n">
+        <v>47935</v>
+      </c>
+      <c r="E218" t="n">
+        <v>136708</v>
+      </c>
+      <c r="F218" t="n">
+        <v>306629</v>
+      </c>
+      <c r="G218" t="n">
+        <v>239465</v>
+      </c>
+      <c r="H218" t="n">
+        <v>190505</v>
+      </c>
+      <c r="I218" t="n">
+        <v>129796</v>
+      </c>
+      <c r="J218" t="n">
+        <v>204932</v>
+      </c>
+      <c r="K218" t="n">
+        <v>172176</v>
+      </c>
+      <c r="L218" t="n">
+        <v>121762</v>
+      </c>
+      <c r="M218" t="n">
+        <v>68963</v>
+      </c>
+      <c r="N218" t="n">
+        <v>290137</v>
+      </c>
+      <c r="O218" t="n">
+        <v>229175</v>
+      </c>
+      <c r="P218" t="n">
+        <v>119987</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>175982</v>
+      </c>
+      <c r="R218" t="n">
+        <v>145096</v>
+      </c>
+      <c r="S218" t="n">
+        <v>95227</v>
+      </c>
+      <c r="T218" t="n">
+        <v>262006</v>
+      </c>
+      <c r="U218" t="n">
+        <v>69263</v>
+      </c>
+      <c r="V218" t="n">
+        <v>185778</v>
+      </c>
+      <c r="W218" t="n">
+        <v>65386</v>
+      </c>
+      <c r="X218" t="n">
+        <v>50185</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>213066</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>973142</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>77172</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>66865</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>4751616</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>28030</v>
+      </c>
+      <c r="C219" t="n">
+        <v>86549</v>
+      </c>
+      <c r="D219" t="n">
+        <v>48054</v>
+      </c>
+      <c r="E219" t="n">
+        <v>137964</v>
+      </c>
+      <c r="F219" t="n">
+        <v>308252</v>
+      </c>
+      <c r="G219" t="n">
+        <v>240139</v>
+      </c>
+      <c r="H219" t="n">
+        <v>191317</v>
+      </c>
+      <c r="I219" t="n">
+        <v>130714</v>
+      </c>
+      <c r="J219" t="n">
+        <v>207859</v>
+      </c>
+      <c r="K219" t="n">
+        <v>172845</v>
+      </c>
+      <c r="L219" t="n">
+        <v>123112</v>
+      </c>
+      <c r="M219" t="n">
+        <v>69706</v>
+      </c>
+      <c r="N219" t="n">
+        <v>292291</v>
+      </c>
+      <c r="O219" t="n">
+        <v>230449</v>
+      </c>
+      <c r="P219" t="n">
+        <v>120654</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>177298</v>
+      </c>
+      <c r="R219" t="n">
+        <v>146325</v>
+      </c>
+      <c r="S219" t="n">
+        <v>96086</v>
+      </c>
+      <c r="T219" t="n">
+        <v>263699</v>
+      </c>
+      <c r="U219" t="n">
+        <v>69683</v>
+      </c>
+      <c r="V219" t="n">
+        <v>188253</v>
+      </c>
+      <c r="W219" t="n">
+        <v>65673</v>
+      </c>
+      <c r="X219" t="n">
+        <v>50449</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>214261</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>979519</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>77280</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>68003</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>4784464</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>28222</v>
+      </c>
+      <c r="C220" t="n">
+        <v>86879</v>
+      </c>
+      <c r="D220" t="n">
+        <v>48254</v>
+      </c>
+      <c r="E220" t="n">
+        <v>139326</v>
+      </c>
+      <c r="F220" t="n">
+        <v>310526</v>
+      </c>
+      <c r="G220" t="n">
+        <v>241159</v>
+      </c>
+      <c r="H220" t="n">
+        <v>192245</v>
+      </c>
+      <c r="I220" t="n">
+        <v>131490</v>
+      </c>
+      <c r="J220" t="n">
+        <v>211240</v>
+      </c>
+      <c r="K220" t="n">
+        <v>173564</v>
+      </c>
+      <c r="L220" t="n">
+        <v>124060</v>
+      </c>
+      <c r="M220" t="n">
+        <v>70239</v>
+      </c>
+      <c r="N220" t="n">
+        <v>295169</v>
+      </c>
+      <c r="O220" t="n">
+        <v>231743</v>
+      </c>
+      <c r="P220" t="n">
+        <v>121267</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>178898</v>
+      </c>
+      <c r="R220" t="n">
+        <v>147171</v>
+      </c>
+      <c r="S220" t="n">
+        <v>96849</v>
+      </c>
+      <c r="T220" t="n">
+        <v>264783</v>
+      </c>
+      <c r="U220" t="n">
+        <v>69965</v>
+      </c>
+      <c r="V220" t="n">
+        <v>190572</v>
+      </c>
+      <c r="W220" t="n">
+        <v>65911</v>
+      </c>
+      <c r="X220" t="n">
+        <v>50681</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>215478</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>985628</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>77440</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>68606</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>4817365</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-01</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>28409</v>
+      </c>
+      <c r="C221" t="n">
+        <v>87504</v>
+      </c>
+      <c r="D221" t="n">
+        <v>48385</v>
+      </c>
+      <c r="E221" t="n">
+        <v>140240</v>
+      </c>
+      <c r="F221" t="n">
+        <v>312050</v>
+      </c>
+      <c r="G221" t="n">
+        <v>242021</v>
+      </c>
+      <c r="H221" t="n">
+        <v>193127</v>
+      </c>
+      <c r="I221" t="n">
+        <v>132350</v>
+      </c>
+      <c r="J221" t="n">
+        <v>213580</v>
+      </c>
+      <c r="K221" t="n">
+        <v>174195</v>
+      </c>
+      <c r="L221" t="n">
+        <v>125022</v>
+      </c>
+      <c r="M221" t="n">
+        <v>70828</v>
+      </c>
+      <c r="N221" t="n">
+        <v>298607</v>
+      </c>
+      <c r="O221" t="n">
+        <v>232803</v>
+      </c>
+      <c r="P221" t="n">
+        <v>121809</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>180805</v>
+      </c>
+      <c r="R221" t="n">
+        <v>147872</v>
+      </c>
+      <c r="S221" t="n">
+        <v>97498</v>
+      </c>
+      <c r="T221" t="n">
+        <v>266235</v>
+      </c>
+      <c r="U221" t="n">
+        <v>70356</v>
+      </c>
+      <c r="V221" t="n">
+        <v>197186</v>
+      </c>
+      <c r="W221" t="n">
+        <v>66261</v>
+      </c>
+      <c r="X221" t="n">
+        <v>51013</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>216624</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>991725</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>77635</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>69008</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>4853148</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>28555</v>
+      </c>
+      <c r="C222" t="n">
+        <v>87750</v>
+      </c>
+      <c r="D222" t="n">
+        <v>48529</v>
+      </c>
+      <c r="E222" t="n">
+        <v>141199</v>
+      </c>
+      <c r="F222" t="n">
+        <v>313404</v>
+      </c>
+      <c r="G222" t="n">
+        <v>242490</v>
+      </c>
+      <c r="H222" t="n">
+        <v>194042</v>
+      </c>
+      <c r="I222" t="n">
+        <v>133025</v>
+      </c>
+      <c r="J222" t="n">
+        <v>215764</v>
+      </c>
+      <c r="K222" t="n">
+        <v>174788</v>
+      </c>
+      <c r="L222" t="n">
+        <v>126106</v>
+      </c>
+      <c r="M222" t="n">
+        <v>71476</v>
+      </c>
+      <c r="N222" t="n">
+        <v>302082</v>
+      </c>
+      <c r="O222" t="n">
+        <v>233802</v>
+      </c>
+      <c r="P222" t="n">
+        <v>122273</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>182203</v>
+      </c>
+      <c r="R222" t="n">
+        <v>148737</v>
+      </c>
+      <c r="S222" t="n">
+        <v>98108</v>
+      </c>
+      <c r="T222" t="n">
+        <v>270395</v>
+      </c>
+      <c r="U222" t="n">
+        <v>70808</v>
+      </c>
+      <c r="V222" t="n">
+        <v>200427</v>
+      </c>
+      <c r="W222" t="n">
+        <v>66473</v>
+      </c>
+      <c r="X222" t="n">
+        <v>51298</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>217722</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>997333</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>77779</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>69398</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>4885966</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-03</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>28662</v>
+      </c>
+      <c r="C223" t="n">
+        <v>87928</v>
+      </c>
+      <c r="D223" t="n">
+        <v>48602</v>
+      </c>
+      <c r="E223" t="n">
+        <v>142137</v>
+      </c>
+      <c r="F223" t="n">
+        <v>314711</v>
+      </c>
+      <c r="G223" t="n">
+        <v>242820</v>
+      </c>
+      <c r="H223" t="n">
+        <v>194783</v>
+      </c>
+      <c r="I223" t="n">
+        <v>133744</v>
+      </c>
+      <c r="J223" t="n">
+        <v>215938</v>
+      </c>
+      <c r="K223" t="n">
+        <v>175218</v>
+      </c>
+      <c r="L223" t="n">
+        <v>126662</v>
+      </c>
+      <c r="M223" t="n">
+        <v>71723</v>
+      </c>
+      <c r="N223" t="n">
+        <v>305527</v>
+      </c>
+      <c r="O223" t="n">
+        <v>234033</v>
+      </c>
+      <c r="P223" t="n">
+        <v>122681</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>183715</v>
+      </c>
+      <c r="R223" t="n">
+        <v>149349</v>
+      </c>
+      <c r="S223" t="n">
+        <v>98344</v>
+      </c>
+      <c r="T223" t="n">
+        <v>271575</v>
+      </c>
+      <c r="U223" t="n">
+        <v>70808</v>
+      </c>
+      <c r="V223" t="n">
+        <v>202587</v>
+      </c>
+      <c r="W223" t="n">
+        <v>66576</v>
+      </c>
+      <c r="X223" t="n">
+        <v>51368</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>218633</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1003429</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>78002</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>69419</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>4908974</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-04</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>28672</v>
+      </c>
+      <c r="C224" t="n">
+        <v>88098</v>
+      </c>
+      <c r="D224" t="n">
+        <v>48628</v>
+      </c>
+      <c r="E224" t="n">
+        <v>142382</v>
+      </c>
+      <c r="F224" t="n">
+        <v>315440</v>
+      </c>
+      <c r="G224" t="n">
+        <v>243091</v>
+      </c>
+      <c r="H224" t="n">
+        <v>195413</v>
+      </c>
+      <c r="I224" t="n">
+        <v>134296</v>
+      </c>
+      <c r="J224" t="n">
+        <v>216582</v>
+      </c>
+      <c r="K224" t="n">
+        <v>175388</v>
+      </c>
+      <c r="L224" t="n">
+        <v>126920</v>
+      </c>
+      <c r="M224" t="n">
+        <v>71993</v>
+      </c>
+      <c r="N224" t="n">
+        <v>307199</v>
+      </c>
+      <c r="O224" t="n">
+        <v>234129</v>
+      </c>
+      <c r="P224" t="n">
+        <v>122713</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>184476</v>
+      </c>
+      <c r="R224" t="n">
+        <v>149417</v>
+      </c>
+      <c r="S224" t="n">
+        <v>98603</v>
+      </c>
+      <c r="T224" t="n">
+        <v>271701</v>
+      </c>
+      <c r="U224" t="n">
+        <v>71045</v>
+      </c>
+      <c r="V224" t="n">
+        <v>202719</v>
+      </c>
+      <c r="W224" t="n">
+        <v>66623</v>
+      </c>
+      <c r="X224" t="n">
+        <v>51368</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>219218</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1003902</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>78195</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>69478</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>4917689</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>28687</v>
+      </c>
+      <c r="C225" t="n">
+        <v>88135</v>
+      </c>
+      <c r="D225" t="n">
+        <v>48701</v>
+      </c>
+      <c r="E225" t="n">
+        <v>142573</v>
+      </c>
+      <c r="F225" t="n">
+        <v>316005</v>
+      </c>
+      <c r="G225" t="n">
+        <v>254588</v>
+      </c>
+      <c r="H225" t="n">
+        <v>195967</v>
+      </c>
+      <c r="I225" t="n">
+        <v>135001</v>
+      </c>
+      <c r="J225" t="n">
+        <v>219323</v>
+      </c>
+      <c r="K225" t="n">
+        <v>175753</v>
+      </c>
+      <c r="L225" t="n">
+        <v>127730</v>
+      </c>
+      <c r="M225" t="n">
+        <v>72546</v>
+      </c>
+      <c r="N225" t="n">
+        <v>308466</v>
+      </c>
+      <c r="O225" t="n">
+        <v>234884</v>
+      </c>
+      <c r="P225" t="n">
+        <v>122890</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>184806</v>
+      </c>
+      <c r="R225" t="n">
+        <v>149454</v>
+      </c>
+      <c r="S225" t="n">
+        <v>99276</v>
+      </c>
+      <c r="T225" t="n">
+        <v>273338</v>
+      </c>
+      <c r="U225" t="n">
+        <v>71299</v>
+      </c>
+      <c r="V225" t="n">
+        <v>203497</v>
+      </c>
+      <c r="W225" t="n">
+        <v>66783</v>
+      </c>
+      <c r="X225" t="n">
+        <v>51450</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>220044</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1004579</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>78380</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>69587</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>4943742</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>28805</v>
+      </c>
+      <c r="C226" t="n">
+        <v>88283</v>
+      </c>
+      <c r="D226" t="n">
+        <v>48814</v>
+      </c>
+      <c r="E226" t="n">
+        <v>143571</v>
+      </c>
+      <c r="F226" t="n">
+        <v>318147</v>
+      </c>
+      <c r="G226" t="n">
+        <v>256032</v>
+      </c>
+      <c r="H226" t="n">
+        <v>196787</v>
+      </c>
+      <c r="I226" t="n">
+        <v>135850</v>
+      </c>
+      <c r="J226" t="n">
+        <v>222589</v>
+      </c>
+      <c r="K226" t="n">
+        <v>176283</v>
+      </c>
+      <c r="L226" t="n">
+        <v>128740</v>
+      </c>
+      <c r="M226" t="n">
+        <v>72546</v>
+      </c>
+      <c r="N226" t="n">
+        <v>310124</v>
+      </c>
+      <c r="O226" t="n">
+        <v>235948</v>
+      </c>
+      <c r="P226" t="n">
+        <v>123564</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>186159</v>
+      </c>
+      <c r="R226" t="n">
+        <v>150217</v>
+      </c>
+      <c r="S226" t="n">
+        <v>99960</v>
+      </c>
+      <c r="T226" t="n">
+        <v>275415</v>
+      </c>
+      <c r="U226" t="n">
+        <v>71299</v>
+      </c>
+      <c r="V226" t="n">
+        <v>205375</v>
+      </c>
+      <c r="W226" t="n">
+        <v>67014</v>
+      </c>
+      <c r="X226" t="n">
+        <v>51450</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>221442</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1010839</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>78525</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>69587</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>4973365</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-07</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>28818</v>
+      </c>
+      <c r="C227" t="n">
+        <v>88426</v>
+      </c>
+      <c r="D227" t="n">
+        <v>48963</v>
+      </c>
+      <c r="E227" t="n">
+        <v>144492</v>
+      </c>
+      <c r="F227" t="n">
+        <v>319981</v>
+      </c>
+      <c r="G227" t="n">
+        <v>257409</v>
+      </c>
+      <c r="H227" t="n">
+        <v>197369</v>
+      </c>
+      <c r="I227" t="n">
+        <v>136590</v>
+      </c>
+      <c r="J227" t="n">
+        <v>224981</v>
+      </c>
+      <c r="K227" t="n">
+        <v>176995</v>
+      </c>
+      <c r="L227" t="n">
+        <v>129038</v>
+      </c>
+      <c r="M227" t="n">
+        <v>73027</v>
+      </c>
+      <c r="N227" t="n">
+        <v>313032</v>
+      </c>
+      <c r="O227" t="n">
+        <v>236830</v>
+      </c>
+      <c r="P227" t="n">
+        <v>124315</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>187729</v>
+      </c>
+      <c r="R227" t="n">
+        <v>151139</v>
+      </c>
+      <c r="S227" t="n">
+        <v>99960</v>
+      </c>
+      <c r="T227" t="n">
+        <v>277439</v>
+      </c>
+      <c r="U227" t="n">
+        <v>71898</v>
+      </c>
+      <c r="V227" t="n">
+        <v>207706</v>
+      </c>
+      <c r="W227" t="n">
+        <v>67181</v>
+      </c>
+      <c r="X227" t="n">
+        <v>51635</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>222652</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1016755</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>78692</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>69969</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>5003021</v>
       </c>
     </row>
   </sheetData>
@@ -19180,7 +21091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37848,7 +39759,7 @@
         <v>3172</v>
       </c>
       <c r="M205" t="n">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="N205" t="n">
         <v>6328</v>
@@ -37872,7 +39783,7 @@
         <v>17180</v>
       </c>
       <c r="U205" t="n">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="V205" t="n">
         <v>4174</v>
@@ -37893,10 +39804,10 @@
         <v>1962</v>
       </c>
       <c r="AB205" t="n">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="AC205" t="n">
-        <v>133257</v>
+        <v>133286</v>
       </c>
     </row>
     <row r="206">
@@ -37906,88 +39817,1999 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C206" t="n">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="D206" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E206" t="n">
-        <v>3907</v>
+        <v>3920</v>
       </c>
       <c r="F206" t="n">
-        <v>6040</v>
+        <v>6085</v>
       </c>
       <c r="G206" t="n">
-        <v>8757</v>
+        <v>8764</v>
       </c>
       <c r="H206" t="n">
-        <v>2970</v>
+        <v>3000</v>
       </c>
       <c r="I206" t="n">
-        <v>3376</v>
+        <v>3388</v>
       </c>
       <c r="J206" t="n">
-        <v>3935</v>
+        <v>3971</v>
       </c>
       <c r="K206" t="n">
-        <v>3601</v>
+        <v>3611</v>
       </c>
       <c r="L206" t="n">
-        <v>3172</v>
+        <v>3204</v>
       </c>
       <c r="M206" t="n">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="N206" t="n">
         <v>6419</v>
       </c>
       <c r="O206" t="n">
-        <v>6407</v>
+        <v>6421</v>
       </c>
       <c r="P206" t="n">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="Q206" t="n">
-        <v>3918</v>
+        <v>3971</v>
       </c>
       <c r="R206" t="n">
         <v>7933</v>
       </c>
       <c r="S206" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="T206" t="n">
-        <v>17180</v>
+        <v>17342</v>
       </c>
       <c r="U206" t="n">
-        <v>2334</v>
+        <v>2341</v>
       </c>
       <c r="V206" t="n">
-        <v>4174</v>
+        <v>4216</v>
       </c>
       <c r="W206" t="n">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="X206" t="n">
         <v>611</v>
       </c>
       <c r="Y206" t="n">
-        <v>2569</v>
+        <v>2593</v>
       </c>
       <c r="Z206" t="n">
         <v>33253</v>
       </c>
       <c r="AA206" t="n">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="AB206" t="n">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="AC206" t="n">
-        <v>133699</v>
+        <v>134248</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>646</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D207" t="n">
+        <v>688</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3931</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6132</v>
+      </c>
+      <c r="G207" t="n">
+        <v>8781</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3022</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3399</v>
+      </c>
+      <c r="J207" t="n">
+        <v>4057</v>
+      </c>
+      <c r="K207" t="n">
+        <v>3622</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3226</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1148</v>
+      </c>
+      <c r="N207" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O207" t="n">
+        <v>6438</v>
+      </c>
+      <c r="P207" t="n">
+        <v>2670</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>4018</v>
+      </c>
+      <c r="R207" t="n">
+        <v>7954</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2012</v>
+      </c>
+      <c r="T207" t="n">
+        <v>17453</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2349</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4268</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1289</v>
+      </c>
+      <c r="X207" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2609</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>33472</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>1968</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>850</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>135117</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>647</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D208" t="n">
+        <v>690</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6181</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8795</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3037</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3404</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4120</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3632</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3248</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N208" t="n">
+        <v>6574</v>
+      </c>
+      <c r="O208" t="n">
+        <v>6451</v>
+      </c>
+      <c r="P208" t="n">
+        <v>2684</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>4067</v>
+      </c>
+      <c r="R208" t="n">
+        <v>7971</v>
+      </c>
+      <c r="S208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="T208" t="n">
+        <v>17575</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2356</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4318</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1294</v>
+      </c>
+      <c r="X208" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2627</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>33678</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>1972</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>866</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>135945</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>648</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D209" t="n">
+        <v>691</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3956</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6221</v>
+      </c>
+      <c r="G209" t="n">
+        <v>8801</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3048</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3408</v>
+      </c>
+      <c r="J209" t="n">
+        <v>4142</v>
+      </c>
+      <c r="K209" t="n">
+        <v>3643</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3262</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1172</v>
+      </c>
+      <c r="N209" t="n">
+        <v>6656</v>
+      </c>
+      <c r="O209" t="n">
+        <v>6460</v>
+      </c>
+      <c r="P209" t="n">
+        <v>2695</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>4093</v>
+      </c>
+      <c r="R209" t="n">
+        <v>8004</v>
+      </c>
+      <c r="S209" t="n">
+        <v>2037</v>
+      </c>
+      <c r="T209" t="n">
+        <v>17634</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2356</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4371</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1297</v>
+      </c>
+      <c r="X209" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2635</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>33927</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>1976</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>866</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>136626</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>649</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D210" t="n">
+        <v>691</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3959</v>
+      </c>
+      <c r="F210" t="n">
+        <v>6265</v>
+      </c>
+      <c r="G210" t="n">
+        <v>8815</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3062</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3422</v>
+      </c>
+      <c r="J210" t="n">
+        <v>4158</v>
+      </c>
+      <c r="K210" t="n">
+        <v>3653</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3279</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1179</v>
+      </c>
+      <c r="N210" t="n">
+        <v>6714</v>
+      </c>
+      <c r="O210" t="n">
+        <v>6468</v>
+      </c>
+      <c r="P210" t="n">
+        <v>2707</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>4110</v>
+      </c>
+      <c r="R210" t="n">
+        <v>8016</v>
+      </c>
+      <c r="S210" t="n">
+        <v>2038</v>
+      </c>
+      <c r="T210" t="n">
+        <v>17677</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2360</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4384</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X210" t="n">
+        <v>613</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2639</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>33952</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>1981</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>867</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>136977</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>649</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D211" t="n">
+        <v>693</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3964</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6313</v>
+      </c>
+      <c r="G211" t="n">
+        <v>8834</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3097</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3432</v>
+      </c>
+      <c r="J211" t="n">
+        <v>4216</v>
+      </c>
+      <c r="K211" t="n">
+        <v>3664</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3297</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1191</v>
+      </c>
+      <c r="N211" t="n">
+        <v>6727</v>
+      </c>
+      <c r="O211" t="n">
+        <v>6477</v>
+      </c>
+      <c r="P211" t="n">
+        <v>2719</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>4146</v>
+      </c>
+      <c r="R211" t="n">
+        <v>8025</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2051</v>
+      </c>
+      <c r="T211" t="n">
+        <v>17727</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2363</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4409</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1305</v>
+      </c>
+      <c r="X211" t="n">
+        <v>616</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2656</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>33984</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>1987</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>877</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>137443</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>651</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2029</v>
+      </c>
+      <c r="D212" t="n">
+        <v>695</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3967</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6359</v>
+      </c>
+      <c r="G212" t="n">
+        <v>8850</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3131</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3444</v>
+      </c>
+      <c r="J212" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K212" t="n">
+        <v>3674</v>
+      </c>
+      <c r="L212" t="n">
+        <v>3318</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1204</v>
+      </c>
+      <c r="N212" t="n">
+        <v>6764</v>
+      </c>
+      <c r="O212" t="n">
+        <v>6489</v>
+      </c>
+      <c r="P212" t="n">
+        <v>2729</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>4185</v>
+      </c>
+      <c r="R212" t="n">
+        <v>8055</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2061</v>
+      </c>
+      <c r="T212" t="n">
+        <v>17798</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2364</v>
+      </c>
+      <c r="V212" t="n">
+        <v>4472</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1312</v>
+      </c>
+      <c r="X212" t="n">
+        <v>616</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2671</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>34266</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>1993</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>890</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>138237</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>652</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D213" t="n">
+        <v>697</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3984</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6408</v>
+      </c>
+      <c r="G213" t="n">
+        <v>8876</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3148</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3452</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4307</v>
+      </c>
+      <c r="K213" t="n">
+        <v>3683</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3336</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1217</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6897</v>
+      </c>
+      <c r="O213" t="n">
+        <v>6502</v>
+      </c>
+      <c r="P213" t="n">
+        <v>2741</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>4244</v>
+      </c>
+      <c r="R213" t="n">
+        <v>8085</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2073</v>
+      </c>
+      <c r="T213" t="n">
+        <v>17911</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2374</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4515</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1320</v>
+      </c>
+      <c r="X213" t="n">
+        <v>635</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2686</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>34492</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>901</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>139169</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-24</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>653</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D214" t="n">
+        <v>698</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3992</v>
+      </c>
+      <c r="F214" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G214" t="n">
+        <v>8891</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3164</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3459</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4390</v>
+      </c>
+      <c r="K214" t="n">
+        <v>3693</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3349</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1234</v>
+      </c>
+      <c r="N214" t="n">
+        <v>6983</v>
+      </c>
+      <c r="O214" t="n">
+        <v>6514</v>
+      </c>
+      <c r="P214" t="n">
+        <v>2762</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>4280</v>
+      </c>
+      <c r="R214" t="n">
+        <v>8110</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2085</v>
+      </c>
+      <c r="T214" t="n">
+        <v>18037</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2376</v>
+      </c>
+      <c r="V214" t="n">
+        <v>4544</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1323</v>
+      </c>
+      <c r="X214" t="n">
+        <v>637</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2704</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>34677</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>910</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>139964</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-25</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>654</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2046</v>
+      </c>
+      <c r="D215" t="n">
+        <v>699</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6503</v>
+      </c>
+      <c r="G215" t="n">
+        <v>8905</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3175</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3485</v>
+      </c>
+      <c r="J215" t="n">
+        <v>4474</v>
+      </c>
+      <c r="K215" t="n">
+        <v>3703</v>
+      </c>
+      <c r="L215" t="n">
+        <v>3375</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1249</v>
+      </c>
+      <c r="N215" t="n">
+        <v>7056</v>
+      </c>
+      <c r="O215" t="n">
+        <v>6534</v>
+      </c>
+      <c r="P215" t="n">
+        <v>2778</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>4318</v>
+      </c>
+      <c r="R215" t="n">
+        <v>8129</v>
+      </c>
+      <c r="S215" t="n">
+        <v>2091</v>
+      </c>
+      <c r="T215" t="n">
+        <v>18166</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2380</v>
+      </c>
+      <c r="V215" t="n">
+        <v>4574</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1328</v>
+      </c>
+      <c r="X215" t="n">
+        <v>637</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2723</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>34877</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>917</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>140786</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>656</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2052</v>
+      </c>
+      <c r="D216" t="n">
+        <v>702</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4022</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6552</v>
+      </c>
+      <c r="G216" t="n">
+        <v>8918</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3183</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3492</v>
+      </c>
+      <c r="J216" t="n">
+        <v>4505</v>
+      </c>
+      <c r="K216" t="n">
+        <v>3714</v>
+      </c>
+      <c r="L216" t="n">
+        <v>3394</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1263</v>
+      </c>
+      <c r="N216" t="n">
+        <v>7181</v>
+      </c>
+      <c r="O216" t="n">
+        <v>6546</v>
+      </c>
+      <c r="P216" t="n">
+        <v>2788</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>4344</v>
+      </c>
+      <c r="R216" t="n">
+        <v>8156</v>
+      </c>
+      <c r="S216" t="n">
+        <v>2095</v>
+      </c>
+      <c r="T216" t="n">
+        <v>18247</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2380</v>
+      </c>
+      <c r="V216" t="n">
+        <v>4615</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1333</v>
+      </c>
+      <c r="X216" t="n">
+        <v>637</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2736</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>35063</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>919</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>141508</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>657</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2057</v>
+      </c>
+      <c r="D217" t="n">
+        <v>702</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6599</v>
+      </c>
+      <c r="G217" t="n">
+        <v>8921</v>
+      </c>
+      <c r="H217" t="n">
+        <v>3188</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3504</v>
+      </c>
+      <c r="J217" t="n">
+        <v>4522</v>
+      </c>
+      <c r="K217" t="n">
+        <v>3724</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3400</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1278</v>
+      </c>
+      <c r="N217" t="n">
+        <v>7228</v>
+      </c>
+      <c r="O217" t="n">
+        <v>6551</v>
+      </c>
+      <c r="P217" t="n">
+        <v>2797</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>4358</v>
+      </c>
+      <c r="R217" t="n">
+        <v>8174</v>
+      </c>
+      <c r="S217" t="n">
+        <v>2101</v>
+      </c>
+      <c r="T217" t="n">
+        <v>18278</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2385</v>
+      </c>
+      <c r="V217" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1336</v>
+      </c>
+      <c r="X217" t="n">
+        <v>637</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2747</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>35108</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>922</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>141847</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>657</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2062</v>
+      </c>
+      <c r="D218" t="n">
+        <v>704</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4031</v>
+      </c>
+      <c r="F218" t="n">
+        <v>6648</v>
+      </c>
+      <c r="G218" t="n">
+        <v>8948</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3203</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3524</v>
+      </c>
+      <c r="J218" t="n">
+        <v>4582</v>
+      </c>
+      <c r="K218" t="n">
+        <v>3735</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3423</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1293</v>
+      </c>
+      <c r="N218" t="n">
+        <v>7240</v>
+      </c>
+      <c r="O218" t="n">
+        <v>6560</v>
+      </c>
+      <c r="P218" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>4378</v>
+      </c>
+      <c r="R218" t="n">
+        <v>8190</v>
+      </c>
+      <c r="S218" t="n">
+        <v>2107</v>
+      </c>
+      <c r="T218" t="n">
+        <v>18291</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2392</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4648</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1340</v>
+      </c>
+      <c r="X218" t="n">
+        <v>641</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2765</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>35125</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>922</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>142238</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>657</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2067</v>
+      </c>
+      <c r="D219" t="n">
+        <v>705</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4035</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6697</v>
+      </c>
+      <c r="G219" t="n">
+        <v>8957</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3224</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3538</v>
+      </c>
+      <c r="J219" t="n">
+        <v>4651</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3745</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3445</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1303</v>
+      </c>
+      <c r="N219" t="n">
+        <v>7259</v>
+      </c>
+      <c r="O219" t="n">
+        <v>6573</v>
+      </c>
+      <c r="P219" t="n">
+        <v>2816</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>4422</v>
+      </c>
+      <c r="R219" t="n">
+        <v>8222</v>
+      </c>
+      <c r="S219" t="n">
+        <v>2122</v>
+      </c>
+      <c r="T219" t="n">
+        <v>18388</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2400</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4724</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1351</v>
+      </c>
+      <c r="X219" t="n">
+        <v>648</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2786</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>35391</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>2031</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>939</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>143096</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>659</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D220" t="n">
+        <v>709</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4156</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6744</v>
+      </c>
+      <c r="G220" t="n">
+        <v>8994</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3255</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3545</v>
+      </c>
+      <c r="J220" t="n">
+        <v>4705</v>
+      </c>
+      <c r="K220" t="n">
+        <v>3756</v>
+      </c>
+      <c r="L220" t="n">
+        <v>3457</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1311</v>
+      </c>
+      <c r="N220" t="n">
+        <v>7360</v>
+      </c>
+      <c r="O220" t="n">
+        <v>6582</v>
+      </c>
+      <c r="P220" t="n">
+        <v>2824</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>4485</v>
+      </c>
+      <c r="R220" t="n">
+        <v>8251</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2127</v>
+      </c>
+      <c r="T220" t="n">
+        <v>18487</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2403</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4782</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1357</v>
+      </c>
+      <c r="X220" t="n">
+        <v>654</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2797</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>35622</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>2036</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>948</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>144078</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-01</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>661</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D221" t="n">
+        <v>712</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4159</v>
+      </c>
+      <c r="F221" t="n">
+        <v>6795</v>
+      </c>
+      <c r="G221" t="n">
+        <v>9047</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3276</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3551</v>
+      </c>
+      <c r="J221" t="n">
+        <v>4771</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3766</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3479</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1326</v>
+      </c>
+      <c r="N221" t="n">
+        <v>7436</v>
+      </c>
+      <c r="O221" t="n">
+        <v>6585</v>
+      </c>
+      <c r="P221" t="n">
+        <v>2835</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>4527</v>
+      </c>
+      <c r="R221" t="n">
+        <v>8279</v>
+      </c>
+      <c r="S221" t="n">
+        <v>2132</v>
+      </c>
+      <c r="T221" t="n">
+        <v>18567</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2406</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4815</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1367</v>
+      </c>
+      <c r="X221" t="n">
+        <v>659</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2821</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>35804</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>2040</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>957</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>144851</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>664</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D222" t="n">
+        <v>713</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4162</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6844</v>
+      </c>
+      <c r="G222" t="n">
+        <v>9047</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3291</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3565</v>
+      </c>
+      <c r="J222" t="n">
+        <v>4832</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3776</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3498</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1335</v>
+      </c>
+      <c r="N222" t="n">
+        <v>7502</v>
+      </c>
+      <c r="O222" t="n">
+        <v>6593</v>
+      </c>
+      <c r="P222" t="n">
+        <v>2842</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>4560</v>
+      </c>
+      <c r="R222" t="n">
+        <v>8299</v>
+      </c>
+      <c r="S222" t="n">
+        <v>2144</v>
+      </c>
+      <c r="T222" t="n">
+        <v>18665</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2410</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4852</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1368</v>
+      </c>
+      <c r="X222" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2830</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>35956</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>2045</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>966</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>145505</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-03</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>667</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2091</v>
+      </c>
+      <c r="D223" t="n">
+        <v>715</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4169</v>
+      </c>
+      <c r="F223" t="n">
+        <v>6890</v>
+      </c>
+      <c r="G223" t="n">
+        <v>9051</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3309</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3572</v>
+      </c>
+      <c r="J223" t="n">
+        <v>4832</v>
+      </c>
+      <c r="K223" t="n">
+        <v>3787</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3517</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1351</v>
+      </c>
+      <c r="N223" t="n">
+        <v>7569</v>
+      </c>
+      <c r="O223" t="n">
+        <v>6600</v>
+      </c>
+      <c r="P223" t="n">
+        <v>2846</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>4574</v>
+      </c>
+      <c r="R223" t="n">
+        <v>8318</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2149</v>
+      </c>
+      <c r="T223" t="n">
+        <v>18749</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2410</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4898</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1371</v>
+      </c>
+      <c r="X223" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2842</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>36136</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>2051</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>968</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>146093</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-04</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>667</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2097</v>
+      </c>
+      <c r="D224" t="n">
+        <v>716</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4176</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6925</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9054</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3325</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3580</v>
+      </c>
+      <c r="J224" t="n">
+        <v>4867</v>
+      </c>
+      <c r="K224" t="n">
+        <v>3796</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3533</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1365</v>
+      </c>
+      <c r="N224" t="n">
+        <v>7643</v>
+      </c>
+      <c r="O224" t="n">
+        <v>6606</v>
+      </c>
+      <c r="P224" t="n">
+        <v>2851</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>4589</v>
+      </c>
+      <c r="R224" t="n">
+        <v>8333</v>
+      </c>
+      <c r="S224" t="n">
+        <v>2156</v>
+      </c>
+      <c r="T224" t="n">
+        <v>18769</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2411</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4908</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1371</v>
+      </c>
+      <c r="X224" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>2847</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>36178</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>2055</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>972</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>146451</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>667</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2103</v>
+      </c>
+      <c r="D225" t="n">
+        <v>718</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4185</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6953</v>
+      </c>
+      <c r="G225" t="n">
+        <v>9067</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3346</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3594</v>
+      </c>
+      <c r="J225" t="n">
+        <v>4927</v>
+      </c>
+      <c r="K225" t="n">
+        <v>3807</v>
+      </c>
+      <c r="L225" t="n">
+        <v>3545</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1376</v>
+      </c>
+      <c r="N225" t="n">
+        <v>7656</v>
+      </c>
+      <c r="O225" t="n">
+        <v>6614</v>
+      </c>
+      <c r="P225" t="n">
+        <v>2861</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>4619</v>
+      </c>
+      <c r="R225" t="n">
+        <v>8340</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2169</v>
+      </c>
+      <c r="T225" t="n">
+        <v>18780</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2415</v>
+      </c>
+      <c r="V225" t="n">
+        <v>4952</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1375</v>
+      </c>
+      <c r="X225" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>36220</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>2061</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>975</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>146844</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-06</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>668</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2109</v>
+      </c>
+      <c r="D226" t="n">
+        <v>721</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4193</v>
+      </c>
+      <c r="F226" t="n">
+        <v>6985</v>
+      </c>
+      <c r="G226" t="n">
+        <v>9090</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3364</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3604</v>
+      </c>
+      <c r="J226" t="n">
+        <v>4989</v>
+      </c>
+      <c r="K226" t="n">
+        <v>3817</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3564</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1376</v>
+      </c>
+      <c r="N226" t="n">
+        <v>7704</v>
+      </c>
+      <c r="O226" t="n">
+        <v>6623</v>
+      </c>
+      <c r="P226" t="n">
+        <v>2872</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>4673</v>
+      </c>
+      <c r="R226" t="n">
+        <v>8356</v>
+      </c>
+      <c r="S226" t="n">
+        <v>2180</v>
+      </c>
+      <c r="T226" t="n">
+        <v>18883</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2415</v>
+      </c>
+      <c r="V226" t="n">
+        <v>4989</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1384</v>
+      </c>
+      <c r="X226" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2872</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>36490</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>2067</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>975</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>147624</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-07</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>668</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D227" t="n">
+        <v>722</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4202</v>
+      </c>
+      <c r="F227" t="n">
+        <v>7021</v>
+      </c>
+      <c r="G227" t="n">
+        <v>9104</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3378</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3617</v>
+      </c>
+      <c r="J227" t="n">
+        <v>5065</v>
+      </c>
+      <c r="K227" t="n">
+        <v>3828</v>
+      </c>
+      <c r="L227" t="n">
+        <v>3564</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1385</v>
+      </c>
+      <c r="N227" t="n">
+        <v>7811</v>
+      </c>
+      <c r="O227" t="n">
+        <v>6629</v>
+      </c>
+      <c r="P227" t="n">
+        <v>2884</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>4703</v>
+      </c>
+      <c r="R227" t="n">
+        <v>8379</v>
+      </c>
+      <c r="S227" t="n">
+        <v>2180</v>
+      </c>
+      <c r="T227" t="n">
+        <v>18969</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2415</v>
+      </c>
+      <c r="V227" t="n">
+        <v>5035</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1385</v>
+      </c>
+      <c r="X227" t="n">
+        <v>666</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2880</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>36669</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>2072</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>985</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>148331</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_Brasil.xlsx
+++ b/data/Data_Brasil.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC273"/>
+  <dimension ref="A1:AC301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8038,10 +8038,10 @@
         <v>3135</v>
       </c>
       <c r="AB83" t="n">
-        <v>1279</v>
+        <v>1382</v>
       </c>
       <c r="AC83" t="n">
-        <v>234578</v>
+        <v>234681</v>
       </c>
     </row>
     <row r="84">
@@ -8766,10 +8766,10 @@
         <v>5314</v>
       </c>
       <c r="AB91" t="n">
-        <v>2591</v>
+        <v>2696</v>
       </c>
       <c r="AC91" t="n">
-        <v>365928</v>
+        <v>366033</v>
       </c>
     </row>
     <row r="92">
@@ -9039,10 +9039,10 @@
         <v>5912</v>
       </c>
       <c r="AB94" t="n">
-        <v>3023</v>
+        <v>3277</v>
       </c>
       <c r="AC94" t="n">
-        <v>415112</v>
+        <v>415366</v>
       </c>
     </row>
     <row r="95">
@@ -9767,10 +9767,10 @@
         <v>8200</v>
       </c>
       <c r="AB102" t="n">
-        <v>4881</v>
+        <v>5182</v>
       </c>
       <c r="AC102" t="n">
-        <v>620701</v>
+        <v>621002</v>
       </c>
     </row>
     <row r="103">
@@ -25283,7 +25283,7 @@
         <v>154924</v>
       </c>
       <c r="M273" t="n">
-        <v>92467</v>
+        <v>92970</v>
       </c>
       <c r="N273" t="n">
         <v>396933</v>
@@ -25307,7 +25307,7 @@
         <v>338203</v>
       </c>
       <c r="U273" t="n">
-        <v>86602</v>
+        <v>87158</v>
       </c>
       <c r="V273" t="n">
         <v>297827</v>
@@ -25316,7 +25316,7 @@
         <v>77348</v>
       </c>
       <c r="X273" t="n">
-        <v>61838</v>
+        <v>62015</v>
       </c>
       <c r="Y273" t="n">
         <v>326208</v>
@@ -25328,10 +25328,2558 @@
         <v>87248</v>
       </c>
       <c r="AB273" t="n">
-        <v>79514</v>
+        <v>79612</v>
       </c>
       <c r="AC273" t="n">
-        <v>6072727</v>
+        <v>6074061</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>34849</v>
+      </c>
+      <c r="C274" t="n">
+        <v>93569</v>
+      </c>
+      <c r="D274" t="n">
+        <v>56922</v>
+      </c>
+      <c r="E274" t="n">
+        <v>173780</v>
+      </c>
+      <c r="F274" t="n">
+        <v>386321</v>
+      </c>
+      <c r="G274" t="n">
+        <v>293249</v>
+      </c>
+      <c r="H274" t="n">
+        <v>224517</v>
+      </c>
+      <c r="I274" t="n">
+        <v>179517</v>
+      </c>
+      <c r="J274" t="n">
+        <v>274139</v>
+      </c>
+      <c r="K274" t="n">
+        <v>191366</v>
+      </c>
+      <c r="L274" t="n">
+        <v>155452</v>
+      </c>
+      <c r="M274" t="n">
+        <v>93747</v>
+      </c>
+      <c r="N274" t="n">
+        <v>398014</v>
+      </c>
+      <c r="O274" t="n">
+        <v>266780</v>
+      </c>
+      <c r="P274" t="n">
+        <v>142588</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>257438</v>
+      </c>
+      <c r="R274" t="n">
+        <v>176158</v>
+      </c>
+      <c r="S274" t="n">
+        <v>123378</v>
+      </c>
+      <c r="T274" t="n">
+        <v>338688</v>
+      </c>
+      <c r="U274" t="n">
+        <v>87366</v>
+      </c>
+      <c r="V274" t="n">
+        <v>298670</v>
+      </c>
+      <c r="W274" t="n">
+        <v>77615</v>
+      </c>
+      <c r="X274" t="n">
+        <v>62139</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>327961</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1210625</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>87477</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>79894</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>6092219</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>35053</v>
+      </c>
+      <c r="C275" t="n">
+        <v>93708</v>
+      </c>
+      <c r="D275" t="n">
+        <v>57343</v>
+      </c>
+      <c r="E275" t="n">
+        <v>174579</v>
+      </c>
+      <c r="F275" t="n">
+        <v>387786</v>
+      </c>
+      <c r="G275" t="n">
+        <v>294116</v>
+      </c>
+      <c r="H275" t="n">
+        <v>225013</v>
+      </c>
+      <c r="I275" t="n">
+        <v>181306</v>
+      </c>
+      <c r="J275" t="n">
+        <v>275529</v>
+      </c>
+      <c r="K275" t="n">
+        <v>191721</v>
+      </c>
+      <c r="L275" t="n">
+        <v>156177</v>
+      </c>
+      <c r="M275" t="n">
+        <v>94652</v>
+      </c>
+      <c r="N275" t="n">
+        <v>399536</v>
+      </c>
+      <c r="O275" t="n">
+        <v>267700</v>
+      </c>
+      <c r="P275" t="n">
+        <v>142898</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>261018</v>
+      </c>
+      <c r="R275" t="n">
+        <v>176939</v>
+      </c>
+      <c r="S275" t="n">
+        <v>124076</v>
+      </c>
+      <c r="T275" t="n">
+        <v>340833</v>
+      </c>
+      <c r="U275" t="n">
+        <v>88462</v>
+      </c>
+      <c r="V275" t="n">
+        <v>301766</v>
+      </c>
+      <c r="W275" t="n">
+        <v>78189</v>
+      </c>
+      <c r="X275" t="n">
+        <v>62414</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>332076</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1215844</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>87800</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>80218</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>6126752</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-25</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>35188</v>
+      </c>
+      <c r="C276" t="n">
+        <v>93915</v>
+      </c>
+      <c r="D276" t="n">
+        <v>57698</v>
+      </c>
+      <c r="E276" t="n">
+        <v>175298</v>
+      </c>
+      <c r="F276" t="n">
+        <v>390909</v>
+      </c>
+      <c r="G276" t="n">
+        <v>295275</v>
+      </c>
+      <c r="H276" t="n">
+        <v>225873</v>
+      </c>
+      <c r="I276" t="n">
+        <v>182855</v>
+      </c>
+      <c r="J276" t="n">
+        <v>276135</v>
+      </c>
+      <c r="K276" t="n">
+        <v>192129</v>
+      </c>
+      <c r="L276" t="n">
+        <v>156937</v>
+      </c>
+      <c r="M276" t="n">
+        <v>95193</v>
+      </c>
+      <c r="N276" t="n">
+        <v>403542</v>
+      </c>
+      <c r="O276" t="n">
+        <v>268524</v>
+      </c>
+      <c r="P276" t="n">
+        <v>143615</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>264838</v>
+      </c>
+      <c r="R276" t="n">
+        <v>178086</v>
+      </c>
+      <c r="S276" t="n">
+        <v>124494</v>
+      </c>
+      <c r="T276" t="n">
+        <v>343995</v>
+      </c>
+      <c r="U276" t="n">
+        <v>89170</v>
+      </c>
+      <c r="V276" t="n">
+        <v>306335</v>
+      </c>
+      <c r="W276" t="n">
+        <v>78470</v>
+      </c>
+      <c r="X276" t="n">
+        <v>62603</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>337009</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1224744</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>88100</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>80450</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>6171380</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-26</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>35304</v>
+      </c>
+      <c r="C277" t="n">
+        <v>94060</v>
+      </c>
+      <c r="D277" t="n">
+        <v>58043</v>
+      </c>
+      <c r="E277" t="n">
+        <v>176214</v>
+      </c>
+      <c r="F277" t="n">
+        <v>392381</v>
+      </c>
+      <c r="G277" t="n">
+        <v>297793</v>
+      </c>
+      <c r="H277" t="n">
+        <v>226697</v>
+      </c>
+      <c r="I277" t="n">
+        <v>184801</v>
+      </c>
+      <c r="J277" t="n">
+        <v>276943</v>
+      </c>
+      <c r="K277" t="n">
+        <v>192501</v>
+      </c>
+      <c r="L277" t="n">
+        <v>157524</v>
+      </c>
+      <c r="M277" t="n">
+        <v>95721</v>
+      </c>
+      <c r="N277" t="n">
+        <v>406880</v>
+      </c>
+      <c r="O277" t="n">
+        <v>269057</v>
+      </c>
+      <c r="P277" t="n">
+        <v>144378</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>269258</v>
+      </c>
+      <c r="R277" t="n">
+        <v>178639</v>
+      </c>
+      <c r="S277" t="n">
+        <v>125155</v>
+      </c>
+      <c r="T277" t="n">
+        <v>346024</v>
+      </c>
+      <c r="U277" t="n">
+        <v>93048</v>
+      </c>
+      <c r="V277" t="n">
+        <v>308647</v>
+      </c>
+      <c r="W277" t="n">
+        <v>78788</v>
+      </c>
+      <c r="X277" t="n">
+        <v>62757</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>343007</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1229267</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>88661</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>80717</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>6212265</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-27</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>35756</v>
+      </c>
+      <c r="C278" t="n">
+        <v>94392</v>
+      </c>
+      <c r="D278" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E278" t="n">
+        <v>177142</v>
+      </c>
+      <c r="F278" t="n">
+        <v>394300</v>
+      </c>
+      <c r="G278" t="n">
+        <v>298312</v>
+      </c>
+      <c r="H278" t="n">
+        <v>227581</v>
+      </c>
+      <c r="I278" t="n">
+        <v>186574</v>
+      </c>
+      <c r="J278" t="n">
+        <v>278738</v>
+      </c>
+      <c r="K278" t="n">
+        <v>192845</v>
+      </c>
+      <c r="L278" t="n">
+        <v>158084</v>
+      </c>
+      <c r="M278" t="n">
+        <v>97605</v>
+      </c>
+      <c r="N278" t="n">
+        <v>409731</v>
+      </c>
+      <c r="O278" t="n">
+        <v>269870</v>
+      </c>
+      <c r="P278" t="n">
+        <v>144741</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>272984</v>
+      </c>
+      <c r="R278" t="n">
+        <v>179308</v>
+      </c>
+      <c r="S278" t="n">
+        <v>125675</v>
+      </c>
+      <c r="T278" t="n">
+        <v>347348</v>
+      </c>
+      <c r="U278" t="n">
+        <v>93481</v>
+      </c>
+      <c r="V278" t="n">
+        <v>311123</v>
+      </c>
+      <c r="W278" t="n">
+        <v>78788</v>
+      </c>
+      <c r="X278" t="n">
+        <v>62816</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>346427</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1233587</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>88999</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>81266</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>6245773</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-28</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>35920</v>
+      </c>
+      <c r="C279" t="n">
+        <v>94613</v>
+      </c>
+      <c r="D279" t="n">
+        <v>58835</v>
+      </c>
+      <c r="E279" t="n">
+        <v>177800</v>
+      </c>
+      <c r="F279" t="n">
+        <v>398504</v>
+      </c>
+      <c r="G279" t="n">
+        <v>299590</v>
+      </c>
+      <c r="H279" t="n">
+        <v>228075</v>
+      </c>
+      <c r="I279" t="n">
+        <v>188342</v>
+      </c>
+      <c r="J279" t="n">
+        <v>278880</v>
+      </c>
+      <c r="K279" t="n">
+        <v>193053</v>
+      </c>
+      <c r="L279" t="n">
+        <v>158314</v>
+      </c>
+      <c r="M279" t="n">
+        <v>98363</v>
+      </c>
+      <c r="N279" t="n">
+        <v>412996</v>
+      </c>
+      <c r="O279" t="n">
+        <v>270368</v>
+      </c>
+      <c r="P279" t="n">
+        <v>145110</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>276185</v>
+      </c>
+      <c r="R279" t="n">
+        <v>181392</v>
+      </c>
+      <c r="S279" t="n">
+        <v>126721</v>
+      </c>
+      <c r="T279" t="n">
+        <v>352760</v>
+      </c>
+      <c r="U279" t="n">
+        <v>94482</v>
+      </c>
+      <c r="V279" t="n">
+        <v>318936</v>
+      </c>
+      <c r="W279" t="n">
+        <v>79765</v>
+      </c>
+      <c r="X279" t="n">
+        <v>63234</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>355950</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1238094</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>89507</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>81469</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>6297258</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>36080</v>
+      </c>
+      <c r="C280" t="n">
+        <v>94859</v>
+      </c>
+      <c r="D280" t="n">
+        <v>58956</v>
+      </c>
+      <c r="E280" t="n">
+        <v>177991</v>
+      </c>
+      <c r="F280" t="n">
+        <v>401419</v>
+      </c>
+      <c r="G280" t="n">
+        <v>300134</v>
+      </c>
+      <c r="H280" t="n">
+        <v>228702</v>
+      </c>
+      <c r="I280" t="n">
+        <v>188929</v>
+      </c>
+      <c r="J280" t="n">
+        <v>278960</v>
+      </c>
+      <c r="K280" t="n">
+        <v>193066</v>
+      </c>
+      <c r="L280" t="n">
+        <v>158417</v>
+      </c>
+      <c r="M280" t="n">
+        <v>99061</v>
+      </c>
+      <c r="N280" t="n">
+        <v>415247</v>
+      </c>
+      <c r="O280" t="n">
+        <v>270548</v>
+      </c>
+      <c r="P280" t="n">
+        <v>145212</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>277707</v>
+      </c>
+      <c r="R280" t="n">
+        <v>181841</v>
+      </c>
+      <c r="S280" t="n">
+        <v>127014</v>
+      </c>
+      <c r="T280" t="n">
+        <v>353316</v>
+      </c>
+      <c r="U280" t="n">
+        <v>95556</v>
+      </c>
+      <c r="V280" t="n">
+        <v>320778</v>
+      </c>
+      <c r="W280" t="n">
+        <v>80055</v>
+      </c>
+      <c r="X280" t="n">
+        <v>63322</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>358997</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1240473</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>89998</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>81632</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>6318270</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>36259</v>
+      </c>
+      <c r="C281" t="n">
+        <v>94984</v>
+      </c>
+      <c r="D281" t="n">
+        <v>59131</v>
+      </c>
+      <c r="E281" t="n">
+        <v>178200</v>
+      </c>
+      <c r="F281" t="n">
+        <v>403071</v>
+      </c>
+      <c r="G281" t="n">
+        <v>301251</v>
+      </c>
+      <c r="H281" t="n">
+        <v>229146</v>
+      </c>
+      <c r="I281" t="n">
+        <v>190001</v>
+      </c>
+      <c r="J281" t="n">
+        <v>279892</v>
+      </c>
+      <c r="K281" t="n">
+        <v>193170</v>
+      </c>
+      <c r="L281" t="n">
+        <v>158982</v>
+      </c>
+      <c r="M281" t="n">
+        <v>100151</v>
+      </c>
+      <c r="N281" t="n">
+        <v>416335</v>
+      </c>
+      <c r="O281" t="n">
+        <v>271228</v>
+      </c>
+      <c r="P281" t="n">
+        <v>145253</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>280084</v>
+      </c>
+      <c r="R281" t="n">
+        <v>182406</v>
+      </c>
+      <c r="S281" t="n">
+        <v>127686</v>
+      </c>
+      <c r="T281" t="n">
+        <v>354354</v>
+      </c>
+      <c r="U281" t="n">
+        <v>96096</v>
+      </c>
+      <c r="V281" t="n">
+        <v>322058</v>
+      </c>
+      <c r="W281" t="n">
+        <v>80538</v>
+      </c>
+      <c r="X281" t="n">
+        <v>63572</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>364344</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1241653</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>90148</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>81972</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>6341965</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>36563</v>
+      </c>
+      <c r="C282" t="n">
+        <v>95152</v>
+      </c>
+      <c r="D282" t="n">
+        <v>59423</v>
+      </c>
+      <c r="E282" t="n">
+        <v>179265</v>
+      </c>
+      <c r="F282" t="n">
+        <v>406189</v>
+      </c>
+      <c r="G282" t="n">
+        <v>301606</v>
+      </c>
+      <c r="H282" t="n">
+        <v>230122</v>
+      </c>
+      <c r="I282" t="n">
+        <v>191973</v>
+      </c>
+      <c r="J282" t="n">
+        <v>281635</v>
+      </c>
+      <c r="K282" t="n">
+        <v>193550</v>
+      </c>
+      <c r="L282" t="n">
+        <v>159726</v>
+      </c>
+      <c r="M282" t="n">
+        <v>101102</v>
+      </c>
+      <c r="N282" t="n">
+        <v>419655</v>
+      </c>
+      <c r="O282" t="n">
+        <v>272125</v>
+      </c>
+      <c r="P282" t="n">
+        <v>145794</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>285323</v>
+      </c>
+      <c r="R282" t="n">
+        <v>184259</v>
+      </c>
+      <c r="S282" t="n">
+        <v>128432</v>
+      </c>
+      <c r="T282" t="n">
+        <v>357982</v>
+      </c>
+      <c r="U282" t="n">
+        <v>97132</v>
+      </c>
+      <c r="V282" t="n">
+        <v>326425</v>
+      </c>
+      <c r="W282" t="n">
+        <v>80802</v>
+      </c>
+      <c r="X282" t="n">
+        <v>63899</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>372545</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1250590</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>90386</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>82295</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>6393950</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-02</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>36746</v>
+      </c>
+      <c r="C283" t="n">
+        <v>95388</v>
+      </c>
+      <c r="D283" t="n">
+        <v>59850</v>
+      </c>
+      <c r="E283" t="n">
+        <v>179963</v>
+      </c>
+      <c r="F283" t="n">
+        <v>409417</v>
+      </c>
+      <c r="G283" t="n">
+        <v>301802</v>
+      </c>
+      <c r="H283" t="n">
+        <v>230905</v>
+      </c>
+      <c r="I283" t="n">
+        <v>193825</v>
+      </c>
+      <c r="J283" t="n">
+        <v>283442</v>
+      </c>
+      <c r="K283" t="n">
+        <v>193883</v>
+      </c>
+      <c r="L283" t="n">
+        <v>160540</v>
+      </c>
+      <c r="M283" t="n">
+        <v>102236</v>
+      </c>
+      <c r="N283" t="n">
+        <v>424155</v>
+      </c>
+      <c r="O283" t="n">
+        <v>273126</v>
+      </c>
+      <c r="P283" t="n">
+        <v>146528</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>288546</v>
+      </c>
+      <c r="R283" t="n">
+        <v>185607</v>
+      </c>
+      <c r="S283" t="n">
+        <v>129096</v>
+      </c>
+      <c r="T283" t="n">
+        <v>361397</v>
+      </c>
+      <c r="U283" t="n">
+        <v>97302</v>
+      </c>
+      <c r="V283" t="n">
+        <v>331279</v>
+      </c>
+      <c r="W283" t="n">
+        <v>81322</v>
+      </c>
+      <c r="X283" t="n">
+        <v>64174</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>378621</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1259704</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>90920</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>82651</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>6442425</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-03</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>36899</v>
+      </c>
+      <c r="C284" t="n">
+        <v>95643</v>
+      </c>
+      <c r="D284" t="n">
+        <v>60391</v>
+      </c>
+      <c r="E284" t="n">
+        <v>180842</v>
+      </c>
+      <c r="F284" t="n">
+        <v>412685</v>
+      </c>
+      <c r="G284" t="n">
+        <v>303168</v>
+      </c>
+      <c r="H284" t="n">
+        <v>231426</v>
+      </c>
+      <c r="I284" t="n">
+        <v>195437</v>
+      </c>
+      <c r="J284" t="n">
+        <v>284568</v>
+      </c>
+      <c r="K284" t="n">
+        <v>194320</v>
+      </c>
+      <c r="L284" t="n">
+        <v>161116</v>
+      </c>
+      <c r="M284" t="n">
+        <v>103433</v>
+      </c>
+      <c r="N284" t="n">
+        <v>428790</v>
+      </c>
+      <c r="O284" t="n">
+        <v>273753</v>
+      </c>
+      <c r="P284" t="n">
+        <v>147274</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>293969</v>
+      </c>
+      <c r="R284" t="n">
+        <v>187038</v>
+      </c>
+      <c r="S284" t="n">
+        <v>129825</v>
+      </c>
+      <c r="T284" t="n">
+        <v>365185</v>
+      </c>
+      <c r="U284" t="n">
+        <v>97547</v>
+      </c>
+      <c r="V284" t="n">
+        <v>337003</v>
+      </c>
+      <c r="W284" t="n">
+        <v>81733</v>
+      </c>
+      <c r="X284" t="n">
+        <v>64317</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>383577</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1267912</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>91718</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>82995</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>6492564</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-04</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>37152</v>
+      </c>
+      <c r="C285" t="n">
+        <v>95898</v>
+      </c>
+      <c r="D285" t="n">
+        <v>60751</v>
+      </c>
+      <c r="E285" t="n">
+        <v>181631</v>
+      </c>
+      <c r="F285" t="n">
+        <v>416734</v>
+      </c>
+      <c r="G285" t="n">
+        <v>303868</v>
+      </c>
+      <c r="H285" t="n">
+        <v>232781</v>
+      </c>
+      <c r="I285" t="n">
+        <v>197104</v>
+      </c>
+      <c r="J285" t="n">
+        <v>285824</v>
+      </c>
+      <c r="K285" t="n">
+        <v>194800</v>
+      </c>
+      <c r="L285" t="n">
+        <v>161801</v>
+      </c>
+      <c r="M285" t="n">
+        <v>104727</v>
+      </c>
+      <c r="N285" t="n">
+        <v>433081</v>
+      </c>
+      <c r="O285" t="n">
+        <v>274545</v>
+      </c>
+      <c r="P285" t="n">
+        <v>148003</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>297411</v>
+      </c>
+      <c r="R285" t="n">
+        <v>188132</v>
+      </c>
+      <c r="S285" t="n">
+        <v>130539</v>
+      </c>
+      <c r="T285" t="n">
+        <v>367641</v>
+      </c>
+      <c r="U285" t="n">
+        <v>98035</v>
+      </c>
+      <c r="V285" t="n">
+        <v>342035</v>
+      </c>
+      <c r="W285" t="n">
+        <v>82064</v>
+      </c>
+      <c r="X285" t="n">
+        <v>64685</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>389751</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1276149</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>91793</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>83300</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>6540235</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>37277</v>
+      </c>
+      <c r="C286" t="n">
+        <v>96300</v>
+      </c>
+      <c r="D286" t="n">
+        <v>61053</v>
+      </c>
+      <c r="E286" t="n">
+        <v>182337</v>
+      </c>
+      <c r="F286" t="n">
+        <v>419044</v>
+      </c>
+      <c r="G286" t="n">
+        <v>304443</v>
+      </c>
+      <c r="H286" t="n">
+        <v>233376</v>
+      </c>
+      <c r="I286" t="n">
+        <v>198947</v>
+      </c>
+      <c r="J286" t="n">
+        <v>285971</v>
+      </c>
+      <c r="K286" t="n">
+        <v>195020</v>
+      </c>
+      <c r="L286" t="n">
+        <v>162186</v>
+      </c>
+      <c r="M286" t="n">
+        <v>105223</v>
+      </c>
+      <c r="N286" t="n">
+        <v>438304</v>
+      </c>
+      <c r="O286" t="n">
+        <v>275049</v>
+      </c>
+      <c r="P286" t="n">
+        <v>148712</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>300271</v>
+      </c>
+      <c r="R286" t="n">
+        <v>189650</v>
+      </c>
+      <c r="S286" t="n">
+        <v>130984</v>
+      </c>
+      <c r="T286" t="n">
+        <v>370267</v>
+      </c>
+      <c r="U286" t="n">
+        <v>98035</v>
+      </c>
+      <c r="V286" t="n">
+        <v>346801</v>
+      </c>
+      <c r="W286" t="n">
+        <v>82408</v>
+      </c>
+      <c r="X286" t="n">
+        <v>64905</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>393602</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1285087</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>91854</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>83411</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>6580517</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>37321</v>
+      </c>
+      <c r="C287" t="n">
+        <v>96632</v>
+      </c>
+      <c r="D287" t="n">
+        <v>61177</v>
+      </c>
+      <c r="E287" t="n">
+        <v>182668</v>
+      </c>
+      <c r="F287" t="n">
+        <v>423124</v>
+      </c>
+      <c r="G287" t="n">
+        <v>304640</v>
+      </c>
+      <c r="H287" t="n">
+        <v>233731</v>
+      </c>
+      <c r="I287" t="n">
+        <v>200257</v>
+      </c>
+      <c r="J287" t="n">
+        <v>286044</v>
+      </c>
+      <c r="K287" t="n">
+        <v>195086</v>
+      </c>
+      <c r="L287" t="n">
+        <v>162389</v>
+      </c>
+      <c r="M287" t="n">
+        <v>105246</v>
+      </c>
+      <c r="N287" t="n">
+        <v>441315</v>
+      </c>
+      <c r="O287" t="n">
+        <v>275551</v>
+      </c>
+      <c r="P287" t="n">
+        <v>149385</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>301510</v>
+      </c>
+      <c r="R287" t="n">
+        <v>190415</v>
+      </c>
+      <c r="S287" t="n">
+        <v>131454</v>
+      </c>
+      <c r="T287" t="n">
+        <v>371075</v>
+      </c>
+      <c r="U287" t="n">
+        <v>99023</v>
+      </c>
+      <c r="V287" t="n">
+        <v>349035</v>
+      </c>
+      <c r="W287" t="n">
+        <v>82909</v>
+      </c>
+      <c r="X287" t="n">
+        <v>65015</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>396188</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1287762</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>94451</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>83544</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>6606947</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>37428</v>
+      </c>
+      <c r="C288" t="n">
+        <v>96784</v>
+      </c>
+      <c r="D288" t="n">
+        <v>61393</v>
+      </c>
+      <c r="E288" t="n">
+        <v>182875</v>
+      </c>
+      <c r="F288" t="n">
+        <v>424704</v>
+      </c>
+      <c r="G288" t="n">
+        <v>308273</v>
+      </c>
+      <c r="H288" t="n">
+        <v>234376</v>
+      </c>
+      <c r="I288" t="n">
+        <v>202147</v>
+      </c>
+      <c r="J288" t="n">
+        <v>287245</v>
+      </c>
+      <c r="K288" t="n">
+        <v>195221</v>
+      </c>
+      <c r="L288" t="n">
+        <v>163002</v>
+      </c>
+      <c r="M288" t="n">
+        <v>107235</v>
+      </c>
+      <c r="N288" t="n">
+        <v>442186</v>
+      </c>
+      <c r="O288" t="n">
+        <v>276221</v>
+      </c>
+      <c r="P288" t="n">
+        <v>149989</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>304220</v>
+      </c>
+      <c r="R288" t="n">
+        <v>191161</v>
+      </c>
+      <c r="S288" t="n">
+        <v>132095</v>
+      </c>
+      <c r="T288" t="n">
+        <v>371376</v>
+      </c>
+      <c r="U288" t="n">
+        <v>99304</v>
+      </c>
+      <c r="V288" t="n">
+        <v>350569</v>
+      </c>
+      <c r="W288" t="n">
+        <v>83392</v>
+      </c>
+      <c r="X288" t="n">
+        <v>65084</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>399691</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1288878</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>95174</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>83948</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>6633971</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-08</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>37556</v>
+      </c>
+      <c r="C289" t="n">
+        <v>96973</v>
+      </c>
+      <c r="D289" t="n">
+        <v>61607</v>
+      </c>
+      <c r="E289" t="n">
+        <v>183830</v>
+      </c>
+      <c r="F289" t="n">
+        <v>428034</v>
+      </c>
+      <c r="G289" t="n">
+        <v>309168</v>
+      </c>
+      <c r="H289" t="n">
+        <v>235480</v>
+      </c>
+      <c r="I289" t="n">
+        <v>204565</v>
+      </c>
+      <c r="J289" t="n">
+        <v>288822</v>
+      </c>
+      <c r="K289" t="n">
+        <v>195589</v>
+      </c>
+      <c r="L289" t="n">
+        <v>163764</v>
+      </c>
+      <c r="M289" t="n">
+        <v>108549</v>
+      </c>
+      <c r="N289" t="n">
+        <v>444800</v>
+      </c>
+      <c r="O289" t="n">
+        <v>277020</v>
+      </c>
+      <c r="P289" t="n">
+        <v>150575</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>308811</v>
+      </c>
+      <c r="R289" t="n">
+        <v>192397</v>
+      </c>
+      <c r="S289" t="n">
+        <v>132718</v>
+      </c>
+      <c r="T289" t="n">
+        <v>374753</v>
+      </c>
+      <c r="U289" t="n">
+        <v>100318</v>
+      </c>
+      <c r="V289" t="n">
+        <v>354683</v>
+      </c>
+      <c r="W289" t="n">
+        <v>83959</v>
+      </c>
+      <c r="X289" t="n">
+        <v>65218</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>406003</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1296801</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>95493</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>84281</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>6681767</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-09</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>37672</v>
+      </c>
+      <c r="C290" t="n">
+        <v>97248</v>
+      </c>
+      <c r="D290" t="n">
+        <v>61925</v>
+      </c>
+      <c r="E290" t="n">
+        <v>184268</v>
+      </c>
+      <c r="F290" t="n">
+        <v>431786</v>
+      </c>
+      <c r="G290" t="n">
+        <v>312068</v>
+      </c>
+      <c r="H290" t="n">
+        <v>236322</v>
+      </c>
+      <c r="I290" t="n">
+        <v>206984</v>
+      </c>
+      <c r="J290" t="n">
+        <v>290107</v>
+      </c>
+      <c r="K290" t="n">
+        <v>195958</v>
+      </c>
+      <c r="L290" t="n">
+        <v>164712</v>
+      </c>
+      <c r="M290" t="n">
+        <v>109785</v>
+      </c>
+      <c r="N290" t="n">
+        <v>448880</v>
+      </c>
+      <c r="O290" t="n">
+        <v>278066</v>
+      </c>
+      <c r="P290" t="n">
+        <v>151312</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>313880</v>
+      </c>
+      <c r="R290" t="n">
+        <v>193530</v>
+      </c>
+      <c r="S290" t="n">
+        <v>133336</v>
+      </c>
+      <c r="T290" t="n">
+        <v>378084</v>
+      </c>
+      <c r="U290" t="n">
+        <v>101692</v>
+      </c>
+      <c r="V290" t="n">
+        <v>359544</v>
+      </c>
+      <c r="W290" t="n">
+        <v>84405</v>
+      </c>
+      <c r="X290" t="n">
+        <v>65595</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>411631</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1306585</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>96346</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>84637</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>6736358</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-10</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>37902</v>
+      </c>
+      <c r="C291" t="n">
+        <v>97562</v>
+      </c>
+      <c r="D291" t="n">
+        <v>62221</v>
+      </c>
+      <c r="E291" t="n">
+        <v>185089</v>
+      </c>
+      <c r="F291" t="n">
+        <v>436662</v>
+      </c>
+      <c r="G291" t="n">
+        <v>313761</v>
+      </c>
+      <c r="H291" t="n">
+        <v>237114</v>
+      </c>
+      <c r="I291" t="n">
+        <v>208508</v>
+      </c>
+      <c r="J291" t="n">
+        <v>292282</v>
+      </c>
+      <c r="K291" t="n">
+        <v>196446</v>
+      </c>
+      <c r="L291" t="n">
+        <v>165454</v>
+      </c>
+      <c r="M291" t="n">
+        <v>111335</v>
+      </c>
+      <c r="N291" t="n">
+        <v>453364</v>
+      </c>
+      <c r="O291" t="n">
+        <v>278858</v>
+      </c>
+      <c r="P291" t="n">
+        <v>152073</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>317861</v>
+      </c>
+      <c r="R291" t="n">
+        <v>195118</v>
+      </c>
+      <c r="S291" t="n">
+        <v>133870</v>
+      </c>
+      <c r="T291" t="n">
+        <v>381644</v>
+      </c>
+      <c r="U291" t="n">
+        <v>102836</v>
+      </c>
+      <c r="V291" t="n">
+        <v>363979</v>
+      </c>
+      <c r="W291" t="n">
+        <v>84919</v>
+      </c>
+      <c r="X291" t="n">
+        <v>65974</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>416752</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1316371</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>96990</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>84963</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>6789908</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>38150</v>
+      </c>
+      <c r="C292" t="n">
+        <v>97948</v>
+      </c>
+      <c r="D292" t="n">
+        <v>62764</v>
+      </c>
+      <c r="E292" t="n">
+        <v>185932</v>
+      </c>
+      <c r="F292" t="n">
+        <v>440545</v>
+      </c>
+      <c r="G292" t="n">
+        <v>314674</v>
+      </c>
+      <c r="H292" t="n">
+        <v>237945</v>
+      </c>
+      <c r="I292" t="n">
+        <v>210584</v>
+      </c>
+      <c r="J292" t="n">
+        <v>293418</v>
+      </c>
+      <c r="K292" t="n">
+        <v>196848</v>
+      </c>
+      <c r="L292" t="n">
+        <v>166310</v>
+      </c>
+      <c r="M292" t="n">
+        <v>112876</v>
+      </c>
+      <c r="N292" t="n">
+        <v>459537</v>
+      </c>
+      <c r="O292" t="n">
+        <v>279600</v>
+      </c>
+      <c r="P292" t="n">
+        <v>152962</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>322920</v>
+      </c>
+      <c r="R292" t="n">
+        <v>197063</v>
+      </c>
+      <c r="S292" t="n">
+        <v>134429</v>
+      </c>
+      <c r="T292" t="n">
+        <v>384942</v>
+      </c>
+      <c r="U292" t="n">
+        <v>103355</v>
+      </c>
+      <c r="V292" t="n">
+        <v>369142</v>
+      </c>
+      <c r="W292" t="n">
+        <v>85253</v>
+      </c>
+      <c r="X292" t="n">
+        <v>66221</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>421044</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1325162</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>97562</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>85272</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>6842458</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>38363</v>
+      </c>
+      <c r="C293" t="n">
+        <v>98177</v>
+      </c>
+      <c r="D293" t="n">
+        <v>63042</v>
+      </c>
+      <c r="E293" t="n">
+        <v>186274</v>
+      </c>
+      <c r="F293" t="n">
+        <v>443465</v>
+      </c>
+      <c r="G293" t="n">
+        <v>314674</v>
+      </c>
+      <c r="H293" t="n">
+        <v>238634</v>
+      </c>
+      <c r="I293" t="n">
+        <v>212304</v>
+      </c>
+      <c r="J293" t="n">
+        <v>293418</v>
+      </c>
+      <c r="K293" t="n">
+        <v>197006</v>
+      </c>
+      <c r="L293" t="n">
+        <v>166734</v>
+      </c>
+      <c r="M293" t="n">
+        <v>113298</v>
+      </c>
+      <c r="N293" t="n">
+        <v>464545</v>
+      </c>
+      <c r="O293" t="n">
+        <v>280272</v>
+      </c>
+      <c r="P293" t="n">
+        <v>153556</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>327299</v>
+      </c>
+      <c r="R293" t="n">
+        <v>198426</v>
+      </c>
+      <c r="S293" t="n">
+        <v>134717</v>
+      </c>
+      <c r="T293" t="n">
+        <v>388431</v>
+      </c>
+      <c r="U293" t="n">
+        <v>103916</v>
+      </c>
+      <c r="V293" t="n">
+        <v>372699</v>
+      </c>
+      <c r="W293" t="n">
+        <v>85410</v>
+      </c>
+      <c r="X293" t="n">
+        <v>66407</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>426095</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1333763</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>98472</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>85385</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>6884782</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>38412</v>
+      </c>
+      <c r="C294" t="n">
+        <v>98612</v>
+      </c>
+      <c r="D294" t="n">
+        <v>63313</v>
+      </c>
+      <c r="E294" t="n">
+        <v>186828</v>
+      </c>
+      <c r="F294" t="n">
+        <v>444661</v>
+      </c>
+      <c r="G294" t="n">
+        <v>315936</v>
+      </c>
+      <c r="H294" t="n">
+        <v>239096</v>
+      </c>
+      <c r="I294" t="n">
+        <v>213124</v>
+      </c>
+      <c r="J294" t="n">
+        <v>293418</v>
+      </c>
+      <c r="K294" t="n">
+        <v>197056</v>
+      </c>
+      <c r="L294" t="n">
+        <v>166974</v>
+      </c>
+      <c r="M294" t="n">
+        <v>113981</v>
+      </c>
+      <c r="N294" t="n">
+        <v>468023</v>
+      </c>
+      <c r="O294" t="n">
+        <v>280714</v>
+      </c>
+      <c r="P294" t="n">
+        <v>153649</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>329782</v>
+      </c>
+      <c r="R294" t="n">
+        <v>198684</v>
+      </c>
+      <c r="S294" t="n">
+        <v>134892</v>
+      </c>
+      <c r="T294" t="n">
+        <v>389125</v>
+      </c>
+      <c r="U294" t="n">
+        <v>104829</v>
+      </c>
+      <c r="V294" t="n">
+        <v>376590</v>
+      </c>
+      <c r="W294" t="n">
+        <v>85854</v>
+      </c>
+      <c r="X294" t="n">
+        <v>66454</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>427401</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1334703</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>99151</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>85549</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>6906811</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>38628</v>
+      </c>
+      <c r="C295" t="n">
+        <v>98928</v>
+      </c>
+      <c r="D295" t="n">
+        <v>63601</v>
+      </c>
+      <c r="E295" t="n">
+        <v>187279</v>
+      </c>
+      <c r="F295" t="n">
+        <v>447126</v>
+      </c>
+      <c r="G295" t="n">
+        <v>316681</v>
+      </c>
+      <c r="H295" t="n">
+        <v>240132</v>
+      </c>
+      <c r="I295" t="n">
+        <v>215538</v>
+      </c>
+      <c r="J295" t="n">
+        <v>294282</v>
+      </c>
+      <c r="K295" t="n">
+        <v>197267</v>
+      </c>
+      <c r="L295" t="n">
+        <v>167711</v>
+      </c>
+      <c r="M295" t="n">
+        <v>114631</v>
+      </c>
+      <c r="N295" t="n">
+        <v>469003</v>
+      </c>
+      <c r="O295" t="n">
+        <v>281667</v>
+      </c>
+      <c r="P295" t="n">
+        <v>153917</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>332158</v>
+      </c>
+      <c r="R295" t="n">
+        <v>199046</v>
+      </c>
+      <c r="S295" t="n">
+        <v>135239</v>
+      </c>
+      <c r="T295" t="n">
+        <v>389893</v>
+      </c>
+      <c r="U295" t="n">
+        <v>105388</v>
+      </c>
+      <c r="V295" t="n">
+        <v>378893</v>
+      </c>
+      <c r="W295" t="n">
+        <v>86118</v>
+      </c>
+      <c r="X295" t="n">
+        <v>66515</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>432050</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1337016</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>99753</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>85731</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>6934191</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>38712</v>
+      </c>
+      <c r="C296" t="n">
+        <v>99238</v>
+      </c>
+      <c r="D296" t="n">
+        <v>63989</v>
+      </c>
+      <c r="E296" t="n">
+        <v>187930</v>
+      </c>
+      <c r="F296" t="n">
+        <v>451240</v>
+      </c>
+      <c r="G296" t="n">
+        <v>319989</v>
+      </c>
+      <c r="H296" t="n">
+        <v>240869</v>
+      </c>
+      <c r="I296" t="n">
+        <v>217938</v>
+      </c>
+      <c r="J296" t="n">
+        <v>296190</v>
+      </c>
+      <c r="K296" t="n">
+        <v>197684</v>
+      </c>
+      <c r="L296" t="n">
+        <v>168657</v>
+      </c>
+      <c r="M296" t="n">
+        <v>116612</v>
+      </c>
+      <c r="N296" t="n">
+        <v>473225</v>
+      </c>
+      <c r="O296" t="n">
+        <v>282719</v>
+      </c>
+      <c r="P296" t="n">
+        <v>154734</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>339695</v>
+      </c>
+      <c r="R296" t="n">
+        <v>199780</v>
+      </c>
+      <c r="S296" t="n">
+        <v>135769</v>
+      </c>
+      <c r="T296" t="n">
+        <v>391350</v>
+      </c>
+      <c r="U296" t="n">
+        <v>106643</v>
+      </c>
+      <c r="V296" t="n">
+        <v>382251</v>
+      </c>
+      <c r="W296" t="n">
+        <v>86909</v>
+      </c>
+      <c r="X296" t="n">
+        <v>66574</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>435547</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1341428</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>100371</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>86180</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>6982223</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>38938</v>
+      </c>
+      <c r="C297" t="n">
+        <v>100011</v>
+      </c>
+      <c r="D297" t="n">
+        <v>64303</v>
+      </c>
+      <c r="E297" t="n">
+        <v>188918</v>
+      </c>
+      <c r="F297" t="n">
+        <v>456106</v>
+      </c>
+      <c r="G297" t="n">
+        <v>320685</v>
+      </c>
+      <c r="H297" t="n">
+        <v>241400</v>
+      </c>
+      <c r="I297" t="n">
+        <v>220927</v>
+      </c>
+      <c r="J297" t="n">
+        <v>298211</v>
+      </c>
+      <c r="K297" t="n">
+        <v>198147</v>
+      </c>
+      <c r="L297" t="n">
+        <v>169705</v>
+      </c>
+      <c r="M297" t="n">
+        <v>118003</v>
+      </c>
+      <c r="N297" t="n">
+        <v>477697</v>
+      </c>
+      <c r="O297" t="n">
+        <v>283839</v>
+      </c>
+      <c r="P297" t="n">
+        <v>156122</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>359892</v>
+      </c>
+      <c r="R297" t="n">
+        <v>201851</v>
+      </c>
+      <c r="S297" t="n">
+        <v>136423</v>
+      </c>
+      <c r="T297" t="n">
+        <v>395386</v>
+      </c>
+      <c r="U297" t="n">
+        <v>106920</v>
+      </c>
+      <c r="V297" t="n">
+        <v>388704</v>
+      </c>
+      <c r="W297" t="n">
+        <v>87397</v>
+      </c>
+      <c r="X297" t="n">
+        <v>66977</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>442624</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1341428</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>101148</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>86585</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>7048347</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>39166</v>
+      </c>
+      <c r="C298" t="n">
+        <v>100307</v>
+      </c>
+      <c r="D298" t="n">
+        <v>64549</v>
+      </c>
+      <c r="E298" t="n">
+        <v>189812</v>
+      </c>
+      <c r="F298" t="n">
+        <v>461026</v>
+      </c>
+      <c r="G298" t="n">
+        <v>321891</v>
+      </c>
+      <c r="H298" t="n">
+        <v>242299</v>
+      </c>
+      <c r="I298" t="n">
+        <v>223219</v>
+      </c>
+      <c r="J298" t="n">
+        <v>299447</v>
+      </c>
+      <c r="K298" t="n">
+        <v>198500</v>
+      </c>
+      <c r="L298" t="n">
+        <v>170619</v>
+      </c>
+      <c r="M298" t="n">
+        <v>119079</v>
+      </c>
+      <c r="N298" t="n">
+        <v>483369</v>
+      </c>
+      <c r="O298" t="n">
+        <v>284774</v>
+      </c>
+      <c r="P298" t="n">
+        <v>157396</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>366281</v>
+      </c>
+      <c r="R298" t="n">
+        <v>203497</v>
+      </c>
+      <c r="S298" t="n">
+        <v>137027</v>
+      </c>
+      <c r="T298" t="n">
+        <v>398879</v>
+      </c>
+      <c r="U298" t="n">
+        <v>107476</v>
+      </c>
+      <c r="V298" t="n">
+        <v>394816</v>
+      </c>
+      <c r="W298" t="n">
+        <v>87863</v>
+      </c>
+      <c r="X298" t="n">
+        <v>66977</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>448162</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1361731</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>101706</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>86971</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>7116839</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-18</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>39341</v>
+      </c>
+      <c r="C299" t="n">
+        <v>100619</v>
+      </c>
+      <c r="D299" t="n">
+        <v>64549</v>
+      </c>
+      <c r="E299" t="n">
+        <v>190968</v>
+      </c>
+      <c r="F299" t="n">
+        <v>464083</v>
+      </c>
+      <c r="G299" t="n">
+        <v>322861</v>
+      </c>
+      <c r="H299" t="n">
+        <v>243212</v>
+      </c>
+      <c r="I299" t="n">
+        <v>225358</v>
+      </c>
+      <c r="J299" t="n">
+        <v>300229</v>
+      </c>
+      <c r="K299" t="n">
+        <v>198843</v>
+      </c>
+      <c r="L299" t="n">
+        <v>171490</v>
+      </c>
+      <c r="M299" t="n">
+        <v>120395</v>
+      </c>
+      <c r="N299" t="n">
+        <v>488934</v>
+      </c>
+      <c r="O299" t="n">
+        <v>285632</v>
+      </c>
+      <c r="P299" t="n">
+        <v>158449</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>370775</v>
+      </c>
+      <c r="R299" t="n">
+        <v>205262</v>
+      </c>
+      <c r="S299" t="n">
+        <v>137607</v>
+      </c>
+      <c r="T299" t="n">
+        <v>402480</v>
+      </c>
+      <c r="U299" t="n">
+        <v>108223</v>
+      </c>
+      <c r="V299" t="n">
+        <v>400537</v>
+      </c>
+      <c r="W299" t="n">
+        <v>88410</v>
+      </c>
+      <c r="X299" t="n">
+        <v>67359</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>453322</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1371653</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>101810</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>87295</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>7169696</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>39869</v>
+      </c>
+      <c r="C300" t="n">
+        <v>100978</v>
+      </c>
+      <c r="D300" t="n">
+        <v>65109</v>
+      </c>
+      <c r="E300" t="n">
+        <v>191674</v>
+      </c>
+      <c r="F300" t="n">
+        <v>468003</v>
+      </c>
+      <c r="G300" t="n">
+        <v>323506</v>
+      </c>
+      <c r="H300" t="n">
+        <v>243834</v>
+      </c>
+      <c r="I300" t="n">
+        <v>227245</v>
+      </c>
+      <c r="J300" t="n">
+        <v>300284</v>
+      </c>
+      <c r="K300" t="n">
+        <v>199094</v>
+      </c>
+      <c r="L300" t="n">
+        <v>171959</v>
+      </c>
+      <c r="M300" t="n">
+        <v>121461</v>
+      </c>
+      <c r="N300" t="n">
+        <v>494187</v>
+      </c>
+      <c r="O300" t="n">
+        <v>286130</v>
+      </c>
+      <c r="P300" t="n">
+        <v>159109</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>374349</v>
+      </c>
+      <c r="R300" t="n">
+        <v>207008</v>
+      </c>
+      <c r="S300" t="n">
+        <v>137944</v>
+      </c>
+      <c r="T300" t="n">
+        <v>403660</v>
+      </c>
+      <c r="U300" t="n">
+        <v>108934</v>
+      </c>
+      <c r="V300" t="n">
+        <v>405598</v>
+      </c>
+      <c r="W300" t="n">
+        <v>88822</v>
+      </c>
+      <c r="X300" t="n">
+        <v>67429</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>457335</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1384100</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>103042</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>87478</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>7218141</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>39996</v>
+      </c>
+      <c r="C301" t="n">
+        <v>101285</v>
+      </c>
+      <c r="D301" t="n">
+        <v>65215</v>
+      </c>
+      <c r="E301" t="n">
+        <v>191976</v>
+      </c>
+      <c r="F301" t="n">
+        <v>469660</v>
+      </c>
+      <c r="G301" t="n">
+        <v>323941</v>
+      </c>
+      <c r="H301" t="n">
+        <v>244243</v>
+      </c>
+      <c r="I301" t="n">
+        <v>228741</v>
+      </c>
+      <c r="J301" t="n">
+        <v>300510</v>
+      </c>
+      <c r="K301" t="n">
+        <v>199105</v>
+      </c>
+      <c r="L301" t="n">
+        <v>172251</v>
+      </c>
+      <c r="M301" t="n">
+        <v>121461</v>
+      </c>
+      <c r="N301" t="n">
+        <v>497672</v>
+      </c>
+      <c r="O301" t="n">
+        <v>286616</v>
+      </c>
+      <c r="P301" t="n">
+        <v>159436</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>376009</v>
+      </c>
+      <c r="R301" t="n">
+        <v>207426</v>
+      </c>
+      <c r="S301" t="n">
+        <v>138152</v>
+      </c>
+      <c r="T301" t="n">
+        <v>406820</v>
+      </c>
+      <c r="U301" t="n">
+        <v>108934</v>
+      </c>
+      <c r="V301" t="n">
+        <v>407755</v>
+      </c>
+      <c r="W301" t="n">
+        <v>89047</v>
+      </c>
+      <c r="X301" t="n">
+        <v>67531</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>461244</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1384100</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>103955</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>87478</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>7240559</v>
       </c>
     </row>
   </sheetData>
@@ -25345,7 +27893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC273"/>
+  <dimension ref="A1:AC301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32956,10 +35504,10 @@
         <v>53</v>
       </c>
       <c r="AB83" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AC83" t="n">
-        <v>15698</v>
+        <v>15702</v>
       </c>
     </row>
     <row r="84">
@@ -33684,10 +36232,10 @@
         <v>93</v>
       </c>
       <c r="AB91" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AC91" t="n">
-        <v>22857</v>
+        <v>22863</v>
       </c>
     </row>
     <row r="92">
@@ -33957,10 +36505,10 @@
         <v>127</v>
       </c>
       <c r="AB94" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC94" t="n">
-        <v>25702</v>
+        <v>25705</v>
       </c>
     </row>
     <row r="95">
@@ -34685,10 +37233,10 @@
         <v>186</v>
       </c>
       <c r="AB102" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC102" t="n">
-        <v>34175</v>
+        <v>34177</v>
       </c>
     </row>
     <row r="103">
@@ -50183,7 +52731,7 @@
         <v>8102</v>
       </c>
       <c r="G273" t="n">
-        <v>9487</v>
+        <v>9485</v>
       </c>
       <c r="H273" t="n">
         <v>3867</v>
@@ -50201,7 +52749,7 @@
         <v>4089</v>
       </c>
       <c r="M273" t="n">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="N273" t="n">
         <v>9777</v>
@@ -50225,7 +52773,7 @@
         <v>21974</v>
       </c>
       <c r="U273" t="n">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="V273" t="n">
         <v>6494</v>
@@ -50249,7 +52797,2555 @@
         <v>1148</v>
       </c>
       <c r="AC273" t="n">
-        <v>169261</v>
+        <v>169266</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>714</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2321</v>
+      </c>
+      <c r="D274" t="n">
+        <v>792</v>
+      </c>
+      <c r="E274" t="n">
+        <v>4797</v>
+      </c>
+      <c r="F274" t="n">
+        <v>8123</v>
+      </c>
+      <c r="G274" t="n">
+        <v>9514</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3882</v>
+      </c>
+      <c r="I274" t="n">
+        <v>4149</v>
+      </c>
+      <c r="J274" t="n">
+        <v>6263</v>
+      </c>
+      <c r="K274" t="n">
+        <v>4241</v>
+      </c>
+      <c r="L274" t="n">
+        <v>4097</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1738</v>
+      </c>
+      <c r="N274" t="n">
+        <v>9794</v>
+      </c>
+      <c r="O274" t="n">
+        <v>6875</v>
+      </c>
+      <c r="P274" t="n">
+        <v>3256</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>5879</v>
+      </c>
+      <c r="R274" t="n">
+        <v>8926</v>
+      </c>
+      <c r="S274" t="n">
+        <v>2591</v>
+      </c>
+      <c r="T274" t="n">
+        <v>22028</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2674</v>
+      </c>
+      <c r="V274" t="n">
+        <v>6524</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1522</v>
+      </c>
+      <c r="X274" t="n">
+        <v>721</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3494</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>41276</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>2279</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1151</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>169621</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>715</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D275" t="n">
+        <v>795</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4818</v>
+      </c>
+      <c r="F275" t="n">
+        <v>8143</v>
+      </c>
+      <c r="G275" t="n">
+        <v>9522</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3898</v>
+      </c>
+      <c r="I275" t="n">
+        <v>4172</v>
+      </c>
+      <c r="J275" t="n">
+        <v>6281</v>
+      </c>
+      <c r="K275" t="n">
+        <v>4248</v>
+      </c>
+      <c r="L275" t="n">
+        <v>4107</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1742</v>
+      </c>
+      <c r="N275" t="n">
+        <v>9804</v>
+      </c>
+      <c r="O275" t="n">
+        <v>6880</v>
+      </c>
+      <c r="P275" t="n">
+        <v>3261</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>5930</v>
+      </c>
+      <c r="R275" t="n">
+        <v>8951</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2596</v>
+      </c>
+      <c r="T275" t="n">
+        <v>22141</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2675</v>
+      </c>
+      <c r="V275" t="n">
+        <v>6573</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1529</v>
+      </c>
+      <c r="X275" t="n">
+        <v>722</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3530</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>41455</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>2283</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1153</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>170248</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-25</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>721</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2326</v>
+      </c>
+      <c r="D276" t="n">
+        <v>799</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4826</v>
+      </c>
+      <c r="F276" t="n">
+        <v>8165</v>
+      </c>
+      <c r="G276" t="n">
+        <v>9532</v>
+      </c>
+      <c r="H276" t="n">
+        <v>3906</v>
+      </c>
+      <c r="I276" t="n">
+        <v>4186</v>
+      </c>
+      <c r="J276" t="n">
+        <v>6300</v>
+      </c>
+      <c r="K276" t="n">
+        <v>4256</v>
+      </c>
+      <c r="L276" t="n">
+        <v>4111</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1748</v>
+      </c>
+      <c r="N276" t="n">
+        <v>9858</v>
+      </c>
+      <c r="O276" t="n">
+        <v>6884</v>
+      </c>
+      <c r="P276" t="n">
+        <v>3268</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>5978</v>
+      </c>
+      <c r="R276" t="n">
+        <v>8971</v>
+      </c>
+      <c r="S276" t="n">
+        <v>2603</v>
+      </c>
+      <c r="T276" t="n">
+        <v>22256</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2676</v>
+      </c>
+      <c r="V276" t="n">
+        <v>6639</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1534</v>
+      </c>
+      <c r="X276" t="n">
+        <v>723</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3561</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>41601</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>2288</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>170871</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-26</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>722</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2329</v>
+      </c>
+      <c r="D277" t="n">
+        <v>802</v>
+      </c>
+      <c r="E277" t="n">
+        <v>4856</v>
+      </c>
+      <c r="F277" t="n">
+        <v>8185</v>
+      </c>
+      <c r="G277" t="n">
+        <v>9565</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3910</v>
+      </c>
+      <c r="I277" t="n">
+        <v>4207</v>
+      </c>
+      <c r="J277" t="n">
+        <v>6305</v>
+      </c>
+      <c r="K277" t="n">
+        <v>4263</v>
+      </c>
+      <c r="L277" t="n">
+        <v>4116</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1754</v>
+      </c>
+      <c r="N277" t="n">
+        <v>9904</v>
+      </c>
+      <c r="O277" t="n">
+        <v>6892</v>
+      </c>
+      <c r="P277" t="n">
+        <v>3276</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>6043</v>
+      </c>
+      <c r="R277" t="n">
+        <v>8987</v>
+      </c>
+      <c r="S277" t="n">
+        <v>2608</v>
+      </c>
+      <c r="T277" t="n">
+        <v>22394</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2688</v>
+      </c>
+      <c r="V277" t="n">
+        <v>6686</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1535</v>
+      </c>
+      <c r="X277" t="n">
+        <v>724</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3608</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>41773</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>2292</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1157</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>171581</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-27</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>722</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2331</v>
+      </c>
+      <c r="D278" t="n">
+        <v>805</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4869</v>
+      </c>
+      <c r="F278" t="n">
+        <v>8207</v>
+      </c>
+      <c r="G278" t="n">
+        <v>9598</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3915</v>
+      </c>
+      <c r="I278" t="n">
+        <v>4224</v>
+      </c>
+      <c r="J278" t="n">
+        <v>6339</v>
+      </c>
+      <c r="K278" t="n">
+        <v>4272</v>
+      </c>
+      <c r="L278" t="n">
+        <v>4120</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1757</v>
+      </c>
+      <c r="N278" t="n">
+        <v>9948</v>
+      </c>
+      <c r="O278" t="n">
+        <v>6901</v>
+      </c>
+      <c r="P278" t="n">
+        <v>3283</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>6078</v>
+      </c>
+      <c r="R278" t="n">
+        <v>8999</v>
+      </c>
+      <c r="S278" t="n">
+        <v>2617</v>
+      </c>
+      <c r="T278" t="n">
+        <v>22448</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2695</v>
+      </c>
+      <c r="V278" t="n">
+        <v>6725</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1535</v>
+      </c>
+      <c r="X278" t="n">
+        <v>727</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>41902</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>2296</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>172140</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-28</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>723</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2334</v>
+      </c>
+      <c r="D279" t="n">
+        <v>806</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4876</v>
+      </c>
+      <c r="F279" t="n">
+        <v>8227</v>
+      </c>
+      <c r="G279" t="n">
+        <v>9607</v>
+      </c>
+      <c r="H279" t="n">
+        <v>3920</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4245</v>
+      </c>
+      <c r="J279" t="n">
+        <v>6348</v>
+      </c>
+      <c r="K279" t="n">
+        <v>4279</v>
+      </c>
+      <c r="L279" t="n">
+        <v>4127</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1766</v>
+      </c>
+      <c r="N279" t="n">
+        <v>9990</v>
+      </c>
+      <c r="O279" t="n">
+        <v>6907</v>
+      </c>
+      <c r="P279" t="n">
+        <v>3288</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>6107</v>
+      </c>
+      <c r="R279" t="n">
+        <v>9019</v>
+      </c>
+      <c r="S279" t="n">
+        <v>2622</v>
+      </c>
+      <c r="T279" t="n">
+        <v>22539</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2695</v>
+      </c>
+      <c r="V279" t="n">
+        <v>6768</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1553</v>
+      </c>
+      <c r="X279" t="n">
+        <v>727</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3701</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>42048</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1162</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>172684</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>723</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D280" t="n">
+        <v>806</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4885</v>
+      </c>
+      <c r="F280" t="n">
+        <v>8247</v>
+      </c>
+      <c r="G280" t="n">
+        <v>9607</v>
+      </c>
+      <c r="H280" t="n">
+        <v>3925</v>
+      </c>
+      <c r="I280" t="n">
+        <v>4252</v>
+      </c>
+      <c r="J280" t="n">
+        <v>6349</v>
+      </c>
+      <c r="K280" t="n">
+        <v>4287</v>
+      </c>
+      <c r="L280" t="n">
+        <v>4134</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1769</v>
+      </c>
+      <c r="N280" t="n">
+        <v>10031</v>
+      </c>
+      <c r="O280" t="n">
+        <v>6915</v>
+      </c>
+      <c r="P280" t="n">
+        <v>3292</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>6122</v>
+      </c>
+      <c r="R280" t="n">
+        <v>9030</v>
+      </c>
+      <c r="S280" t="n">
+        <v>2624</v>
+      </c>
+      <c r="T280" t="n">
+        <v>22561</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2699</v>
+      </c>
+      <c r="V280" t="n">
+        <v>6776</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1555</v>
+      </c>
+      <c r="X280" t="n">
+        <v>727</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3721</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>42076</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>2304</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>172917</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>723</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2339</v>
+      </c>
+      <c r="D281" t="n">
+        <v>807</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4894</v>
+      </c>
+      <c r="F281" t="n">
+        <v>8268</v>
+      </c>
+      <c r="G281" t="n">
+        <v>9628</v>
+      </c>
+      <c r="H281" t="n">
+        <v>3930</v>
+      </c>
+      <c r="I281" t="n">
+        <v>4279</v>
+      </c>
+      <c r="J281" t="n">
+        <v>6373</v>
+      </c>
+      <c r="K281" t="n">
+        <v>4296</v>
+      </c>
+      <c r="L281" t="n">
+        <v>4142</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N281" t="n">
+        <v>10041</v>
+      </c>
+      <c r="O281" t="n">
+        <v>6918</v>
+      </c>
+      <c r="P281" t="n">
+        <v>3295</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>6154</v>
+      </c>
+      <c r="R281" t="n">
+        <v>9037</v>
+      </c>
+      <c r="S281" t="n">
+        <v>2634</v>
+      </c>
+      <c r="T281" t="n">
+        <v>22590</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2706</v>
+      </c>
+      <c r="V281" t="n">
+        <v>6813</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1561</v>
+      </c>
+      <c r="X281" t="n">
+        <v>728</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3762</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>42095</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>2308</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1167</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>173268</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>726</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2341</v>
+      </c>
+      <c r="D282" t="n">
+        <v>810</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4896</v>
+      </c>
+      <c r="F282" t="n">
+        <v>8293</v>
+      </c>
+      <c r="G282" t="n">
+        <v>9638</v>
+      </c>
+      <c r="H282" t="n">
+        <v>3939</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4296</v>
+      </c>
+      <c r="J282" t="n">
+        <v>6386</v>
+      </c>
+      <c r="K282" t="n">
+        <v>4305</v>
+      </c>
+      <c r="L282" t="n">
+        <v>4152</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1793</v>
+      </c>
+      <c r="N282" t="n">
+        <v>10051</v>
+      </c>
+      <c r="O282" t="n">
+        <v>6927</v>
+      </c>
+      <c r="P282" t="n">
+        <v>3305</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>6215</v>
+      </c>
+      <c r="R282" t="n">
+        <v>9056</v>
+      </c>
+      <c r="S282" t="n">
+        <v>2644</v>
+      </c>
+      <c r="T282" t="n">
+        <v>22683</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2715</v>
+      </c>
+      <c r="V282" t="n">
+        <v>6900</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1567</v>
+      </c>
+      <c r="X282" t="n">
+        <v>734</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3809</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>42290</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>2312</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>173953</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-02</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>727</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2344</v>
+      </c>
+      <c r="D283" t="n">
+        <v>814</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4912</v>
+      </c>
+      <c r="F283" t="n">
+        <v>8315</v>
+      </c>
+      <c r="G283" t="n">
+        <v>9640</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3955</v>
+      </c>
+      <c r="I283" t="n">
+        <v>4324</v>
+      </c>
+      <c r="J283" t="n">
+        <v>6401</v>
+      </c>
+      <c r="K283" t="n">
+        <v>4313</v>
+      </c>
+      <c r="L283" t="n">
+        <v>4161</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1804</v>
+      </c>
+      <c r="N283" t="n">
+        <v>10121</v>
+      </c>
+      <c r="O283" t="n">
+        <v>6933</v>
+      </c>
+      <c r="P283" t="n">
+        <v>3316</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>6243</v>
+      </c>
+      <c r="R283" t="n">
+        <v>9082</v>
+      </c>
+      <c r="S283" t="n">
+        <v>2650</v>
+      </c>
+      <c r="T283" t="n">
+        <v>22764</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2722</v>
+      </c>
+      <c r="V283" t="n">
+        <v>6973</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1579</v>
+      </c>
+      <c r="X283" t="n">
+        <v>739</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3855</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>42456</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>2316</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>174632</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-03</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>730</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D284" t="n">
+        <v>819</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4932</v>
+      </c>
+      <c r="F284" t="n">
+        <v>8336</v>
+      </c>
+      <c r="G284" t="n">
+        <v>9657</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3962</v>
+      </c>
+      <c r="I284" t="n">
+        <v>4349</v>
+      </c>
+      <c r="J284" t="n">
+        <v>6420</v>
+      </c>
+      <c r="K284" t="n">
+        <v>4322</v>
+      </c>
+      <c r="L284" t="n">
+        <v>4164</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1818</v>
+      </c>
+      <c r="N284" t="n">
+        <v>10187</v>
+      </c>
+      <c r="O284" t="n">
+        <v>6939</v>
+      </c>
+      <c r="P284" t="n">
+        <v>3326</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>6314</v>
+      </c>
+      <c r="R284" t="n">
+        <v>9098</v>
+      </c>
+      <c r="S284" t="n">
+        <v>2658</v>
+      </c>
+      <c r="T284" t="n">
+        <v>22891</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2726</v>
+      </c>
+      <c r="V284" t="n">
+        <v>7043</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1586</v>
+      </c>
+      <c r="X284" t="n">
+        <v>740</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3898</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>42637</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>2320</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1175</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>175393</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-04</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>731</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2349</v>
+      </c>
+      <c r="D285" t="n">
+        <v>823</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4936</v>
+      </c>
+      <c r="F285" t="n">
+        <v>8360</v>
+      </c>
+      <c r="G285" t="n">
+        <v>9683</v>
+      </c>
+      <c r="H285" t="n">
+        <v>3968</v>
+      </c>
+      <c r="I285" t="n">
+        <v>4374</v>
+      </c>
+      <c r="J285" t="n">
+        <v>6438</v>
+      </c>
+      <c r="K285" t="n">
+        <v>4330</v>
+      </c>
+      <c r="L285" t="n">
+        <v>4179</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1827</v>
+      </c>
+      <c r="N285" t="n">
+        <v>10227</v>
+      </c>
+      <c r="O285" t="n">
+        <v>6944</v>
+      </c>
+      <c r="P285" t="n">
+        <v>3338</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>6359</v>
+      </c>
+      <c r="R285" t="n">
+        <v>9119</v>
+      </c>
+      <c r="S285" t="n">
+        <v>2666</v>
+      </c>
+      <c r="T285" t="n">
+        <v>23017</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2736</v>
+      </c>
+      <c r="V285" t="n">
+        <v>7104</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1589</v>
+      </c>
+      <c r="X285" t="n">
+        <v>744</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3939</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>42788</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>2324</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>176071</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>732</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2351</v>
+      </c>
+      <c r="D286" t="n">
+        <v>826</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4946</v>
+      </c>
+      <c r="F286" t="n">
+        <v>8388</v>
+      </c>
+      <c r="G286" t="n">
+        <v>9693</v>
+      </c>
+      <c r="H286" t="n">
+        <v>3978</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4385</v>
+      </c>
+      <c r="J286" t="n">
+        <v>6455</v>
+      </c>
+      <c r="K286" t="n">
+        <v>4335</v>
+      </c>
+      <c r="L286" t="n">
+        <v>4186</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1833</v>
+      </c>
+      <c r="N286" t="n">
+        <v>10283</v>
+      </c>
+      <c r="O286" t="n">
+        <v>6950</v>
+      </c>
+      <c r="P286" t="n">
+        <v>3345</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>6421</v>
+      </c>
+      <c r="R286" t="n">
+        <v>9140</v>
+      </c>
+      <c r="S286" t="n">
+        <v>2673</v>
+      </c>
+      <c r="T286" t="n">
+        <v>23099</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2736</v>
+      </c>
+      <c r="V286" t="n">
+        <v>7166</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1593</v>
+      </c>
+      <c r="X286" t="n">
+        <v>744</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3980</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>42969</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>2329</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1182</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>176718</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>732</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2354</v>
+      </c>
+      <c r="D287" t="n">
+        <v>827</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4951</v>
+      </c>
+      <c r="F287" t="n">
+        <v>8418</v>
+      </c>
+      <c r="G287" t="n">
+        <v>9704</v>
+      </c>
+      <c r="H287" t="n">
+        <v>3985</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4397</v>
+      </c>
+      <c r="J287" t="n">
+        <v>6460</v>
+      </c>
+      <c r="K287" t="n">
+        <v>4339</v>
+      </c>
+      <c r="L287" t="n">
+        <v>4191</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1841</v>
+      </c>
+      <c r="N287" t="n">
+        <v>10336</v>
+      </c>
+      <c r="O287" t="n">
+        <v>6954</v>
+      </c>
+      <c r="P287" t="n">
+        <v>3359</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>6433</v>
+      </c>
+      <c r="R287" t="n">
+        <v>9148</v>
+      </c>
+      <c r="S287" t="n">
+        <v>2680</v>
+      </c>
+      <c r="T287" t="n">
+        <v>23131</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2752</v>
+      </c>
+      <c r="V287" t="n">
+        <v>7183</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1596</v>
+      </c>
+      <c r="X287" t="n">
+        <v>744</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>4011</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>43015</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>2333</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1184</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>177058</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>736</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2357</v>
+      </c>
+      <c r="D288" t="n">
+        <v>831</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4964</v>
+      </c>
+      <c r="F288" t="n">
+        <v>8445</v>
+      </c>
+      <c r="G288" t="n">
+        <v>9737</v>
+      </c>
+      <c r="H288" t="n">
+        <v>4001</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4431</v>
+      </c>
+      <c r="J288" t="n">
+        <v>6480</v>
+      </c>
+      <c r="K288" t="n">
+        <v>4344</v>
+      </c>
+      <c r="L288" t="n">
+        <v>4203</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1852</v>
+      </c>
+      <c r="N288" t="n">
+        <v>10341</v>
+      </c>
+      <c r="O288" t="n">
+        <v>6959</v>
+      </c>
+      <c r="P288" t="n">
+        <v>3367</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>6471</v>
+      </c>
+      <c r="R288" t="n">
+        <v>9170</v>
+      </c>
+      <c r="S288" t="n">
+        <v>2691</v>
+      </c>
+      <c r="T288" t="n">
+        <v>23151</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2764</v>
+      </c>
+      <c r="V288" t="n">
+        <v>7235</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1604</v>
+      </c>
+      <c r="X288" t="n">
+        <v>744</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>4041</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>43040</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>2337</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1187</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>177483</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-08</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>737</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D289" t="n">
+        <v>834</v>
+      </c>
+      <c r="E289" t="n">
+        <v>4969</v>
+      </c>
+      <c r="F289" t="n">
+        <v>8474</v>
+      </c>
+      <c r="G289" t="n">
+        <v>9738</v>
+      </c>
+      <c r="H289" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I289" t="n">
+        <v>4455</v>
+      </c>
+      <c r="J289" t="n">
+        <v>6504</v>
+      </c>
+      <c r="K289" t="n">
+        <v>4349</v>
+      </c>
+      <c r="L289" t="n">
+        <v>4216</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N289" t="n">
+        <v>10345</v>
+      </c>
+      <c r="O289" t="n">
+        <v>6963</v>
+      </c>
+      <c r="P289" t="n">
+        <v>3380</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>6539</v>
+      </c>
+      <c r="R289" t="n">
+        <v>9186</v>
+      </c>
+      <c r="S289" t="n">
+        <v>2695</v>
+      </c>
+      <c r="T289" t="n">
+        <v>23270</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2770</v>
+      </c>
+      <c r="V289" t="n">
+        <v>7316</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1610</v>
+      </c>
+      <c r="X289" t="n">
+        <v>745</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>4132</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>43282</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>2341</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1190</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>178281</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-09</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>742</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D290" t="n">
+        <v>839</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4973</v>
+      </c>
+      <c r="F290" t="n">
+        <v>8502</v>
+      </c>
+      <c r="G290" t="n">
+        <v>9762</v>
+      </c>
+      <c r="H290" t="n">
+        <v>4032</v>
+      </c>
+      <c r="I290" t="n">
+        <v>4485</v>
+      </c>
+      <c r="J290" t="n">
+        <v>6520</v>
+      </c>
+      <c r="K290" t="n">
+        <v>4355</v>
+      </c>
+      <c r="L290" t="n">
+        <v>4222</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1888</v>
+      </c>
+      <c r="N290" t="n">
+        <v>10429</v>
+      </c>
+      <c r="O290" t="n">
+        <v>6972</v>
+      </c>
+      <c r="P290" t="n">
+        <v>3391</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>6608</v>
+      </c>
+      <c r="R290" t="n">
+        <v>9200</v>
+      </c>
+      <c r="S290" t="n">
+        <v>2704</v>
+      </c>
+      <c r="T290" t="n">
+        <v>23430</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2781</v>
+      </c>
+      <c r="V290" t="n">
+        <v>7388</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1617</v>
+      </c>
+      <c r="X290" t="n">
+        <v>749</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>4183</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>43461</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1192</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>179134</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-10</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>744</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2366</v>
+      </c>
+      <c r="D291" t="n">
+        <v>842</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4978</v>
+      </c>
+      <c r="F291" t="n">
+        <v>8531</v>
+      </c>
+      <c r="G291" t="n">
+        <v>9772</v>
+      </c>
+      <c r="H291" t="n">
+        <v>4043</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4514</v>
+      </c>
+      <c r="J291" t="n">
+        <v>6531</v>
+      </c>
+      <c r="K291" t="n">
+        <v>4362</v>
+      </c>
+      <c r="L291" t="n">
+        <v>4233</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1897</v>
+      </c>
+      <c r="N291" t="n">
+        <v>10499</v>
+      </c>
+      <c r="O291" t="n">
+        <v>6980</v>
+      </c>
+      <c r="P291" t="n">
+        <v>3407</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>6653</v>
+      </c>
+      <c r="R291" t="n">
+        <v>9229</v>
+      </c>
+      <c r="S291" t="n">
+        <v>2714</v>
+      </c>
+      <c r="T291" t="n">
+        <v>23546</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2798</v>
+      </c>
+      <c r="V291" t="n">
+        <v>7452</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1628</v>
+      </c>
+      <c r="X291" t="n">
+        <v>753</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>4224</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>43661</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>2351</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1195</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>179903</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>747</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2369</v>
+      </c>
+      <c r="D292" t="n">
+        <v>846</v>
+      </c>
+      <c r="E292" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F292" t="n">
+        <v>8561</v>
+      </c>
+      <c r="G292" t="n">
+        <v>9774</v>
+      </c>
+      <c r="H292" t="n">
+        <v>4051</v>
+      </c>
+      <c r="I292" t="n">
+        <v>4544</v>
+      </c>
+      <c r="J292" t="n">
+        <v>6549</v>
+      </c>
+      <c r="K292" t="n">
+        <v>4368</v>
+      </c>
+      <c r="L292" t="n">
+        <v>4242</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1913</v>
+      </c>
+      <c r="N292" t="n">
+        <v>10565</v>
+      </c>
+      <c r="O292" t="n">
+        <v>6989</v>
+      </c>
+      <c r="P292" t="n">
+        <v>3420</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>6700</v>
+      </c>
+      <c r="R292" t="n">
+        <v>9244</v>
+      </c>
+      <c r="S292" t="n">
+        <v>2720</v>
+      </c>
+      <c r="T292" t="n">
+        <v>23630</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2803</v>
+      </c>
+      <c r="V292" t="n">
+        <v>7513</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1634</v>
+      </c>
+      <c r="X292" t="n">
+        <v>755</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>4284</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>43802</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>2356</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1198</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>180564</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>749</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2372</v>
+      </c>
+      <c r="D293" t="n">
+        <v>849</v>
+      </c>
+      <c r="E293" t="n">
+        <v>4998</v>
+      </c>
+      <c r="F293" t="n">
+        <v>8589</v>
+      </c>
+      <c r="G293" t="n">
+        <v>9774</v>
+      </c>
+      <c r="H293" t="n">
+        <v>4059</v>
+      </c>
+      <c r="I293" t="n">
+        <v>4560</v>
+      </c>
+      <c r="J293" t="n">
+        <v>6549</v>
+      </c>
+      <c r="K293" t="n">
+        <v>4375</v>
+      </c>
+      <c r="L293" t="n">
+        <v>4251</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1931</v>
+      </c>
+      <c r="N293" t="n">
+        <v>10645</v>
+      </c>
+      <c r="O293" t="n">
+        <v>6998</v>
+      </c>
+      <c r="P293" t="n">
+        <v>3430</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>6760</v>
+      </c>
+      <c r="R293" t="n">
+        <v>9271</v>
+      </c>
+      <c r="S293" t="n">
+        <v>2722</v>
+      </c>
+      <c r="T293" t="n">
+        <v>23718</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2803</v>
+      </c>
+      <c r="V293" t="n">
+        <v>7578</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1638</v>
+      </c>
+      <c r="X293" t="n">
+        <v>755</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>4334</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>43971</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>2361</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1201</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>181241</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>750</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2376</v>
+      </c>
+      <c r="D294" t="n">
+        <v>849</v>
+      </c>
+      <c r="E294" t="n">
+        <v>5001</v>
+      </c>
+      <c r="F294" t="n">
+        <v>8610</v>
+      </c>
+      <c r="G294" t="n">
+        <v>9786</v>
+      </c>
+      <c r="H294" t="n">
+        <v>4066</v>
+      </c>
+      <c r="I294" t="n">
+        <v>4571</v>
+      </c>
+      <c r="J294" t="n">
+        <v>6549</v>
+      </c>
+      <c r="K294" t="n">
+        <v>4380</v>
+      </c>
+      <c r="L294" t="n">
+        <v>4259</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1949</v>
+      </c>
+      <c r="N294" t="n">
+        <v>10701</v>
+      </c>
+      <c r="O294" t="n">
+        <v>7003</v>
+      </c>
+      <c r="P294" t="n">
+        <v>3439</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>6764</v>
+      </c>
+      <c r="R294" t="n">
+        <v>9284</v>
+      </c>
+      <c r="S294" t="n">
+        <v>2723</v>
+      </c>
+      <c r="T294" t="n">
+        <v>23722</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2819</v>
+      </c>
+      <c r="V294" t="n">
+        <v>7587</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1642</v>
+      </c>
+      <c r="X294" t="n">
+        <v>755</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>4365</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>44018</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>2365</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1203</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>181536</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>753</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2380</v>
+      </c>
+      <c r="D295" t="n">
+        <v>854</v>
+      </c>
+      <c r="E295" t="n">
+        <v>5011</v>
+      </c>
+      <c r="F295" t="n">
+        <v>8635</v>
+      </c>
+      <c r="G295" t="n">
+        <v>9802</v>
+      </c>
+      <c r="H295" t="n">
+        <v>4086</v>
+      </c>
+      <c r="I295" t="n">
+        <v>4609</v>
+      </c>
+      <c r="J295" t="n">
+        <v>6573</v>
+      </c>
+      <c r="K295" t="n">
+        <v>4386</v>
+      </c>
+      <c r="L295" t="n">
+        <v>4272</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1967</v>
+      </c>
+      <c r="N295" t="n">
+        <v>10711</v>
+      </c>
+      <c r="O295" t="n">
+        <v>7013</v>
+      </c>
+      <c r="P295" t="n">
+        <v>3452</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>6803</v>
+      </c>
+      <c r="R295" t="n">
+        <v>9299</v>
+      </c>
+      <c r="S295" t="n">
+        <v>2735</v>
+      </c>
+      <c r="T295" t="n">
+        <v>23740</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2835</v>
+      </c>
+      <c r="V295" t="n">
+        <v>7681</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1645</v>
+      </c>
+      <c r="X295" t="n">
+        <v>761</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>4420</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>44050</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1206</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>182049</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>755</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D296" t="n">
+        <v>858</v>
+      </c>
+      <c r="E296" t="n">
+        <v>5026</v>
+      </c>
+      <c r="F296" t="n">
+        <v>8665</v>
+      </c>
+      <c r="G296" t="n">
+        <v>9857</v>
+      </c>
+      <c r="H296" t="n">
+        <v>4095</v>
+      </c>
+      <c r="I296" t="n">
+        <v>4630</v>
+      </c>
+      <c r="J296" t="n">
+        <v>6586</v>
+      </c>
+      <c r="K296" t="n">
+        <v>4393</v>
+      </c>
+      <c r="L296" t="n">
+        <v>4282</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1978</v>
+      </c>
+      <c r="N296" t="n">
+        <v>10719</v>
+      </c>
+      <c r="O296" t="n">
+        <v>7018</v>
+      </c>
+      <c r="P296" t="n">
+        <v>3469</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>6919</v>
+      </c>
+      <c r="R296" t="n">
+        <v>9324</v>
+      </c>
+      <c r="S296" t="n">
+        <v>2743</v>
+      </c>
+      <c r="T296" t="n">
+        <v>23887</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2842</v>
+      </c>
+      <c r="V296" t="n">
+        <v>7766</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1655</v>
+      </c>
+      <c r="X296" t="n">
+        <v>764</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>4504</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>44282</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>2374</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1208</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>182983</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>756</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2389</v>
+      </c>
+      <c r="D297" t="n">
+        <v>861</v>
+      </c>
+      <c r="E297" t="n">
+        <v>5036</v>
+      </c>
+      <c r="F297" t="n">
+        <v>8691</v>
+      </c>
+      <c r="G297" t="n">
+        <v>9875</v>
+      </c>
+      <c r="H297" t="n">
+        <v>4107</v>
+      </c>
+      <c r="I297" t="n">
+        <v>4663</v>
+      </c>
+      <c r="J297" t="n">
+        <v>6631</v>
+      </c>
+      <c r="K297" t="n">
+        <v>4401</v>
+      </c>
+      <c r="L297" t="n">
+        <v>4291</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1993</v>
+      </c>
+      <c r="N297" t="n">
+        <v>10855</v>
+      </c>
+      <c r="O297" t="n">
+        <v>7035</v>
+      </c>
+      <c r="P297" t="n">
+        <v>3487</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>7117</v>
+      </c>
+      <c r="R297" t="n">
+        <v>9339</v>
+      </c>
+      <c r="S297" t="n">
+        <v>2749</v>
+      </c>
+      <c r="T297" t="n">
+        <v>24109</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2853</v>
+      </c>
+      <c r="V297" t="n">
+        <v>7862</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1668</v>
+      </c>
+      <c r="X297" t="n">
+        <v>766</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>4517</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>44282</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>2381</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>183924</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>756</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D298" t="n">
+        <v>864</v>
+      </c>
+      <c r="E298" t="n">
+        <v>5049</v>
+      </c>
+      <c r="F298" t="n">
+        <v>8720</v>
+      </c>
+      <c r="G298" t="n">
+        <v>9897</v>
+      </c>
+      <c r="H298" t="n">
+        <v>4123</v>
+      </c>
+      <c r="I298" t="n">
+        <v>4696</v>
+      </c>
+      <c r="J298" t="n">
+        <v>6651</v>
+      </c>
+      <c r="K298" t="n">
+        <v>4408</v>
+      </c>
+      <c r="L298" t="n">
+        <v>4303</v>
+      </c>
+      <c r="M298" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N298" t="n">
+        <v>10933</v>
+      </c>
+      <c r="O298" t="n">
+        <v>7042</v>
+      </c>
+      <c r="P298" t="n">
+        <v>3507</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>7172</v>
+      </c>
+      <c r="R298" t="n">
+        <v>9361</v>
+      </c>
+      <c r="S298" t="n">
+        <v>2755</v>
+      </c>
+      <c r="T298" t="n">
+        <v>24204</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2869</v>
+      </c>
+      <c r="V298" t="n">
+        <v>7944</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1681</v>
+      </c>
+      <c r="X298" t="n">
+        <v>766</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>4598</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>44681</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>2387</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1212</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>184982</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-18</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>757</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2399</v>
+      </c>
+      <c r="D299" t="n">
+        <v>864</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5062</v>
+      </c>
+      <c r="F299" t="n">
+        <v>8748</v>
+      </c>
+      <c r="G299" t="n">
+        <v>9909</v>
+      </c>
+      <c r="H299" t="n">
+        <v>4132</v>
+      </c>
+      <c r="I299" t="n">
+        <v>4727</v>
+      </c>
+      <c r="J299" t="n">
+        <v>6659</v>
+      </c>
+      <c r="K299" t="n">
+        <v>4413</v>
+      </c>
+      <c r="L299" t="n">
+        <v>4316</v>
+      </c>
+      <c r="M299" t="n">
+        <v>2032</v>
+      </c>
+      <c r="N299" t="n">
+        <v>11009</v>
+      </c>
+      <c r="O299" t="n">
+        <v>7051</v>
+      </c>
+      <c r="P299" t="n">
+        <v>3523</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>7213</v>
+      </c>
+      <c r="R299" t="n">
+        <v>9383</v>
+      </c>
+      <c r="S299" t="n">
+        <v>2764</v>
+      </c>
+      <c r="T299" t="n">
+        <v>24351</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2878</v>
+      </c>
+      <c r="V299" t="n">
+        <v>8007</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1689</v>
+      </c>
+      <c r="X299" t="n">
+        <v>772</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>4652</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>44878</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>2394</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1214</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>185796</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>758</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2404</v>
+      </c>
+      <c r="D300" t="n">
+        <v>875</v>
+      </c>
+      <c r="E300" t="n">
+        <v>5076</v>
+      </c>
+      <c r="F300" t="n">
+        <v>8777</v>
+      </c>
+      <c r="G300" t="n">
+        <v>9912</v>
+      </c>
+      <c r="H300" t="n">
+        <v>4138</v>
+      </c>
+      <c r="I300" t="n">
+        <v>4747</v>
+      </c>
+      <c r="J300" t="n">
+        <v>6663</v>
+      </c>
+      <c r="K300" t="n">
+        <v>4420</v>
+      </c>
+      <c r="L300" t="n">
+        <v>4320</v>
+      </c>
+      <c r="M300" t="n">
+        <v>2051</v>
+      </c>
+      <c r="N300" t="n">
+        <v>11093</v>
+      </c>
+      <c r="O300" t="n">
+        <v>7057</v>
+      </c>
+      <c r="P300" t="n">
+        <v>3529</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>7271</v>
+      </c>
+      <c r="R300" t="n">
+        <v>9418</v>
+      </c>
+      <c r="S300" t="n">
+        <v>2765</v>
+      </c>
+      <c r="T300" t="n">
+        <v>24454</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2878</v>
+      </c>
+      <c r="V300" t="n">
+        <v>8072</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1697</v>
+      </c>
+      <c r="X300" t="n">
+        <v>772</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>4668</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>45029</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>2401</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1216</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>186461</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>765</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D301" t="n">
+        <v>875</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5085</v>
+      </c>
+      <c r="F301" t="n">
+        <v>8807</v>
+      </c>
+      <c r="G301" t="n">
+        <v>9916</v>
+      </c>
+      <c r="H301" t="n">
+        <v>4145</v>
+      </c>
+      <c r="I301" t="n">
+        <v>4760</v>
+      </c>
+      <c r="J301" t="n">
+        <v>6668</v>
+      </c>
+      <c r="K301" t="n">
+        <v>4426</v>
+      </c>
+      <c r="L301" t="n">
+        <v>4331</v>
+      </c>
+      <c r="M301" t="n">
+        <v>2051</v>
+      </c>
+      <c r="N301" t="n">
+        <v>11225</v>
+      </c>
+      <c r="O301" t="n">
+        <v>7063</v>
+      </c>
+      <c r="P301" t="n">
+        <v>3539</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>7312</v>
+      </c>
+      <c r="R301" t="n">
+        <v>9435</v>
+      </c>
+      <c r="S301" t="n">
+        <v>2769</v>
+      </c>
+      <c r="T301" t="n">
+        <v>24473</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2878</v>
+      </c>
+      <c r="V301" t="n">
+        <v>8087</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1698</v>
+      </c>
+      <c r="X301" t="n">
+        <v>772</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>4706</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>45029</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>2407</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1216</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>186848</v>
       </c>
     </row>
   </sheetData>
